--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8AA1-1ADD-4527-BE92-BB3E0F005A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF4AA1-951F-4958-A76B-51C333453F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
   <si>
     <t>Datei</t>
   </si>
@@ -350,9 +350,6 @@
     <t>Design-&gt;2</t>
   </si>
   <si>
-    <t>EdgeCases-&gt;2</t>
-  </si>
-  <si>
     <t>Summing of points</t>
   </si>
   <si>
@@ -432,6 +429,48 @@
   </si>
   <si>
     <t>moved definition</t>
+  </si>
+  <si>
+    <t>added input/out...</t>
+  </si>
+  <si>
+    <t>Added api methods</t>
+  </si>
+  <si>
+    <t>updated Automa...</t>
+  </si>
+  <si>
+    <t>src\dc\AutomatonBridge.py</t>
+  </si>
+  <si>
+    <t>Implemented api meth.</t>
+  </si>
+  <si>
+    <t>Made JsonAppS...</t>
+  </si>
+  <si>
+    <t>Made thread-safe</t>
+  </si>
+  <si>
+    <t>Fixed "thread-safe" ...</t>
+  </si>
+  <si>
+    <t>Fixed thread-safe impl.</t>
+  </si>
+  <si>
+    <t>Implemented trans...</t>
+  </si>
+  <si>
+    <t>Testing + lib</t>
+  </si>
+  <si>
+    <t>gui is hard</t>
+  </si>
+  <si>
+    <t>EdgeCases-&gt;3</t>
+  </si>
+  <si>
+    <t>Compiling-</t>
   </si>
 </sst>
 </file>
@@ -652,8 +691,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -671,7 +710,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -733,7 +772,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -882,7 +921,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -941,10 +980,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1188</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>886</c:v>
+                  <c:v>906</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -1020,7 +1059,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1057,7 +1096,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1669,9 +1708,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1709,9 +1748,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1744,9 +1783,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1779,9 +1835,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1957,11 +2030,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S93" sqref="S93"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -1984,7 +2057,7 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M1" s="4"/>
     </row>
@@ -2011,7 +2084,7 @@
         <v>90</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
@@ -2023,10 +2096,10 @@
         <v>88</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -3253,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -3261,10 +3334,12 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
@@ -3296,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -3305,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -3888,10 +3963,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -3934,7 +4009,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -3974,10 +4049,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4017,10 +4092,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4063,19 +4138,22 @@
         <v>23</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" t="s">
         <v>112</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>113</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>114</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>115</v>
       </c>
-      <c r="F50" t="s">
-        <v>116</v>
+      <c r="G50" t="s">
+        <v>99</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50">
@@ -4100,10 +4178,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4143,7 +4221,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>44</v>
@@ -4186,13 +4264,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4222,7 +4300,27 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
+      <c r="A54" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
       <c r="H54" s="8"/>
       <c r="I54">
         <f t="shared" si="4"/>
@@ -4230,7 +4328,7 @@
       </c>
       <c r="J54">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
@@ -4245,7 +4343,27 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
+      <c r="A55" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>34</v>
+      </c>
       <c r="H55" s="8"/>
       <c r="I55">
         <f t="shared" si="4"/>
@@ -4253,7 +4371,7 @@
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
@@ -4268,11 +4386,33 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="H56" s="8"/>
+      <c r="A56" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="I56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
@@ -4291,11 +4431,33 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="7"/>
-      <c r="H57" s="8"/>
+      <c r="A57" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="I57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J57">
         <f t="shared" si="4"/>
@@ -4314,11 +4476,33 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="7"/>
-      <c r="H58" s="8"/>
+      <c r="A58" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>49</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="I58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
@@ -5304,36 +5488,36 @@
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="E101" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="F101" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="G101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G101" s="10" t="s">
-        <v>100</v>
-      </c>
       <c r="H101" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I101" s="10">
         <f>SUM(I3:I69)</f>
-        <v>1188</v>
+        <v>1333</v>
       </c>
       <c r="J101" s="10">
         <f>SUM(J3:J69)</f>
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="K101" s="10">
         <f>SUM(K3:K69)</f>
@@ -5377,10 +5561,15 @@
     <hyperlink ref="A51" r:id="rId23" location="diff-9ae3ffe0889e8ae822cc5d6e5e0b97c0c53c176cf13fa2985fbc09a926ba205c" xr:uid="{A4AACB38-876A-4D45-9828-F123E3FA412E}"/>
     <hyperlink ref="A52" r:id="rId24" location="diff-acc8dd38fd22df5f73d37cc21057624272a3b57ca4a77619f6222bb7324d835b" xr:uid="{3C5D70A8-FC28-4613-AE59-1FB56C4A1C5A}"/>
     <hyperlink ref="A53" r:id="rId25" xr:uid="{3B9A6651-F941-4CD5-8CE7-0EB562E9FFBC}"/>
+    <hyperlink ref="A54" r:id="rId26" location="diff-f6a0595a74bda66d3fe7abd99097fbeeec0b819b4002b5b2e4a16db08dc7449b" xr:uid="{932FB24D-A9D2-4E8F-BBC6-BD72AF390DCB}"/>
+    <hyperlink ref="A55" r:id="rId27" xr:uid="{53FC06BA-E4A2-42E9-B9D4-769C4C5F1D0B}"/>
+    <hyperlink ref="A56" r:id="rId28" location="diff-de34b31f2f5b611f824ebc1e2b8805b0c6047f5991059794dbc665cb75738572" xr:uid="{F49BD2AA-7928-4E5F-A6BD-7897D5E8DCE5}"/>
+    <hyperlink ref="A57" r:id="rId29" location="diff-de34b31f2f5b611f824ebc1e2b8805b0c6047f5991059794dbc665cb75738572" xr:uid="{0FCE6162-5905-4959-AB61-68967ABDAB60}"/>
+    <hyperlink ref="A58" r:id="rId30" location="diff-4b4e5aedbbb65e605b71eff795aafee2e1363ff7b02ea1110d0c29f73854ef9b" xr:uid="{4CAAF2B9-F989-4EE8-B012-3ECBC7D68488}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId26"/>
-  <drawing r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -5392,7 +5581,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF4AA1-951F-4958-A76B-51C333453F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA500B4-DA25-4A8C-BF40-799C6C3E9240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="3105" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="175">
   <si>
     <t>Datei</t>
   </si>
@@ -337,140 +337,263 @@
     <t>Fa4953</t>
   </si>
   <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Design-&gt;2</t>
+  </si>
+  <si>
+    <t>Summing of points</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>Extra Info</t>
+  </si>
+  <si>
+    <t>Linesum</t>
+  </si>
+  <si>
+    <t>Implemented basic ...</t>
+  </si>
+  <si>
+    <t>src\dc\TMAutomaton.py</t>
+  </si>
+  <si>
+    <t>src\dc\TMState.py</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>src\dc\TMTransition.py</t>
+  </si>
+  <si>
+    <t>implemented base ...</t>
+  </si>
+  <si>
+    <t>src\dc\UiBridge.py</t>
+  </si>
+  <si>
+    <t>src\dc\singleton.py</t>
+  </si>
+  <si>
+    <t>not taken into account as</t>
+  </si>
+  <si>
+    <t>singleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is not </t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>updated ui bridge</t>
+  </si>
+  <si>
+    <t>added error h...</t>
+  </si>
+  <si>
+    <t>added an end s...</t>
+  </si>
+  <si>
+    <t>moved definition</t>
+  </si>
+  <si>
+    <t>added input/out...</t>
+  </si>
+  <si>
+    <t>Added api methods</t>
+  </si>
+  <si>
+    <t>updated Automa...</t>
+  </si>
+  <si>
+    <t>src\dc\AutomatonBridge.py</t>
+  </si>
+  <si>
+    <t>Implemented api meth.</t>
+  </si>
+  <si>
+    <t>Made JsonAppS...</t>
+  </si>
+  <si>
+    <t>Made thread-safe</t>
+  </si>
+  <si>
+    <t>Fixed "thread-safe" ...</t>
+  </si>
+  <si>
+    <t>Fixed thread-safe impl.</t>
+  </si>
+  <si>
+    <t>Implemented trans...</t>
+  </si>
+  <si>
+    <t>Testing + lib</t>
+  </si>
+  <si>
+    <t>gui is hard</t>
+  </si>
+  <si>
+    <t>EdgeCases-&gt;3</t>
+  </si>
+  <si>
+    <t>Compiling-</t>
+  </si>
+  <si>
+    <t>Condition Movement, ...</t>
+  </si>
+  <si>
     <t>Grade 
-(1-5)</t>
-  </si>
-  <si>
-    <t>Programmer</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Design-&gt;2</t>
-  </si>
-  <si>
-    <t>Summing of points</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>Extra Info</t>
-  </si>
-  <si>
-    <t>Linesum</t>
-  </si>
-  <si>
-    <t>?????1</t>
-  </si>
-  <si>
-    <t>?????2</t>
-  </si>
-  <si>
-    <t>Implemented basic ...</t>
-  </si>
-  <si>
-    <t>src\dc\TMAutomaton.py</t>
-  </si>
-  <si>
-    <t>src\dc\TMState.py</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>src\dc\TMTransition.py</t>
-  </si>
-  <si>
-    <t>implemented base ...</t>
-  </si>
-  <si>
-    <t>src\dc\UiBridge.py</t>
-  </si>
-  <si>
-    <t>src\dc\singleton.py</t>
-  </si>
-  <si>
-    <t>not taken into account as</t>
-  </si>
-  <si>
-    <t>singleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is not </t>
-  </si>
-  <si>
-    <t>needed</t>
-  </si>
-  <si>
-    <t>updated ui bridge</t>
-  </si>
-  <si>
-    <t>added error h...</t>
-  </si>
-  <si>
-    <t>added an end s...</t>
-  </si>
-  <si>
-    <t>moved definition</t>
-  </si>
-  <si>
-    <t>added input/out...</t>
-  </si>
-  <si>
-    <t>Added api methods</t>
-  </si>
-  <si>
-    <t>updated Automa...</t>
-  </si>
-  <si>
-    <t>src\dc\AutomatonBridge.py</t>
-  </si>
-  <si>
-    <t>Implemented api meth.</t>
-  </si>
-  <si>
-    <t>Made JsonAppS...</t>
-  </si>
-  <si>
-    <t>Made thread-safe</t>
-  </si>
-  <si>
-    <t>Fixed "thread-safe" ...</t>
-  </si>
-  <si>
-    <t>Fixed thread-safe impl.</t>
-  </si>
-  <si>
-    <t>Implemented trans...</t>
-  </si>
-  <si>
-    <t>Testing + lib</t>
-  </si>
-  <si>
-    <t>gui is hard</t>
-  </si>
-  <si>
-    <t>EdgeCases-&gt;3</t>
-  </si>
-  <si>
-    <t>Compiling-</t>
+(1-3)</t>
+  </si>
+  <si>
+    <t>TheCodeJak</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Multiple commits</t>
+  </si>
+  <si>
+    <t>Solved background ...</t>
+  </si>
+  <si>
+    <t>fixes</t>
+  </si>
+  <si>
+    <t>This is unfair</t>
+  </si>
+  <si>
+    <t>inline 50%</t>
+  </si>
+  <si>
+    <t>SOOO unfair</t>
+  </si>
+  <si>
+    <t>added wip simulatio...</t>
+  </si>
+  <si>
+    <t>src\dc\automatonProvider.py</t>
+  </si>
+  <si>
+    <t>src\dc\simulationLoader.py</t>
+  </si>
+  <si>
+    <t>Fixed animation pro...</t>
+  </si>
+  <si>
+    <t>style files</t>
+  </si>
+  <si>
+    <t>count again)</t>
+  </si>
+  <si>
+    <t>main.py and others</t>
+  </si>
+  <si>
+    <t>Implemented a few ...</t>
+  </si>
+  <si>
+    <t>Fixed everything ...</t>
+  </si>
+  <si>
+    <t>src\dc\gui\_panels.py</t>
+  </si>
+  <si>
+    <t>added settings panel cls</t>
+  </si>
+  <si>
+    <t>added serializat...</t>
+  </si>
+  <si>
+    <t>added docum...</t>
+  </si>
+  <si>
+    <t>Integrated gui-ja...</t>
+  </si>
+  <si>
+    <t>Update gui.py</t>
+  </si>
+  <si>
+    <t>gui is hard (idk)</t>
+  </si>
+  <si>
+    <t>Added author, ...</t>
+  </si>
+  <si>
+    <t>Implemented anima...</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>Added automatic assign...</t>
+  </si>
+  <si>
+    <t>Implemented abstr...</t>
+  </si>
+  <si>
+    <t>Created th and st...</t>
+  </si>
+  <si>
+    <t>in md 100%</t>
+  </si>
+  <si>
+    <t>style colors</t>
+  </si>
+  <si>
+    <t>(themes wont</t>
+  </si>
+  <si>
+    <t>Implemented all col...</t>
+  </si>
+  <si>
+    <t>Implemented Th...</t>
+  </si>
+  <si>
+    <t>config.py and main.py</t>
+  </si>
+  <si>
+    <t>src\dc\__init__.py</t>
+  </si>
+  <si>
+    <t>changes to bas...</t>
+  </si>
+  <si>
+    <t>Fixed backgro...</t>
+  </si>
+  <si>
+    <t>gui\__init__.py and main.py</t>
+  </si>
+  <si>
+    <t>dc\gui\_grids.py</t>
+  </si>
+  <si>
+    <t>fixed background cache</t>
   </si>
 </sst>
 </file>
@@ -660,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -689,6 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -965,10 +1089,10 @@
                   <c:v>Fa4953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>?????1</c:v>
+                  <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>?????2</c:v>
+                  <c:v>?????</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -980,16 +1104,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1333</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>906</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2030,8 +2154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J63" sqref="I62:J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M1" s="4"/>
     </row>
@@ -2075,16 +2199,16 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>15</v>
@@ -2096,10 +2220,10 @@
         <v>88</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2641,7 +2765,7 @@
         <v>34</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
@@ -2686,7 +2810,7 @@
         <v>34</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
@@ -2731,7 +2855,7 @@
         <v>34</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
@@ -3335,7 +3459,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -3380,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -3963,10 +4087,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4009,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4049,10 +4173,10 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4092,10 +4216,10 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4138,22 +4262,22 @@
         <v>23</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" t="s">
         <v>111</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
         <v>112</v>
       </c>
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" t="s">
-        <v>115</v>
-      </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50">
@@ -4178,10 +4302,10 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -4221,7 +4345,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>44</v>
@@ -4264,13 +4388,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -4301,13 +4425,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -4344,13 +4468,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -4387,13 +4511,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -4408,7 +4532,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
@@ -4432,13 +4556,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -4477,7 +4601,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>66</v>
@@ -4498,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -4521,8 +4645,30 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="H59" s="8"/>
+      <c r="A59" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>197</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4537,18 +4683,38 @@
       </c>
       <c r="L59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="M59" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
       <c r="H60" s="8"/>
       <c r="I60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J60">
         <f t="shared" si="4"/>
@@ -4567,7 +4733,27 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>34</v>
+      </c>
       <c r="H61" s="8"/>
       <c r="I61">
         <f t="shared" si="4"/>
@@ -4575,7 +4761,7 @@
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
@@ -4590,11 +4776,33 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="H62" s="8"/>
+      <c r="A62" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="I62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
@@ -4613,15 +4821,37 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="H63" s="8"/>
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
@@ -4636,7 +4866,27 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="7"/>
+      <c r="A64" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
       <c r="H64" s="8"/>
       <c r="I64">
         <f t="shared" si="4"/>
@@ -4644,7 +4894,7 @@
       </c>
       <c r="J64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
@@ -4658,8 +4908,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65">
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>34</v>
+      </c>
       <c r="H65" s="8"/>
       <c r="I65">
         <f t="shared" si="4"/>
@@ -4667,7 +4937,7 @@
       </c>
       <c r="J65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
@@ -4681,35 +4951,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <f>26 + 23 + 3</f>
+        <v>52</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
       <c r="H66" s="8"/>
       <c r="I66">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MAX(0, IF($G66=I$2, $D66*$E66, 0))</f>
+        <v>52</v>
       </c>
       <c r="J66">
-        <f t="shared" si="4"/>
+        <f>MAX(0, IF($G66=J$2, $D66*$E66, 0))</f>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" si="4"/>
+        <f>MAX(0, IF($G66=K$2, $D66*$E66, 0))</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="4"/>
+        <f>MAX(0, IF($G66=L$2, $D66*$E66, 0))</f>
         <v>0</v>
       </c>
       <c r="M66" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="H67" s="8"/>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <f>102 + 103</f>
+        <v>205</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="I67">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MAX(0, IF($G67=I$2, $D67*$E67, 0))</f>
+        <v>410</v>
       </c>
       <c r="J67">
         <f t="shared" si="4"/>
@@ -4727,35 +5041,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="H68" s="8"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <f>30 + 22 + 10</f>
+        <v>62</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="I68">
-        <f t="shared" ref="I68:L83" si="5">MAX(0, IF($G68=I$2, $D68*$E68, 0))</f>
-        <v>0</v>
+        <f>MAX(0, IF($G68=I$2, $D68*$E68, 0))</f>
+        <v>124</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f>MAX(0, IF($G68=J$2, $D68*$E68, 0))</f>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f>MAX(0, IF($G68=K$2, $D68*$E68, 0))</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
+        <f>MAX(0, IF($G68=L$2, $D68*$E68, 0))</f>
         <v>0</v>
       </c>
       <c r="M68" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="H69" s="8"/>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" t="s">
+        <v>27</v>
+      </c>
+      <c r="D69">
+        <v>46</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="I69">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="I68:L83" si="5">MAX(0, IF($G69=I$2, $D69*$E69, 0))</f>
+        <v>46</v>
       </c>
       <c r="J69">
         <f t="shared" si="5"/>
@@ -4773,12 +5132,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70">
+        <v>19</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
       <c r="H70" s="8"/>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J70">
         <f t="shared" si="5"/>
@@ -4796,12 +5175,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="7"/>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71">
+        <v>31</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
       <c r="H71" s="8"/>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J71">
         <f t="shared" si="5"/>
@@ -4819,8 +5218,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="7"/>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
       <c r="H72" s="8"/>
       <c r="I72">
         <f t="shared" si="5"/>
@@ -4828,7 +5247,7 @@
       </c>
       <c r="J72">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K72">
         <f t="shared" si="5"/>
@@ -4842,8 +5261,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
       <c r="H73" s="8"/>
       <c r="I73">
         <f t="shared" si="5"/>
@@ -4851,7 +5290,7 @@
       </c>
       <c r="J73">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K73">
         <f t="shared" si="5"/>
@@ -4865,8 +5304,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
       <c r="H74" s="8"/>
       <c r="I74">
         <f t="shared" si="5"/>
@@ -4888,9 +5347,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="H75" s="8"/>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75">
+        <f>107 - 17</f>
+        <v>90</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>133</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="I75">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4905,18 +5387,38 @@
       </c>
       <c r="L75">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="M75" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
       <c r="H76" s="8"/>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J76">
         <f t="shared" si="5"/>
@@ -4934,12 +5436,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77">
+        <v>26</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
       <c r="H77" s="8"/>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J77">
         <f t="shared" si="5"/>
@@ -4957,12 +5479,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78">
+        <v>28</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
       <c r="H78" s="8"/>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J78">
         <f t="shared" si="5"/>
@@ -4980,12 +5522,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="7"/>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
       <c r="H79" s="8"/>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J79">
         <f t="shared" si="5"/>
@@ -5003,8 +5565,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
       <c r="H80" s="8"/>
       <c r="I80">
         <f t="shared" si="5"/>
@@ -5026,12 +5608,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="H81" s="8"/>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81">
+        <f>8 * 9</f>
+        <v>72</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J81">
         <f t="shared" si="5"/>
@@ -5049,12 +5654,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82">
+        <v>28</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
       <c r="H82" s="8"/>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J82">
         <f t="shared" si="5"/>
@@ -5072,12 +5697,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83">
+        <v>118</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
       <c r="H83" s="8"/>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="J83">
         <f t="shared" si="5"/>
@@ -5095,12 +5740,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
       <c r="H84" s="8"/>
       <c r="I84">
         <f t="shared" ref="I84:L99" si="6">MAX(0, IF($G84=I$2, $D84*$E84, 0))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
@@ -5118,8 +5783,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="7"/>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>35</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s">
+        <v>34</v>
+      </c>
       <c r="H85" s="8"/>
       <c r="I85">
         <f t="shared" si="6"/>
@@ -5127,7 +5812,7 @@
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K85">
         <f t="shared" si="6"/>
@@ -5141,12 +5826,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="7"/>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>159</v>
+      </c>
+      <c r="D86">
+        <v>63</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
       <c r="H86" s="8"/>
       <c r="I86">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
@@ -5164,12 +5869,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
       <c r="H87" s="8"/>
       <c r="I87">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
@@ -5187,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="H88" s="8"/>
       <c r="I88">
@@ -5210,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="H89" s="8"/>
       <c r="I89">
@@ -5233,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="H90" s="8"/>
       <c r="I90">
@@ -5256,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="H91" s="8"/>
       <c r="I91">
@@ -5279,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="H92" s="8"/>
       <c r="I92">
@@ -5302,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="H93" s="8"/>
       <c r="I93">
@@ -5325,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="H94" s="8"/>
       <c r="I94">
@@ -5348,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="H95" s="8"/>
       <c r="I95">
@@ -5371,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="H96" s="8"/>
       <c r="I96">
@@ -5488,46 +6213,47 @@
     </row>
     <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="C101" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="D101" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="E101" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="F101" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="G101" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G101" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="H101" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I101" s="10">
-        <f>SUM(I3:I69)</f>
-        <v>1333</v>
+        <f>SUM(I$3:I$100)</f>
+        <v>2600</v>
       </c>
       <c r="J101" s="10">
-        <f>SUM(J3:J69)</f>
-        <v>906</v>
+        <f>SUM(J$3:J$100)</f>
+        <v>1258</v>
       </c>
       <c r="K101" s="10">
-        <f>SUM(K3:K69)</f>
+        <f>SUM(K$3:K$100)</f>
         <v>316</v>
       </c>
       <c r="L101" s="10">
-        <f>SUM(L3:L69)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="11">
+        <f>SUM(L$3:L$100)</f>
+        <v>574</v>
+      </c>
+      <c r="M101" s="10">
+        <f>SUM(M$3:M$100)</f>
         <v>0</v>
       </c>
     </row>
@@ -5566,10 +6292,29 @@
     <hyperlink ref="A56" r:id="rId28" location="diff-de34b31f2f5b611f824ebc1e2b8805b0c6047f5991059794dbc665cb75738572" xr:uid="{F49BD2AA-7928-4E5F-A6BD-7897D5E8DCE5}"/>
     <hyperlink ref="A57" r:id="rId29" location="diff-de34b31f2f5b611f824ebc1e2b8805b0c6047f5991059794dbc665cb75738572" xr:uid="{0FCE6162-5905-4959-AB61-68967ABDAB60}"/>
     <hyperlink ref="A58" r:id="rId30" location="diff-4b4e5aedbbb65e605b71eff795aafee2e1363ff7b02ea1110d0c29f73854ef9b" xr:uid="{4CAAF2B9-F989-4EE8-B012-3ECBC7D68488}"/>
+    <hyperlink ref="A59" r:id="rId31" xr:uid="{F2945EE3-C3DB-4F62-8FA5-EDB32C442299}"/>
+    <hyperlink ref="A62" r:id="rId32" xr:uid="{033EE9B5-7B5C-4EC8-A3B3-CA4BB757B601}"/>
+    <hyperlink ref="A64" r:id="rId33" location="diff-238355d8264ccb94e06a4ddfcd20ec081a3aff7f3338ab3bdeb1d706a9a682db" xr:uid="{865A38C6-0786-486C-8CD1-21DE9859FD2E}"/>
+    <hyperlink ref="A66" r:id="rId34" xr:uid="{2A5ACD16-55FF-4EF7-B38B-87E5F7630BD3}"/>
+    <hyperlink ref="A69" r:id="rId35" xr:uid="{5B338969-DD40-4105-A28D-AE6A27867E2D}"/>
+    <hyperlink ref="A70" r:id="rId36" xr:uid="{E86949A2-FBFF-4BC8-A8CD-B2883516F624}"/>
+    <hyperlink ref="A72" r:id="rId37" xr:uid="{F45FF930-E4FB-4DDD-A16E-2E52DB05309E}"/>
+    <hyperlink ref="A74" r:id="rId38" xr:uid="{BD671DC2-A14D-4310-B3B0-A1F80EB422D5}"/>
+    <hyperlink ref="A75" r:id="rId39" xr:uid="{63C6309F-ECA8-4FCC-88E0-AADDCA740D75}"/>
+    <hyperlink ref="B75" r:id="rId40" xr:uid="{924DFD50-A667-4CAA-BF1E-A250E044D5ED}"/>
+    <hyperlink ref="A76" r:id="rId41" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{FC9BFA9B-F84F-4561-B302-CF28A3F2B84B}"/>
+    <hyperlink ref="A77" r:id="rId42" xr:uid="{A788F553-D9D0-44D7-B1CF-455B97ECE86B}"/>
+    <hyperlink ref="A78" r:id="rId43" location="diff-f992ea86b64d9658669b260a9ba54638567dfcece5ab481a24daa756980aaaba" xr:uid="{1028E990-D905-4413-88B5-2869FB654844}"/>
+    <hyperlink ref="A79" r:id="rId44" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{A5D01E51-812E-472C-96A5-111830107489}"/>
+    <hyperlink ref="A80" r:id="rId45" location="diff-e3bac435a7b5ddcfb569ca4b5aff8c38ff0227b76fcf3e671a6765f413475662" xr:uid="{7DC34BD7-6CE3-4E06-947E-718BF39CA354}"/>
+    <hyperlink ref="A81" r:id="rId46" location="diff-db9fecdcf3b91791d25ad0a51f014de7526055c55c2c653c2f9599d039d16b59" xr:uid="{CFBAAA7F-58B4-424B-9280-8A655DB1462B}"/>
+    <hyperlink ref="A82" r:id="rId47" xr:uid="{FD8FC4C2-1E96-4E45-A283-7D9512F6D15C}"/>
+    <hyperlink ref="A85" r:id="rId48" location="diff-5dc1f67ea74ac3807217f02723fcf024e8ab6562a67610b66de8f57f0d5ef59e" xr:uid="{9C076EAC-7F1E-4D1E-A1F1-2F6F43DB3E73}"/>
+    <hyperlink ref="A86" r:id="rId49" location="diff-f992ea86b64d9658669b260a9ba54638567dfcece5ab481a24daa756980aaaba" xr:uid="{5CCA0DDD-61E4-4E27-880D-24B33E1D1394}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId31"/>
-  <drawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId50"/>
+  <drawing r:id="rId51"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1038D8B-5982-452B-AFF7-11D238260D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2E9CD-6F64-4BBA-AE7C-6E22BA90A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -847,17 +847,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1289,6 +1289,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -4302,6 +4309,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-CDBB-40FF-A831-DB8431ED0AC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4321,6 +4333,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CDBB-40FF-A831-DB8431ED0AC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4340,6 +4357,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-CDBB-40FF-A831-DB8431ED0AC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4359,6 +4381,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CDBB-40FF-A831-DB8431ED0AC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4378,6 +4405,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-CDBB-40FF-A831-DB8431ED0AC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -4413,7 +4445,7 @@
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4454,7 +4486,7 @@
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4495,7 +4527,7 @@
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4536,7 +4568,7 @@
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4577,7 +4609,7 @@
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4585,12 +4617,19 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -7976,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S236" sqref="S236"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7993,12 +8032,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -8090,7 +8129,7 @@
       <c r="M3" s="8">
         <v>0</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8134,7 +8173,7 @@
       <c r="M4" s="8">
         <v>0</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8178,7 +8217,7 @@
       <c r="M5" s="8">
         <v>0</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8222,7 +8261,7 @@
       <c r="M6" s="8">
         <v>0</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -8266,7 +8305,7 @@
       <c r="M7" s="8">
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8310,7 +8349,7 @@
       <c r="M8" s="8">
         <v>0</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -8354,7 +8393,7 @@
       <c r="M9" s="8">
         <v>0</v>
       </c>
-      <c r="N9" s="17"/>
+      <c r="N9" s="15"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8398,7 +8437,7 @@
       <c r="M10" s="8">
         <v>0</v>
       </c>
-      <c r="N10" s="17"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -8442,7 +8481,7 @@
       <c r="M11" s="8">
         <v>0</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="15"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -8486,7 +8525,7 @@
       <c r="M12" s="8">
         <v>0</v>
       </c>
-      <c r="N12" s="17"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8530,7 +8569,7 @@
       <c r="M13" s="8">
         <v>0</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -8574,7 +8613,7 @@
       <c r="M14" s="8">
         <v>0</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
@@ -8620,7 +8659,7 @@
       <c r="M15" s="8">
         <v>0</v>
       </c>
-      <c r="N15" s="17"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -8666,7 +8705,7 @@
       <c r="M16" s="8">
         <v>0</v>
       </c>
-      <c r="N16" s="17"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -8712,7 +8751,7 @@
       <c r="M17" s="8">
         <v>0</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -8756,7 +8795,7 @@
       <c r="M18" s="8">
         <v>0</v>
       </c>
-      <c r="N18" s="17"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -8800,7 +8839,7 @@
       <c r="M19" s="8">
         <v>0</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -8844,7 +8883,7 @@
       <c r="M20" s="8">
         <v>0</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="15"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -8888,7 +8927,7 @@
       <c r="M21" s="8">
         <v>0</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -8932,7 +8971,7 @@
       <c r="M22" s="8">
         <v>0</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="15"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8976,7 +9015,7 @@
       <c r="M23" s="8">
         <v>0</v>
       </c>
-      <c r="N23" s="17"/>
+      <c r="N23" s="15"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -9020,7 +9059,7 @@
       <c r="M24" s="8">
         <v>0</v>
       </c>
-      <c r="N24" s="17"/>
+      <c r="N24" s="15"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -9064,7 +9103,7 @@
       <c r="M25" s="8">
         <v>0</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="15"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9108,7 +9147,7 @@
       <c r="M26" s="8">
         <v>0</v>
       </c>
-      <c r="N26" s="17"/>
+      <c r="N26" s="15"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -9152,7 +9191,7 @@
       <c r="M27" s="8">
         <v>0</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="15"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -9196,7 +9235,7 @@
       <c r="M28" s="8">
         <v>0</v>
       </c>
-      <c r="N28" s="17"/>
+      <c r="N28" s="15"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
@@ -9240,7 +9279,7 @@
       <c r="M29" s="8">
         <v>0</v>
       </c>
-      <c r="N29" s="17"/>
+      <c r="N29" s="15"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -9284,7 +9323,7 @@
       <c r="M30" s="8">
         <v>0</v>
       </c>
-      <c r="N30" s="17"/>
+      <c r="N30" s="15"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -9330,7 +9369,7 @@
       <c r="M31" s="8">
         <v>0</v>
       </c>
-      <c r="N31" s="17"/>
+      <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -9376,7 +9415,7 @@
       <c r="M32" s="8">
         <v>0</v>
       </c>
-      <c r="N32" s="17"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -9420,7 +9459,7 @@
       <c r="M33" s="8">
         <v>0</v>
       </c>
-      <c r="N33" s="17"/>
+      <c r="N33" s="15"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -9464,7 +9503,7 @@
       <c r="M34" s="8">
         <v>0</v>
       </c>
-      <c r="N34" s="17"/>
+      <c r="N34" s="15"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
@@ -9508,7 +9547,7 @@
       <c r="M35" s="8">
         <v>0</v>
       </c>
-      <c r="N35" s="17"/>
+      <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -9552,7 +9591,7 @@
       <c r="M36" s="8">
         <v>0</v>
       </c>
-      <c r="N36" s="17"/>
+      <c r="N36" s="15"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -9596,7 +9635,7 @@
       <c r="M37" s="8">
         <v>0</v>
       </c>
-      <c r="N37" s="17"/>
+      <c r="N37" s="15"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
@@ -9640,7 +9679,7 @@
       <c r="M38" s="8">
         <v>0</v>
       </c>
-      <c r="N38" s="17"/>
+      <c r="N38" s="15"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -9684,7 +9723,7 @@
       <c r="M39" s="8">
         <v>0</v>
       </c>
-      <c r="N39" s="17"/>
+      <c r="N39" s="15"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -9728,7 +9767,7 @@
       <c r="M40" s="8">
         <v>0</v>
       </c>
-      <c r="N40" s="17"/>
+      <c r="N40" s="15"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
@@ -9772,7 +9811,7 @@
       <c r="M41" s="8">
         <v>0</v>
       </c>
-      <c r="N41" s="17"/>
+      <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
@@ -9816,7 +9855,7 @@
       <c r="M42" s="8">
         <v>0</v>
       </c>
-      <c r="N42" s="17"/>
+      <c r="N42" s="15"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -9860,7 +9899,7 @@
       <c r="M43" s="8">
         <v>0</v>
       </c>
-      <c r="N43" s="17"/>
+      <c r="N43" s="15"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
@@ -9904,7 +9943,7 @@
       <c r="M44" s="8">
         <v>0</v>
       </c>
-      <c r="N44" s="17"/>
+      <c r="N44" s="15"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -9948,7 +9987,7 @@
       <c r="M45" s="8">
         <v>0</v>
       </c>
-      <c r="N45" s="17"/>
+      <c r="N45" s="15"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
@@ -9992,7 +10031,7 @@
       <c r="M46" s="8">
         <v>0</v>
       </c>
-      <c r="N46" s="17"/>
+      <c r="N46" s="15"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -10036,7 +10075,7 @@
       <c r="M47" s="8">
         <v>0</v>
       </c>
-      <c r="N47" s="17"/>
+      <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
@@ -10080,7 +10119,7 @@
       <c r="M48" s="8">
         <v>0</v>
       </c>
-      <c r="N48" s="17"/>
+      <c r="N48" s="15"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
@@ -10124,7 +10163,7 @@
       <c r="M49" s="8">
         <v>0</v>
       </c>
-      <c r="N49" s="17"/>
+      <c r="N49" s="15"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -10168,7 +10207,7 @@
       <c r="M50" s="8">
         <v>0</v>
       </c>
-      <c r="N50" s="17"/>
+      <c r="N50" s="15"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
@@ -10212,7 +10251,7 @@
       <c r="M51" s="8">
         <v>0</v>
       </c>
-      <c r="N51" s="17"/>
+      <c r="N51" s="15"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
@@ -10256,7 +10295,7 @@
       <c r="M52" s="8">
         <v>0</v>
       </c>
-      <c r="N52" s="17"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
@@ -10294,7 +10333,7 @@
       <c r="M53" s="8">
         <v>0</v>
       </c>
-      <c r="N53" s="17"/>
+      <c r="N53" s="15"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
@@ -10338,7 +10377,7 @@
       <c r="M54" s="8">
         <v>0</v>
       </c>
-      <c r="N54" s="17"/>
+      <c r="N54" s="15"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
@@ -10382,7 +10421,7 @@
       <c r="M55" s="8">
         <v>0</v>
       </c>
-      <c r="N55" s="17"/>
+      <c r="N55" s="15"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
@@ -10428,7 +10467,7 @@
       <c r="M56" s="8">
         <v>0</v>
       </c>
-      <c r="N56" s="17"/>
+      <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
@@ -10474,7 +10513,7 @@
       <c r="M57" s="8">
         <v>0</v>
       </c>
-      <c r="N57" s="17"/>
+      <c r="N57" s="15"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
@@ -10520,7 +10559,7 @@
       <c r="M58" s="8">
         <v>0</v>
       </c>
-      <c r="N58" s="17"/>
+      <c r="N58" s="15"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
@@ -10566,7 +10605,7 @@
       <c r="M59" s="8">
         <v>0</v>
       </c>
-      <c r="N59" s="17"/>
+      <c r="N59" s="15"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -10610,7 +10649,7 @@
       <c r="M60" s="8">
         <v>0</v>
       </c>
-      <c r="N60" s="17"/>
+      <c r="N60" s="15"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -10654,7 +10693,7 @@
       <c r="M61" s="8">
         <v>0</v>
       </c>
-      <c r="N61" s="17"/>
+      <c r="N61" s="15"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
@@ -10700,7 +10739,7 @@
       <c r="M62" s="8">
         <v>0</v>
       </c>
-      <c r="N62" s="17"/>
+      <c r="N62" s="15"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -10746,7 +10785,7 @@
       <c r="M63" s="8">
         <v>0</v>
       </c>
-      <c r="N63" s="17"/>
+      <c r="N63" s="15"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
@@ -10790,7 +10829,7 @@
       <c r="M64" s="8">
         <v>0</v>
       </c>
-      <c r="N64" s="17"/>
+      <c r="N64" s="15"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -10834,7 +10873,7 @@
       <c r="M65" s="8">
         <v>0</v>
       </c>
-      <c r="N65" s="17"/>
+      <c r="N65" s="15"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
@@ -10879,7 +10918,7 @@
       <c r="M66" s="8">
         <v>0</v>
       </c>
-      <c r="N66" s="17"/>
+      <c r="N66" s="15"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -10926,7 +10965,7 @@
       <c r="M67" s="8">
         <v>0</v>
       </c>
-      <c r="N67" s="17"/>
+      <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -10973,7 +11012,7 @@
       <c r="M68" s="8">
         <v>0</v>
       </c>
-      <c r="N68" s="17"/>
+      <c r="N68" s="15"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
@@ -11019,7 +11058,7 @@
       <c r="M69" s="8">
         <v>0</v>
       </c>
-      <c r="N69" s="17"/>
+      <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
@@ -11063,7 +11102,7 @@
       <c r="M70" s="8">
         <v>0</v>
       </c>
-      <c r="N70" s="17"/>
+      <c r="N70" s="15"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -11107,7 +11146,7 @@
       <c r="M71" s="8">
         <v>0</v>
       </c>
-      <c r="N71" s="17"/>
+      <c r="N71" s="15"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
@@ -11151,7 +11190,7 @@
       <c r="M72" s="8">
         <v>0</v>
       </c>
-      <c r="N72" s="17"/>
+      <c r="N72" s="15"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -11195,7 +11234,7 @@
       <c r="M73" s="8">
         <v>0</v>
       </c>
-      <c r="N73" s="17"/>
+      <c r="N73" s="15"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
@@ -11239,7 +11278,7 @@
       <c r="M74" s="8">
         <v>0</v>
       </c>
-      <c r="N74" s="17"/>
+      <c r="N74" s="15"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
@@ -11286,7 +11325,7 @@
       <c r="M75" s="8">
         <v>0</v>
       </c>
-      <c r="N75" s="17"/>
+      <c r="N75" s="15"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
@@ -11330,7 +11369,7 @@
       <c r="M76" s="8">
         <v>0</v>
       </c>
-      <c r="N76" s="17"/>
+      <c r="N76" s="15"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
@@ -11374,7 +11413,7 @@
       <c r="M77" s="8">
         <v>0</v>
       </c>
-      <c r="N77" s="17"/>
+      <c r="N77" s="15"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
@@ -11418,7 +11457,7 @@
       <c r="M78" s="8">
         <v>0</v>
       </c>
-      <c r="N78" s="17"/>
+      <c r="N78" s="15"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
@@ -11462,7 +11501,7 @@
       <c r="M79" s="8">
         <v>0</v>
       </c>
-      <c r="N79" s="17"/>
+      <c r="N79" s="15"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
@@ -11506,7 +11545,7 @@
       <c r="M80" s="8">
         <v>0</v>
       </c>
-      <c r="N80" s="17"/>
+      <c r="N80" s="15"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
@@ -11553,7 +11592,7 @@
       <c r="M81" s="8">
         <v>0</v>
       </c>
-      <c r="N81" s="17"/>
+      <c r="N81" s="15"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
@@ -11597,7 +11636,7 @@
       <c r="M82" s="8">
         <v>0</v>
       </c>
-      <c r="N82" s="17"/>
+      <c r="N82" s="15"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -11641,7 +11680,7 @@
       <c r="M83" s="8">
         <v>0</v>
       </c>
-      <c r="N83" s="17"/>
+      <c r="N83" s="15"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -11685,7 +11724,7 @@
       <c r="M84" s="8">
         <v>0</v>
       </c>
-      <c r="N84" s="17"/>
+      <c r="N84" s="15"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
@@ -11729,7 +11768,7 @@
       <c r="M85" s="8">
         <v>0</v>
       </c>
-      <c r="N85" s="17"/>
+      <c r="N85" s="15"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
@@ -11773,7 +11812,7 @@
       <c r="M86" s="8">
         <v>0</v>
       </c>
-      <c r="N86" s="17"/>
+      <c r="N86" s="15"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -11817,7 +11856,7 @@
       <c r="M87" s="8">
         <v>0</v>
       </c>
-      <c r="N87" s="17"/>
+      <c r="N87" s="15"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
@@ -11841,7 +11880,7 @@
       <c r="M88" s="8">
         <v>0</v>
       </c>
-      <c r="N88" s="17"/>
+      <c r="N88" s="15"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
@@ -11865,7 +11904,7 @@
       <c r="M89" s="8">
         <v>0</v>
       </c>
-      <c r="N89" s="17"/>
+      <c r="N89" s="15"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
@@ -11889,7 +11928,7 @@
       <c r="M90" s="8">
         <v>0</v>
       </c>
-      <c r="N90" s="17"/>
+      <c r="N90" s="15"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
@@ -11913,7 +11952,7 @@
       <c r="M91" s="8">
         <v>0</v>
       </c>
-      <c r="N91" s="17"/>
+      <c r="N91" s="15"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
@@ -11937,7 +11976,7 @@
       <c r="M92" s="8">
         <v>0</v>
       </c>
-      <c r="N92" s="17"/>
+      <c r="N92" s="15"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
@@ -11961,7 +12000,7 @@
       <c r="M93" s="8">
         <v>0</v>
       </c>
-      <c r="N93" s="17"/>
+      <c r="N93" s="15"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
@@ -11985,7 +12024,7 @@
       <c r="M94" s="8">
         <v>0</v>
       </c>
-      <c r="N94" s="17"/>
+      <c r="N94" s="15"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
@@ -12009,7 +12048,7 @@
       <c r="M95" s="8">
         <v>0</v>
       </c>
-      <c r="N95" s="17"/>
+      <c r="N95" s="15"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
@@ -12033,7 +12072,7 @@
       <c r="M96" s="8">
         <v>0</v>
       </c>
-      <c r="N96" s="17"/>
+      <c r="N96" s="15"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
@@ -12057,7 +12096,7 @@
       <c r="M97" s="8">
         <v>0</v>
       </c>
-      <c r="N97" s="17"/>
+      <c r="N97" s="15"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
@@ -12081,7 +12120,7 @@
       <c r="M98" s="8">
         <v>0</v>
       </c>
-      <c r="N98" s="17"/>
+      <c r="N98" s="15"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
@@ -12105,7 +12144,7 @@
       <c r="M99" s="8">
         <v>0</v>
       </c>
-      <c r="N99" s="17"/>
+      <c r="N99" s="15"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
@@ -12129,2990 +12168,2990 @@
       <c r="M100" s="8">
         <v>0</v>
       </c>
-      <c r="N100" s="17"/>
+      <c r="N100" s="15"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="18">
+      <c r="A101" s="16"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J101" s="18">
+      <c r="J101" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K101" s="18">
+      <c r="K101" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L101" s="18">
+      <c r="L101" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M101" s="20">
-        <v>0</v>
-      </c>
-      <c r="N101" s="17"/>
+      <c r="M101" s="18">
+        <v>0</v>
+      </c>
+      <c r="N101" s="15"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="18">
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J102" s="18">
+      <c r="J102" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K102" s="18">
+      <c r="K102" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L102" s="18">
+      <c r="L102" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M102" s="20">
-        <v>0</v>
-      </c>
-      <c r="N102" s="17"/>
+      <c r="M102" s="18">
+        <v>0</v>
+      </c>
+      <c r="N102" s="15"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="18">
+      <c r="A103" s="16"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J103" s="18">
+      <c r="J103" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K103" s="18">
+      <c r="K103" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L103" s="18">
+      <c r="L103" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M103" s="20">
-        <v>0</v>
-      </c>
-      <c r="N103" s="17"/>
+      <c r="M103" s="18">
+        <v>0</v>
+      </c>
+      <c r="N103" s="15"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="18"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="18">
+      <c r="A104" s="16"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J104" s="18">
+      <c r="J104" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K104" s="18">
+      <c r="K104" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L104" s="18">
+      <c r="L104" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M104" s="20">
-        <v>0</v>
-      </c>
-      <c r="N104" s="17"/>
+      <c r="M104" s="18">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="18">
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J105" s="18">
+      <c r="J105" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K105" s="18">
+      <c r="K105" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L105" s="18">
+      <c r="L105" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M105" s="20">
-        <v>0</v>
-      </c>
-      <c r="N105" s="17"/>
+      <c r="M105" s="18">
+        <v>0</v>
+      </c>
+      <c r="N105" s="15"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="18"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="18">
+      <c r="A106" s="16"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J106" s="18">
+      <c r="J106" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K106" s="18">
+      <c r="K106" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L106" s="18">
+      <c r="L106" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M106" s="20">
-        <v>0</v>
-      </c>
-      <c r="N106" s="17"/>
+      <c r="M106" s="18">
+        <v>0</v>
+      </c>
+      <c r="N106" s="15"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="18">
+      <c r="A107" s="16"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J107" s="18">
+      <c r="J107" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K107" s="18">
+      <c r="K107" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L107" s="18">
+      <c r="L107" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M107" s="20">
-        <v>0</v>
-      </c>
-      <c r="N107" s="17"/>
+      <c r="M107" s="18">
+        <v>0</v>
+      </c>
+      <c r="N107" s="15"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="18">
+      <c r="A108" s="16"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J108" s="18">
+      <c r="J108" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K108" s="18">
+      <c r="K108" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L108" s="18">
+      <c r="L108" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M108" s="20">
-        <v>0</v>
-      </c>
-      <c r="N108" s="17"/>
+      <c r="M108" s="18">
+        <v>0</v>
+      </c>
+      <c r="N108" s="15"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="18">
+      <c r="A109" s="16"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J109" s="18">
+      <c r="J109" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K109" s="18">
+      <c r="K109" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L109" s="18">
+      <c r="L109" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M109" s="20">
-        <v>0</v>
-      </c>
-      <c r="N109" s="17"/>
+      <c r="M109" s="18">
+        <v>0</v>
+      </c>
+      <c r="N109" s="15"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="18"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="18">
+      <c r="A110" s="16"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J110" s="18">
+      <c r="J110" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K110" s="18">
+      <c r="K110" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L110" s="18">
+      <c r="L110" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M110" s="20">
-        <v>0</v>
-      </c>
-      <c r="N110" s="17"/>
+      <c r="M110" s="18">
+        <v>0</v>
+      </c>
+      <c r="N110" s="15"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="18"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="18">
+      <c r="A111" s="16"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J111" s="18">
+      <c r="J111" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K111" s="18">
+      <c r="K111" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L111" s="18">
+      <c r="L111" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M111" s="20">
-        <v>0</v>
-      </c>
-      <c r="N111" s="17"/>
+      <c r="M111" s="18">
+        <v>0</v>
+      </c>
+      <c r="N111" s="15"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="18"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="18">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J112" s="18">
+      <c r="J112" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K112" s="18">
+      <c r="K112" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L112" s="18">
+      <c r="L112" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M112" s="20">
-        <v>0</v>
-      </c>
-      <c r="N112" s="17"/>
+      <c r="M112" s="18">
+        <v>0</v>
+      </c>
+      <c r="N112" s="15"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="18"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="18">
+      <c r="A113" s="16"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J113" s="18">
+      <c r="J113" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K113" s="18">
+      <c r="K113" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L113" s="18">
+      <c r="L113" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M113" s="20">
-        <v>0</v>
-      </c>
-      <c r="N113" s="17"/>
+      <c r="M113" s="18">
+        <v>0</v>
+      </c>
+      <c r="N113" s="15"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="18"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="18">
+      <c r="A114" s="16"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J114" s="18">
+      <c r="J114" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K114" s="18">
+      <c r="K114" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L114" s="18">
+      <c r="L114" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M114" s="20">
-        <v>0</v>
-      </c>
-      <c r="N114" s="17"/>
+      <c r="M114" s="18">
+        <v>0</v>
+      </c>
+      <c r="N114" s="15"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="18">
+      <c r="A115" s="16"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J115" s="18">
+      <c r="J115" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K115" s="18">
+      <c r="K115" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L115" s="18">
+      <c r="L115" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M115" s="20">
-        <v>0</v>
-      </c>
-      <c r="N115" s="17"/>
+      <c r="M115" s="18">
+        <v>0</v>
+      </c>
+      <c r="N115" s="15"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A116" s="18"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="18">
+      <c r="A116" s="16"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="16">
         <f t="shared" ref="I116:L179" si="8">MAX(0, IF($G116=I$2, $D116*$E116, 0))</f>
         <v>0</v>
       </c>
-      <c r="J116" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="20">
-        <v>0</v>
-      </c>
-      <c r="N116" s="17"/>
+      <c r="J116" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="18">
+        <v>0</v>
+      </c>
+      <c r="N116" s="15"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="18"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="20">
-        <v>0</v>
-      </c>
-      <c r="N117" s="17"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L117" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="18">
+        <v>0</v>
+      </c>
+      <c r="N117" s="15"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="18"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K118" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="20">
-        <v>0</v>
-      </c>
-      <c r="N118" s="17"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="18">
+        <v>0</v>
+      </c>
+      <c r="N118" s="15"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="18"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="20">
-        <v>0</v>
-      </c>
-      <c r="N119" s="17"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="18">
+        <v>0</v>
+      </c>
+      <c r="N119" s="15"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="18"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="20">
-        <v>0</v>
-      </c>
-      <c r="N120" s="17"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="18">
+        <v>0</v>
+      </c>
+      <c r="N120" s="15"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="18"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K121" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M121" s="20">
-        <v>0</v>
-      </c>
-      <c r="N121" s="17"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="18">
+        <v>0</v>
+      </c>
+      <c r="N121" s="15"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="18"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M122" s="20">
-        <v>0</v>
-      </c>
-      <c r="N122" s="17"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="18">
+        <v>0</v>
+      </c>
+      <c r="N122" s="15"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="18"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="20">
-        <v>0</v>
-      </c>
-      <c r="N123" s="17"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="18">
+        <v>0</v>
+      </c>
+      <c r="N123" s="15"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="18"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K124" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L124" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M124" s="20">
-        <v>0</v>
-      </c>
-      <c r="N124" s="17"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="18">
+        <v>0</v>
+      </c>
+      <c r="N124" s="15"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="18"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="20">
-        <v>0</v>
-      </c>
-      <c r="N125" s="17"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="18">
+        <v>0</v>
+      </c>
+      <c r="N125" s="15"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="18"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="20">
-        <v>0</v>
-      </c>
-      <c r="N126" s="17"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="18">
+        <v>0</v>
+      </c>
+      <c r="N126" s="15"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="18"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="20">
-        <v>0</v>
-      </c>
-      <c r="N127" s="17"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="18">
+        <v>0</v>
+      </c>
+      <c r="N127" s="15"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="18"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K128" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L128" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="20">
-        <v>0</v>
-      </c>
-      <c r="N128" s="17"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K128" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L128" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="18">
+        <v>0</v>
+      </c>
+      <c r="N128" s="15"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="18"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L129" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M129" s="20">
-        <v>0</v>
-      </c>
-      <c r="N129" s="17"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K129" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L129" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="18">
+        <v>0</v>
+      </c>
+      <c r="N129" s="15"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="18"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K130" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L130" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M130" s="20">
-        <v>0</v>
-      </c>
-      <c r="N130" s="17"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K130" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L130" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="18">
+        <v>0</v>
+      </c>
+      <c r="N130" s="15"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="18"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K131" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L131" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M131" s="20">
-        <v>0</v>
-      </c>
-      <c r="N131" s="17"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K131" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L131" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="18">
+        <v>0</v>
+      </c>
+      <c r="N131" s="15"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="18"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K132" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L132" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M132" s="20">
-        <v>0</v>
-      </c>
-      <c r="N132" s="17"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K132" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L132" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="18">
+        <v>0</v>
+      </c>
+      <c r="N132" s="15"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="18"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K133" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L133" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M133" s="20">
-        <v>0</v>
-      </c>
-      <c r="N133" s="17"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K133" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L133" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="18">
+        <v>0</v>
+      </c>
+      <c r="N133" s="15"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="18"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K134" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L134" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M134" s="20">
-        <v>0</v>
-      </c>
-      <c r="N134" s="17"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K134" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L134" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="18">
+        <v>0</v>
+      </c>
+      <c r="N134" s="15"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K135" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L135" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M135" s="20">
-        <v>0</v>
-      </c>
-      <c r="N135" s="17"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="18">
+        <v>0</v>
+      </c>
+      <c r="N135" s="15"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K136" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L136" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M136" s="20">
-        <v>0</v>
-      </c>
-      <c r="N136" s="17"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K136" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L136" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="18">
+        <v>0</v>
+      </c>
+      <c r="N136" s="15"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K137" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L137" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M137" s="20">
-        <v>0</v>
-      </c>
-      <c r="N137" s="17"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="17"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K137" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L137" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M137" s="18">
+        <v>0</v>
+      </c>
+      <c r="N137" s="15"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K138" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L138" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M138" s="20">
-        <v>0</v>
-      </c>
-      <c r="N138" s="17"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="17"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K138" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L138" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M138" s="18">
+        <v>0</v>
+      </c>
+      <c r="N138" s="15"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K139" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L139" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M139" s="20">
-        <v>0</v>
-      </c>
-      <c r="N139" s="17"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="17"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K139" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L139" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M139" s="18">
+        <v>0</v>
+      </c>
+      <c r="N139" s="15"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="18"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K140" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L140" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M140" s="20">
-        <v>0</v>
-      </c>
-      <c r="N140" s="17"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="17"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L140" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="18">
+        <v>0</v>
+      </c>
+      <c r="N140" s="15"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K141" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L141" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M141" s="20">
-        <v>0</v>
-      </c>
-      <c r="N141" s="17"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K141" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L141" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M141" s="18">
+        <v>0</v>
+      </c>
+      <c r="N141" s="15"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="18"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K142" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L142" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M142" s="20">
-        <v>0</v>
-      </c>
-      <c r="N142" s="17"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="17"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K142" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L142" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="18">
+        <v>0</v>
+      </c>
+      <c r="N142" s="15"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="18"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K143" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L143" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M143" s="20">
-        <v>0</v>
-      </c>
-      <c r="N143" s="17"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="17"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K143" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M143" s="18">
+        <v>0</v>
+      </c>
+      <c r="N143" s="15"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="18"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K144" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L144" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M144" s="20">
-        <v>0</v>
-      </c>
-      <c r="N144" s="17"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K144" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L144" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="18">
+        <v>0</v>
+      </c>
+      <c r="N144" s="15"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="18"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K145" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L145" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M145" s="20">
-        <v>0</v>
-      </c>
-      <c r="N145" s="17"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L145" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M145" s="18">
+        <v>0</v>
+      </c>
+      <c r="N145" s="15"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="18"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K146" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L146" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M146" s="20">
-        <v>0</v>
-      </c>
-      <c r="N146" s="17"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L146" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M146" s="18">
+        <v>0</v>
+      </c>
+      <c r="N146" s="15"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K147" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L147" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M147" s="20">
-        <v>0</v>
-      </c>
-      <c r="N147" s="17"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="17"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L147" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M147" s="18">
+        <v>0</v>
+      </c>
+      <c r="N147" s="15"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K148" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L148" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M148" s="20">
-        <v>0</v>
-      </c>
-      <c r="N148" s="17"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="17"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K148" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L148" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M148" s="18">
+        <v>0</v>
+      </c>
+      <c r="N148" s="15"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K149" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L149" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M149" s="20">
-        <v>0</v>
-      </c>
-      <c r="N149" s="17"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K149" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L149" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M149" s="18">
+        <v>0</v>
+      </c>
+      <c r="N149" s="15"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K150" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L150" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M150" s="20">
-        <v>0</v>
-      </c>
-      <c r="N150" s="17"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K150" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L150" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M150" s="18">
+        <v>0</v>
+      </c>
+      <c r="N150" s="15"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K151" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L151" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M151" s="20">
-        <v>0</v>
-      </c>
-      <c r="N151" s="17"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K151" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L151" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M151" s="18">
+        <v>0</v>
+      </c>
+      <c r="N151" s="15"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K152" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L152" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M152" s="20">
-        <v>0</v>
-      </c>
-      <c r="N152" s="17"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K152" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L152" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="18">
+        <v>0</v>
+      </c>
+      <c r="N152" s="15"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K153" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L153" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M153" s="20">
-        <v>0</v>
-      </c>
-      <c r="N153" s="17"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K153" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L153" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M153" s="18">
+        <v>0</v>
+      </c>
+      <c r="N153" s="15"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K154" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L154" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M154" s="20">
-        <v>0</v>
-      </c>
-      <c r="N154" s="17"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K154" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L154" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M154" s="18">
+        <v>0</v>
+      </c>
+      <c r="N154" s="15"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="18"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K155" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L155" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M155" s="20">
-        <v>0</v>
-      </c>
-      <c r="N155" s="17"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="17"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K155" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L155" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M155" s="18">
+        <v>0</v>
+      </c>
+      <c r="N155" s="15"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="18"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K156" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L156" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M156" s="20">
-        <v>0</v>
-      </c>
-      <c r="N156" s="17"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="17"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K156" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L156" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M156" s="18">
+        <v>0</v>
+      </c>
+      <c r="N156" s="15"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="18"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K157" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L157" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M157" s="20">
-        <v>0</v>
-      </c>
-      <c r="N157" s="17"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K157" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L157" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="18">
+        <v>0</v>
+      </c>
+      <c r="N157" s="15"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="18"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K158" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L158" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M158" s="20">
-        <v>0</v>
-      </c>
-      <c r="N158" s="17"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K158" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L158" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M158" s="18">
+        <v>0</v>
+      </c>
+      <c r="N158" s="15"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K159" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L159" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M159" s="20">
-        <v>0</v>
-      </c>
-      <c r="N159" s="17"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L159" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M159" s="18">
+        <v>0</v>
+      </c>
+      <c r="N159" s="15"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="18"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K160" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L160" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M160" s="20">
-        <v>0</v>
-      </c>
-      <c r="N160" s="17"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L160" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="18">
+        <v>0</v>
+      </c>
+      <c r="N160" s="15"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K161" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L161" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M161" s="20">
-        <v>0</v>
-      </c>
-      <c r="N161" s="17"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L161" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M161" s="18">
+        <v>0</v>
+      </c>
+      <c r="N161" s="15"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="18"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K162" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L162" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M162" s="20">
-        <v>0</v>
-      </c>
-      <c r="N162" s="17"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L162" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M162" s="18">
+        <v>0</v>
+      </c>
+      <c r="N162" s="15"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="18"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K163" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L163" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M163" s="20">
-        <v>0</v>
-      </c>
-      <c r="N163" s="17"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L163" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M163" s="18">
+        <v>0</v>
+      </c>
+      <c r="N163" s="15"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="18"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K164" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L164" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M164" s="20">
-        <v>0</v>
-      </c>
-      <c r="N164" s="17"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L164" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M164" s="18">
+        <v>0</v>
+      </c>
+      <c r="N164" s="15"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="18"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K165" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L165" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M165" s="20">
-        <v>0</v>
-      </c>
-      <c r="N165" s="17"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J165" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K165" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L165" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M165" s="18">
+        <v>0</v>
+      </c>
+      <c r="N165" s="15"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="18"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J166" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K166" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L166" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M166" s="20">
-        <v>0</v>
-      </c>
-      <c r="N166" s="17"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K166" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L166" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M166" s="18">
+        <v>0</v>
+      </c>
+      <c r="N166" s="15"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A167" s="18"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K167" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L167" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M167" s="20">
-        <v>0</v>
-      </c>
-      <c r="N167" s="17"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K167" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L167" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M167" s="18">
+        <v>0</v>
+      </c>
+      <c r="N167" s="15"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A168" s="18"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K168" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L168" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M168" s="20">
-        <v>0</v>
-      </c>
-      <c r="N168" s="17"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L168" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M168" s="18">
+        <v>0</v>
+      </c>
+      <c r="N168" s="15"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A169" s="18"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K169" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L169" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M169" s="20">
-        <v>0</v>
-      </c>
-      <c r="N169" s="17"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="18"/>
+      <c r="I169" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L169" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M169" s="18">
+        <v>0</v>
+      </c>
+      <c r="N169" s="15"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="18"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K170" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L170" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M170" s="20">
-        <v>0</v>
-      </c>
-      <c r="N170" s="17"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K170" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L170" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M170" s="18">
+        <v>0</v>
+      </c>
+      <c r="N170" s="15"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="18"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K171" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L171" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M171" s="20">
-        <v>0</v>
-      </c>
-      <c r="N171" s="17"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K171" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L171" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M171" s="18">
+        <v>0</v>
+      </c>
+      <c r="N171" s="15"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K172" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L172" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M172" s="20">
-        <v>0</v>
-      </c>
-      <c r="N172" s="17"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="18"/>
+      <c r="I172" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K172" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L172" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M172" s="18">
+        <v>0</v>
+      </c>
+      <c r="N172" s="15"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="18"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K173" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L173" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M173" s="20">
-        <v>0</v>
-      </c>
-      <c r="N173" s="17"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="18"/>
+      <c r="I173" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K173" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L173" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M173" s="18">
+        <v>0</v>
+      </c>
+      <c r="N173" s="15"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="18"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K174" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L174" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M174" s="20">
-        <v>0</v>
-      </c>
-      <c r="N174" s="17"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="18"/>
+      <c r="I174" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L174" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M174" s="18">
+        <v>0</v>
+      </c>
+      <c r="N174" s="15"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="18"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K175" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L175" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M175" s="20">
-        <v>0</v>
-      </c>
-      <c r="N175" s="17"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="18"/>
+      <c r="I175" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K175" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L175" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M175" s="18">
+        <v>0</v>
+      </c>
+      <c r="N175" s="15"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A176" s="18"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K176" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L176" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M176" s="20">
-        <v>0</v>
-      </c>
-      <c r="N176" s="17"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="18"/>
+      <c r="I176" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K176" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L176" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M176" s="18">
+        <v>0</v>
+      </c>
+      <c r="N176" s="15"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K177" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L177" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M177" s="20">
-        <v>0</v>
-      </c>
-      <c r="N177" s="17"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="18"/>
+      <c r="I177" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K177" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L177" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M177" s="18">
+        <v>0</v>
+      </c>
+      <c r="N177" s="15"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="18"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K178" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L178" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M178" s="20">
-        <v>0</v>
-      </c>
-      <c r="N178" s="17"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="18"/>
+      <c r="I178" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J178" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K178" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L178" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M178" s="18">
+        <v>0</v>
+      </c>
+      <c r="N178" s="15"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J179" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K179" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L179" s="18">
+      <c r="A179" s="16"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="18"/>
+      <c r="I179" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J179" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L179" s="16">
         <f t="shared" ref="I179:L200" si="9">MAX(0, IF($G179=L$2, $D179*$E179, 0))</f>
         <v>0</v>
       </c>
-      <c r="M179" s="20">
-        <v>0</v>
-      </c>
-      <c r="N179" s="17"/>
+      <c r="M179" s="18">
+        <v>0</v>
+      </c>
+      <c r="N179" s="15"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="18">
+      <c r="A180" s="16"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="18"/>
+      <c r="I180" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J180" s="18">
+      <c r="J180" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K180" s="18">
+      <c r="K180" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L180" s="18">
+      <c r="L180" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M180" s="20">
-        <v>0</v>
-      </c>
-      <c r="N180" s="17"/>
+      <c r="M180" s="18">
+        <v>0</v>
+      </c>
+      <c r="N180" s="15"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="18">
+      <c r="A181" s="16"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
+      <c r="H181" s="18"/>
+      <c r="I181" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J181" s="18">
+      <c r="J181" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K181" s="18">
+      <c r="K181" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L181" s="18">
+      <c r="L181" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M181" s="20">
-        <v>0</v>
-      </c>
-      <c r="N181" s="17"/>
+      <c r="M181" s="18">
+        <v>0</v>
+      </c>
+      <c r="N181" s="15"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="18"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="18">
+      <c r="A182" s="16"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
+      <c r="H182" s="18"/>
+      <c r="I182" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J182" s="18">
+      <c r="J182" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K182" s="18">
+      <c r="K182" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L182" s="18">
+      <c r="L182" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M182" s="20">
-        <v>0</v>
-      </c>
-      <c r="N182" s="17"/>
+      <c r="M182" s="18">
+        <v>0</v>
+      </c>
+      <c r="N182" s="15"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="18">
+      <c r="A183" s="16"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J183" s="18">
+      <c r="J183" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K183" s="18">
+      <c r="K183" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L183" s="18">
+      <c r="L183" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M183" s="20">
-        <v>0</v>
-      </c>
-      <c r="N183" s="17"/>
+      <c r="M183" s="18">
+        <v>0</v>
+      </c>
+      <c r="N183" s="15"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A184" s="18"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="18">
+      <c r="A184" s="16"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
+      <c r="H184" s="18"/>
+      <c r="I184" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J184" s="18">
+      <c r="J184" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K184" s="18">
+      <c r="K184" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L184" s="18">
+      <c r="L184" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M184" s="20">
-        <v>0</v>
-      </c>
-      <c r="N184" s="17"/>
+      <c r="M184" s="18">
+        <v>0</v>
+      </c>
+      <c r="N184" s="15"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="20"/>
-      <c r="I185" s="18">
+      <c r="A185" s="16"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
+      <c r="H185" s="18"/>
+      <c r="I185" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J185" s="18">
+      <c r="J185" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K185" s="18">
+      <c r="K185" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L185" s="18">
+      <c r="L185" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M185" s="20">
-        <v>0</v>
-      </c>
-      <c r="N185" s="17"/>
+      <c r="M185" s="18">
+        <v>0</v>
+      </c>
+      <c r="N185" s="15"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A186" s="18"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="20"/>
-      <c r="I186" s="18">
+      <c r="A186" s="16"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
+      <c r="H186" s="18"/>
+      <c r="I186" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J186" s="18">
+      <c r="J186" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K186" s="18">
+      <c r="K186" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L186" s="18">
+      <c r="L186" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M186" s="20">
+      <c r="M186" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A187" s="18"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="20"/>
-      <c r="I187" s="18">
+      <c r="A187" s="16"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
+      <c r="H187" s="18"/>
+      <c r="I187" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J187" s="18">
+      <c r="J187" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K187" s="18">
+      <c r="K187" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L187" s="18">
+      <c r="L187" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M187" s="20">
+      <c r="M187" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A188" s="18"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="20"/>
-      <c r="I188" s="18">
+      <c r="A188" s="16"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
+      <c r="H188" s="18"/>
+      <c r="I188" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J188" s="18">
+      <c r="J188" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K188" s="18">
+      <c r="K188" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L188" s="18">
+      <c r="L188" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M188" s="20">
+      <c r="M188" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="18"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
-      <c r="H189" s="20"/>
-      <c r="I189" s="18">
+      <c r="A189" s="16"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J189" s="18">
+      <c r="J189" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K189" s="18">
+      <c r="K189" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L189" s="18">
+      <c r="L189" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M189" s="20">
+      <c r="M189" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
-      <c r="H190" s="20"/>
-      <c r="I190" s="18">
+      <c r="A190" s="16"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
+      <c r="H190" s="18"/>
+      <c r="I190" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J190" s="18">
+      <c r="J190" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K190" s="18">
+      <c r="K190" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L190" s="18">
+      <c r="L190" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M190" s="20">
+      <c r="M190" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="18"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="18">
+      <c r="A191" s="16"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
+      <c r="H191" s="18"/>
+      <c r="I191" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J191" s="18">
+      <c r="J191" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K191" s="18">
+      <c r="K191" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L191" s="18">
+      <c r="L191" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M191" s="20">
+      <c r="M191" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="18">
+      <c r="A192" s="16"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J192" s="18">
+      <c r="J192" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K192" s="18">
+      <c r="K192" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L192" s="18">
+      <c r="L192" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M192" s="20">
+      <c r="M192" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="18"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="18">
+      <c r="A193" s="16"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
+      <c r="H193" s="18"/>
+      <c r="I193" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J193" s="18">
+      <c r="J193" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K193" s="18">
+      <c r="K193" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L193" s="18">
+      <c r="L193" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M193" s="20">
+      <c r="M193" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="18"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="18">
+      <c r="A194" s="16"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="18"/>
+      <c r="I194" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J194" s="18">
+      <c r="J194" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K194" s="18">
+      <c r="K194" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L194" s="18">
+      <c r="L194" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M194" s="20">
+      <c r="M194" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="18"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="20"/>
-      <c r="I195" s="18">
+      <c r="A195" s="16"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="18"/>
+      <c r="I195" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J195" s="18">
+      <c r="J195" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K195" s="18">
+      <c r="K195" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L195" s="18">
+      <c r="L195" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M195" s="20">
+      <c r="M195" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="18"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="20"/>
-      <c r="I196" s="18">
+      <c r="A196" s="16"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
+      <c r="H196" s="18"/>
+      <c r="I196" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J196" s="18">
+      <c r="J196" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K196" s="18">
+      <c r="K196" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L196" s="18">
+      <c r="L196" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M196" s="20">
+      <c r="M196" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="18"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="18">
+      <c r="A197" s="16"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
+      <c r="H197" s="18"/>
+      <c r="I197" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J197" s="18">
+      <c r="J197" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K197" s="18">
+      <c r="K197" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L197" s="18">
+      <c r="L197" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M197" s="20">
+      <c r="M197" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="18"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="20"/>
-      <c r="I198" s="18">
+      <c r="A198" s="16"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
+      <c r="H198" s="18"/>
+      <c r="I198" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J198" s="18">
+      <c r="J198" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K198" s="18">
+      <c r="K198" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L198" s="18">
+      <c r="L198" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M198" s="20">
+      <c r="M198" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="18"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="18">
+      <c r="A199" s="16"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
+      <c r="H199" s="18"/>
+      <c r="I199" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J199" s="18">
+      <c r="J199" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K199" s="18">
+      <c r="K199" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L199" s="18">
+      <c r="L199" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M199" s="20">
+      <c r="M199" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="20"/>
-      <c r="I200" s="18">
+      <c r="A200" s="16"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
+      <c r="H200" s="18"/>
+      <c r="I200" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J200" s="18">
+      <c r="J200" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K200" s="18">
+      <c r="K200" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L200" s="18">
+      <c r="L200" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M200" s="20">
+      <c r="M200" s="18">
         <v>0</v>
       </c>
     </row>
@@ -15157,29 +15196,29 @@
         <f>SUM(L$3:L$200)</f>
         <v>574</v>
       </c>
-      <c r="M201" s="21">
+      <c r="M201" s="19">
         <f>SUM(M$3:M$200)</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I202" s="18" t="str">
+      <c r="I202" s="16" t="str">
         <f>I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J202" s="18" t="str">
+      <c r="J202" s="16" t="str">
         <f t="shared" ref="J202:M202" si="10">J$2</f>
         <v>Giesbrt</v>
       </c>
-      <c r="K202" s="18" t="str">
+      <c r="K202" s="16" t="str">
         <f t="shared" si="10"/>
         <v>Fa4953</v>
       </c>
-      <c r="L202" s="18" t="str">
+      <c r="L202" s="16" t="str">
         <f t="shared" si="10"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M202" s="18" t="str">
+      <c r="M202" s="16" t="str">
         <f t="shared" si="10"/>
         <v>XXXXXX</v>
       </c>
@@ -15188,23 +15227,23 @@
       <c r="G203" t="s">
         <v>174</v>
       </c>
-      <c r="I203" s="17">
+      <c r="I203" s="15">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
         <v>41</v>
       </c>
-      <c r="J203" s="17">
+      <c r="J203" s="15">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
         <v>38</v>
       </c>
-      <c r="K203" s="17">
+      <c r="K203" s="15">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
         <v>3</v>
       </c>
-      <c r="L203" s="17">
+      <c r="L203" s="15">
         <f>COUNTIF($G$3:$G$200, L$2)</f>
         <v>2</v>
       </c>
-      <c r="M203" s="17">
+      <c r="M203" s="15">
         <f>COUNTIF($G$3:$G$200, M$2)</f>
         <v>0</v>
       </c>
@@ -15217,19 +15256,19 @@
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
         <v>1.4390243902439024</v>
       </c>
-      <c r="J204" s="18">
+      <c r="J204" s="16">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
         <v>1.3783783783783783</v>
       </c>
-      <c r="K204" s="18">
+      <c r="K204" s="16">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="L204" s="18">
+      <c r="L204" s="16">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $E$3:$E$200), 0)</f>
         <v>2</v>
       </c>
-      <c r="M204" s="18">
+      <c r="M204" s="16">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
         <v>0</v>
       </c>
@@ -15238,23 +15277,23 @@
       <c r="G205" t="s">
         <v>176</v>
       </c>
-      <c r="I205" s="18">
+      <c r="I205" s="16">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
         <v>42.292682926829265</v>
       </c>
-      <c r="J205" s="18">
+      <c r="J205" s="16">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
         <v>21.756756756756758</v>
       </c>
-      <c r="K205" s="18">
+      <c r="K205" s="16">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
         <v>55.666666666666664</v>
       </c>
-      <c r="L205" s="18">
+      <c r="L205" s="16">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $D$3:$D$200), 0)</f>
         <v>143.5</v>
       </c>
-      <c r="M205" s="18">
+      <c r="M205" s="16">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $D$3:$D$200), 0)</f>
         <v>0</v>
       </c>
@@ -15267,47 +15306,47 @@
         <f>ROUND(I$203*I$204*I$205, 0)</f>
         <v>2495</v>
       </c>
-      <c r="J206" s="18">
+      <c r="J206" s="16">
         <f>ROUND(J$203*J$204*J$205, 0)</f>
         <v>1140</v>
       </c>
-      <c r="K206" s="18">
+      <c r="K206" s="16">
         <f>ROUND(K$203*K$204*K$205, 0)</f>
         <v>278</v>
       </c>
-      <c r="L206" s="18">
+      <c r="L206" s="16">
         <f>ROUND(L$203*L$204*L$205, 0)</f>
         <v>574</v>
       </c>
-      <c r="M206" s="18">
+      <c r="M206" s="16">
         <f>ROUND(M$203*M$204*M$205, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I207" s="18"/>
+      <c r="I207" s="16"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
         <v>178</v>
       </c>
-      <c r="I208" s="18" t="str">
+      <c r="I208" s="16" t="str">
         <f>I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J208" s="18" t="str">
-        <f t="shared" ref="J207:M208" si="11">J$2</f>
+      <c r="J208" s="16" t="str">
+        <f t="shared" ref="J208:M208" si="11">J$2</f>
         <v>Giesbrt</v>
       </c>
-      <c r="K208" s="18" t="str">
+      <c r="K208" s="16" t="str">
         <f t="shared" si="11"/>
         <v>Fa4953</v>
       </c>
-      <c r="L208" s="18" t="str">
+      <c r="L208" s="16" t="str">
         <f t="shared" si="11"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M208" s="18" t="str">
+      <c r="M208" s="16" t="str">
         <f t="shared" si="11"/>
         <v>XXXXXX</v>
       </c>
@@ -15318,22 +15357,22 @@
         <v>everything</v>
       </c>
       <c r="I209">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G209)</f>
+        <f t="shared" ref="I209:L234" si="12">COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G209)</f>
         <v>11</v>
       </c>
-      <c r="J209" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G209)</f>
+      <c r="J209" s="16">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="K209" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G209)</f>
+      <c r="K209" s="16">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="L209" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G209)</f>
-        <v>0</v>
-      </c>
-      <c r="M209" s="18">
+      <c r="L209" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M209" s="16">
         <f>COUNTIFS(C3:C200, G209, G3:G200, M208)</f>
         <v>0</v>
       </c>
@@ -15342,24 +15381,24 @@
       <c r="G210" t="str">
         <v>changes</v>
       </c>
-      <c r="I210" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G210)</f>
+      <c r="I210" s="16">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="J210" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G210)</f>
+      <c r="J210" s="16">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="K210" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G210)</f>
-        <v>0</v>
-      </c>
-      <c r="L210" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G210)</f>
+      <c r="K210" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L210" s="16">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="M210" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G210)</f>
+      <c r="M210" s="16">
+        <f t="shared" ref="M210:M234" si="13">COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G210)</f>
         <v>0</v>
       </c>
     </row>
@@ -15367,24 +15406,24 @@
       <c r="G211" t="str">
         <v>MyItem cls</v>
       </c>
-      <c r="I211" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G211)</f>
+      <c r="I211" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J211" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G211)</f>
-        <v>0</v>
-      </c>
-      <c r="K211" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G211)</f>
-        <v>0</v>
-      </c>
-      <c r="L211" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G211)</f>
-        <v>0</v>
-      </c>
-      <c r="M211" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G211)</f>
+      <c r="J211" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K211" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L211" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M211" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15392,24 +15431,24 @@
       <c r="G212" t="str">
         <v>changes to GridView cls</v>
       </c>
-      <c r="I212" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G212)</f>
+      <c r="I212" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J212" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G212)</f>
-        <v>0</v>
-      </c>
-      <c r="K212" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G212)</f>
-        <v>0</v>
-      </c>
-      <c r="L212" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G212)</f>
-        <v>0</v>
-      </c>
-      <c r="M212" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G212)</f>
+      <c r="J212" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K212" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L212" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M212" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15417,24 +15456,24 @@
       <c r="G213" t="str">
         <v>docs</v>
       </c>
-      <c r="I213" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G213)</f>
+      <c r="I213" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J213" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G213)</f>
+      <c r="J213" s="16">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="K213" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G213)</f>
-        <v>0</v>
-      </c>
-      <c r="L213" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G213)</f>
-        <v>0</v>
-      </c>
-      <c r="M213" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G213)</f>
+      <c r="K213" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L213" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M213" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15442,24 +15481,24 @@
       <c r="G214" t="str">
         <v>change docs</v>
       </c>
-      <c r="I214" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G214)</f>
-        <v>0</v>
-      </c>
-      <c r="J214" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G214)</f>
+      <c r="I214" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J214" s="16">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="K214" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G214)</f>
-        <v>0</v>
-      </c>
-      <c r="L214" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G214)</f>
-        <v>0</v>
-      </c>
-      <c r="M214" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G214)</f>
+      <c r="K214" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L214" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M214" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15467,24 +15506,24 @@
       <c r="G215" t="str">
         <v>remove buggy &amp; unneeded</v>
       </c>
-      <c r="I215" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G215)</f>
+      <c r="I215" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J215" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G215)</f>
-        <v>0</v>
-      </c>
-      <c r="K215" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G215)</f>
-        <v>0</v>
-      </c>
-      <c r="L215" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G215)</f>
-        <v>0</v>
-      </c>
-      <c r="M215" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G215)</f>
+      <c r="J215" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K215" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L215" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M215" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15492,24 +15531,24 @@
       <c r="G216" t="str">
         <v>created</v>
       </c>
-      <c r="I216" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G216)</f>
+      <c r="I216" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J216" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G216)</f>
-        <v>0</v>
-      </c>
-      <c r="K216" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G216)</f>
-        <v>0</v>
-      </c>
-      <c r="L216" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G216)</f>
-        <v>0</v>
-      </c>
-      <c r="M216" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G216)</f>
+      <c r="J216" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K216" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L216" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M216" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15517,24 +15556,24 @@
       <c r="G217" t="str">
         <v>smaller updates</v>
       </c>
-      <c r="I217" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G217)</f>
+      <c r="I217" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J217" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G217)</f>
+      <c r="J217" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K217" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G217)</f>
-        <v>0</v>
-      </c>
-      <c r="L217" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G217)</f>
-        <v>0</v>
-      </c>
-      <c r="M217" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G217)</f>
+      <c r="K217" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L217" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M217" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15542,24 +15581,24 @@
       <c r="G218" t="str">
         <v>sidebar code</v>
       </c>
-      <c r="I218" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G218)</f>
+      <c r="I218" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J218" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G218)</f>
-        <v>0</v>
-      </c>
-      <c r="K218" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G218)</f>
-        <v>0</v>
-      </c>
-      <c r="L218" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G218)</f>
-        <v>0</v>
-      </c>
-      <c r="M218" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G218)</f>
+      <c r="J218" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K218" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L218" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M218" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15567,24 +15606,24 @@
       <c r="G219" t="str">
         <v>runtime checks</v>
       </c>
-      <c r="I219" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G219)</f>
+      <c r="I219" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J219" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G219)</f>
-        <v>0</v>
-      </c>
-      <c r="K219" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G219)</f>
-        <v>0</v>
-      </c>
-      <c r="L219" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G219)</f>
-        <v>0</v>
-      </c>
-      <c r="M219" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G219)</f>
+      <c r="J219" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K219" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L219" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M219" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15592,24 +15631,24 @@
       <c r="G220" t="str">
         <v>moved sidebar to the left</v>
       </c>
-      <c r="I220" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G220)</f>
+      <c r="I220" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J220" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G220)</f>
-        <v>0</v>
-      </c>
-      <c r="K220" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G220)</f>
-        <v>0</v>
-      </c>
-      <c r="L220" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G220)</f>
-        <v>0</v>
-      </c>
-      <c r="M220" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G220)</f>
+      <c r="J220" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K220" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L220" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M220" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15617,24 +15656,24 @@
       <c r="G221" t="str">
         <v>implemented basic seri...</v>
       </c>
-      <c r="I221" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G221)</f>
-        <v>0</v>
-      </c>
-      <c r="J221" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G221)</f>
+      <c r="I221" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J221" s="16">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="K221" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G221)</f>
-        <v>0</v>
-      </c>
-      <c r="L221" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G221)</f>
-        <v>0</v>
-      </c>
-      <c r="M221" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G221)</f>
+      <c r="K221" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L221" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M221" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15642,24 +15681,24 @@
       <c r="G222" t="str">
         <v>setter</v>
       </c>
-      <c r="I222" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G222)</f>
-        <v>0</v>
-      </c>
-      <c r="J222" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G222)</f>
+      <c r="I222" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J222" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K222" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G222)</f>
-        <v>0</v>
-      </c>
-      <c r="L222" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G222)</f>
-        <v>0</v>
-      </c>
-      <c r="M222" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G222)</f>
+      <c r="K222" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L222" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M222" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15667,24 +15706,24 @@
       <c r="G223" t="str">
         <v>changed to pickle</v>
       </c>
-      <c r="I223" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G223)</f>
-        <v>0</v>
-      </c>
-      <c r="J223" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G223)</f>
+      <c r="I223" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K223" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G223)</f>
-        <v>0</v>
-      </c>
-      <c r="L223" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G223)</f>
-        <v>0</v>
-      </c>
-      <c r="M223" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G223)</f>
+      <c r="K223" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L223" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15692,24 +15731,24 @@
       <c r="G224" t="str">
         <v>implemented proper file ...</v>
       </c>
-      <c r="I224" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G224)</f>
+      <c r="I224" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J224" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G224)</f>
-        <v>0</v>
-      </c>
-      <c r="K224" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G224)</f>
-        <v>0</v>
-      </c>
-      <c r="L224" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G224)</f>
-        <v>0</v>
-      </c>
-      <c r="M224" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G224)</f>
+      <c r="J224" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K224" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L224" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M224" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15717,24 +15756,24 @@
       <c r="G225" t="str">
         <v>not taken into account as</v>
       </c>
-      <c r="I225" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G225)</f>
-        <v>0</v>
-      </c>
-      <c r="J225" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G225)</f>
-        <v>0</v>
-      </c>
-      <c r="K225" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G225)</f>
-        <v>0</v>
-      </c>
-      <c r="L225" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G225)</f>
-        <v>0</v>
-      </c>
-      <c r="M225" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G225)</f>
+      <c r="I225" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J225" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K225" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L225" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M225" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15742,24 +15781,24 @@
       <c r="G226" t="str">
         <v>moved definition</v>
       </c>
-      <c r="I226" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G226)</f>
-        <v>0</v>
-      </c>
-      <c r="J226" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G226)</f>
+      <c r="I226" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J226" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K226" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G226)</f>
-        <v>0</v>
-      </c>
-      <c r="L226" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G226)</f>
-        <v>0</v>
-      </c>
-      <c r="M226" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G226)</f>
+      <c r="K226" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L226" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M226" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15767,24 +15806,24 @@
       <c r="G227" t="str">
         <v>Added api methods</v>
       </c>
-      <c r="I227" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G227)</f>
-        <v>0</v>
-      </c>
-      <c r="J227" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G227)</f>
+      <c r="I227" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K227" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G227)</f>
-        <v>0</v>
-      </c>
-      <c r="L227" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G227)</f>
-        <v>0</v>
-      </c>
-      <c r="M227" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G227)</f>
+      <c r="K227" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L227" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M227" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15792,24 +15831,24 @@
       <c r="G228" t="str">
         <v>Implemented api meth.</v>
       </c>
-      <c r="I228" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G228)</f>
-        <v>0</v>
-      </c>
-      <c r="J228" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G228)</f>
+      <c r="I228" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J228" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="K228" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G228)</f>
-        <v>0</v>
-      </c>
-      <c r="L228" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G228)</f>
-        <v>0</v>
-      </c>
-      <c r="M228" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G228)</f>
+      <c r="K228" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L228" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M228" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15817,24 +15856,24 @@
       <c r="G229" t="str">
         <v>Made thread-safe</v>
       </c>
-      <c r="I229" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G229)</f>
+      <c r="I229" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J229" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G229)</f>
-        <v>0</v>
-      </c>
-      <c r="K229" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G229)</f>
-        <v>0</v>
-      </c>
-      <c r="L229" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G229)</f>
-        <v>0</v>
-      </c>
-      <c r="M229" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G229)</f>
+      <c r="J229" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K229" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L229" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M229" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15842,24 +15881,24 @@
       <c r="G230" t="str">
         <v>Fixed thread-safe impl.</v>
       </c>
-      <c r="I230" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G230)</f>
+      <c r="I230" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J230" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G230)</f>
-        <v>0</v>
-      </c>
-      <c r="K230" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G230)</f>
-        <v>0</v>
-      </c>
-      <c r="L230" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G230)</f>
-        <v>0</v>
-      </c>
-      <c r="M230" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G230)</f>
+      <c r="J230" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K230" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L230" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M230" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15867,24 +15906,24 @@
       <c r="G231" t="str">
         <v>fixes</v>
       </c>
-      <c r="I231" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G231)</f>
+      <c r="I231" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J231" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G231)</f>
-        <v>0</v>
-      </c>
-      <c r="K231" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G231)</f>
-        <v>0</v>
-      </c>
-      <c r="L231" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G231)</f>
-        <v>0</v>
-      </c>
-      <c r="M231" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G231)</f>
+      <c r="J231" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K231" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L231" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M231" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15892,24 +15931,24 @@
       <c r="G232" t="str">
         <v>added settings panel cls</v>
       </c>
-      <c r="I232" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G232)</f>
+      <c r="I232" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J232" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G232)</f>
-        <v>0</v>
-      </c>
-      <c r="K232" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G232)</f>
-        <v>0</v>
-      </c>
-      <c r="L232" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G232)</f>
-        <v>0</v>
-      </c>
-      <c r="M232" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G232)</f>
+      <c r="J232" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K232" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L232" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M232" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15917,24 +15956,24 @@
       <c r="G233" t="str">
         <v>added</v>
       </c>
-      <c r="I233" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G233)</f>
+      <c r="I233" s="16">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="J233" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G233)</f>
-        <v>0</v>
-      </c>
-      <c r="K233" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G233)</f>
-        <v>0</v>
-      </c>
-      <c r="L233" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G233)</f>
-        <v>0</v>
-      </c>
-      <c r="M233" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G233)</f>
+      <c r="J233" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K233" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L233" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M233" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15942,24 +15981,24 @@
       <c r="G234" t="str">
         <v>fixed background cache</v>
       </c>
-      <c r="I234" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G234)</f>
+      <c r="I234" s="16">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J234" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$208, $C$3:$C$200, $G234)</f>
-        <v>0</v>
-      </c>
-      <c r="K234" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$208, $C$3:$C$200, $G234)</f>
-        <v>0</v>
-      </c>
-      <c r="L234" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$208, $C$3:$C$200, $G234)</f>
-        <v>0</v>
-      </c>
-      <c r="M234" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G234)</f>
+      <c r="J234" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K234" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L234" s="16">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M234" s="16">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15972,24 +16011,24 @@
       <c r="G237" t="s">
         <v>180</v>
       </c>
-      <c r="I237" s="18" t="str">
-        <f t="shared" ref="I236:M237" si="12">I$2</f>
+      <c r="I237" s="16" t="str">
+        <f t="shared" ref="I237:M237" si="14">I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J237" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="J237" s="16" t="str">
+        <f t="shared" si="14"/>
         <v>Giesbrt</v>
       </c>
-      <c r="K237" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="K237" s="16" t="str">
+        <f t="shared" si="14"/>
         <v>Fa4953</v>
       </c>
-      <c r="L237" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="L237" s="16" t="str">
+        <f t="shared" si="14"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M237" s="18" t="str">
-        <f t="shared" si="12"/>
+      <c r="M237" s="16" t="str">
+        <f t="shared" si="14"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -15998,24 +16037,24 @@
         <f t="array" ref="G238:G246">_xlfn.UNIQUE(F3:F200)</f>
         <v>none</v>
       </c>
-      <c r="I238" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G238)</f>
+      <c r="I238" s="16">
+        <f t="shared" ref="I238:M245" si="15">COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G238)</f>
         <v>29</v>
       </c>
-      <c r="J238" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G238)</f>
+      <c r="J238" s="16">
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
-      <c r="K238" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G238)</f>
-        <v>0</v>
-      </c>
-      <c r="L238" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G238)</f>
+      <c r="K238" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L238" s="16">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="M238" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G238)</f>
+      <c r="M238" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16023,24 +16062,24 @@
       <c r="G239" t="str">
         <v>comments 5%</v>
       </c>
-      <c r="I239" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G239)</f>
+      <c r="I239" s="16">
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="J239" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G239)</f>
-        <v>0</v>
-      </c>
-      <c r="K239" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G239)</f>
-        <v>0</v>
-      </c>
-      <c r="L239" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G239)</f>
-        <v>0</v>
-      </c>
-      <c r="M239" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G239)</f>
+      <c r="J239" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K239" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L239" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M239" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16048,24 +16087,24 @@
       <c r="G240" t="str">
         <v>inline 100%</v>
       </c>
-      <c r="I240" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G240)</f>
+      <c r="I240" s="16">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="J240" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G240)</f>
+      <c r="J240" s="16">
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
-      <c r="K240" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G240)</f>
+      <c r="K240" s="16">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="L240" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G240)</f>
-        <v>0</v>
-      </c>
-      <c r="M240" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G240)</f>
+      <c r="L240" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M240" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16073,24 +16112,24 @@
       <c r="G241" t="str">
         <v>inline 5%</v>
       </c>
-      <c r="I241" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G241)</f>
+      <c r="I241" s="16">
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="J241" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G241)</f>
-        <v>0</v>
-      </c>
-      <c r="K241" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G241)</f>
-        <v>0</v>
-      </c>
-      <c r="L241" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G241)</f>
-        <v>0</v>
-      </c>
-      <c r="M241" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G241)</f>
+      <c r="J241" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K241" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L241" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M241" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16098,24 +16137,24 @@
       <c r="G242" t="str">
         <v>comments 100%</v>
       </c>
-      <c r="I242" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G242)</f>
+      <c r="I242" s="16">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="J242" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G242)</f>
-        <v>0</v>
-      </c>
-      <c r="K242" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G242)</f>
-        <v>0</v>
-      </c>
-      <c r="L242" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G242)</f>
-        <v>0</v>
-      </c>
-      <c r="M242" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G242)</f>
+      <c r="J242" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K242" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L242" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M242" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16123,24 +16162,24 @@
       <c r="G243" t="str">
         <v>needed</v>
       </c>
-      <c r="I243" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G243)</f>
-        <v>0</v>
-      </c>
-      <c r="J243" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G243)</f>
-        <v>0</v>
-      </c>
-      <c r="K243" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G243)</f>
-        <v>0</v>
-      </c>
-      <c r="L243" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G243)</f>
-        <v>0</v>
-      </c>
-      <c r="M243" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G243)</f>
+      <c r="I243" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J243" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K243" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L243" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M243" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16148,24 +16187,24 @@
       <c r="G244" t="str">
         <v>inline 50%</v>
       </c>
-      <c r="I244" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G244)</f>
-        <v>0</v>
-      </c>
-      <c r="J244" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G244)</f>
+      <c r="I244" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J244" s="16">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="K244" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G244)</f>
-        <v>0</v>
-      </c>
-      <c r="L244" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G244)</f>
-        <v>0</v>
-      </c>
-      <c r="M244" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G244)</f>
+      <c r="K244" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L244" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M244" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16173,24 +16212,24 @@
       <c r="G245" t="str">
         <v>in md 100%</v>
       </c>
-      <c r="I245" s="18">
-        <f>COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G245)</f>
+      <c r="I245" s="16">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="J245" s="18">
-        <f>COUNTIFS($G$3:$G$200, J$237, $F$3:$F$200, $G245)</f>
-        <v>0</v>
-      </c>
-      <c r="K245" s="18">
-        <f>COUNTIFS($G$3:$G$200, K$237, $F$3:$F$200, $G245)</f>
-        <v>0</v>
-      </c>
-      <c r="L245" s="18">
-        <f>COUNTIFS($G$3:$G$200, L$237, $F$3:$F$200, $G245)</f>
-        <v>0</v>
-      </c>
-      <c r="M245" s="18">
-        <f>COUNTIFS($G$3:$G$200, M$237, $F$3:$F$200, $G245)</f>
+      <c r="J245" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K245" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L245" s="16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M245" s="16">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E2E9CD-6F64-4BBA-AE7C-6E22BA90A310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D00FC0A-29CF-48B1-8610-319EA0140276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="178">
   <si>
     <t>Datei</t>
   </si>
@@ -419,18 +419,6 @@
     <t>src\dc\singleton.py</t>
   </si>
   <si>
-    <t>not taken into account as</t>
-  </si>
-  <si>
-    <t>singleton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is not </t>
-  </si>
-  <si>
-    <t>needed</t>
-  </si>
-  <si>
     <t>updated ui bridge</t>
   </si>
   <si>
@@ -461,9 +449,6 @@
     <t>Made JsonAppS...</t>
   </si>
   <si>
-    <t>Made thread-safe</t>
-  </si>
-  <si>
     <t>Fixed "thread-safe" ...</t>
   </si>
   <si>
@@ -471,9 +456,6 @@
   </si>
   <si>
     <t>Implemented trans...</t>
-  </si>
-  <si>
-    <t>Testing + lib</t>
   </si>
   <si>
     <t>gui is hard</t>
@@ -504,15 +486,9 @@
     <t>fixes</t>
   </si>
   <si>
-    <t>This is unfair</t>
-  </si>
-  <si>
     <t>inline 50%</t>
   </si>
   <si>
-    <t>SOOO unfair</t>
-  </si>
-  <si>
     <t>added wip simulatio...</t>
   </si>
   <si>
@@ -528,9 +504,6 @@
     <t>style files</t>
   </si>
   <si>
-    <t>count again)</t>
-  </si>
-  <si>
     <t>main.py and others</t>
   </si>
   <si>
@@ -585,9 +558,6 @@
     <t>style colors</t>
   </si>
   <si>
-    <t>(themes wont</t>
-  </si>
-  <si>
     <t>Implemented all col...</t>
   </si>
   <si>
@@ -634,6 +604,27 @@
   </si>
   <si>
     <t>Average Documentation:</t>
+  </si>
+  <si>
+    <t>This is unfair, SOOO unfair</t>
+  </si>
+  <si>
+    <t>gui is hard (themes wont count again)</t>
+  </si>
+  <si>
+    <t>new cls</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>moved</t>
+  </si>
+  <si>
+    <t>Made thread-safe (Testing + lib)</t>
+  </si>
+  <si>
+    <t>singleton is not needed (will be removed)</t>
   </si>
 </sst>
 </file>
@@ -1538,9 +1529,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>everything</c:v>
                 </c:pt>
@@ -1548,86 +1539,44 @@
                   <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MyItem cls</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>changes to GridView cls</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>docs</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>change docs</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>remove buggy &amp; unneeded</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>created</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>smaller updates</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sidebar code</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>runtime checks</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>moved sidebar to the left</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>implemented basic seri...</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>changed to pickle</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>implemented proper file ...</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>not taken into account as</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>moved definition</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Added api methods</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Implemented api meth.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Made thread-safe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Fixed thread-safe impl.</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>fixes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>added settings panel cls</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fixed background cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$209:$H$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$209:$H$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1663,9 +1612,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>everything</c:v>
                 </c:pt>
@@ -1673,91 +1622,49 @@
                   <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MyItem cls</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>changes to GridView cls</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>docs</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>change docs</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>remove buggy &amp; unneeded</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>created</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>smaller updates</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sidebar code</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>runtime checks</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>moved sidebar to the left</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>implemented basic seri...</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>changed to pickle</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>implemented proper file ...</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>not taken into account as</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>moved definition</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Added api methods</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Implemented api meth.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Made thread-safe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Fixed thread-safe impl.</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>fixes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>added settings panel cls</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fixed background cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$209:$I$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$209:$I$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1766,10 +1673,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1778,57 +1685,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1866,9 +1731,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>everything</c:v>
                 </c:pt>
@@ -1876,162 +1741,78 @@
                   <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MyItem cls</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>changes to GridView cls</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>docs</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>change docs</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>remove buggy &amp; unneeded</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>created</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>smaller updates</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sidebar code</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>runtime checks</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>moved sidebar to the left</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>implemented basic seri...</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>changed to pickle</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>implemented proper file ...</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>not taken into account as</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>moved definition</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Added api methods</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Implemented api meth.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Made thread-safe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Fixed thread-safe impl.</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>fixes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>added settings panel cls</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fixed background cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$209:$J$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$209:$J$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2069,9 +1850,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>everything</c:v>
                 </c:pt>
@@ -2079,86 +1860,44 @@
                   <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MyItem cls</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>changes to GridView cls</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>docs</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>change docs</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>remove buggy &amp; unneeded</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>created</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>smaller updates</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sidebar code</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>runtime checks</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>moved sidebar to the left</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>implemented basic seri...</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>changed to pickle</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>implemented proper file ...</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>not taken into account as</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>moved definition</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Added api methods</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Implemented api meth.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Made thread-safe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Fixed thread-safe impl.</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>fixes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>added settings panel cls</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fixed background cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$209:$K$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$209:$K$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -2193,48 +1932,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2272,9 +1969,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>everything</c:v>
                 </c:pt>
@@ -2282,86 +1979,44 @@
                   <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MyItem cls</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>changes to GridView cls</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>docs</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>change docs</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>remove buggy &amp; unneeded</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>created</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>smaller updates</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sidebar code</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>runtime checks</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>moved sidebar to the left</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>implemented basic seri...</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>changed to pickle</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>implemented proper file ...</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>not taken into account as</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>moved definition</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Added api methods</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Implemented api meth.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Made thread-safe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Fixed thread-safe impl.</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>fixes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>added settings panel cls</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fixed background cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$209:$L$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$209:$L$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2396,48 +2051,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2475,9 +2088,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
               <c:strCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>everything</c:v>
                 </c:pt>
@@ -2485,86 +2098,44 @@
                   <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MyItem cls</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>changes to GridView cls</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>docs</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>change docs</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>remove buggy &amp; unneeded</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>created</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>smaller updates</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>sidebar code</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>runtime checks</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>moved sidebar to the left</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>implemented basic seri...</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>changed to pickle</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>implemented proper file ...</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>not taken into account as</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>moved definition</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Added api methods</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Implemented api meth.</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Made thread-safe</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Fixed thread-safe impl.</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>fixes</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>added settings panel cls</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>fixed background cache</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$209:$M$234</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$209:$M$220</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2599,48 +2170,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2950,7 +2479,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$H$237</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2968,9 +2497,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$238:$G$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>none</c:v>
                 </c:pt>
@@ -2987,12 +2516,9 @@
                   <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>needed</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>inline 50%</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>in md 100%</c:v>
                 </c:pt>
               </c:strCache>
@@ -3000,10 +2526,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$238:$H$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$223:$H$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3018,7 +2544,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$237</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3039,9 +2565,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$238:$G$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>none</c:v>
                 </c:pt>
@@ -3058,12 +2584,9 @@
                   <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>needed</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>inline 50%</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>in md 100%</c:v>
                 </c:pt>
               </c:strCache>
@@ -3071,10 +2594,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$238:$I$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$223:$I$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>29</c:v>
                 </c:pt>
@@ -3094,9 +2617,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3113,7 +2633,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$237</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3134,9 +2654,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$238:$G$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>none</c:v>
                 </c:pt>
@@ -3153,12 +2673,9 @@
                   <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>needed</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>inline 50%</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>in md 100%</c:v>
                 </c:pt>
               </c:strCache>
@@ -3166,10 +2683,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$238:$J$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$223:$J$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
@@ -3186,12 +2703,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3208,7 +2722,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$237</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3229,9 +2743,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$238:$G$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>none</c:v>
                 </c:pt>
@@ -3248,12 +2762,9 @@
                   <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>needed</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>inline 50%</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>in md 100%</c:v>
                 </c:pt>
               </c:strCache>
@@ -3261,10 +2772,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$238:$K$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$223:$K$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3284,9 +2795,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3303,7 +2811,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$237</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3324,9 +2832,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$238:$G$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>none</c:v>
                 </c:pt>
@@ -3343,12 +2851,9 @@
                   <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>needed</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>inline 50%</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>in md 100%</c:v>
                 </c:pt>
               </c:strCache>
@@ -3356,10 +2861,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$238:$L$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$223:$L$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3379,9 +2884,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3398,7 +2900,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$237</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$222</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3419,9 +2921,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$238:$G$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>none</c:v>
                 </c:pt>
@@ -3438,12 +2940,9 @@
                   <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>needed</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>inline 50%</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>in md 100%</c:v>
                 </c:pt>
               </c:strCache>
@@ -3451,10 +2950,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$238:$M$245</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$223:$M$229</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3474,9 +2973,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7549,14 +7045,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>180415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>66115</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7584,15 +7080,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>141993</xdr:rowOff>
+      <xdr:colOff>38420</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>5920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>27693</xdr:rowOff>
+      <xdr:colOff>374596</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>82120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8013,10 +7509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N246"/>
+  <dimension ref="A1:N234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E234" sqref="E234"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K242" sqref="K242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8028,7 +7524,7 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8060,7 +7556,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>90</v>
@@ -8081,10 +7577,10 @@
         <v>88</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -8359,7 +7855,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -8373,7 +7869,9 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
       <c r="I9">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8403,7 +7901,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>32</v>
@@ -8417,7 +7915,9 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
       <c r="I10">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -9201,7 +8701,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="D28">
         <v>-20</v>
@@ -9215,7 +8715,9 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
       <c r="I28">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9348,7 +8850,7 @@
         <v>15</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
@@ -9394,7 +8896,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
@@ -9513,7 +9015,7 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D35">
         <v>43</v>
@@ -9527,7 +9029,9 @@
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" t="s">
+        <v>67</v>
+      </c>
       <c r="I35">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -9645,7 +9149,7 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>28</v>
@@ -9659,7 +9163,9 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
       <c r="I38">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -9733,7 +9239,7 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <v>17</v>
@@ -9747,7 +9253,9 @@
       <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
       <c r="I40">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -9777,7 +9285,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D41">
         <v>31</v>
@@ -9791,7 +9299,9 @@
       <c r="G41" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="8"/>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
       <c r="I41">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9865,7 +9375,7 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="D43">
         <v>24</v>
@@ -9879,7 +9389,9 @@
       <c r="G43" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="8"/>
+      <c r="H43" t="s">
+        <v>76</v>
+      </c>
       <c r="I43">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9909,7 +9421,7 @@
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="D44">
         <v>51</v>
@@ -9923,7 +9435,9 @@
       <c r="G44" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
       <c r="I44">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9953,7 +9467,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="D45">
         <v>151</v>
@@ -9967,7 +9481,9 @@
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="8"/>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
       <c r="I45">
         <f t="shared" si="3"/>
         <v>302</v>
@@ -10172,22 +9688,9 @@
       <c r="B50" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" t="s">
-        <v>111</v>
-      </c>
-      <c r="F50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G50" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" s="8"/>
+      <c r="H50" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="I50">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10211,7 +9714,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>107</v>
@@ -10255,7 +9758,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>44</v>
@@ -10299,13 +9802,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -10313,7 +9816,9 @@
       <c r="G53" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="8"/>
+      <c r="H53" t="s">
+        <v>112</v>
+      </c>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10337,13 +9842,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -10357,7 +9862,9 @@
       <c r="G54" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10381,13 +9888,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D55">
         <v>8</v>
@@ -10401,7 +9908,9 @@
       <c r="G55" t="s">
         <v>34</v>
       </c>
-      <c r="H55" s="8"/>
+      <c r="H55" t="s">
+        <v>117</v>
+      </c>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10425,13 +9934,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -10446,7 +9955,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
@@ -10471,13 +9980,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -10492,7 +10001,7 @@
         <v>15</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="I57">
         <f t="shared" si="4"/>
@@ -10517,7 +10026,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>66</v>
@@ -10538,7 +10047,7 @@
         <v>15</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I58">
         <f t="shared" si="4"/>
@@ -10563,7 +10072,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>66</v>
@@ -10581,10 +10090,10 @@
         <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I59">
         <f t="shared" si="4"/>
@@ -10609,7 +10118,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>62</v>
@@ -10653,7 +10162,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>62</v>
@@ -10697,13 +10206,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -10718,7 +10227,7 @@
         <v>15</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
@@ -10743,7 +10252,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>62</v>
@@ -10758,14 +10267,12 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G63" t="s">
         <v>34</v>
       </c>
-      <c r="H63" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="H63" s="8"/>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -10789,10 +10296,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -10836,7 +10343,7 @@
         <v>23</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -10877,7 +10384,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>62</v>
@@ -10925,7 +10432,7 @@
         <v>23</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -10944,7 +10451,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="I67">
         <f>MAX(0, IF($G67=I$2, $D67*$E67, 0))</f>
@@ -10972,7 +10479,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -10990,9 +10497,7 @@
       <c r="G68" t="s">
         <v>15</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="H68" s="8"/>
       <c r="I68">
         <f>MAX(0, IF($G68=I$2, $D68*$E68, 0))</f>
         <v>124</v>
@@ -11016,7 +10521,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>62</v>
@@ -11036,9 +10541,7 @@
       <c r="G69" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>145</v>
-      </c>
+      <c r="H69" s="8"/>
       <c r="I69">
         <f t="shared" ref="I69:L83" si="5">MAX(0, IF($G69=I$2, $D69*$E69, 0))</f>
         <v>46</v>
@@ -11062,7 +10565,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>62</v>
@@ -11109,10 +10612,10 @@
         <v>23</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
         <v>149</v>
-      </c>
-      <c r="C71" t="s">
-        <v>150</v>
       </c>
       <c r="D71">
         <v>31</v>
@@ -11126,7 +10629,9 @@
       <c r="G71" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="8"/>
+      <c r="H71" t="s">
+        <v>141</v>
+      </c>
       <c r="I71">
         <f t="shared" si="5"/>
         <v>31</v>
@@ -11150,7 +10655,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>62</v>
@@ -11238,7 +10743,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>40</v>
@@ -11282,10 +10787,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -11301,10 +10806,10 @@
         <v>18</v>
       </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I75">
         <f t="shared" si="5"/>
@@ -11329,7 +10834,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>62</v>
@@ -11373,13 +10878,13 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D77">
         <v>26</v>
@@ -11417,13 +10922,13 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D78">
         <v>28</v>
@@ -11461,13 +10966,13 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D79">
         <v>19</v>
@@ -11505,7 +11010,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>62</v>
@@ -11520,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G80" t="s">
         <v>15</v>
@@ -11549,7 +11054,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>62</v>
@@ -11571,7 +11076,7 @@
         <v>15</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
@@ -11596,10 +11101,10 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -11643,7 +11148,7 @@
         <v>23</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -11684,7 +11189,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>62</v>
@@ -11728,7 +11233,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>62</v>
@@ -11772,13 +11277,13 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D86">
         <v>63</v>
@@ -11819,10 +11324,10 @@
         <v>23</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -11836,7 +11341,9 @@
       <c r="G87" t="s">
         <v>15</v>
       </c>
-      <c r="H87" s="8"/>
+      <c r="H87" t="s">
+        <v>163</v>
+      </c>
       <c r="I87">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -15225,7 +14732,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I203" s="15">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
@@ -15250,7 +14757,7 @@
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I204">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
@@ -15275,7 +14782,7 @@
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I205" s="16">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
@@ -15300,7 +14807,7 @@
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G206" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="I206">
         <f>ROUND(I$203*I$204*I$205, 0)</f>
@@ -15328,7 +14835,7 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="I208" s="16" t="str">
         <f>I$2</f>
@@ -15353,11 +14860,11 @@
     </row>
     <row r="209" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G209" t="str" cm="1">
-        <f t="array" ref="G209:G235">_xlfn.UNIQUE(C3:C200)</f>
+        <f t="array" ref="G209:G220">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
         <v>everything</v>
       </c>
       <c r="I209">
-        <f t="shared" ref="I209:L234" si="12">COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G209)</f>
+        <f t="shared" ref="I209:L222" si="12">COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G209)</f>
         <v>11</v>
       </c>
       <c r="J209" s="16">
@@ -15383,11 +14890,11 @@
       </c>
       <c r="I210" s="16">
         <f t="shared" si="12"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J210" s="16">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K210" s="16">
         <f t="shared" si="12"/>
@@ -15398,13 +14905,13 @@
         <v>2</v>
       </c>
       <c r="M210" s="16">
-        <f t="shared" ref="M210:M234" si="13">COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G210)</f>
+        <f t="shared" ref="M210:M222" si="13">COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G210)</f>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G211" t="str">
-        <v>MyItem cls</v>
+        <v>new cls</v>
       </c>
       <c r="I211" s="16">
         <f t="shared" si="12"/>
@@ -15429,7 +14936,7 @@
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G212" t="str">
-        <v>changes to GridView cls</v>
+        <v>docs</v>
       </c>
       <c r="I212" s="16">
         <f t="shared" si="12"/>
@@ -15437,7 +14944,7 @@
       </c>
       <c r="J212" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K212" s="16">
         <f t="shared" si="12"/>
@@ -15454,15 +14961,15 @@
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G213" t="str">
-        <v>docs</v>
+        <v>change docs</v>
       </c>
       <c r="I213" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="16">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K213" s="16">
         <f t="shared" si="12"/>
@@ -15479,15 +14986,15 @@
     </row>
     <row r="214" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G214" t="str">
-        <v>change docs</v>
+        <v>remove</v>
       </c>
       <c r="I214" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="16">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K214" s="16">
         <f t="shared" si="12"/>
@@ -15504,7 +15011,7 @@
     </row>
     <row r="215" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G215" t="str">
-        <v>remove buggy &amp; unneeded</v>
+        <v>created</v>
       </c>
       <c r="I215" s="16">
         <f t="shared" si="12"/>
@@ -15529,7 +15036,7 @@
     </row>
     <row r="216" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G216" t="str">
-        <v>created</v>
+        <v>smaller updates</v>
       </c>
       <c r="I216" s="16">
         <f t="shared" si="12"/>
@@ -15537,7 +15044,7 @@
       </c>
       <c r="J216" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" s="16">
         <f t="shared" si="12"/>
@@ -15554,15 +15061,15 @@
     </row>
     <row r="217" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G217" t="str">
-        <v>smaller updates</v>
+        <v>added</v>
       </c>
       <c r="I217" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J217" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K217" s="16">
         <f t="shared" si="12"/>
@@ -15579,15 +15086,15 @@
     </row>
     <row r="218" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G218" t="str">
-        <v>sidebar code</v>
+        <v>setter</v>
       </c>
       <c r="I218" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" s="16">
         <f t="shared" si="12"/>
@@ -15604,15 +15111,15 @@
     </row>
     <row r="219" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G219" t="str">
-        <v>runtime checks</v>
+        <v>moved</v>
       </c>
       <c r="I219" s="16">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="16">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K219" s="16">
         <f t="shared" si="12"/>
@@ -15629,7 +15136,7 @@
     </row>
     <row r="220" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G220" t="str">
-        <v>moved sidebar to the left</v>
+        <v>fixes</v>
       </c>
       <c r="I220" s="16">
         <f t="shared" si="12"/>
@@ -15653,590 +15160,233 @@
       </c>
     </row>
     <row r="221" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G221" t="str">
-        <v>implemented basic seri...</v>
-      </c>
-      <c r="I221" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J221" s="16">
-        <f t="shared" si="12"/>
+      <c r="I221" s="16"/>
+      <c r="J221" s="16"/>
+      <c r="K221" s="16"/>
+      <c r="L221" s="16"/>
+      <c r="M221" s="16"/>
+    </row>
+    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>170</v>
+      </c>
+      <c r="I222" s="16" t="str">
+        <f t="shared" ref="I222:M237" si="14">I$2</f>
+        <v>adalfarus</v>
+      </c>
+      <c r="J222" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Giesbrt</v>
+      </c>
+      <c r="K222" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>Fa4953</v>
+      </c>
+      <c r="L222" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>TheCodeJak</v>
+      </c>
+      <c r="M222" s="16" t="str">
+        <f t="shared" si="14"/>
+        <v>XXXXXX</v>
+      </c>
+    </row>
+    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G223" t="str" cm="1">
+        <f t="array" ref="G223:G229">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
+        <v>none</v>
+      </c>
+      <c r="I223" s="16">
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G223)</f>
+        <v>29</v>
+      </c>
+      <c r="J223" s="16">
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G223)</f>
+        <v>19</v>
+      </c>
+      <c r="K223" s="16">
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G223)</f>
+        <v>0</v>
+      </c>
+      <c r="L223" s="16">
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G223)</f>
         <v>2</v>
       </c>
-      <c r="K221" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L221" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M221" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G222" t="str">
-        <v>setter</v>
-      </c>
-      <c r="I222" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J222" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K222" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L222" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M222" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G223" t="str">
-        <v>changed to pickle</v>
-      </c>
-      <c r="I223" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J223" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K223" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L223" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="M223" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G223)</f>
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G224" t="str">
-        <v>implemented proper file ...</v>
+        <v>comments 5%</v>
       </c>
       <c r="I224" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G224)</f>
+        <v>2</v>
       </c>
       <c r="J224" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G224)</f>
         <v>0</v>
       </c>
       <c r="K224" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G224)</f>
         <v>0</v>
       </c>
       <c r="L224" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G224)</f>
         <v>0</v>
       </c>
       <c r="M224" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G224)</f>
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G225" t="str">
-        <v>not taken into account as</v>
+        <v>inline 100%</v>
       </c>
       <c r="I225" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G225)</f>
+        <v>5</v>
       </c>
       <c r="J225" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G225)</f>
+        <v>18</v>
       </c>
       <c r="K225" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G225)</f>
+        <v>3</v>
       </c>
       <c r="L225" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G225)</f>
         <v>0</v>
       </c>
       <c r="M225" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G225)</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G226" t="str">
-        <v>moved definition</v>
+        <v>inline 5%</v>
       </c>
       <c r="I226" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G226)</f>
+        <v>3</v>
       </c>
       <c r="J226" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G226)</f>
+        <v>0</v>
       </c>
       <c r="K226" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="L226" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="M226" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G227" t="str">
-        <v>Added api methods</v>
+        <v>comments 100%</v>
       </c>
       <c r="I227" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G227)</f>
+        <v>1</v>
       </c>
       <c r="J227" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G227)</f>
+        <v>0</v>
       </c>
       <c r="K227" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
       <c r="L227" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
       <c r="M227" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G228" t="str">
-        <v>Implemented api meth.</v>
+        <v>inline 50%</v>
       </c>
       <c r="I228" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="J228" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G228)</f>
         <v>1</v>
       </c>
       <c r="K228" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="L228" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="M228" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G229" t="str">
-        <v>Made thread-safe</v>
+        <v>in md 100%</v>
       </c>
       <c r="I229" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G229)</f>
         <v>1</v>
       </c>
       <c r="J229" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$222, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="K229" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$222, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="L229" s="16">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$222, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="M229" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G230" t="str">
-        <v>Fixed thread-safe impl.</v>
-      </c>
-      <c r="I230" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J230" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K230" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L230" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M230" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G231" t="str">
-        <v>fixes</v>
-      </c>
-      <c r="I231" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J231" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K231" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L231" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M231" s="16">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$222, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G232" t="str">
-        <v>added settings panel cls</v>
-      </c>
-      <c r="I232" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J232" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K232" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L232" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M232" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="I232" s="16"/>
+      <c r="J232" s="16"/>
+      <c r="K232" s="16"/>
+      <c r="L232" s="16"/>
+      <c r="M232" s="16"/>
     </row>
     <row r="233" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G233" t="str">
-        <v>added</v>
-      </c>
-      <c r="I233" s="16">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="J233" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K233" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L233" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M233" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="I233" s="16"/>
+      <c r="J233" s="16"/>
+      <c r="K233" s="16"/>
+      <c r="L233" s="16"/>
+      <c r="M233" s="16"/>
     </row>
     <row r="234" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G234" t="str">
-        <v>fixed background cache</v>
-      </c>
-      <c r="I234" s="16">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J234" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K234" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L234" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M234" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G237" t="s">
-        <v>180</v>
-      </c>
-      <c r="I237" s="16" t="str">
-        <f t="shared" ref="I237:M237" si="14">I$2</f>
-        <v>adalfarus</v>
-      </c>
-      <c r="J237" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>Giesbrt</v>
-      </c>
-      <c r="K237" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>Fa4953</v>
-      </c>
-      <c r="L237" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>TheCodeJak</v>
-      </c>
-      <c r="M237" s="16" t="str">
-        <f t="shared" si="14"/>
-        <v>XXXXXX</v>
-      </c>
-    </row>
-    <row r="238" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G238" t="str" cm="1">
-        <f t="array" ref="G238:G246">_xlfn.UNIQUE(F3:F200)</f>
-        <v>none</v>
-      </c>
-      <c r="I238" s="16">
-        <f t="shared" ref="I238:M245" si="15">COUNTIFS($G$3:$G$200, I$237, $F$3:$F$200, $G238)</f>
-        <v>29</v>
-      </c>
-      <c r="J238" s="16">
-        <f t="shared" si="15"/>
-        <v>19</v>
-      </c>
-      <c r="K238" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L238" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="M238" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G239" t="str">
-        <v>comments 5%</v>
-      </c>
-      <c r="I239" s="16">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="J239" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K239" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L239" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M239" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G240" t="str">
-        <v>inline 100%</v>
-      </c>
-      <c r="I240" s="16">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="J240" s="16">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="K240" s="16">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="L240" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M240" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G241" t="str">
-        <v>inline 5%</v>
-      </c>
-      <c r="I241" s="16">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="J241" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K241" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L241" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M241" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G242" t="str">
-        <v>comments 100%</v>
-      </c>
-      <c r="I242" s="16">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J242" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K242" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L242" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M242" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G243" t="str">
-        <v>needed</v>
-      </c>
-      <c r="I243" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J243" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K243" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L243" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M243" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G244" t="str">
-        <v>inline 50%</v>
-      </c>
-      <c r="I244" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J244" s="16">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="K244" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L244" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M244" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G245" t="str">
-        <v>in md 100%</v>
-      </c>
-      <c r="I245" s="16">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="J245" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K245" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L245" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M245" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G246">
-        <v>0</v>
-      </c>
+      <c r="I234" s="16"/>
+      <c r="J234" s="16"/>
+      <c r="K234" s="16"/>
+      <c r="L234" s="16"/>
+      <c r="M234" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BB3EEB-CA5A-4E09-B200-5A019A15F3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B0339-F910-4858-836C-7F3CDAD62C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="183">
   <si>
     <t>Datei</t>
   </si>
@@ -625,6 +625,21 @@
   </si>
   <si>
     <t>singleton is not needed (will be removed)</t>
+  </si>
+  <si>
+    <t>added new displ...</t>
+  </si>
+  <si>
+    <t>src\dc\displayManager</t>
+  </si>
+  <si>
+    <t>updated unit test</t>
+  </si>
+  <si>
+    <t>updated DFAAutom...</t>
+  </si>
+  <si>
+    <t>In the last</t>
   </si>
 </sst>
 </file>
@@ -825,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,18 +864,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -878,7 +894,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -940,7 +956,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1108,7 +1124,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1149,7 +1165,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1190,7 +1206,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1231,7 +1247,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1272,7 +1288,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1351,10 +1367,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2600</c:v>
+                  <c:v>2732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1258</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -1427,7 +1443,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1441,7 +1457,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1503,7 +1519,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1519,7 +1535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$H$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1537,7 +1553,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1581,7 +1597,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$209:$H$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$211:$H$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1599,7 +1615,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1620,7 +1636,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1664,12 +1680,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$209:$I$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$211:$I$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -1718,7 +1734,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1739,7 +1755,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1783,7 +1799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$209:$J$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$211:$J$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1791,7 +1807,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1837,7 +1853,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1858,7 +1874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1902,7 +1918,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$209:$K$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$211:$K$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1956,7 +1972,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1977,7 +1993,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2021,7 +2037,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$209:$L$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$211:$L$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2075,7 +2091,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2096,7 +2112,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$209:$G$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2140,7 +2156,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$209:$M$220</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$211:$M$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2243,7 +2259,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693168896"/>
@@ -2316,7 +2332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693170560"/>
@@ -2358,7 +2374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2395,7 +2411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2409,7 +2425,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2471,7 +2487,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2487,7 +2503,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$H$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2505,7 +2521,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2534,7 +2550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$223:$H$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$225:$H$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2552,7 +2568,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2573,7 +2589,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2602,7 +2618,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$223:$I$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$225:$I$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2613,7 +2629,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -2641,7 +2657,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2662,7 +2678,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2691,7 +2707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$223:$J$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$225:$J$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2702,7 +2718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2730,7 +2746,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2751,7 +2767,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2780,7 +2796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$223:$K$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$225:$K$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2819,7 +2835,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2840,7 +2856,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2869,7 +2885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$223:$L$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$225:$L$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2908,7 +2924,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$224</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2929,7 +2945,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$223:$G$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2958,7 +2974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$223:$M$229</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$225:$M$231</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3046,7 +3062,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672855376"/>
@@ -3119,7 +3135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672851632"/>
@@ -3161,7 +3177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3198,7 +3214,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3212,7 +3228,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3274,7 +3290,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3290,7 +3306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$203:$H$203</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$205:$H$205</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3311,7 +3327,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$202:$M$202</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3334,15 +3350,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$203:$M$203</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$205:$M$205</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3367,7 +3383,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$204:$H$204</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$206:$H$206</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3388,7 +3404,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$202:$M$202</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3411,15 +3427,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$206:$M$206</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4390243902439024</c:v>
+                  <c:v>1.4523809523809523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3783783783783783</c:v>
+                  <c:v>1.4047619047619047</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6666666666666667</c:v>
@@ -3444,7 +3460,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$205:$H$205</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$207:$H$207</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3465,7 +3481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$202:$M$202</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3488,15 +3504,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$205:$M$205</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$207:$M$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.292682926829265</c:v>
+                  <c:v>42.857142857142854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.756756756756758</c:v>
+                  <c:v>19.904761904761905</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>55.666666666666664</c:v>
@@ -3569,7 +3585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739573552"/>
@@ -3642,7 +3658,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739578128"/>
@@ -3684,7 +3700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3721,7 +3737,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3735,7 +3751,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3772,7 +3788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3786,7 +3802,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$206:$H$206</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$208:$H$208</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3941,7 +3957,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -3982,7 +3998,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4023,7 +4039,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4064,7 +4080,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4105,7 +4121,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4156,7 +4172,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$202:$M$202</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4179,15 +4195,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$206:$M$206</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$208:$M$208</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2495</c:v>
+                  <c:v>2614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1140</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>278</c:v>
@@ -4260,7 +4276,619 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Last 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> commits</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tätigkeitsdokumentation!$I$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>adalfarus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giesbrt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fa4953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TheCodeJak</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XXXXXX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tätigkeitsdokumentation!$I$202:$M$202</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18CC-432E-9080-9EE1C8361876}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Last 5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> commits per person</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tätigkeitsdokumentation!$I$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>adalfarus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giesbrt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fa4953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TheCodeJak</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>XXXXXX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tätigkeitsdokumentation!$I$203:$M$203</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BA4-4F50-BFA3-E2A1E0BEE682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4471,6 +5099,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
@@ -6945,6 +7653,1044 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7124,15 +8870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1877786</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>29937</xdr:rowOff>
+      <xdr:colOff>1868261</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>106137</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7160,15 +8906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1905001</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>111579</xdr:rowOff>
+      <xdr:colOff>1866901</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>140154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>187779</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1208315</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>25854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7193,13 +8939,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>605116</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>605116</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F23879A-386A-4AE2-A14C-AA3D8B199187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>20449</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>61352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>139233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3C796F1-423C-45AB-9EC3-78095DFDA7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7237,9 +9055,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7272,9 +9090,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7307,9 +9142,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7483,13 +9335,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M229"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="C171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q203" sqref="Q203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -7504,12 +9356,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -7581,7 +9433,7 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="15"/>
       <c r="I3">
         <f>MAX(0, IF($G3=I$2, $D3*$E3, 0))</f>
         <v>4</v>
@@ -7609,19 +9461,19 @@
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>62</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
@@ -7652,19 +9504,19 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <v>70</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8"/>
@@ -7695,19 +9547,19 @@
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>374</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="8"/>
@@ -7738,19 +9590,19 @@
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8"/>
@@ -7781,19 +9633,19 @@
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8"/>
@@ -7824,19 +9676,19 @@
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="16">
         <v>16</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -7869,19 +9721,19 @@
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <v>32</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -7914,19 +9766,19 @@
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="16">
         <v>70</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="8"/>
@@ -7957,19 +9809,19 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="16">
         <v>23</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="8"/>
@@ -8000,19 +9852,19 @@
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <v>11</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="8"/>
@@ -8043,19 +9895,19 @@
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="16">
         <v>6</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="16">
         <v>1</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="8"/>
@@ -8086,19 +9938,19 @@
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>32</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -8131,19 +9983,19 @@
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <v>23</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>2</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -8176,19 +10028,19 @@
       <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="16">
         <v>25</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="16">
         <v>2</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -8221,19 +10073,19 @@
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="16">
         <v>58</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="16">
         <v>2</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="8"/>
@@ -8264,19 +10116,19 @@
       <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>17</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="16">
         <v>2</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="8"/>
@@ -8307,19 +10159,19 @@
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>14</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="8"/>
@@ -8350,19 +10202,19 @@
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="16">
         <v>32</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>2</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="8"/>
@@ -8393,19 +10245,19 @@
       <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="8"/>
@@ -8436,19 +10288,19 @@
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
         <v>1</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="8"/>
@@ -8479,19 +10331,19 @@
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="8"/>
@@ -8522,19 +10374,19 @@
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
         <v>1</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="8"/>
@@ -8565,19 +10417,19 @@
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
         <v>1</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="8"/>
@@ -8608,19 +10460,19 @@
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
         <v>1</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="8"/>
@@ -8651,19 +10503,19 @@
       <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <v>-20</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>1</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -8696,19 +10548,19 @@
       <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="18">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="8"/>
@@ -8739,19 +10591,19 @@
       <c r="B30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="16">
         <v>6</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="8"/>
@@ -8782,19 +10634,19 @@
       <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <v>9</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>3</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -8827,19 +10679,19 @@
       <c r="B32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="18">
-        <v>0</v>
-      </c>
-      <c r="E32" s="18">
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
         <v>3</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -8872,19 +10724,19 @@
       <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="16">
         <v>56</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>1</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="8"/>
@@ -8915,19 +10767,19 @@
       <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="16">
         <v>6</v>
       </c>
-      <c r="E34" s="18">
+      <c r="E34" s="16">
         <v>1</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="8"/>
@@ -8958,19 +10810,19 @@
       <c r="B35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="16">
         <v>43</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="16">
         <v>1</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -9003,19 +10855,19 @@
       <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <v>30</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E36" s="16">
         <v>1</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="8"/>
@@ -9046,19 +10898,19 @@
       <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
         <v>1</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="8"/>
@@ -9089,19 +10941,19 @@
       <c r="B38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="16">
         <v>28</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="16">
         <v>2</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -9134,19 +10986,19 @@
       <c r="B39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="16">
         <v>48</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="16">
         <v>2</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="8"/>
@@ -9177,19 +11029,19 @@
       <c r="B40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="16">
         <v>17</v>
       </c>
-      <c r="E40" s="18">
+      <c r="E40" s="16">
         <v>2</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -9222,19 +11074,19 @@
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="16">
         <v>31</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="16">
         <v>2</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -9267,19 +11119,19 @@
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="16">
         <v>4</v>
       </c>
-      <c r="E42" s="18">
+      <c r="E42" s="16">
         <v>1</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="8"/>
@@ -9310,19 +11162,19 @@
       <c r="B43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="16">
         <v>24</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="16">
         <v>2</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -9355,19 +11207,19 @@
       <c r="B44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="16">
         <v>51</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E44" s="16">
         <v>1</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -9400,19 +11252,19 @@
       <c r="B45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="16">
         <v>151</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E45" s="16">
         <v>2</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="8" t="s">
@@ -9445,19 +11297,19 @@
       <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="16">
         <v>132</v>
       </c>
-      <c r="E46" s="18">
+      <c r="E46" s="16">
         <v>2</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="16" t="s">
         <v>88</v>
       </c>
       <c r="H46" s="8"/>
@@ -9488,19 +11340,19 @@
       <c r="B47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="16">
         <v>18</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E47" s="16">
         <v>1</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="16" t="s">
         <v>88</v>
       </c>
       <c r="H47" s="8"/>
@@ -9531,19 +11383,19 @@
       <c r="B48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="16">
         <v>17</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="16">
         <v>2</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="16" t="s">
         <v>88</v>
       </c>
       <c r="H48" s="8"/>
@@ -9574,19 +11426,19 @@
       <c r="B49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="16">
         <v>39</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="16">
         <v>2</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="8"/>
@@ -9617,11 +11469,11 @@
       <c r="B50" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
       <c r="H50" s="8" t="s">
         <v>177</v>
       </c>
@@ -9652,19 +11504,19 @@
       <c r="B51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="16">
         <v>21</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E51" s="16">
         <v>1</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H51" s="8"/>
@@ -9695,19 +11547,19 @@
       <c r="B52" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="16">
         <v>12</v>
       </c>
-      <c r="E52" s="18">
+      <c r="E52" s="16">
         <v>2</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H52" s="8"/>
@@ -9738,15 +11590,15 @@
       <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18" t="s">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="18" t="s">
+      <c r="G53" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -9779,19 +11631,19 @@
       <c r="B54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="16">
         <v>12</v>
       </c>
-      <c r="E54" s="18">
+      <c r="E54" s="16">
         <v>1</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="18" t="s">
+      <c r="G54" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -9824,19 +11676,19 @@
       <c r="B55" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="16">
         <v>8</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E55" s="16">
         <v>1</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -9869,19 +11721,19 @@
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="16">
         <v>14</v>
       </c>
-      <c r="E56" s="18">
+      <c r="E56" s="16">
         <v>2</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -9914,19 +11766,19 @@
       <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="16">
         <v>5</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E57" s="16">
         <v>2</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -9959,19 +11811,19 @@
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="16">
         <v>49</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="16">
         <v>2</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -10004,19 +11856,19 @@
       <c r="B59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="16">
         <v>197</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="16">
         <v>2</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="16" t="s">
         <v>127</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -10049,19 +11901,19 @@
       <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="16">
         <v>9</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="16">
         <v>1</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="8"/>
@@ -10092,19 +11944,19 @@
       <c r="B61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="16">
         <v>9</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="16">
         <v>1</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H61" s="8"/>
@@ -10135,19 +11987,19 @@
       <c r="B62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="16">
         <v>3</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="16">
         <v>3</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -10180,19 +12032,19 @@
       <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="16">
         <v>10</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="16">
         <v>1</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="8"/>
@@ -10223,19 +12075,19 @@
       <c r="B64" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="16">
         <v>31</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="16">
         <v>2</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H64" s="8"/>
@@ -10266,19 +12118,19 @@
       <c r="B65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="16">
         <v>85</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="16">
         <v>2</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H65" s="8"/>
@@ -10309,20 +12161,20 @@
       <c r="B66" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="16">
         <f>26 + 23 + 3</f>
         <v>52</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="16">
         <v>1</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="8"/>
@@ -10353,20 +12205,20 @@
       <c r="B67" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="16">
         <f>102 + 103</f>
         <v>205</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="16">
         <v>2</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="8" t="s">
@@ -10399,20 +12251,20 @@
       <c r="B68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="16">
         <f>30 + 22 + 10</f>
         <v>62</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="16">
         <v>2</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="8"/>
@@ -10443,19 +12295,19 @@
       <c r="B69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="16">
         <v>46</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <v>1</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="8"/>
@@ -10486,19 +12338,19 @@
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="16">
         <v>19</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="16">
         <v>1</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="8"/>
@@ -10529,19 +12381,19 @@
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="16">
         <v>31</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="16">
         <v>1</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="8" t="s">
@@ -10574,19 +12426,19 @@
       <c r="B72" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="18">
+      <c r="D72" s="16">
         <v>6</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="16">
         <v>1</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H72" s="8"/>
@@ -10617,19 +12469,19 @@
       <c r="B73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="16">
         <v>30</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="16">
         <v>2</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="8"/>
@@ -10660,19 +12512,19 @@
       <c r="B74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="18">
-        <v>0</v>
-      </c>
-      <c r="E74" s="18">
+      <c r="D74" s="16">
+        <v>0</v>
+      </c>
+      <c r="E74" s="16">
         <v>1</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H74" s="8"/>
@@ -10703,20 +12555,20 @@
       <c r="B75" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="16">
         <f>107 - 17</f>
         <v>90</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="16">
         <v>2</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="16" t="s">
         <v>127</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -10749,19 +12601,19 @@
       <c r="B76" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="18">
+      <c r="D76" s="16">
         <v>20</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="16">
         <v>1</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H76" s="8"/>
@@ -10792,19 +12644,19 @@
       <c r="B77" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="16">
         <v>26</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="16">
         <v>1</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="8"/>
@@ -10835,19 +12687,19 @@
       <c r="B78" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C78" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="18">
+      <c r="D78" s="16">
         <v>28</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="16">
         <v>1</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="8"/>
@@ -10878,19 +12730,19 @@
       <c r="B79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="18" t="s">
+      <c r="C79" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="16">
         <v>19</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="16">
         <v>1</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="8"/>
@@ -10921,19 +12773,19 @@
       <c r="B80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="18">
-        <v>0</v>
-      </c>
-      <c r="E80" s="18">
+      <c r="D80" s="16">
+        <v>0</v>
+      </c>
+      <c r="E80" s="16">
         <v>1</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H80" s="8"/>
@@ -10964,20 +12816,20 @@
       <c r="B81" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="16">
         <f>8 * 9</f>
         <v>72</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="16">
         <v>1</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="8" t="s">
@@ -11010,19 +12862,19 @@
       <c r="B82" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="18">
+      <c r="D82" s="16">
         <v>28</v>
       </c>
-      <c r="E82" s="18">
+      <c r="E82" s="16">
         <v>1</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="8"/>
@@ -11053,19 +12905,19 @@
       <c r="B83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="16">
         <v>118</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="16">
         <v>2</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="8"/>
@@ -11096,19 +12948,19 @@
       <c r="B84" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="18">
+      <c r="D84" s="16">
         <v>10</v>
       </c>
-      <c r="E84" s="18">
+      <c r="E84" s="16">
         <v>1</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H84" s="8"/>
@@ -11139,19 +12991,19 @@
       <c r="B85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="16">
         <v>35</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="16">
         <v>1</v>
       </c>
-      <c r="F85" s="18" t="s">
+      <c r="F85" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H85" s="8"/>
@@ -11182,19 +13034,19 @@
       <c r="B86" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="18" t="s">
+      <c r="C86" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="18">
+      <c r="D86" s="16">
         <v>63</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="16">
         <v>2</v>
       </c>
-      <c r="F86" s="18" t="s">
+      <c r="F86" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="8"/>
@@ -11225,19 +13077,19 @@
       <c r="B87" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="18" t="s">
+      <c r="C87" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="16">
         <v>2</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="16">
         <v>1</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -11264,16 +13116,31 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="A88" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="16">
+        <v>66</v>
+      </c>
+      <c r="E88" s="19">
+        <v>2</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="H88" s="8"/>
       <c r="I88">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J88">
         <f t="shared" si="6"/>
@@ -11292,12 +13159,27 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="19">
+        <v>6</v>
+      </c>
+      <c r="E89" s="19">
+        <v>2</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H89" s="8"/>
       <c r="I89">
         <f t="shared" si="6"/>
@@ -11305,7 +13187,7 @@
       </c>
       <c r="J89">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K89">
         <f t="shared" si="6"/>
@@ -11320,12 +13202,27 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="19">
+        <v>5</v>
+      </c>
+      <c r="E90" s="19">
+        <v>2</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H90" s="8"/>
       <c r="I90">
         <f t="shared" si="6"/>
@@ -11333,7 +13230,7 @@
       </c>
       <c r="J90">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K90">
         <f t="shared" si="6"/>
@@ -11348,12 +13245,27 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="19">
+        <v>1</v>
+      </c>
+      <c r="E91" s="19">
+        <v>2</v>
+      </c>
+      <c r="F91" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H91" s="8"/>
       <c r="I91">
         <f t="shared" si="6"/>
@@ -11361,7 +13273,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91">
         <f t="shared" si="6"/>
@@ -11376,12 +13288,27 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="7"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
+      <c r="A92" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" s="19">
+        <v>8</v>
+      </c>
+      <c r="E92" s="19">
+        <v>1</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H92" s="8"/>
       <c r="I92">
         <f t="shared" si="6"/>
@@ -11389,7 +13316,7 @@
       </c>
       <c r="J92">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K92">
         <f t="shared" si="6"/>
@@ -11404,12 +13331,27 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="7"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
+      <c r="A93" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="19">
+        <v>11</v>
+      </c>
+      <c r="E93" s="19">
+        <v>1</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H93" s="8"/>
       <c r="I93">
         <f t="shared" si="6"/>
@@ -11417,7 +13359,7 @@
       </c>
       <c r="J93">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K93">
         <f t="shared" si="6"/>
@@ -11433,11 +13375,11 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
       <c r="H94" s="8"/>
       <c r="I94">
         <f t="shared" si="6"/>
@@ -11461,11 +13403,11 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
       <c r="H95" s="8"/>
       <c r="I95">
         <f t="shared" si="6"/>
@@ -11489,11 +13431,11 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
       <c r="H96" s="8"/>
       <c r="I96">
         <f t="shared" si="6"/>
@@ -11517,11 +13459,11 @@
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
       <c r="H97" s="8"/>
       <c r="I97">
         <f t="shared" si="6"/>
@@ -11545,11 +13487,11 @@
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
       <c r="H98" s="8"/>
       <c r="I98">
         <f t="shared" si="6"/>
@@ -11573,11 +13515,11 @@
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
       <c r="H99" s="8"/>
       <c r="I99">
         <f t="shared" si="6"/>
@@ -11601,11 +13543,11 @@
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
       <c r="H100" s="8"/>
       <c r="I100">
         <f t="shared" ref="I100:L115" si="7">MAX(0, IF($G100=I$2, $D100*$E100, 0))</f>
@@ -11629,11 +13571,11 @@
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
       <c r="H101" s="8"/>
       <c r="I101">
         <f t="shared" si="7"/>
@@ -11657,11 +13599,11 @@
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
       <c r="H102" s="8"/>
       <c r="I102">
         <f t="shared" si="7"/>
@@ -11685,11 +13627,11 @@
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
       <c r="H103" s="8"/>
       <c r="I103">
         <f t="shared" si="7"/>
@@ -11713,11 +13655,11 @@
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
       <c r="H104" s="8"/>
       <c r="I104">
         <f t="shared" si="7"/>
@@ -11741,11 +13683,11 @@
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
       <c r="H105" s="8"/>
       <c r="I105">
         <f t="shared" si="7"/>
@@ -11769,11 +13711,11 @@
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
       <c r="H106" s="8"/>
       <c r="I106">
         <f t="shared" si="7"/>
@@ -11797,11 +13739,11 @@
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
       <c r="H107" s="8"/>
       <c r="I107">
         <f t="shared" si="7"/>
@@ -11825,11 +13767,11 @@
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
       <c r="H108" s="8"/>
       <c r="I108">
         <f t="shared" si="7"/>
@@ -11853,11 +13795,11 @@
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
       <c r="H109" s="8"/>
       <c r="I109">
         <f t="shared" si="7"/>
@@ -11881,11 +13823,11 @@
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
       <c r="H110" s="8"/>
       <c r="I110">
         <f t="shared" si="7"/>
@@ -11909,11 +13851,11 @@
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
       <c r="H111" s="8"/>
       <c r="I111">
         <f t="shared" si="7"/>
@@ -11937,11 +13879,11 @@
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
       <c r="H112" s="8"/>
       <c r="I112">
         <f t="shared" si="7"/>
@@ -11965,11 +13907,11 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
       <c r="H113" s="8"/>
       <c r="I113">
         <f t="shared" si="7"/>
@@ -11993,11 +13935,11 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
       <c r="H114" s="8"/>
       <c r="I114">
         <f t="shared" si="7"/>
@@ -12021,11 +13963,11 @@
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
       <c r="H115" s="8"/>
       <c r="I115">
         <f t="shared" si="7"/>
@@ -12049,11 +13991,11 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
       <c r="H116" s="8"/>
       <c r="I116">
         <f t="shared" ref="I116:L179" si="8">MAX(0, IF($G116=I$2, $D116*$E116, 0))</f>
@@ -12077,11 +14019,11 @@
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
       <c r="H117" s="8"/>
       <c r="I117">
         <f t="shared" si="8"/>
@@ -12105,11 +14047,11 @@
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
       <c r="H118" s="8"/>
       <c r="I118">
         <f t="shared" si="8"/>
@@ -12133,11 +14075,11 @@
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
       <c r="H119" s="8"/>
       <c r="I119">
         <f t="shared" si="8"/>
@@ -12161,11 +14103,11 @@
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
       <c r="H120" s="8"/>
       <c r="I120">
         <f t="shared" si="8"/>
@@ -12189,11 +14131,11 @@
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
       <c r="H121" s="8"/>
       <c r="I121">
         <f t="shared" si="8"/>
@@ -12217,11 +14159,11 @@
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
       <c r="H122" s="8"/>
       <c r="I122">
         <f t="shared" si="8"/>
@@ -12245,11 +14187,11 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
       <c r="H123" s="8"/>
       <c r="I123">
         <f t="shared" si="8"/>
@@ -12273,11 +14215,11 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
       <c r="H124" s="8"/>
       <c r="I124">
         <f t="shared" si="8"/>
@@ -12301,11 +14243,11 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
       <c r="H125" s="8"/>
       <c r="I125">
         <f t="shared" si="8"/>
@@ -12329,11 +14271,11 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
       <c r="H126" s="8"/>
       <c r="I126">
         <f t="shared" si="8"/>
@@ -12357,11 +14299,11 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
       <c r="H127" s="8"/>
       <c r="I127">
         <f t="shared" si="8"/>
@@ -12385,11 +14327,11 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
       <c r="H128" s="8"/>
       <c r="I128">
         <f t="shared" si="8"/>
@@ -12413,11 +14355,11 @@
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
       <c r="H129" s="8"/>
       <c r="I129">
         <f t="shared" si="8"/>
@@ -12441,11 +14383,11 @@
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
       <c r="H130" s="8"/>
       <c r="I130">
         <f t="shared" si="8"/>
@@ -12469,11 +14411,11 @@
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
       <c r="H131" s="8"/>
       <c r="I131">
         <f t="shared" si="8"/>
@@ -12497,11 +14439,11 @@
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
       <c r="H132" s="8"/>
       <c r="I132">
         <f t="shared" si="8"/>
@@ -12525,11 +14467,11 @@
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
       <c r="H133" s="8"/>
       <c r="I133">
         <f t="shared" si="8"/>
@@ -12553,11 +14495,11 @@
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
       <c r="H134" s="8"/>
       <c r="I134">
         <f t="shared" si="8"/>
@@ -12581,11 +14523,11 @@
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
       <c r="H135" s="8"/>
       <c r="I135">
         <f t="shared" si="8"/>
@@ -12609,11 +14551,11 @@
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
       <c r="H136" s="8"/>
       <c r="I136">
         <f t="shared" si="8"/>
@@ -12637,11 +14579,11 @@
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
       <c r="H137" s="8"/>
       <c r="I137">
         <f t="shared" si="8"/>
@@ -12665,11 +14607,11 @@
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
       <c r="H138" s="8"/>
       <c r="I138">
         <f t="shared" si="8"/>
@@ -12693,11 +14635,11 @@
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
       <c r="H139" s="8"/>
       <c r="I139">
         <f t="shared" si="8"/>
@@ -12721,11 +14663,11 @@
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
       <c r="H140" s="8"/>
       <c r="I140">
         <f t="shared" si="8"/>
@@ -12749,11 +14691,11 @@
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
       <c r="H141" s="8"/>
       <c r="I141">
         <f t="shared" si="8"/>
@@ -12777,11 +14719,11 @@
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
       <c r="H142" s="8"/>
       <c r="I142">
         <f t="shared" si="8"/>
@@ -12805,11 +14747,11 @@
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
       <c r="H143" s="8"/>
       <c r="I143">
         <f t="shared" si="8"/>
@@ -12833,11 +14775,11 @@
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
       <c r="H144" s="8"/>
       <c r="I144">
         <f t="shared" si="8"/>
@@ -12861,11 +14803,11 @@
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
       <c r="H145" s="8"/>
       <c r="I145">
         <f t="shared" si="8"/>
@@ -12889,11 +14831,11 @@
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
       <c r="H146" s="8"/>
       <c r="I146">
         <f t="shared" si="8"/>
@@ -12917,11 +14859,11 @@
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
       <c r="H147" s="8"/>
       <c r="I147">
         <f t="shared" si="8"/>
@@ -12945,11 +14887,11 @@
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
       <c r="H148" s="8"/>
       <c r="I148">
         <f t="shared" si="8"/>
@@ -12973,11 +14915,11 @@
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
       <c r="H149" s="8"/>
       <c r="I149">
         <f t="shared" si="8"/>
@@ -13001,11 +14943,11 @@
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
       <c r="H150" s="8"/>
       <c r="I150">
         <f t="shared" si="8"/>
@@ -13029,11 +14971,11 @@
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
       <c r="H151" s="8"/>
       <c r="I151">
         <f t="shared" si="8"/>
@@ -13057,11 +14999,11 @@
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
       <c r="H152" s="8"/>
       <c r="I152">
         <f t="shared" si="8"/>
@@ -13085,11 +15027,11 @@
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
       <c r="H153" s="8"/>
       <c r="I153">
         <f t="shared" si="8"/>
@@ -13113,11 +15055,11 @@
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
       <c r="H154" s="8"/>
       <c r="I154">
         <f t="shared" si="8"/>
@@ -13141,11 +15083,11 @@
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
       <c r="H155" s="8"/>
       <c r="I155">
         <f t="shared" si="8"/>
@@ -13169,11 +15111,11 @@
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
       <c r="H156" s="8"/>
       <c r="I156">
         <f t="shared" si="8"/>
@@ -13197,11 +15139,11 @@
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
       <c r="H157" s="8"/>
       <c r="I157">
         <f t="shared" si="8"/>
@@ -13225,11 +15167,11 @@
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
       <c r="H158" s="8"/>
       <c r="I158">
         <f t="shared" si="8"/>
@@ -13253,11 +15195,11 @@
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
       <c r="H159" s="8"/>
       <c r="I159">
         <f t="shared" si="8"/>
@@ -13281,11 +15223,11 @@
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
       <c r="H160" s="8"/>
       <c r="I160">
         <f t="shared" si="8"/>
@@ -13309,11 +15251,11 @@
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
-      <c r="C161" s="18"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18"/>
-      <c r="G161" s="18"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
       <c r="H161" s="8"/>
       <c r="I161">
         <f t="shared" si="8"/>
@@ -13337,11 +15279,11 @@
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
       <c r="H162" s="8"/>
       <c r="I162">
         <f t="shared" si="8"/>
@@ -13365,11 +15307,11 @@
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
       <c r="H163" s="8"/>
       <c r="I163">
         <f t="shared" si="8"/>
@@ -13393,11 +15335,11 @@
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
       <c r="H164" s="8"/>
       <c r="I164">
         <f t="shared" si="8"/>
@@ -13421,11 +15363,11 @@
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
       <c r="H165" s="8"/>
       <c r="I165">
         <f t="shared" si="8"/>
@@ -13449,11 +15391,11 @@
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
-      <c r="C166" s="18"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18"/>
-      <c r="G166" s="18"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
       <c r="H166" s="8"/>
       <c r="I166">
         <f t="shared" si="8"/>
@@ -13477,11 +15419,11 @@
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
-      <c r="C167" s="18"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18"/>
-      <c r="G167" s="18"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
       <c r="H167" s="8"/>
       <c r="I167">
         <f t="shared" si="8"/>
@@ -13505,11 +15447,11 @@
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
-      <c r="C168" s="18"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
       <c r="H168" s="8"/>
       <c r="I168">
         <f t="shared" si="8"/>
@@ -13533,11 +15475,11 @@
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
       <c r="H169" s="8"/>
       <c r="I169">
         <f t="shared" si="8"/>
@@ -13561,11 +15503,11 @@
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
       <c r="H170" s="8"/>
       <c r="I170">
         <f t="shared" si="8"/>
@@ -13589,11 +15531,11 @@
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
       <c r="H171" s="8"/>
       <c r="I171">
         <f t="shared" si="8"/>
@@ -13617,11 +15559,11 @@
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
       <c r="H172" s="8"/>
       <c r="I172">
         <f t="shared" si="8"/>
@@ -13645,11 +15587,11 @@
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
       <c r="H173" s="8"/>
       <c r="I173">
         <f t="shared" si="8"/>
@@ -13673,11 +15615,11 @@
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
-      <c r="C174" s="18"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="18"/>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
       <c r="H174" s="8"/>
       <c r="I174">
         <f t="shared" si="8"/>
@@ -13701,11 +15643,11 @@
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
       <c r="H175" s="8"/>
       <c r="I175">
         <f t="shared" si="8"/>
@@ -13729,11 +15671,11 @@
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
       <c r="H176" s="8"/>
       <c r="I176">
         <f t="shared" si="8"/>
@@ -13757,11 +15699,11 @@
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
       <c r="H177" s="8"/>
       <c r="I177">
         <f t="shared" si="8"/>
@@ -13785,11 +15727,11 @@
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
       <c r="H178" s="8"/>
       <c r="I178">
         <f t="shared" si="8"/>
@@ -13813,11 +15755,11 @@
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
-      <c r="C179" s="18"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="18"/>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
       <c r="H179" s="8"/>
       <c r="I179">
         <f t="shared" si="8"/>
@@ -13841,11 +15783,11 @@
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
       <c r="H180" s="8"/>
       <c r="I180">
         <f t="shared" si="9"/>
@@ -13869,11 +15811,11 @@
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="16"/>
+      <c r="G181" s="16"/>
       <c r="H181" s="8"/>
       <c r="I181">
         <f t="shared" si="9"/>
@@ -13897,11 +15839,11 @@
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
+      <c r="G182" s="16"/>
       <c r="H182" s="8"/>
       <c r="I182">
         <f t="shared" si="9"/>
@@ -13925,11 +15867,11 @@
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="16"/>
+      <c r="G183" s="16"/>
       <c r="H183" s="8"/>
       <c r="I183">
         <f t="shared" si="9"/>
@@ -13953,11 +15895,11 @@
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
-      <c r="C184" s="18"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="18"/>
-      <c r="F184" s="18"/>
-      <c r="G184" s="18"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="16"/>
+      <c r="G184" s="16"/>
       <c r="H184" s="8"/>
       <c r="I184">
         <f t="shared" si="9"/>
@@ -13981,11 +15923,11 @@
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
+      <c r="G185" s="16"/>
       <c r="H185" s="8"/>
       <c r="I185">
         <f t="shared" si="9"/>
@@ -14009,11 +15951,11 @@
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="16"/>
+      <c r="G186" s="16"/>
       <c r="H186" s="8"/>
       <c r="I186">
         <f t="shared" si="9"/>
@@ -14037,11 +15979,11 @@
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+      <c r="G187" s="16"/>
       <c r="H187" s="8"/>
       <c r="I187">
         <f t="shared" si="9"/>
@@ -14065,11 +16007,11 @@
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+      <c r="G188" s="16"/>
       <c r="H188" s="8"/>
       <c r="I188">
         <f t="shared" si="9"/>
@@ -14093,11 +16035,11 @@
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
-      <c r="C189" s="18"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="18"/>
-      <c r="F189" s="18"/>
-      <c r="G189" s="18"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
+      <c r="G189" s="16"/>
       <c r="H189" s="8"/>
       <c r="I189">
         <f t="shared" si="9"/>
@@ -14121,11 +16063,11 @@
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
-      <c r="C190" s="18"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="18"/>
-      <c r="F190" s="18"/>
-      <c r="G190" s="18"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="16"/>
+      <c r="G190" s="16"/>
       <c r="H190" s="8"/>
       <c r="I190">
         <f t="shared" si="9"/>
@@ -14149,11 +16091,11 @@
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
-      <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="18"/>
-      <c r="F191" s="18"/>
-      <c r="G191" s="18"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="16"/>
+      <c r="G191" s="16"/>
       <c r="H191" s="8"/>
       <c r="I191">
         <f t="shared" si="9"/>
@@ -14177,11 +16119,11 @@
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
-      <c r="C192" s="18"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="18"/>
-      <c r="F192" s="18"/>
-      <c r="G192" s="18"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
       <c r="H192" s="8"/>
       <c r="I192">
         <f t="shared" si="9"/>
@@ -14205,11 +16147,11 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="16"/>
+      <c r="G193" s="16"/>
       <c r="H193" s="8"/>
       <c r="I193">
         <f t="shared" si="9"/>
@@ -14233,11 +16175,11 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+      <c r="G194" s="16"/>
       <c r="H194" s="8"/>
       <c r="I194">
         <f t="shared" si="9"/>
@@ -14261,11 +16203,11 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
+      <c r="G195" s="16"/>
       <c r="H195" s="8"/>
       <c r="I195">
         <f t="shared" si="9"/>
@@ -14289,11 +16231,11 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+      <c r="G196" s="16"/>
       <c r="H196" s="8"/>
       <c r="I196">
         <f t="shared" si="9"/>
@@ -14317,11 +16259,11 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
-      <c r="C197" s="18"/>
-      <c r="D197" s="18"/>
-      <c r="E197" s="18"/>
-      <c r="F197" s="18"/>
-      <c r="G197" s="18"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+      <c r="G197" s="16"/>
       <c r="H197" s="8"/>
       <c r="I197">
         <f t="shared" si="9"/>
@@ -14345,11 +16287,11 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="16"/>
+      <c r="G198" s="16"/>
       <c r="H198" s="8"/>
       <c r="I198">
         <f t="shared" si="9"/>
@@ -14373,11 +16315,11 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="16"/>
+      <c r="G199" s="16"/>
       <c r="H199" s="8"/>
       <c r="I199">
         <f t="shared" si="9"/>
@@ -14401,11 +16343,11 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
+      <c r="G200" s="16"/>
       <c r="H200" s="8"/>
       <c r="I200">
         <f t="shared" si="9"/>
@@ -14454,11 +16396,11 @@
       </c>
       <c r="I201" s="10">
         <f>SUM(I$3:I$200)</f>
-        <v>2600</v>
+        <v>2732</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>1258</v>
+        <v>1301</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -14474,651 +16416,707 @@
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I202" t="str">
+      <c r="G202" t="s">
+        <v>182</v>
+      </c>
+      <c r="H202">
+        <v>5</v>
+      </c>
+      <c r="I202" s="19" cm="1">
+        <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="J202" s="19" cm="1">
+        <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>43</v>
+      </c>
+      <c r="K202" s="19" cm="1">
+        <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L202" s="19" cm="1">
+        <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="M202" s="19" cm="1">
+        <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>182</v>
+      </c>
+      <c r="H203">
+        <v>5</v>
+      </c>
+      <c r="I203" cm="1">
+        <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
+        <v>506</v>
+      </c>
+      <c r="J203" cm="1">
+        <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
+        <v>43</v>
+      </c>
+      <c r="K203" cm="1">
+        <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
+        <v>316</v>
+      </c>
+      <c r="L203" cm="1">
+        <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
+        <v>574</v>
+      </c>
+      <c r="M203" cm="1">
+        <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I204" t="str">
         <f>I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J202" t="str">
-        <f t="shared" ref="J202:M202" si="10">J$2</f>
+      <c r="J204" t="str">
+        <f t="shared" ref="J202:M204" si="10">J$2</f>
         <v>Giesbrt</v>
       </c>
-      <c r="K202" t="str">
+      <c r="K204" t="str">
         <f t="shared" si="10"/>
         <v>Fa4953</v>
       </c>
-      <c r="L202" t="str">
+      <c r="L204" t="str">
         <f t="shared" si="10"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M202" t="str">
+      <c r="M204" t="str">
         <f t="shared" si="10"/>
         <v>XXXXXX</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G203" t="s">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
         <v>164</v>
       </c>
-      <c r="I203">
+      <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>41</v>
-      </c>
-      <c r="J203">
+        <v>42</v>
+      </c>
+      <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
-        <v>38</v>
-      </c>
-      <c r="K203">
+        <v>43</v>
+      </c>
+      <c r="K205">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
         <v>3</v>
       </c>
-      <c r="L203">
+      <c r="L205">
         <f>COUNTIF($G$3:$G$200, L$2)</f>
         <v>2</v>
       </c>
-      <c r="M203">
+      <c r="M205">
         <f>COUNTIF($G$3:$G$200, M$2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G204" t="s">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
         <v>165</v>
       </c>
-      <c r="I204">
+      <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.4390243902439024</v>
-      </c>
-      <c r="J204">
+        <v>1.4523809523809523</v>
+      </c>
+      <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.3783783783783783</v>
-      </c>
-      <c r="K204">
+        <v>1.4047619047619047</v>
+      </c>
+      <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="L204">
+      <c r="L206">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $E$3:$E$200), 0)</f>
         <v>2</v>
       </c>
-      <c r="M204">
+      <c r="M206">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G205" t="s">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
         <v>166</v>
       </c>
-      <c r="I205">
+      <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>42.292682926829265</v>
-      </c>
-      <c r="J205">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
-        <v>21.756756756756758</v>
-      </c>
-      <c r="K205">
+        <v>19.904761904761905</v>
+      </c>
+      <c r="K207">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
         <v>55.666666666666664</v>
       </c>
-      <c r="L205">
+      <c r="L207">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $D$3:$D$200), 0)</f>
         <v>143.5</v>
       </c>
-      <c r="M205">
+      <c r="M207">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $D$3:$D$200), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G206" t="s">
-        <v>167</v>
-      </c>
-      <c r="I206">
-        <f>ROUND(I$203*I$204*I$205, 0)</f>
-        <v>2495</v>
-      </c>
-      <c r="J206">
-        <f>ROUND(J$203*J$204*J$205, 0)</f>
-        <v>1140</v>
-      </c>
-      <c r="K206">
-        <f>ROUND(K$203*K$204*K$205, 0)</f>
-        <v>278</v>
-      </c>
-      <c r="L206">
-        <f>ROUND(L$203*L$204*L$205, 0)</f>
-        <v>574</v>
-      </c>
-      <c r="M206">
-        <f>ROUND(M$203*M$204*M$205, 0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G208" t="s">
+        <v>167</v>
+      </c>
+      <c r="I208">
+        <f>ROUND(I$205*I$206*I$207, 0)</f>
+        <v>2614</v>
+      </c>
+      <c r="J208">
+        <f>ROUND(J$205*J$206*J$207, 0)</f>
+        <v>1202</v>
+      </c>
+      <c r="K208">
+        <f>ROUND(K$205*K$206*K$207, 0)</f>
+        <v>278</v>
+      </c>
+      <c r="L208">
+        <f>ROUND(L$205*L$206*L$207, 0)</f>
+        <v>574</v>
+      </c>
+      <c r="M208">
+        <f>ROUND(M$205*M$206*M$207, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
         <v>168</v>
       </c>
-      <c r="I208" t="str">
+      <c r="I210" t="str">
         <f>I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J208" t="str">
-        <f t="shared" ref="J208:M208" si="11">J$2</f>
+      <c r="J210" t="str">
+        <f t="shared" ref="J208:M210" si="11">J$2</f>
         <v>Giesbrt</v>
       </c>
-      <c r="K208" t="str">
+      <c r="K210" t="str">
         <f t="shared" si="11"/>
         <v>Fa4953</v>
       </c>
-      <c r="L208" t="str">
+      <c r="L210" t="str">
         <f t="shared" si="11"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M208" t="str">
+      <c r="M210" t="str">
         <f t="shared" si="11"/>
         <v>XXXXXX</v>
       </c>
     </row>
-    <row r="209" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G209" t="str" cm="1">
-        <f t="array" ref="G209:G220">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
+    <row r="211" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G211" t="str" cm="1">
+        <f t="array" ref="G211:G222">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
         <v>everything</v>
       </c>
-      <c r="I209">
-        <f t="shared" ref="I209:L220" si="12">COUNTIFS($G$3:$G$200, I$208, $C$3:$C$200, $G209)</f>
-        <v>11</v>
-      </c>
-      <c r="J209">
-        <f t="shared" si="12"/>
+      <c r="I211">
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <v>12</v>
+      </c>
+      <c r="J211">
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G211)</f>
         <v>15</v>
       </c>
-      <c r="K209">
-        <f t="shared" si="12"/>
+      <c r="K211">
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G211)</f>
         <v>3</v>
       </c>
-      <c r="L209">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M209">
-        <f>COUNTIFS(C3:C200, G209, G3:G200, M208)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G210" t="str">
-        <v>changes</v>
-      </c>
-      <c r="I210">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="J210">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="K210">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L210">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="M210">
-        <f t="shared" ref="M210:M220" si="13">COUNTIFS($G$3:$G$200, M$208, $C$3:$C$200, $G210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G211" t="str">
-        <v>new cls</v>
-      </c>
-      <c r="I211">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J211">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K211">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
       <c r="L211">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G211)</f>
         <v>0</v>
       </c>
       <c r="M211">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G212" t="str">
-        <v>docs</v>
+        <v>changes</v>
       </c>
       <c r="I212">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G212)</f>
+        <v>17</v>
       </c>
       <c r="J212">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G212)</f>
+        <v>13</v>
       </c>
       <c r="K212">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G212)</f>
+        <v>2</v>
       </c>
       <c r="M212">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G213" t="str">
-        <v>change docs</v>
+        <v>new cls</v>
       </c>
       <c r="I213">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G213)</f>
+        <v>1</v>
       </c>
       <c r="J213">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G213)</f>
+        <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G214" t="str">
-        <v>remove</v>
+        <v>docs</v>
       </c>
       <c r="I214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G214)</f>
         <v>1</v>
       </c>
       <c r="J214">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G214)</f>
+        <v>5</v>
       </c>
       <c r="K214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G214)</f>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G214)</f>
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G214)</f>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G215" t="str">
-        <v>created</v>
+        <v>change docs</v>
       </c>
       <c r="I215">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G215)</f>
+        <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G215)</f>
+        <v>3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G216" t="str">
-        <v>smaller updates</v>
+        <v>remove</v>
       </c>
       <c r="I216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G216)</f>
         <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G216)</f>
+        <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G217" t="str">
-        <v>added</v>
+        <v>created</v>
       </c>
       <c r="I217">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G217)</f>
+        <v>1</v>
       </c>
       <c r="J217">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G217)</f>
+        <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G218" t="str">
-        <v>setter</v>
+        <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G218)</f>
+        <v>1</v>
       </c>
       <c r="J218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G218)</f>
         <v>1</v>
       </c>
       <c r="K218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G218)</f>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G218)</f>
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G218)</f>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G219" t="str">
-        <v>moved</v>
+        <v>added</v>
       </c>
       <c r="I219">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G219)</f>
+        <v>7</v>
       </c>
       <c r="J219">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G219)</f>
+        <v>4</v>
       </c>
       <c r="K219">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G219)</f>
         <v>0</v>
       </c>
       <c r="L219">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G219)</f>
         <v>0</v>
       </c>
       <c r="M219">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G219)</f>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G220" t="str">
+        <v>setter</v>
+      </c>
+      <c r="I220">
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G220)</f>
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G220)</f>
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G220)</f>
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G220)</f>
+        <v>0</v>
+      </c>
+      <c r="M220">
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G220)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G221" t="str">
+        <v>moved</v>
+      </c>
+      <c r="I221">
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G221)</f>
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G221)</f>
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G221)</f>
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G221)</f>
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G221)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G222" t="str">
         <v>fixes</v>
       </c>
-      <c r="I220">
+      <c r="I222">
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G222)</f>
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G222)</f>
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G222)</f>
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G222)</f>
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G222)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>170</v>
+      </c>
+      <c r="I224" t="str">
+        <f t="shared" ref="I222:M224" si="12">I$2</f>
+        <v>adalfarus</v>
+      </c>
+      <c r="J224" t="str">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J220">
+        <v>Giesbrt</v>
+      </c>
+      <c r="K224" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K220">
+        <v>Fa4953</v>
+      </c>
+      <c r="L224" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L220">
+        <v>TheCodeJak</v>
+      </c>
+      <c r="M224" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M220">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G222" t="s">
-        <v>170</v>
-      </c>
-      <c r="I222" t="str">
-        <f t="shared" ref="I222:M222" si="14">I$2</f>
-        <v>adalfarus</v>
-      </c>
-      <c r="J222" t="str">
-        <f t="shared" si="14"/>
-        <v>Giesbrt</v>
-      </c>
-      <c r="K222" t="str">
-        <f t="shared" si="14"/>
-        <v>Fa4953</v>
-      </c>
-      <c r="L222" t="str">
-        <f t="shared" si="14"/>
-        <v>TheCodeJak</v>
-      </c>
-      <c r="M222" t="str">
-        <f t="shared" si="14"/>
         <v>XXXXXX</v>
       </c>
     </row>
-    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G223" t="str" cm="1">
-        <f t="array" ref="G223:G229">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
+    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G225" t="str" cm="1">
+        <f t="array" ref="G225:G231">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
         <v>none</v>
       </c>
-      <c r="I223">
-        <f t="shared" ref="I223:M229" si="15">COUNTIFS($G$3:$G$200, I$222, $F$3:$F$200, $G223)</f>
+      <c r="I225">
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
         <v>29</v>
       </c>
-      <c r="J223">
-        <f t="shared" si="15"/>
+      <c r="J225">
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G225)</f>
         <v>19</v>
       </c>
-      <c r="K223">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L223">
-        <f t="shared" si="15"/>
+      <c r="K225">
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G225)</f>
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G225)</f>
         <v>2</v>
       </c>
-      <c r="M223">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G224" t="str">
-        <v>comments 5%</v>
-      </c>
-      <c r="I224">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="J224">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K224">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L224">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M224">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G225" t="str">
-        <v>inline 100%</v>
-      </c>
-      <c r="I225">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="J225">
-        <f t="shared" si="15"/>
-        <v>18</v>
-      </c>
-      <c r="K225">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="L225">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
       <c r="M225">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G225)</f>
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G226" t="str">
-        <v>inline 5%</v>
+        <v>comments 5%</v>
       </c>
       <c r="I226">
-        <f t="shared" si="15"/>
-        <v>3</v>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G226)</f>
+        <v>2</v>
       </c>
       <c r="J226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="K226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="L226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="M226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G227" t="str">
-        <v>comments 100%</v>
+        <v>inline 100%</v>
       </c>
       <c r="I227">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G227)</f>
+        <v>6</v>
       </c>
       <c r="J227">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G227)</f>
+        <v>23</v>
       </c>
       <c r="K227">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G227)</f>
+        <v>3</v>
       </c>
       <c r="L227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G228" t="str">
-        <v>inline 50%</v>
+        <v>inline 5%</v>
       </c>
       <c r="I228">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G228)</f>
+        <v>3</v>
       </c>
       <c r="J228">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G228)</f>
+        <v>0</v>
       </c>
       <c r="K228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="L228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G229" t="str">
+        <v>comments 100%</v>
+      </c>
+      <c r="I229">
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G229)</f>
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G229)</f>
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G229)</f>
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G229)</f>
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G229)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G230" t="str">
+        <v>inline 50%</v>
+      </c>
+      <c r="I230">
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G230)</f>
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G230)</f>
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G230)</f>
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G230)</f>
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G230)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G231" t="str">
         <v>in md 100%</v>
       </c>
-      <c r="I229">
-        <f t="shared" si="15"/>
+      <c r="I231">
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G231)</f>
         <v>1</v>
       </c>
-      <c r="J229">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K229">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L229">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M229">
-        <f t="shared" si="15"/>
+      <c r="J231">
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G231)</f>
         <v>0</v>
       </c>
     </row>
@@ -15176,10 +17174,13 @@
     <hyperlink ref="A82" r:id="rId47" xr:uid="{FD8FC4C2-1E96-4E45-A283-7D9512F6D15C}"/>
     <hyperlink ref="A85" r:id="rId48" location="diff-5dc1f67ea74ac3807217f02723fcf024e8ab6562a67610b66de8f57f0d5ef59e" xr:uid="{9C076EAC-7F1E-4D1E-A1F1-2F6F43DB3E73}"/>
     <hyperlink ref="A86" r:id="rId49" location="diff-f992ea86b64d9658669b260a9ba54638567dfcece5ab481a24daa756980aaaba" xr:uid="{5CCA0DDD-61E4-4E27-880D-24B33E1D1394}"/>
+    <hyperlink ref="A88" r:id="rId50" location="diff-4c56686a2ba30f91f6012dc3c42912034baba676593d27445a50444f4e27aecb" xr:uid="{187601A4-925E-430E-AC92-79E21FDF3CB5}"/>
+    <hyperlink ref="A92" r:id="rId51" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{DE70295C-A534-4238-99A2-20844BBF02B2}"/>
+    <hyperlink ref="A93" r:id="rId52" location="diff-acc8dd38fd22df5f73d37cc21057624272a3b57ca4a77619f6222bb7324d835b" xr:uid="{30211D90-6DDF-46BC-AF51-A4937D04B7CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId50"/>
-  <drawing r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
+  <drawing r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -15191,7 +17192,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552B0339-F910-4858-836C-7F3CDAD62C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5A86E-861E-4F92-9A20-F2FEEC40FD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="186">
   <si>
     <t>Datei</t>
   </si>
@@ -640,6 +640,15 @@
   </si>
   <si>
     <t>In the last</t>
+  </si>
+  <si>
+    <t>Made button_pop...</t>
+  </si>
+  <si>
+    <t>We need to start rating logic higher as it's</t>
+  </si>
+  <si>
+    <t>often a lot shorter than gui source code</t>
   </si>
 </sst>
 </file>
@@ -866,13 +875,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1367,10 +1376,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2732</c:v>
+                  <c:v>2799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1301</c:v>
+                  <c:v>1351</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -1709,7 +1718,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2623,7 +2632,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3355,7 +3364,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43</c:v>
@@ -3432,10 +3441,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4523809523809523</c:v>
+                  <c:v>1.441860465116279</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4047619047619047</c:v>
+                  <c:v>1.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6666666666666667</c:v>
@@ -3509,7 +3518,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.857142857142854</c:v>
+                  <c:v>43.418604651162788</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19.904761904761905</c:v>
@@ -4200,10 +4209,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2614</c:v>
+                  <c:v>2692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1202</c:v>
+                  <c:v>1345</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>278</c:v>
@@ -4383,6 +4392,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A33F-4C27-B751-06EB667C4E92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4398,6 +4412,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A33F-4C27-B751-06EB667C4E92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4413,6 +4432,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A33F-4C27-B751-06EB667C4E92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4428,6 +4452,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A33F-4C27-B751-06EB667C4E92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4443,6 +4472,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A33F-4C27-B751-06EB667C4E92}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4474,10 +4508,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4691,6 +4725,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-01F2-4469-993E-382BB10B80C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4706,6 +4745,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-01F2-4469-993E-382BB10B80C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4721,6 +4765,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-01F2-4469-993E-382BB10B80C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4736,6 +4785,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-01F2-4469-993E-382BB10B80C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4751,6 +4805,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-01F2-4469-993E-382BB10B80C9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4782,10 +4841,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>506</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -9337,8 +9396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q203" sqref="Q203"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P100" sqref="P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9356,12 +9415,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -13122,19 +13181,19 @@
       <c r="B88" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="16">
         <v>66</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="17">
         <v>2</v>
       </c>
       <c r="F88" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="19" t="s">
+      <c r="G88" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="8"/>
@@ -13165,29 +13224,31 @@
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="17">
         <v>6</v>
       </c>
-      <c r="E89" s="19">
-        <v>2</v>
-      </c>
-      <c r="F89" s="19" t="s">
+      <c r="E89" s="17">
+        <v>3</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H89" s="8"/>
+      <c r="H89" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="I89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J89">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K89">
         <f t="shared" si="6"/>
@@ -13208,29 +13269,31 @@
       <c r="B90" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C90" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="17">
         <v>5</v>
       </c>
-      <c r="E90" s="19">
-        <v>2</v>
-      </c>
-      <c r="F90" s="19" t="s">
+      <c r="E90" s="17">
+        <v>3</v>
+      </c>
+      <c r="F90" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="19" t="s">
+      <c r="G90" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="I90">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J90">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K90">
         <f t="shared" si="6"/>
@@ -13251,19 +13314,19 @@
       <c r="B91" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="17">
         <v>1</v>
       </c>
-      <c r="E91" s="19">
-        <v>2</v>
-      </c>
-      <c r="F91" s="19" t="s">
+      <c r="E91" s="17">
+        <v>3</v>
+      </c>
+      <c r="F91" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="8"/>
@@ -13273,7 +13336,7 @@
       </c>
       <c r="J91">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K91">
         <f t="shared" si="6"/>
@@ -13294,19 +13357,19 @@
       <c r="B92" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="17">
         <v>8</v>
       </c>
-      <c r="E92" s="19">
-        <v>1</v>
-      </c>
-      <c r="F92" s="19" t="s">
+      <c r="E92" s="17">
+        <v>3</v>
+      </c>
+      <c r="F92" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="19" t="s">
+      <c r="G92" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H92" s="8"/>
@@ -13316,7 +13379,7 @@
       </c>
       <c r="J92">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K92">
         <f t="shared" si="6"/>
@@ -13337,19 +13400,19 @@
       <c r="B93" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="19" t="s">
+      <c r="C93" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="17">
         <v>11</v>
       </c>
-      <c r="E93" s="19">
-        <v>1</v>
-      </c>
-      <c r="F93" s="19" t="s">
+      <c r="E93" s="17">
+        <v>3</v>
+      </c>
+      <c r="F93" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="19" t="s">
+      <c r="G93" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H93" s="8"/>
@@ -13359,7 +13422,7 @@
       </c>
       <c r="J93">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="K93">
         <f t="shared" si="6"/>
@@ -13374,16 +13437,32 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
+      <c r="A94" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="16">
+        <f>6+24+37</f>
+        <v>67</v>
+      </c>
+      <c r="E94" s="17">
+        <v>1</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="H94" s="8"/>
       <c r="I94">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J94">
         <f t="shared" si="6"/>
@@ -16396,11 +16475,11 @@
       </c>
       <c r="I201" s="10">
         <f>SUM(I$3:I$200)</f>
-        <v>2732</v>
+        <v>2799</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>1301</v>
+        <v>1351</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -16422,23 +16501,23 @@
       <c r="H202">
         <v>5</v>
       </c>
-      <c r="I202" s="19" cm="1">
+      <c r="I202" s="17" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="J202" s="19" cm="1">
+        <v>67</v>
+      </c>
+      <c r="J202" s="17" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>43</v>
-      </c>
-      <c r="K202" s="19" cm="1">
+        <v>75</v>
+      </c>
+      <c r="K202" s="17" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>0</v>
       </c>
-      <c r="L202" s="19" cm="1">
+      <c r="L202" s="17" cm="1">
         <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>0</v>
       </c>
-      <c r="M202" s="19" cm="1">
+      <c r="M202" s="17" cm="1">
         <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>0</v>
       </c>
@@ -16452,11 +16531,11 @@
       </c>
       <c r="I203" cm="1">
         <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>506</v>
+        <v>337</v>
       </c>
       <c r="J203" cm="1">
         <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="K203" cm="1">
         <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
@@ -16477,7 +16556,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" ref="J202:M204" si="10">J$2</f>
+        <f t="shared" ref="J204:M204" si="10">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K204" t="str">
@@ -16499,7 +16578,7 @@
       </c>
       <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
@@ -16524,11 +16603,11 @@
       </c>
       <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.4523809523809523</v>
+        <v>1.441860465116279</v>
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.4047619047619047</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -16549,7 +16628,7 @@
       </c>
       <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>42.857142857142854</v>
+        <v>43.418604651162788</v>
       </c>
       <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
@@ -16574,11 +16653,11 @@
       </c>
       <c r="I208">
         <f>ROUND(I$205*I$206*I$207, 0)</f>
-        <v>2614</v>
+        <v>2692</v>
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>1202</v>
+        <v>1345</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -16602,7 +16681,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" ref="J208:M210" si="11">J$2</f>
+        <f t="shared" ref="J210:M210" si="11">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K210" t="str">
@@ -16624,19 +16703,19 @@
         <v>everything</v>
       </c>
       <c r="I211">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" ref="I211:L222" si="12">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
         <v>12</v>
       </c>
       <c r="J211">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="K211">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="L211">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M211">
@@ -16649,23 +16728,23 @@
         <v>changes</v>
       </c>
       <c r="I212">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J212">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="K212">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="M212">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" ref="M212:M222" si="13">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
@@ -16674,23 +16753,23 @@
         <v>new cls</v>
       </c>
       <c r="I213">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J213">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M213">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16699,23 +16778,23 @@
         <v>docs</v>
       </c>
       <c r="I214">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J214">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K214">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M214">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16724,23 +16803,23 @@
         <v>change docs</v>
       </c>
       <c r="I215">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K215">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M215">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16749,23 +16828,23 @@
         <v>remove</v>
       </c>
       <c r="I216">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J216">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M216">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16774,23 +16853,23 @@
         <v>created</v>
       </c>
       <c r="I217">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J217">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M217">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16799,23 +16878,23 @@
         <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J218">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K218">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M218">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16824,23 +16903,23 @@
         <v>added</v>
       </c>
       <c r="I219">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G219)</f>
-        <v>7</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="J219">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K219">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L219">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M219">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16849,23 +16928,23 @@
         <v>setter</v>
       </c>
       <c r="I220">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K220">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M220">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16874,23 +16953,23 @@
         <v>moved</v>
       </c>
       <c r="I221">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K221">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M221">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16899,23 +16978,23 @@
         <v>fixes</v>
       </c>
       <c r="I222">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J222">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M222">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -16924,23 +17003,23 @@
         <v>170</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" ref="I222:M224" si="12">I$2</f>
+        <f t="shared" ref="I224:M224" si="14">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Giesbrt</v>
       </c>
       <c r="K224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Fa4953</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -16950,23 +17029,23 @@
         <v>none</v>
       </c>
       <c r="I225">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
-        <v>29</v>
+        <f t="shared" ref="I225:M231" si="15">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
+        <v>30</v>
       </c>
       <c r="J225">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="K225">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L225">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="M225">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16975,23 +17054,23 @@
         <v>comments 5%</v>
       </c>
       <c r="I226">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J226">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K226">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L226">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M226">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17000,23 +17079,23 @@
         <v>inline 100%</v>
       </c>
       <c r="I227">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="J227">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="K227">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="L227">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17025,23 +17104,23 @@
         <v>inline 5%</v>
       </c>
       <c r="I228">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J228">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K228">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L228">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17050,23 +17129,23 @@
         <v>comments 100%</v>
       </c>
       <c r="I229">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J229">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17075,23 +17154,23 @@
         <v>inline 50%</v>
       </c>
       <c r="I230">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J230">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K230">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17100,23 +17179,23 @@
         <v>in md 100%</v>
       </c>
       <c r="I231">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J231">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K231">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17177,10 +17256,11 @@
     <hyperlink ref="A88" r:id="rId50" location="diff-4c56686a2ba30f91f6012dc3c42912034baba676593d27445a50444f4e27aecb" xr:uid="{187601A4-925E-430E-AC92-79E21FDF3CB5}"/>
     <hyperlink ref="A92" r:id="rId51" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{DE70295C-A534-4238-99A2-20844BBF02B2}"/>
     <hyperlink ref="A93" r:id="rId52" location="diff-acc8dd38fd22df5f73d37cc21057624272a3b57ca4a77619f6222bb7324d835b" xr:uid="{30211D90-6DDF-46BC-AF51-A4937D04B7CD}"/>
+    <hyperlink ref="A94" r:id="rId53" location="diff-4d7c51b1efe9043e44439a949dfd92e5827321b34082903477fd04876edb7552" xr:uid="{7B32070D-3F21-419E-A4AE-CB0FFCC800B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
-  <drawing r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
+  <drawing r:id="rId55"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F5A86E-861E-4F92-9A20-F2FEEC40FD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952BB5B-84F7-4CC6-B7A5-2CA97988AD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-405" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -4331,7 +4331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Last 5</a:t>
+              <a:t>Last 6</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4511,7 +4511,7 @@
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4660,7 +4660,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Last 5</a:t>
+              <a:t>Last 14</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4841,10 +4841,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>337</c:v>
+                  <c:v>816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>465</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -9396,8 +9396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P100" sqref="P100"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16499,7 +16499,7 @@
         <v>182</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I202" s="17" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -16507,7 +16507,7 @@
       </c>
       <c r="J202" s="17" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="K202" s="17" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -16527,26 +16527,26 @@
         <v>182</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I203" cm="1">
-        <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>337</v>
+        <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
+        <v>816</v>
       </c>
       <c r="J203" cm="1">
-        <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>93</v>
+        <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
+        <v>465</v>
       </c>
       <c r="K203" cm="1">
-        <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
+        <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
         <v>316</v>
       </c>
       <c r="L203" cm="1">
-        <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
+        <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
         <v>574</v>
       </c>
       <c r="M203" cm="1">
-        <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$202, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
+        <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
         <v>0</v>
       </c>
     </row>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C952BB5B-84F7-4CC6-B7A5-2CA97988AD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BE415-E6A6-4BC0-8B56-2BE01682522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-405" yWindow="1695" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="194">
   <si>
     <t>Datei</t>
   </si>
@@ -649,6 +649,30 @@
   </si>
   <si>
     <t>often a lot shorter than gui source code</t>
+  </si>
+  <si>
+    <t>Json Design = Hard</t>
+  </si>
+  <si>
+    <t>bridge format ex...</t>
+  </si>
+  <si>
+    <t>src\dc\format_example.json</t>
+  </si>
+  <si>
+    <t>(Same code twice)</t>
+  </si>
+  <si>
+    <t>added wip imple...</t>
+  </si>
+  <si>
+    <t>added support t...</t>
+  </si>
+  <si>
+    <t>Added demo...</t>
+  </si>
+  <si>
+    <t>src\dc\abstract.py</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1400,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2799</c:v>
+                  <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1351</c:v>
+                  <c:v>1564</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -1718,7 +1742,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1813,10 +1837,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1837,7 +1861,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -2632,7 +2656,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2721,7 +2745,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3364,10 +3388,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -3441,10 +3465,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.441860465116279</c:v>
+                  <c:v>1.4318181818181819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5714285714285714</c:v>
+                  <c:v>1.5416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6666666666666667</c:v>
@@ -3518,10 +3542,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43.418604651162788</c:v>
+                  <c:v>42.477272727272727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.904761904761905</c:v>
+                  <c:v>20.979166666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>55.666666666666664</c:v>
@@ -4209,10 +4233,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2692</c:v>
+                  <c:v>2676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1345</c:v>
+                  <c:v>1585</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>278</c:v>
@@ -4317,9 +4341,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -4331,13 +4355,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Last 6</a:t>
+              <a:t>Last 12 commits</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> commits</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4354,9 +4373,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4385,12 +4404,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4405,12 +4428,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4425,12 +4452,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4445,12 +4476,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4465,12 +4500,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4478,6 +4517,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Tätigkeitsdokumentation!$I$2:$M$2</c:f>
@@ -4508,10 +4600,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4532,11 +4624,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -4554,7 +4647,11 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4567,7 +4664,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4593,12 +4690,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4646,9 +4750,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -4660,17 +4764,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Last 14</a:t>
+              <a:t>Last 14 commits per person </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> commits per person</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4687,9 +4782,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4718,12 +4813,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4738,12 +4837,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4758,12 +4861,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4778,12 +4885,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4798,12 +4909,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4811,6 +4926,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Tätigkeitsdokumentation!$I$2:$M$2</c:f>
@@ -4841,10 +5009,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>816</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>465</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -4865,11 +5033,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -4887,7 +5056,11 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4900,7 +5073,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4926,12 +5099,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -7779,56 +7959,52 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7843,12 +8019,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -7862,9 +8035,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -7880,36 +8055,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -7919,7 +8109,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -7931,25 +8121,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -7957,7 +8148,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7973,7 +8164,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -7982,7 +8173,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7997,7 +8188,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8008,7 +8199,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -8022,12 +8213,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -8041,12 +8232,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -8060,7 +8251,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -8074,12 +8265,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8093,12 +8284,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -8112,12 +8303,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -8131,12 +8322,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -8150,11 +8341,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -8162,7 +8360,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -8170,7 +8368,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8178,7 +8376,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8190,12 +8388,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -8209,12 +8407,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8223,14 +8421,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8239,7 +8437,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8251,7 +8449,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8259,7 +8457,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -8273,7 +8471,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8285,69 +8483,59 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
     <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8362,12 +8550,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -8381,9 +8566,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -8399,36 +8586,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -8438,7 +8640,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -8450,25 +8652,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -8476,7 +8679,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8492,7 +8695,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8501,7 +8704,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8516,7 +8719,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8527,7 +8730,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -8541,12 +8744,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -8560,12 +8763,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -8579,7 +8782,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -8593,12 +8796,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8612,12 +8815,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -8631,12 +8834,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -8650,12 +8853,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -8669,11 +8872,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -8681,7 +8891,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -8689,7 +8899,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8697,7 +8907,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8709,12 +8919,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -8728,12 +8938,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8742,14 +8952,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8758,7 +8968,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8770,7 +8980,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8778,7 +8988,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -8792,7 +9002,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -8804,14 +9014,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8821,15 +9025,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>8473</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>6774</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>187017</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8856,16 +9060,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>180415</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>125666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8892,16 +9096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38420</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>5920</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>565096</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>117979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>374596</xdr:colOff>
-      <xdr:row>235</xdr:row>
-      <xdr:rowOff>82120</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1199029</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>3679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8928,16 +9132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1868261</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>87087</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>8646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
+      <xdr:colOff>1220881</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>84846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8964,16 +9168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1866901</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>16890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1208315</xdr:colOff>
-      <xdr:row>233</xdr:row>
-      <xdr:rowOff>25854</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>93090</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9000,16 +9204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>605116</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>605116</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>12606</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9037,15 +9241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>20449</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>61352</xdr:rowOff>
+      <xdr:colOff>31655</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>5322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>139233</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>83203</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9396,8 +9600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205:M232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13481,20 +13685,37 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="8"/>
+      <c r="A95" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="17">
+        <v>87</v>
+      </c>
+      <c r="E95" s="17">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>186</v>
+      </c>
       <c r="I95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J95">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K95">
         <f t="shared" si="6"/>
@@ -13509,20 +13730,37 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="8"/>
+      <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="17">
+        <v>8</v>
+      </c>
+      <c r="E96" s="17">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="I96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J96">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K96">
         <f t="shared" si="6"/>
@@ -13536,13 +13774,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" s="17">
+        <v>20</v>
+      </c>
+      <c r="E97" s="17">
+        <v>2</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H97" s="8"/>
       <c r="I97">
         <f t="shared" si="6"/>
@@ -13550,7 +13803,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <f t="shared" si="6"/>
@@ -13564,13 +13817,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" s="17">
+        <v>24</v>
+      </c>
+      <c r="E98" s="17">
+        <v>1</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H98" s="8"/>
       <c r="I98">
         <f t="shared" si="6"/>
@@ -13578,7 +13846,7 @@
       </c>
       <c r="J98">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K98">
         <f t="shared" si="6"/>
@@ -13592,13 +13860,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="7"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" s="17">
+        <v>22</v>
+      </c>
+      <c r="E99" s="17">
+        <v>2</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H99" s="8"/>
       <c r="I99">
         <f t="shared" si="6"/>
@@ -13606,7 +13889,7 @@
       </c>
       <c r="J99">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <f t="shared" si="6"/>
@@ -13620,17 +13903,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="7"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D100" s="17">
+        <v>2</v>
+      </c>
+      <c r="E100" s="17">
+        <v>1</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="H100" s="8"/>
       <c r="I100">
         <f t="shared" ref="I100:L115" si="7">MAX(0, IF($G100=I$2, $D100*$E100, 0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <f t="shared" si="7"/>
@@ -13648,13 +13946,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="17">
+        <v>10</v>
+      </c>
+      <c r="E101" s="17">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>34</v>
+      </c>
       <c r="H101" s="8"/>
       <c r="I101">
         <f t="shared" si="7"/>
@@ -13662,7 +13975,7 @@
       </c>
       <c r="J101">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K101">
         <f t="shared" si="7"/>
@@ -13676,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -13704,7 +14017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -13732,7 +14045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -13760,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -13788,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -13816,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -13844,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
@@ -13872,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -13900,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -13928,7 +14241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -13956,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -16475,11 +16788,11 @@
       </c>
       <c r="I201" s="10">
         <f>SUM(I$3:I$200)</f>
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>1351</v>
+        <v>1564</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -16499,15 +16812,15 @@
         <v>182</v>
       </c>
       <c r="H202">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I202" s="17" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J202" s="17" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>93</v>
+        <v>288</v>
       </c>
       <c r="K202" s="17" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -16531,11 +16844,11 @@
       </c>
       <c r="I203" cm="1">
         <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>816</v>
+        <v>799</v>
       </c>
       <c r="J203" cm="1">
         <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="K203" cm="1">
         <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
@@ -16556,7 +16869,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" ref="J204:M204" si="10">J$2</f>
+        <f t="shared" ref="J204:M205" si="10">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K204" t="str">
@@ -16578,11 +16891,11 @@
       </c>
       <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K205">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
@@ -16603,11 +16916,11 @@
       </c>
       <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.441860465116279</v>
+        <v>1.4318181818181819</v>
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.5714285714285714</v>
+        <v>1.5416666666666667</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -16628,11 +16941,11 @@
       </c>
       <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>43.418604651162788</v>
+        <v>42.477272727272727</v>
       </c>
       <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
-        <v>19.904761904761905</v>
+        <v>20.979166666666668</v>
       </c>
       <c r="K207">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
@@ -16653,11 +16966,11 @@
       </c>
       <c r="I208">
         <f>ROUND(I$205*I$206*I$207, 0)</f>
-        <v>2692</v>
+        <v>2676</v>
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>1345</v>
+        <v>1585</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -16681,7 +16994,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" ref="J210:M210" si="11">J$2</f>
+        <f t="shared" ref="J210:M211" si="11">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K210" t="str">
@@ -16703,19 +17016,19 @@
         <v>everything</v>
       </c>
       <c r="I211">
-        <f t="shared" ref="I211:L222" si="12">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
         <v>12</v>
       </c>
       <c r="J211">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G211)</f>
+        <v>16</v>
       </c>
       <c r="K211">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G211)</f>
         <v>3</v>
       </c>
       <c r="L211">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G211)</f>
         <v>0</v>
       </c>
       <c r="M211">
@@ -16728,23 +17041,23 @@
         <v>changes</v>
       </c>
       <c r="I212">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G212)</f>
         <v>17</v>
       </c>
       <c r="J212">
-        <f t="shared" si="12"/>
-        <v>13</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G212)</f>
+        <v>15</v>
       </c>
       <c r="K212">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G212)</f>
         <v>2</v>
       </c>
       <c r="M212">
-        <f t="shared" ref="M212:M222" si="13">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
@@ -16753,23 +17066,23 @@
         <v>new cls</v>
       </c>
       <c r="I213">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G213)</f>
         <v>1</v>
       </c>
       <c r="J213">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G213)</f>
         <v>0</v>
       </c>
     </row>
@@ -16778,23 +17091,23 @@
         <v>docs</v>
       </c>
       <c r="I214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G214)</f>
         <v>1</v>
       </c>
       <c r="J214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G214)</f>
         <v>5</v>
       </c>
       <c r="K214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G214)</f>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G214)</f>
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G214)</f>
         <v>0</v>
       </c>
     </row>
@@ -16803,23 +17116,23 @@
         <v>change docs</v>
       </c>
       <c r="I215">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G215)</f>
         <v>3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G215)</f>
         <v>0</v>
       </c>
     </row>
@@ -16828,23 +17141,23 @@
         <v>remove</v>
       </c>
       <c r="I216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G216)</f>
         <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G216)</f>
         <v>0</v>
       </c>
     </row>
@@ -16853,23 +17166,23 @@
         <v>created</v>
       </c>
       <c r="I217">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G217)</f>
         <v>1</v>
       </c>
       <c r="J217">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G217)</f>
         <v>0</v>
       </c>
     </row>
@@ -16878,23 +17191,23 @@
         <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G218)</f>
         <v>1</v>
       </c>
       <c r="J218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G218)</f>
         <v>1</v>
       </c>
       <c r="K218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G218)</f>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G218)</f>
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G218)</f>
         <v>0</v>
       </c>
     </row>
@@ -16903,23 +17216,23 @@
         <v>added</v>
       </c>
       <c r="I219">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G219)</f>
+        <v>9</v>
       </c>
       <c r="J219">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G219)</f>
+        <v>7</v>
       </c>
       <c r="K219">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G219)</f>
         <v>0</v>
       </c>
       <c r="L219">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G219)</f>
         <v>0</v>
       </c>
       <c r="M219">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G219)</f>
         <v>0</v>
       </c>
     </row>
@@ -16928,23 +17241,23 @@
         <v>setter</v>
       </c>
       <c r="I220">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G220)</f>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G220)</f>
         <v>1</v>
       </c>
       <c r="K220">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G220)</f>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G220)</f>
         <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G220)</f>
         <v>0</v>
       </c>
     </row>
@@ -16953,23 +17266,23 @@
         <v>moved</v>
       </c>
       <c r="I221">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G221)</f>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G221)</f>
         <v>1</v>
       </c>
       <c r="K221">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G221)</f>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G221)</f>
         <v>0</v>
       </c>
       <c r="M221">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G221)</f>
         <v>0</v>
       </c>
     </row>
@@ -16978,23 +17291,23 @@
         <v>fixes</v>
       </c>
       <c r="I222">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G222)</f>
         <v>1</v>
       </c>
       <c r="J222">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G222)</f>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G222)</f>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="12"/>
+        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G222)</f>
         <v>0</v>
       </c>
       <c r="M222">
-        <f t="shared" si="13"/>
+        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G222)</f>
         <v>0</v>
       </c>
     </row>
@@ -17003,23 +17316,23 @@
         <v>170</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" ref="I224:M224" si="14">I$2</f>
+        <f t="shared" ref="I224:M225" si="12">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Giesbrt</v>
       </c>
       <c r="K224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Fa4953</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -17029,23 +17342,23 @@
         <v>none</v>
       </c>
       <c r="I225">
-        <f t="shared" ref="I225:M231" si="15">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
-        <v>30</v>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
+        <v>31</v>
       </c>
       <c r="J225">
-        <f t="shared" si="15"/>
-        <v>19</v>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G225)</f>
+        <v>25</v>
       </c>
       <c r="K225">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G225)</f>
         <v>0</v>
       </c>
       <c r="L225">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G225)</f>
         <v>2</v>
       </c>
       <c r="M225">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G225)</f>
         <v>0</v>
       </c>
     </row>
@@ -17054,23 +17367,23 @@
         <v>comments 5%</v>
       </c>
       <c r="I226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G226)</f>
         <v>2</v>
       </c>
       <c r="J226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="K226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="L226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
       <c r="M226">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
     </row>
@@ -17079,23 +17392,23 @@
         <v>inline 100%</v>
       </c>
       <c r="I227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G227)</f>
         <v>6</v>
       </c>
       <c r="J227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G227)</f>
         <v>23</v>
       </c>
       <c r="K227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G227)</f>
         <v>3</v>
       </c>
       <c r="L227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
     </row>
@@ -17104,23 +17417,23 @@
         <v>inline 5%</v>
       </c>
       <c r="I228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G228)</f>
         <v>3</v>
       </c>
       <c r="J228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="K228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="L228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
     </row>
@@ -17129,23 +17442,23 @@
         <v>comments 100%</v>
       </c>
       <c r="I229">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G229)</f>
         <v>1</v>
       </c>
       <c r="J229">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
     </row>
@@ -17154,23 +17467,23 @@
         <v>inline 50%</v>
       </c>
       <c r="I230">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
       <c r="J230">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G230)</f>
         <v>1</v>
       </c>
       <c r="K230">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
     </row>
@@ -17179,23 +17492,23 @@
         <v>in md 100%</v>
       </c>
       <c r="I231">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G231)</f>
         <v>1</v>
       </c>
       <c r="J231">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G231)</f>
         <v>0</v>
       </c>
       <c r="K231">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G231)</f>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G231)</f>
         <v>0</v>
       </c>
       <c r="M231">
-        <f t="shared" si="15"/>
+        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G231)</f>
         <v>0</v>
       </c>
     </row>
@@ -17257,10 +17570,14 @@
     <hyperlink ref="A92" r:id="rId51" location="diff-637e49ef799bb51094751e67276f1dfeaeb31048cd7e0de7c90fef139d184c88" xr:uid="{DE70295C-A534-4238-99A2-20844BBF02B2}"/>
     <hyperlink ref="A93" r:id="rId52" location="diff-acc8dd38fd22df5f73d37cc21057624272a3b57ca4a77619f6222bb7324d835b" xr:uid="{30211D90-6DDF-46BC-AF51-A4937D04B7CD}"/>
     <hyperlink ref="A94" r:id="rId53" location="diff-4d7c51b1efe9043e44439a949dfd92e5827321b34082903477fd04876edb7552" xr:uid="{7B32070D-3F21-419E-A4AE-CB0FFCC800B3}"/>
+    <hyperlink ref="A95" r:id="rId54" xr:uid="{B9C706A2-12AB-4191-8154-6AF0FF26E6D0}"/>
+    <hyperlink ref="A97" r:id="rId55" location="diff-e4f12f881ad46f5c2645b7d2e7e1481c2d02260597fe5c21bf0a896acf246f67" xr:uid="{E5FB0512-E9D9-43DF-978D-FA39B56D828B}"/>
+    <hyperlink ref="A99" r:id="rId56" location="diff-7193f7df8c6f35c6f42d6f9db6deb3bf3d1a1000927552b84c901eca5b9b37e0" xr:uid="{0D67263D-DC79-443B-AEB8-164521F1F2B6}"/>
+    <hyperlink ref="A100" r:id="rId57" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{1B5DCDBC-927B-42E7-BCCE-46B9D37A3D60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId54"/>
-  <drawing r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
+  <drawing r:id="rId59"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09BE415-E6A6-4BC0-8B56-2BE01682522B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB783ADC-848F-4142-ABD6-FBEC14234351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -873,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -898,8 +898,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -908,8 +906,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -927,7 +925,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -989,7 +987,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1157,7 +1155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1198,7 +1196,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1239,7 +1237,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1280,7 +1278,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1321,7 +1319,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1403,7 +1401,7 @@
                   <c:v>2801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1564</c:v>
+                  <c:v>1644</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>316</c:v>
@@ -1476,7 +1474,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1490,7 +1488,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1552,7 +1550,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2292,7 +2290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693168896"/>
@@ -2365,7 +2363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693170560"/>
@@ -2407,7 +2405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2444,7 +2442,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2458,7 +2456,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2520,7 +2518,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3095,7 +3093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672855376"/>
@@ -3168,7 +3166,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672851632"/>
@@ -3210,7 +3208,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3247,7 +3245,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3261,7 +3259,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3323,7 +3321,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3468,7 +3466,7 @@
                   <c:v>1.4318181818181819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5416666666666667</c:v>
+                  <c:v>1.6041666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6666666666666667</c:v>
@@ -3618,7 +3616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739573552"/>
@@ -3691,7 +3689,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739578128"/>
@@ -3733,7 +3731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3770,7 +3768,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3784,7 +3782,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3821,7 +3819,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3990,7 +3988,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4031,7 +4029,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4072,7 +4070,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4113,7 +4111,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4154,7 +4152,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4236,7 +4234,7 @@
                   <c:v>2676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1585</c:v>
+                  <c:v>1649</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>278</c:v>
@@ -4309,7 +4307,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4323,7 +4321,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4385,7 +4383,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4541,7 +4539,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4674,7 +4672,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4718,7 +4716,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4732,7 +4730,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4794,7 +4792,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4950,7 +4948,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5083,7 +5081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5127,7 +5125,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9278,9 +9276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9318,9 +9316,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9353,26 +9351,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9405,26 +9386,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9600,11 +9564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205:M232"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -9619,12 +9583,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -9724,19 +9688,19 @@
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4">
         <v>62</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="8"/>
@@ -9767,19 +9731,19 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5">
         <v>70</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="8"/>
@@ -9810,19 +9774,19 @@
       <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6">
         <v>374</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="8"/>
@@ -9853,19 +9817,19 @@
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8"/>
@@ -9896,19 +9860,19 @@
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8"/>
@@ -9939,19 +9903,19 @@
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9">
         <v>16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -9984,19 +9948,19 @@
       <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10">
         <v>32</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -10029,19 +9993,19 @@
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11">
         <v>70</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="8"/>
@@ -10072,19 +10036,19 @@
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12">
         <v>23</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="8"/>
@@ -10115,19 +10079,19 @@
       <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="8"/>
@@ -10158,19 +10122,19 @@
       <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" s="8"/>
@@ -10201,19 +10165,19 @@
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15">
         <v>32</v>
       </c>
-      <c r="E15" s="16">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" t="s">
         <v>34</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -10225,7 +10189,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -10246,19 +10210,19 @@
       <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16">
         <v>23</v>
       </c>
-      <c r="E16" s="16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -10270,7 +10234,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
@@ -10291,19 +10255,19 @@
       <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="E17" s="16">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="8" t="s">
@@ -10315,7 +10279,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -10336,19 +10300,19 @@
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18">
         <v>58</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="8"/>
@@ -10379,19 +10343,19 @@
       <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="8"/>
@@ -10422,19 +10386,19 @@
       <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="8"/>
@@ -10465,19 +10429,19 @@
       <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21">
         <v>32</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21" s="8"/>
@@ -10508,19 +10472,19 @@
       <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="8"/>
@@ -10551,19 +10515,19 @@
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="16">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="8"/>
@@ -10594,19 +10558,19 @@
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="16">
-        <v>0</v>
-      </c>
-      <c r="E24" s="16">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="8"/>
@@ -10637,19 +10601,19 @@
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="16">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="8"/>
@@ -10680,19 +10644,19 @@
       <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="16">
-        <v>0</v>
-      </c>
-      <c r="E26" s="16">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="8"/>
@@ -10723,19 +10687,19 @@
       <c r="B27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="16">
-        <v>0</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" t="s">
         <v>34</v>
       </c>
       <c r="H27" s="8"/>
@@ -10766,19 +10730,19 @@
       <c r="B28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" t="s">
         <v>174</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28">
         <v>-20</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="8" t="s">
@@ -10811,19 +10775,19 @@
       <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="8"/>
@@ -10854,19 +10818,19 @@
       <c r="B30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="8"/>
@@ -10897,19 +10861,19 @@
       <c r="B31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31">
         <v>9</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31">
         <v>3</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="8" t="s">
@@ -10942,19 +10906,19 @@
       <c r="B32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="16">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="8" t="s">
@@ -10987,19 +10951,19 @@
       <c r="B33" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33">
         <v>56</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="8"/>
@@ -11030,19 +10994,19 @@
       <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34">
         <v>6</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="8"/>
@@ -11073,19 +11037,19 @@
       <c r="B35" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35">
         <v>43</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="8" t="s">
@@ -11118,19 +11082,19 @@
       <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36">
         <v>30</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="8"/>
@@ -11161,19 +11125,19 @@
       <c r="B37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="16">
-        <v>0</v>
-      </c>
-      <c r="E37" s="16">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="8"/>
@@ -11204,19 +11168,19 @@
       <c r="B38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38">
         <v>28</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" t="s">
         <v>15</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -11249,19 +11213,19 @@
       <c r="B39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39">
         <v>48</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="8"/>
@@ -11292,19 +11256,19 @@
       <c r="B40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40">
         <v>17</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="8" t="s">
@@ -11337,19 +11301,19 @@
       <c r="B41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41">
         <v>31</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" t="s">
         <v>34</v>
       </c>
       <c r="H41" s="8" t="s">
@@ -11382,19 +11346,19 @@
       <c r="B42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="8"/>
@@ -11425,19 +11389,19 @@
       <c r="B43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43">
         <v>24</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="8" t="s">
@@ -11470,19 +11434,19 @@
       <c r="B44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44">
         <v>51</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="8" t="s">
@@ -11515,19 +11479,19 @@
       <c r="B45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45">
         <v>151</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="8" t="s">
@@ -11560,19 +11524,19 @@
       <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46">
         <v>132</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" t="s">
         <v>88</v>
       </c>
       <c r="H46" s="8"/>
@@ -11603,19 +11567,19 @@
       <c r="B47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47">
         <v>18</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" t="s">
         <v>88</v>
       </c>
       <c r="H47" s="8"/>
@@ -11646,19 +11610,19 @@
       <c r="B48" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48">
         <v>17</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" t="s">
         <v>88</v>
       </c>
       <c r="H48" s="8"/>
@@ -11689,19 +11653,19 @@
       <c r="B49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49">
         <v>39</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49">
         <v>2</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" t="s">
         <v>34</v>
       </c>
       <c r="H49" s="8"/>
@@ -11732,11 +11696,6 @@
       <c r="B50" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
       <c r="H50" s="8" t="s">
         <v>177</v>
       </c>
@@ -11767,19 +11726,19 @@
       <c r="B51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51">
         <v>21</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="16" t="s">
+      <c r="F51" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" t="s">
         <v>34</v>
       </c>
       <c r="H51" s="8"/>
@@ -11810,19 +11769,19 @@
       <c r="B52" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52">
         <v>12</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52">
         <v>2</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" t="s">
         <v>34</v>
       </c>
       <c r="H52" s="8"/>
@@ -11853,15 +11812,13 @@
       <c r="B53" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16" t="s">
+      <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" t="s">
         <v>34</v>
       </c>
       <c r="H53" s="8" t="s">
@@ -11894,19 +11851,19 @@
       <c r="B54" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54">
         <v>12</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" t="s">
         <v>18</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" t="s">
         <v>34</v>
       </c>
       <c r="H54" s="8" t="s">
@@ -11939,19 +11896,19 @@
       <c r="B55" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55">
         <v>8</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" t="s">
         <v>34</v>
       </c>
       <c r="H55" s="8" t="s">
@@ -11984,19 +11941,19 @@
       <c r="B56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56">
         <v>14</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56">
         <v>2</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" t="s">
         <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -12029,19 +11986,19 @@
       <c r="B57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57">
         <v>5</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="8" t="s">
@@ -12074,19 +12031,19 @@
       <c r="B58" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58">
         <v>49</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" t="s">
         <v>18</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" t="s">
         <v>15</v>
       </c>
       <c r="H58" s="8" t="s">
@@ -12119,19 +12076,19 @@
       <c r="B59" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59">
         <v>197</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59">
         <v>2</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" t="s">
         <v>18</v>
       </c>
-      <c r="G59" s="16" t="s">
+      <c r="G59" t="s">
         <v>127</v>
       </c>
       <c r="H59" s="8" t="s">
@@ -12164,19 +12121,19 @@
       <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60">
         <v>9</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="8"/>
@@ -12207,19 +12164,19 @@
       <c r="B61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61">
         <v>9</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" s="16" t="s">
+      <c r="F61" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" t="s">
         <v>34</v>
       </c>
       <c r="H61" s="8"/>
@@ -12250,19 +12207,19 @@
       <c r="B62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62">
         <v>3</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="8" t="s">
@@ -12295,19 +12252,19 @@
       <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F63" t="s">
         <v>131</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" t="s">
         <v>34</v>
       </c>
       <c r="H63" s="8"/>
@@ -12338,19 +12295,19 @@
       <c r="B64" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64">
         <v>31</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64">
         <v>2</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" t="s">
         <v>34</v>
       </c>
       <c r="H64" s="8"/>
@@ -12381,19 +12338,19 @@
       <c r="B65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65">
         <v>85</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65">
         <v>2</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F65" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" t="s">
         <v>34</v>
       </c>
       <c r="H65" s="8"/>
@@ -12424,20 +12381,20 @@
       <c r="B66" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66">
         <f>26 + 23 + 3</f>
         <v>52</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F66" t="s">
         <v>18</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" t="s">
         <v>15</v>
       </c>
       <c r="H66" s="8"/>
@@ -12468,20 +12425,20 @@
       <c r="B67" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" t="s">
         <v>28</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67">
         <f>102 + 103</f>
         <v>205</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67">
         <v>2</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="16" t="s">
+      <c r="G67" t="s">
         <v>15</v>
       </c>
       <c r="H67" s="8" t="s">
@@ -12514,20 +12471,20 @@
       <c r="B68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68">
         <f>30 + 22 + 10</f>
         <v>62</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68">
         <v>2</v>
       </c>
-      <c r="F68" s="16" t="s">
+      <c r="F68" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="16" t="s">
+      <c r="G68" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="8"/>
@@ -12558,19 +12515,19 @@
       <c r="B69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69">
         <v>46</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" t="s">
         <v>18</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="8"/>
@@ -12601,19 +12558,19 @@
       <c r="B70" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70">
         <v>19</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="8"/>
@@ -12644,19 +12601,19 @@
       <c r="B71" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" t="s">
         <v>149</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71">
         <v>31</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" t="s">
         <v>18</v>
       </c>
-      <c r="G71" s="16" t="s">
+      <c r="G71" t="s">
         <v>15</v>
       </c>
       <c r="H71" s="8" t="s">
@@ -12689,19 +12646,19 @@
       <c r="B72" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72">
         <v>6</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" s="16" t="s">
+      <c r="F72" t="s">
         <v>18</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" t="s">
         <v>34</v>
       </c>
       <c r="H72" s="8"/>
@@ -12732,19 +12689,19 @@
       <c r="B73" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73">
         <v>30</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" t="s">
         <v>18</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" t="s">
         <v>34</v>
       </c>
       <c r="H73" s="8"/>
@@ -12775,19 +12732,19 @@
       <c r="B74" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" t="s">
         <v>49</v>
       </c>
-      <c r="D74" s="16">
-        <v>0</v>
-      </c>
-      <c r="E74" s="16">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" t="s">
         <v>34</v>
       </c>
       <c r="H74" s="8"/>
@@ -12818,20 +12775,20 @@
       <c r="B75" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75">
         <f>107 - 17</f>
         <v>90</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75">
         <v>2</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F75" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" t="s">
         <v>127</v>
       </c>
       <c r="H75" s="8" t="s">
@@ -12864,19 +12821,19 @@
       <c r="B76" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76">
         <v>20</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="G76" t="s">
         <v>15</v>
       </c>
       <c r="H76" s="8"/>
@@ -12907,19 +12864,19 @@
       <c r="B77" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77">
         <v>26</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="F77" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" t="s">
         <v>15</v>
       </c>
       <c r="H77" s="8"/>
@@ -12950,19 +12907,19 @@
       <c r="B78" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" t="s">
         <v>149</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78">
         <v>28</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="8"/>
@@ -12993,19 +12950,19 @@
       <c r="B79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" t="s">
         <v>149</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79">
         <v>19</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="16" t="s">
+      <c r="F79" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="8"/>
@@ -13036,19 +12993,19 @@
       <c r="B80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="16">
-        <v>0</v>
-      </c>
-      <c r="E80" s="16">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" s="16" t="s">
+      <c r="F80" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="16" t="s">
+      <c r="G80" t="s">
         <v>15</v>
       </c>
       <c r="H80" s="8"/>
@@ -13079,20 +13036,20 @@
       <c r="B81" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81">
         <f>8 * 9</f>
         <v>72</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="8" t="s">
@@ -13125,19 +13082,19 @@
       <c r="B82" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82">
         <v>28</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="8"/>
@@ -13168,19 +13125,19 @@
       <c r="B83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83">
         <v>118</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83">
         <v>2</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="8"/>
@@ -13211,19 +13168,19 @@
       <c r="B84" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84">
         <v>10</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84" s="16" t="s">
+      <c r="F84" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" t="s">
         <v>15</v>
       </c>
       <c r="H84" s="8"/>
@@ -13254,19 +13211,19 @@
       <c r="B85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" t="s">
         <v>27</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85">
         <v>35</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="16" t="s">
+      <c r="G85" t="s">
         <v>34</v>
       </c>
       <c r="H85" s="8"/>
@@ -13297,19 +13254,19 @@
       <c r="B86" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" t="s">
         <v>149</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86">
         <v>63</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86">
         <v>2</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" t="s">
         <v>18</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" t="s">
         <v>15</v>
       </c>
       <c r="H86" s="8"/>
@@ -13340,19 +13297,19 @@
       <c r="B87" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" t="s">
         <v>27</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" t="s">
         <v>18</v>
       </c>
-      <c r="G87" s="16" t="s">
+      <c r="G87" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="8" t="s">
@@ -13385,19 +13342,19 @@
       <c r="B88" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88">
         <v>66</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88">
         <v>2</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="17" t="s">
+      <c r="G88" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="8"/>
@@ -13428,19 +13385,19 @@
       <c r="B89" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="17">
+      <c r="D89">
         <v>6</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89">
         <v>3</v>
       </c>
-      <c r="F89" s="17" t="s">
+      <c r="F89" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="17" t="s">
+      <c r="G89" t="s">
         <v>34</v>
       </c>
       <c r="H89" s="8" t="s">
@@ -13473,19 +13430,19 @@
       <c r="B90" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" t="s">
         <v>27</v>
       </c>
-      <c r="D90" s="17">
+      <c r="D90">
         <v>5</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90">
         <v>3</v>
       </c>
-      <c r="F90" s="17" t="s">
+      <c r="F90" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="17" t="s">
+      <c r="G90" t="s">
         <v>34</v>
       </c>
       <c r="H90" s="8" t="s">
@@ -13518,19 +13475,19 @@
       <c r="B91" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" t="s">
         <v>27</v>
       </c>
-      <c r="D91" s="17">
+      <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91">
         <v>3</v>
       </c>
-      <c r="F91" s="17" t="s">
+      <c r="F91" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="17" t="s">
+      <c r="G91" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="8"/>
@@ -13561,19 +13518,19 @@
       <c r="B92" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" t="s">
         <v>27</v>
       </c>
-      <c r="D92" s="17">
+      <c r="D92">
         <v>8</v>
       </c>
-      <c r="E92" s="17">
+      <c r="E92">
         <v>3</v>
       </c>
-      <c r="F92" s="17" t="s">
+      <c r="F92" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="17" t="s">
+      <c r="G92" t="s">
         <v>34</v>
       </c>
       <c r="H92" s="8"/>
@@ -13604,19 +13561,19 @@
       <c r="B93" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="17">
+      <c r="D93">
         <v>11</v>
       </c>
-      <c r="E93" s="17">
+      <c r="E93">
         <v>3</v>
       </c>
-      <c r="F93" s="17" t="s">
+      <c r="F93" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="17" t="s">
+      <c r="G93" t="s">
         <v>34</v>
       </c>
       <c r="H93" s="8"/>
@@ -13647,20 +13604,20 @@
       <c r="B94" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" t="s">
         <v>149</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94">
         <f>6+24+37</f>
         <v>67</v>
       </c>
-      <c r="E94" s="17">
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="17" t="s">
+      <c r="F94" t="s">
         <v>18</v>
       </c>
-      <c r="G94" s="17" t="s">
+      <c r="G94" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="8"/>
@@ -13691,19 +13648,19 @@
       <c r="B95" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="17">
+      <c r="D95">
         <v>87</v>
       </c>
-      <c r="E95" s="17">
+      <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" t="s">
         <v>34</v>
       </c>
       <c r="H95" s="8" t="s">
@@ -13736,19 +13693,19 @@
       <c r="B96" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="17">
+      <c r="D96">
         <v>8</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" t="s">
         <v>18</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" t="s">
         <v>34</v>
       </c>
       <c r="H96" s="8" t="s">
@@ -13781,19 +13738,19 @@
       <c r="B97" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="17">
+      <c r="D97">
         <v>20</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97">
         <v>2</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F97" t="s">
         <v>18</v>
       </c>
-      <c r="G97" s="17" t="s">
+      <c r="G97" t="s">
         <v>34</v>
       </c>
       <c r="H97" s="8"/>
@@ -13824,19 +13781,19 @@
       <c r="B98" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" t="s">
         <v>149</v>
       </c>
-      <c r="D98" s="17">
+      <c r="D98">
         <v>24</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" s="17" t="s">
+      <c r="F98" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G98" t="s">
         <v>34</v>
       </c>
       <c r="H98" s="8"/>
@@ -13867,19 +13824,19 @@
       <c r="B99" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="17">
+      <c r="D99">
         <v>22</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99">
         <v>2</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G99" t="s">
         <v>34</v>
       </c>
       <c r="H99" s="8"/>
@@ -13910,19 +13867,19 @@
       <c r="B100" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" t="s">
         <v>149</v>
       </c>
-      <c r="D100" s="17">
+      <c r="D100">
         <v>2</v>
       </c>
-      <c r="E100" s="17">
+      <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100" s="17" t="s">
+      <c r="F100" t="s">
         <v>18</v>
       </c>
-      <c r="G100" s="17" t="s">
+      <c r="G100" t="s">
         <v>15</v>
       </c>
       <c r="H100" s="8"/>
@@ -13953,19 +13910,19 @@
       <c r="B101" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" t="s">
         <v>27</v>
       </c>
-      <c r="D101" s="17">
+      <c r="D101">
         <v>10</v>
       </c>
-      <c r="E101" s="17">
+      <c r="E101">
         <v>1</v>
       </c>
-      <c r="F101" s="17" t="s">
+      <c r="F101" t="s">
         <v>18</v>
       </c>
-      <c r="G101" s="17" t="s">
+      <c r="G101" t="s">
         <v>34</v>
       </c>
       <c r="H101" s="8"/>
@@ -13991,11 +13948,6 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
       <c r="H102" s="8"/>
       <c r="I102">
         <f t="shared" si="7"/>
@@ -14019,11 +13971,6 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
       <c r="H103" s="8"/>
       <c r="I103">
         <f t="shared" si="7"/>
@@ -14047,11 +13994,6 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
       <c r="H104" s="8"/>
       <c r="I104">
         <f t="shared" si="7"/>
@@ -14075,11 +14017,6 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
       <c r="H105" s="8"/>
       <c r="I105">
         <f t="shared" si="7"/>
@@ -14103,11 +14040,6 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
       <c r="H106" s="8"/>
       <c r="I106">
         <f t="shared" si="7"/>
@@ -14131,11 +14063,6 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
       <c r="H107" s="8"/>
       <c r="I107">
         <f t="shared" si="7"/>
@@ -14159,11 +14086,6 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
       <c r="H108" s="8"/>
       <c r="I108">
         <f t="shared" si="7"/>
@@ -14187,11 +14109,6 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
       <c r="H109" s="8"/>
       <c r="I109">
         <f t="shared" si="7"/>
@@ -14215,11 +14132,6 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
       <c r="H110" s="8"/>
       <c r="I110">
         <f t="shared" si="7"/>
@@ -14243,11 +14155,6 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
       <c r="H111" s="8"/>
       <c r="I111">
         <f t="shared" si="7"/>
@@ -14271,11 +14178,6 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
       <c r="H112" s="8"/>
       <c r="I112">
         <f t="shared" si="7"/>
@@ -14299,11 +14201,6 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
       <c r="H113" s="8"/>
       <c r="I113">
         <f t="shared" si="7"/>
@@ -14327,11 +14224,6 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
       <c r="H114" s="8"/>
       <c r="I114">
         <f t="shared" si="7"/>
@@ -14355,11 +14247,6 @@
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
       <c r="H115" s="8"/>
       <c r="I115">
         <f t="shared" si="7"/>
@@ -14383,11 +14270,6 @@
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
       <c r="H116" s="8"/>
       <c r="I116">
         <f t="shared" ref="I116:L179" si="8">MAX(0, IF($G116=I$2, $D116*$E116, 0))</f>
@@ -14411,11 +14293,6 @@
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
       <c r="H117" s="8"/>
       <c r="I117">
         <f t="shared" si="8"/>
@@ -14439,11 +14316,6 @@
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
       <c r="H118" s="8"/>
       <c r="I118">
         <f t="shared" si="8"/>
@@ -14467,11 +14339,6 @@
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
       <c r="H119" s="8"/>
       <c r="I119">
         <f t="shared" si="8"/>
@@ -14495,11 +14362,6 @@
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
       <c r="H120" s="8"/>
       <c r="I120">
         <f t="shared" si="8"/>
@@ -14523,11 +14385,6 @@
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
       <c r="H121" s="8"/>
       <c r="I121">
         <f t="shared" si="8"/>
@@ -14551,11 +14408,6 @@
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
       <c r="H122" s="8"/>
       <c r="I122">
         <f t="shared" si="8"/>
@@ -14579,11 +14431,6 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
       <c r="H123" s="8"/>
       <c r="I123">
         <f t="shared" si="8"/>
@@ -14607,11 +14454,6 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
       <c r="H124" s="8"/>
       <c r="I124">
         <f t="shared" si="8"/>
@@ -14635,11 +14477,6 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
       <c r="H125" s="8"/>
       <c r="I125">
         <f t="shared" si="8"/>
@@ -14663,11 +14500,6 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
       <c r="H126" s="8"/>
       <c r="I126">
         <f t="shared" si="8"/>
@@ -14691,11 +14523,6 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
       <c r="H127" s="8"/>
       <c r="I127">
         <f t="shared" si="8"/>
@@ -14719,11 +14546,6 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
       <c r="H128" s="8"/>
       <c r="I128">
         <f t="shared" si="8"/>
@@ -14747,11 +14569,6 @@
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
       <c r="H129" s="8"/>
       <c r="I129">
         <f t="shared" si="8"/>
@@ -14775,11 +14592,6 @@
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
       <c r="H130" s="8"/>
       <c r="I130">
         <f t="shared" si="8"/>
@@ -14803,11 +14615,6 @@
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
       <c r="H131" s="8"/>
       <c r="I131">
         <f t="shared" si="8"/>
@@ -14831,11 +14638,6 @@
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
       <c r="H132" s="8"/>
       <c r="I132">
         <f t="shared" si="8"/>
@@ -14859,11 +14661,6 @@
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
       <c r="H133" s="8"/>
       <c r="I133">
         <f t="shared" si="8"/>
@@ -14887,11 +14684,6 @@
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16"/>
-      <c r="G134" s="16"/>
       <c r="H134" s="8"/>
       <c r="I134">
         <f t="shared" si="8"/>
@@ -14915,11 +14707,6 @@
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
       <c r="H135" s="8"/>
       <c r="I135">
         <f t="shared" si="8"/>
@@ -14943,11 +14730,6 @@
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="16"/>
       <c r="H136" s="8"/>
       <c r="I136">
         <f t="shared" si="8"/>
@@ -14971,11 +14753,6 @@
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
-      <c r="F137" s="16"/>
-      <c r="G137" s="16"/>
       <c r="H137" s="8"/>
       <c r="I137">
         <f t="shared" si="8"/>
@@ -14999,11 +14776,6 @@
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="16"/>
       <c r="H138" s="8"/>
       <c r="I138">
         <f t="shared" si="8"/>
@@ -15027,11 +14799,6 @@
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="16"/>
-      <c r="G139" s="16"/>
       <c r="H139" s="8"/>
       <c r="I139">
         <f t="shared" si="8"/>
@@ -15055,11 +14822,6 @@
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
-      <c r="F140" s="16"/>
-      <c r="G140" s="16"/>
       <c r="H140" s="8"/>
       <c r="I140">
         <f t="shared" si="8"/>
@@ -15083,11 +14845,6 @@
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="16"/>
       <c r="H141" s="8"/>
       <c r="I141">
         <f t="shared" si="8"/>
@@ -15111,11 +14868,6 @@
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="16"/>
       <c r="H142" s="8"/>
       <c r="I142">
         <f t="shared" si="8"/>
@@ -15139,11 +14891,6 @@
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
       <c r="H143" s="8"/>
       <c r="I143">
         <f t="shared" si="8"/>
@@ -15167,11 +14914,6 @@
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
-      <c r="F144" s="16"/>
-      <c r="G144" s="16"/>
       <c r="H144" s="8"/>
       <c r="I144">
         <f t="shared" si="8"/>
@@ -15195,11 +14937,6 @@
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="16"/>
       <c r="H145" s="8"/>
       <c r="I145">
         <f t="shared" si="8"/>
@@ -15223,11 +14960,6 @@
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
-      <c r="F146" s="16"/>
-      <c r="G146" s="16"/>
       <c r="H146" s="8"/>
       <c r="I146">
         <f t="shared" si="8"/>
@@ -15251,11 +14983,6 @@
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
-      <c r="G147" s="16"/>
       <c r="H147" s="8"/>
       <c r="I147">
         <f t="shared" si="8"/>
@@ -15279,11 +15006,6 @@
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
       <c r="H148" s="8"/>
       <c r="I148">
         <f t="shared" si="8"/>
@@ -15307,11 +15029,6 @@
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
       <c r="H149" s="8"/>
       <c r="I149">
         <f t="shared" si="8"/>
@@ -15335,11 +15052,6 @@
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
-      <c r="F150" s="16"/>
-      <c r="G150" s="16"/>
       <c r="H150" s="8"/>
       <c r="I150">
         <f t="shared" si="8"/>
@@ -15363,11 +15075,6 @@
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16"/>
       <c r="H151" s="8"/>
       <c r="I151">
         <f t="shared" si="8"/>
@@ -15391,11 +15098,6 @@
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
-      <c r="F152" s="16"/>
-      <c r="G152" s="16"/>
       <c r="H152" s="8"/>
       <c r="I152">
         <f t="shared" si="8"/>
@@ -15419,11 +15121,6 @@
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="16"/>
-      <c r="G153" s="16"/>
       <c r="H153" s="8"/>
       <c r="I153">
         <f t="shared" si="8"/>
@@ -15447,11 +15144,6 @@
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="16"/>
-      <c r="G154" s="16"/>
       <c r="H154" s="8"/>
       <c r="I154">
         <f t="shared" si="8"/>
@@ -15475,11 +15167,6 @@
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16"/>
-      <c r="G155" s="16"/>
       <c r="H155" s="8"/>
       <c r="I155">
         <f t="shared" si="8"/>
@@ -15503,11 +15190,6 @@
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
-      <c r="C156" s="16"/>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="16"/>
       <c r="H156" s="8"/>
       <c r="I156">
         <f t="shared" si="8"/>
@@ -15531,11 +15213,6 @@
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
       <c r="H157" s="8"/>
       <c r="I157">
         <f t="shared" si="8"/>
@@ -15559,11 +15236,6 @@
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="16"/>
       <c r="H158" s="8"/>
       <c r="I158">
         <f t="shared" si="8"/>
@@ -15587,11 +15259,6 @@
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="16"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="16"/>
       <c r="H159" s="8"/>
       <c r="I159">
         <f t="shared" si="8"/>
@@ -15615,11 +15282,6 @@
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
-      <c r="C160" s="16"/>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="16"/>
       <c r="H160" s="8"/>
       <c r="I160">
         <f t="shared" si="8"/>
@@ -15643,11 +15305,6 @@
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="16"/>
       <c r="H161" s="8"/>
       <c r="I161">
         <f t="shared" si="8"/>
@@ -15671,11 +15328,6 @@
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
       <c r="H162" s="8"/>
       <c r="I162">
         <f t="shared" si="8"/>
@@ -15699,11 +15351,6 @@
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="16"/>
       <c r="H163" s="8"/>
       <c r="I163">
         <f t="shared" si="8"/>
@@ -15727,11 +15374,6 @@
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
       <c r="H164" s="8"/>
       <c r="I164">
         <f t="shared" si="8"/>
@@ -15755,11 +15397,6 @@
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="16"/>
       <c r="H165" s="8"/>
       <c r="I165">
         <f t="shared" si="8"/>
@@ -15783,11 +15420,6 @@
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
-      <c r="C166" s="16"/>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
       <c r="H166" s="8"/>
       <c r="I166">
         <f t="shared" si="8"/>
@@ -15811,11 +15443,6 @@
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="16"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="16"/>
       <c r="H167" s="8"/>
       <c r="I167">
         <f t="shared" si="8"/>
@@ -15839,11 +15466,6 @@
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
-      <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="16"/>
       <c r="H168" s="8"/>
       <c r="I168">
         <f t="shared" si="8"/>
@@ -15867,11 +15489,6 @@
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="16"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="16"/>
       <c r="H169" s="8"/>
       <c r="I169">
         <f t="shared" si="8"/>
@@ -15895,11 +15512,6 @@
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="16"/>
       <c r="H170" s="8"/>
       <c r="I170">
         <f t="shared" si="8"/>
@@ -15923,11 +15535,6 @@
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="16"/>
       <c r="H171" s="8"/>
       <c r="I171">
         <f t="shared" si="8"/>
@@ -15951,11 +15558,6 @@
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
-      <c r="C172" s="16"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="16"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="16"/>
       <c r="H172" s="8"/>
       <c r="I172">
         <f t="shared" si="8"/>
@@ -15979,11 +15581,6 @@
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="16"/>
       <c r="H173" s="8"/>
       <c r="I173">
         <f t="shared" si="8"/>
@@ -16007,11 +15604,6 @@
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="16"/>
       <c r="H174" s="8"/>
       <c r="I174">
         <f t="shared" si="8"/>
@@ -16035,11 +15627,6 @@
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="16"/>
       <c r="H175" s="8"/>
       <c r="I175">
         <f t="shared" si="8"/>
@@ -16063,11 +15650,6 @@
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="16"/>
       <c r="H176" s="8"/>
       <c r="I176">
         <f t="shared" si="8"/>
@@ -16091,11 +15673,6 @@
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="16"/>
       <c r="H177" s="8"/>
       <c r="I177">
         <f t="shared" si="8"/>
@@ -16119,11 +15696,6 @@
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="16"/>
       <c r="H178" s="8"/>
       <c r="I178">
         <f t="shared" si="8"/>
@@ -16147,11 +15719,6 @@
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="16"/>
       <c r="H179" s="8"/>
       <c r="I179">
         <f t="shared" si="8"/>
@@ -16175,11 +15742,6 @@
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="16"/>
       <c r="H180" s="8"/>
       <c r="I180">
         <f t="shared" si="9"/>
@@ -16203,11 +15765,6 @@
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="16"/>
       <c r="H181" s="8"/>
       <c r="I181">
         <f t="shared" si="9"/>
@@ -16231,11 +15788,6 @@
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="16"/>
       <c r="H182" s="8"/>
       <c r="I182">
         <f t="shared" si="9"/>
@@ -16259,11 +15811,6 @@
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="16"/>
       <c r="H183" s="8"/>
       <c r="I183">
         <f t="shared" si="9"/>
@@ -16287,11 +15834,6 @@
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="16"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="16"/>
       <c r="H184" s="8"/>
       <c r="I184">
         <f t="shared" si="9"/>
@@ -16315,11 +15857,6 @@
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="16"/>
       <c r="H185" s="8"/>
       <c r="I185">
         <f t="shared" si="9"/>
@@ -16343,11 +15880,6 @@
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
-      <c r="C186" s="16"/>
-      <c r="D186" s="16"/>
-      <c r="E186" s="16"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="16"/>
       <c r="H186" s="8"/>
       <c r="I186">
         <f t="shared" si="9"/>
@@ -16371,11 +15903,6 @@
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="16"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="16"/>
       <c r="H187" s="8"/>
       <c r="I187">
         <f t="shared" si="9"/>
@@ -16399,11 +15926,6 @@
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
-      <c r="C188" s="16"/>
-      <c r="D188" s="16"/>
-      <c r="E188" s="16"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="16"/>
       <c r="H188" s="8"/>
       <c r="I188">
         <f t="shared" si="9"/>
@@ -16427,11 +15949,6 @@
     </row>
     <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="16"/>
       <c r="H189" s="8"/>
       <c r="I189">
         <f t="shared" si="9"/>
@@ -16455,11 +15972,6 @@
     </row>
     <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="16"/>
       <c r="H190" s="8"/>
       <c r="I190">
         <f t="shared" si="9"/>
@@ -16483,11 +15995,6 @@
     </row>
     <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="16"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="16"/>
       <c r="H191" s="8"/>
       <c r="I191">
         <f t="shared" si="9"/>
@@ -16511,11 +16018,6 @@
     </row>
     <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="16"/>
       <c r="H192" s="8"/>
       <c r="I192">
         <f t="shared" si="9"/>
@@ -16539,11 +16041,6 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="16"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="16"/>
       <c r="H193" s="8"/>
       <c r="I193">
         <f t="shared" si="9"/>
@@ -16567,11 +16064,6 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
-      <c r="C194" s="16"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="16"/>
       <c r="H194" s="8"/>
       <c r="I194">
         <f t="shared" si="9"/>
@@ -16595,11 +16087,6 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
-      <c r="C195" s="16"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="16"/>
       <c r="H195" s="8"/>
       <c r="I195">
         <f t="shared" si="9"/>
@@ -16623,11 +16110,6 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
-      <c r="C196" s="16"/>
-      <c r="D196" s="16"/>
-      <c r="E196" s="16"/>
-      <c r="F196" s="16"/>
-      <c r="G196" s="16"/>
       <c r="H196" s="8"/>
       <c r="I196">
         <f t="shared" si="9"/>
@@ -16651,11 +16133,6 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
-      <c r="C197" s="16"/>
-      <c r="D197" s="16"/>
-      <c r="E197" s="16"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="16"/>
       <c r="H197" s="8"/>
       <c r="I197">
         <f t="shared" si="9"/>
@@ -16679,11 +16156,6 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
-      <c r="C198" s="16"/>
-      <c r="D198" s="16"/>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="16"/>
       <c r="H198" s="8"/>
       <c r="I198">
         <f t="shared" si="9"/>
@@ -16707,11 +16179,6 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
-      <c r="C199" s="16"/>
-      <c r="D199" s="16"/>
-      <c r="E199" s="16"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="16"/>
       <c r="H199" s="8"/>
       <c r="I199">
         <f t="shared" si="9"/>
@@ -16735,11 +16202,6 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="16"/>
       <c r="H200" s="8"/>
       <c r="I200">
         <f t="shared" si="9"/>
@@ -16792,7 +16254,7 @@
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>1564</v>
+        <v>1644</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -16814,23 +16276,23 @@
       <c r="H202">
         <v>12</v>
       </c>
-      <c r="I202" s="17" cm="1">
+      <c r="I202" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>69</v>
       </c>
-      <c r="J202" s="17" cm="1">
+      <c r="J202" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>288</v>
       </c>
-      <c r="K202" s="17" cm="1">
+      <c r="K202" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>0</v>
       </c>
-      <c r="L202" s="17" cm="1">
+      <c r="L202" cm="1">
         <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>0</v>
       </c>
-      <c r="M202" s="17" cm="1">
+      <c r="M202" cm="1">
         <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
         <v>0</v>
       </c>
@@ -16869,7 +16331,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" ref="J204:M205" si="10">J$2</f>
+        <f t="shared" ref="J204:M204" si="10">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K204" t="str">
@@ -16920,7 +16382,7 @@
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.5416666666666667</v>
+        <v>1.6041666666666667</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -16970,7 +16432,7 @@
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>1585</v>
+        <v>1649</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -16994,7 +16456,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" ref="J210:M211" si="11">J$2</f>
+        <f t="shared" ref="J210:M210" si="11">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K210" t="str">
@@ -17016,19 +16478,19 @@
         <v>everything</v>
       </c>
       <c r="I211">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" ref="I211:L222" si="12">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
         <v>12</v>
       </c>
       <c r="J211">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="K211">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="L211">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M211">
@@ -17041,23 +16503,23 @@
         <v>changes</v>
       </c>
       <c r="I212">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J212">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="K212">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="M212">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" ref="M212:M222" si="13">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
@@ -17066,23 +16528,23 @@
         <v>new cls</v>
       </c>
       <c r="I213">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J213">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M213">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G213)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17091,23 +16553,23 @@
         <v>docs</v>
       </c>
       <c r="I214">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J214">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K214">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M214">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G214)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17116,23 +16578,23 @@
         <v>change docs</v>
       </c>
       <c r="I215">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="K215">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M215">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G215)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17141,23 +16603,23 @@
         <v>remove</v>
       </c>
       <c r="I216">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J216">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M216">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G216)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17166,23 +16628,23 @@
         <v>created</v>
       </c>
       <c r="I217">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J217">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M217">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G217)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17191,23 +16653,23 @@
         <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J218">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K218">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M218">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G218)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17216,23 +16678,23 @@
         <v>added</v>
       </c>
       <c r="I219">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="J219">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="K219">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L219">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M219">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G219)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17241,23 +16703,23 @@
         <v>setter</v>
       </c>
       <c r="I220">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K220">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M220">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G220)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17266,23 +16728,23 @@
         <v>moved</v>
       </c>
       <c r="I221">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K221">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M221">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G221)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17291,23 +16753,23 @@
         <v>fixes</v>
       </c>
       <c r="I222">
-        <f>COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="J222">
-        <f>COUNTIFS($G$3:$G$200, J$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f>COUNTIFS($G$3:$G$200, K$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f>COUNTIFS($G$3:$G$200, L$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M222">
-        <f>COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G222)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -17316,23 +16778,23 @@
         <v>170</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" ref="I224:M225" si="12">I$2</f>
+        <f t="shared" ref="I224:M224" si="14">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Giesbrt</v>
       </c>
       <c r="K224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Fa4953</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M224" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -17342,23 +16804,23 @@
         <v>none</v>
       </c>
       <c r="I225">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" ref="I225:M231" si="15">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
         <v>31</v>
       </c>
       <c r="J225">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="K225">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L225">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="M225">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G225)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17367,23 +16829,23 @@
         <v>comments 5%</v>
       </c>
       <c r="I226">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J226">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K226">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L226">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M226">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17392,23 +16854,23 @@
         <v>inline 100%</v>
       </c>
       <c r="I227">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="J227">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="K227">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="L227">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17417,23 +16879,23 @@
         <v>inline 5%</v>
       </c>
       <c r="I228">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J228">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K228">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L228">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17442,23 +16904,23 @@
         <v>comments 100%</v>
       </c>
       <c r="I229">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J229">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17467,23 +16929,23 @@
         <v>inline 50%</v>
       </c>
       <c r="I230">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J230">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K230">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17492,23 +16954,23 @@
         <v>in md 100%</v>
       </c>
       <c r="I231">
-        <f>COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J231">
-        <f>COUNTIFS($G$3:$G$200, J$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K231">
-        <f>COUNTIFS($G$3:$G$200, K$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f>COUNTIFS($G$3:$G$200, L$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f>COUNTIFS($G$3:$G$200, M$224, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -17589,7 +17051,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB783ADC-848F-4142-ABD6-FBEC14234351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CFFC9-E5E0-4434-8BAA-0035679C975A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16470" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="232">
   <si>
     <t>Datei</t>
   </si>
@@ -673,6 +673,120 @@
   </si>
   <si>
     <t>src\dc\abstract.py</t>
+  </si>
+  <si>
+    <t>added school ch...</t>
+  </si>
+  <si>
+    <t>src\dc\UIAutomaton.py</t>
+  </si>
+  <si>
+    <t>Added automaton.json ...</t>
+  </si>
+  <si>
+    <t>count_loc.bat</t>
+  </si>
+  <si>
+    <t>added unfinished ...</t>
+  </si>
+  <si>
+    <t>Updated pyautoinst ...</t>
+  </si>
+  <si>
+    <t>updated load ...</t>
+  </si>
+  <si>
+    <t>Implemented ser...</t>
+  </si>
+  <si>
+    <t>src\dc\serializer.py</t>
+  </si>
+  <si>
+    <t>updated errors</t>
+  </si>
+  <si>
+    <t>added ordered ...</t>
+  </si>
+  <si>
+    <t>src\dc\OrderedSet.py</t>
+  </si>
+  <si>
+    <t>Updated serializer</t>
+  </si>
+  <si>
+    <t>adjusted Ordered...</t>
+  </si>
+  <si>
+    <t>outsourced autom...</t>
+  </si>
+  <si>
+    <t>src\dc\SimulatorTest.py</t>
+  </si>
+  <si>
+    <t>src\dc\automatonSimulator.py</t>
+  </si>
+  <si>
+    <t>Same logic as removed from simulationLoader</t>
+  </si>
+  <si>
+    <t>added simulat...</t>
+  </si>
+  <si>
+    <t>src\dc\automaton_loader.py</t>
+  </si>
+  <si>
+    <t>updated simulatio...</t>
+  </si>
+  <si>
+    <t>One commit</t>
+  </si>
+  <si>
+    <t>Updated Tur...</t>
+  </si>
+  <si>
+    <t>src\dc\TMUnitTest.py</t>
+  </si>
+  <si>
+    <t>src\dc\mealyAutomaton.py</t>
+  </si>
+  <si>
+    <t>src\dc\mealyState.py</t>
+  </si>
+  <si>
+    <t>src\dc\mealyTransition.py</t>
+  </si>
+  <si>
+    <t>src\dc\mealyUnitTest.py</t>
+  </si>
+  <si>
+    <t>Same as last commit</t>
+  </si>
+  <si>
+    <t>one line</t>
+  </si>
+  <si>
+    <t>added match-case...</t>
+  </si>
+  <si>
+    <t>(only added match and case)</t>
+  </si>
+  <si>
+    <t>Started impl...</t>
+  </si>
+  <si>
+    <t>Fully implem...</t>
+  </si>
+  <si>
+    <t>added simulate ...</t>
+  </si>
+  <si>
+    <t>Added topbar ...</t>
+  </si>
+  <si>
+    <t>added from list/...</t>
+  </si>
+  <si>
+    <t>Theme changes for ...</t>
   </si>
 </sst>
 </file>
@@ -906,8 +1020,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -925,7 +1039,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -987,7 +1101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1155,7 +1269,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1196,7 +1310,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1237,7 +1351,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1278,7 +1392,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1319,7 +1433,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1398,13 +1512,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2801</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1644</c:v>
+                  <c:v>2883.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>316</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>574</c:v>
@@ -1474,7 +1588,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1488,7 +1602,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1550,7 +1664,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1716,10 +1830,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1740,7 +1854,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1835,10 +1949,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1859,7 +1973,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1954,7 +2068,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1978,7 +2092,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2290,7 +2404,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693168896"/>
@@ -2363,7 +2477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693170560"/>
@@ -2405,7 +2519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2442,7 +2556,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2456,7 +2570,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2518,7 +2632,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2654,7 +2768,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2743,13 +2857,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2758,7 +2872,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2832,13 +2946,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3093,7 +3207,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672855376"/>
@@ -3166,7 +3280,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672851632"/>
@@ -3208,7 +3322,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3245,7 +3359,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3259,7 +3373,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3321,7 +3435,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3386,13 +3500,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -3463,13 +3577,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4318181818181819</c:v>
+                  <c:v>1.4545454545454546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6041666666666667</c:v>
+                  <c:v>1.4358974358974359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -3540,13 +3654,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.477272727272727</c:v>
+                  <c:v>44.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.979166666666668</c:v>
+                  <c:v>23.294871794871796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.666666666666664</c:v>
+                  <c:v>36.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>143.5</c:v>
@@ -3616,7 +3730,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739573552"/>
@@ -3689,7 +3803,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739578128"/>
@@ -3731,7 +3845,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3768,7 +3882,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3782,7 +3896,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3819,7 +3933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3988,7 +4102,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4029,7 +4143,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4070,7 +4184,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4111,7 +4225,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4152,7 +4266,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4231,13 +4345,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2676</c:v>
+                  <c:v>3556</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1649</c:v>
+                  <c:v>2642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>278</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>574</c:v>
@@ -4307,7 +4421,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4321,7 +4435,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4383,7 +4497,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4539,7 +4653,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4598,10 +4712,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>288</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4672,7 +4786,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4716,7 +4830,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4730,7 +4844,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4792,7 +4906,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4948,7 +5062,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5007,13 +5121,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>799</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>316</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>574</c:v>
@@ -5081,7 +5195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5125,7 +5239,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9276,9 +9390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9316,9 +9430,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9351,9 +9465,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9386,9 +9517,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9564,11 +9712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -13947,7 +14095,27 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
+      <c r="A102" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102">
+        <v>192</v>
+      </c>
+      <c r="E102">
+        <v>2.5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>34</v>
+      </c>
       <c r="H102" s="8"/>
       <c r="I102">
         <f t="shared" si="7"/>
@@ -13955,7 +14123,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="K102">
         <f t="shared" si="7"/>
@@ -13970,7 +14138,28 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" t="s">
+        <v>149</v>
+      </c>
+      <c r="D103">
+        <f>3+4+3+4</f>
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
       <c r="H103" s="8"/>
       <c r="I103">
         <f t="shared" si="7"/>
@@ -13978,7 +14167,7 @@
       </c>
       <c r="J103">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K103">
         <f t="shared" si="7"/>
@@ -13993,7 +14182,28 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>34</v>
+      </c>
       <c r="H104" s="8"/>
       <c r="I104">
         <f t="shared" si="7"/>
@@ -14001,7 +14211,7 @@
       </c>
       <c r="J104">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K104">
         <f t="shared" si="7"/>
@@ -14016,7 +14226,27 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" t="s">
+        <v>149</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>34</v>
+      </c>
       <c r="H105" s="8"/>
       <c r="I105">
         <f t="shared" si="7"/>
@@ -14024,7 +14254,7 @@
       </c>
       <c r="J105">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105">
         <f t="shared" si="7"/>
@@ -14039,11 +14269,31 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="7"/>
+      <c r="A106" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
       <c r="H106" s="8"/>
       <c r="I106">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106">
         <f t="shared" si="7"/>
@@ -14062,7 +14312,28 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="7"/>
+      <c r="A107" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" t="s">
+        <v>149</v>
+      </c>
+      <c r="D107">
+        <f>128+1</f>
+        <v>129</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
       <c r="H107" s="8"/>
       <c r="I107">
         <f t="shared" si="7"/>
@@ -14070,7 +14341,7 @@
       </c>
       <c r="J107">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="K107">
         <f t="shared" si="7"/>
@@ -14085,7 +14356,27 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108">
+        <v>29</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
       <c r="H108" s="8"/>
       <c r="I108">
         <f t="shared" si="7"/>
@@ -14093,7 +14384,7 @@
       </c>
       <c r="J108">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K108">
         <f t="shared" si="7"/>
@@ -14108,11 +14399,31 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
+      <c r="A109" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" t="s">
+        <v>149</v>
+      </c>
+      <c r="D109">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
       <c r="H109" s="8"/>
       <c r="I109">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J109">
         <f t="shared" si="7"/>
@@ -14131,7 +14442,27 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
+      <c r="A110" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110">
+        <v>26</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
       <c r="H110" s="8"/>
       <c r="I110">
         <f t="shared" si="7"/>
@@ -14139,7 +14470,7 @@
       </c>
       <c r="J110">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="K110">
         <f t="shared" si="7"/>
@@ -14154,7 +14485,28 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
+      <c r="A111" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" t="s">
+        <v>149</v>
+      </c>
+      <c r="D111">
+        <f>3+8+13+2+9</f>
+        <v>35</v>
+      </c>
+      <c r="E111">
+        <v>1.5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s">
+        <v>34</v>
+      </c>
       <c r="H111" s="8"/>
       <c r="I111">
         <f t="shared" si="7"/>
@@ -14162,7 +14514,7 @@
       </c>
       <c r="J111">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="K111">
         <f t="shared" si="7"/>
@@ -14177,11 +14529,31 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
+      <c r="A112" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
       <c r="H112" s="8"/>
       <c r="I112">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J112">
         <f t="shared" si="7"/>
@@ -14199,12 +14571,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113">
+        <v>163</v>
+      </c>
+      <c r="E113">
+        <v>2.5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
       <c r="H113" s="8"/>
       <c r="I113">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>407.5</v>
       </c>
       <c r="J113">
         <f t="shared" si="7"/>
@@ -14222,8 +14614,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D114">
+        <v>34</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
       <c r="H114" s="8"/>
       <c r="I114">
         <f t="shared" si="7"/>
@@ -14231,7 +14643,7 @@
       </c>
       <c r="J114">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K114">
         <f t="shared" si="7"/>
@@ -14245,8 +14657,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115">
+        <v>23</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s">
+        <v>34</v>
+      </c>
       <c r="H115" s="8"/>
       <c r="I115">
         <f t="shared" si="7"/>
@@ -14254,7 +14686,7 @@
       </c>
       <c r="J115">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K115">
         <f t="shared" si="7"/>
@@ -14268,12 +14700,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" t="s">
+        <v>149</v>
+      </c>
+      <c r="D116">
+        <v>56</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
       <c r="H116" s="8"/>
       <c r="I116">
         <f t="shared" ref="I116:L179" si="8">MAX(0, IF($G116=I$2, $D116*$E116, 0))</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J116">
         <f t="shared" si="8"/>
@@ -14291,8 +14743,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117">
+        <v>39</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s">
+        <v>34</v>
+      </c>
       <c r="H117" s="8"/>
       <c r="I117">
         <f t="shared" si="8"/>
@@ -14300,7 +14772,7 @@
       </c>
       <c r="J117">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K117">
         <f t="shared" si="8"/>
@@ -14314,8 +14786,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118">
+        <v>35</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s">
+        <v>34</v>
+      </c>
       <c r="H118" s="8"/>
       <c r="I118">
         <f t="shared" si="8"/>
@@ -14323,7 +14815,7 @@
       </c>
       <c r="J118">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K118">
         <f t="shared" si="8"/>
@@ -14337,8 +14829,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119">
+        <f>67-11</f>
+        <v>56</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s">
+        <v>34</v>
+      </c>
       <c r="H119" s="8"/>
       <c r="I119">
         <f t="shared" si="8"/>
@@ -14346,7 +14859,7 @@
       </c>
       <c r="J119">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K119">
         <f t="shared" si="8"/>
@@ -14360,9 +14873,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="7"/>
-      <c r="H120" s="8"/>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120">
+        <v>132</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="I120">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -14383,8 +14918,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="7"/>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121">
+        <v>-132</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s">
+        <v>34</v>
+      </c>
       <c r="H121" s="8"/>
       <c r="I121">
         <f t="shared" si="8"/>
@@ -14406,8 +14961,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="7"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C122" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
+        <v>34</v>
+      </c>
       <c r="H122" s="8"/>
       <c r="I122">
         <f t="shared" si="8"/>
@@ -14415,7 +14990,7 @@
       </c>
       <c r="J122">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K122">
         <f t="shared" si="8"/>
@@ -14429,8 +15004,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="7"/>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" t="s">
+        <v>149</v>
+      </c>
+      <c r="D123">
+        <v>25</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
+      </c>
       <c r="H123" s="8"/>
       <c r="I123">
         <f t="shared" si="8"/>
@@ -14438,7 +15033,7 @@
       </c>
       <c r="J123">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <f t="shared" si="8"/>
@@ -14452,8 +15047,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
       <c r="H124" s="8"/>
       <c r="I124">
         <f t="shared" si="8"/>
@@ -14461,7 +15076,7 @@
       </c>
       <c r="J124">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124">
         <f t="shared" si="8"/>
@@ -14475,8 +15090,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="7"/>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125">
+        <v>42</v>
+      </c>
+      <c r="E125">
+        <v>2.5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>88</v>
+      </c>
       <c r="H125" s="8"/>
       <c r="I125">
         <f t="shared" si="8"/>
@@ -14488,7 +15123,7 @@
       </c>
       <c r="K125">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L125">
         <f t="shared" si="8"/>
@@ -14498,8 +15133,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="7"/>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
+      </c>
+      <c r="E126">
+        <v>2.5</v>
+      </c>
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>88</v>
+      </c>
       <c r="H126" s="8"/>
       <c r="I126">
         <f t="shared" si="8"/>
@@ -14511,7 +15166,7 @@
       </c>
       <c r="K126">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L126">
         <f t="shared" si="8"/>
@@ -14521,8 +15176,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127">
+        <v>2.5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>88</v>
+      </c>
       <c r="H127" s="8"/>
       <c r="I127">
         <f t="shared" si="8"/>
@@ -14534,7 +15209,7 @@
       </c>
       <c r="K127">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L127">
         <f t="shared" si="8"/>
@@ -14544,8 +15219,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="7"/>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128">
+        <v>46</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
       <c r="H128" s="8"/>
       <c r="I128">
         <f t="shared" si="8"/>
@@ -14557,7 +15252,7 @@
       </c>
       <c r="K128">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L128">
         <f t="shared" si="8"/>
@@ -14567,8 +15262,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="7"/>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129">
+        <v>84</v>
+      </c>
+      <c r="E129">
+        <v>2.5</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>88</v>
+      </c>
       <c r="H129" s="8"/>
       <c r="I129">
         <f t="shared" si="8"/>
@@ -14580,7 +15295,7 @@
       </c>
       <c r="K129">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="L129">
         <f t="shared" si="8"/>
@@ -14590,8 +15305,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="7"/>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130">
+        <v>22</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>88</v>
+      </c>
       <c r="H130" s="8"/>
       <c r="I130">
         <f t="shared" si="8"/>
@@ -14603,7 +15338,7 @@
       </c>
       <c r="K130">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L130">
         <f t="shared" si="8"/>
@@ -14613,8 +15348,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="7"/>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131">
+        <v>21</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>88</v>
+      </c>
       <c r="H131" s="8"/>
       <c r="I131">
         <f t="shared" si="8"/>
@@ -14626,7 +15381,7 @@
       </c>
       <c r="K131">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L131">
         <f t="shared" si="8"/>
@@ -14636,8 +15391,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="7"/>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132">
+        <v>38</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s">
+        <v>88</v>
+      </c>
       <c r="H132" s="8"/>
       <c r="I132">
         <f t="shared" si="8"/>
@@ -14649,7 +15424,7 @@
       </c>
       <c r="K132">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="L132">
         <f t="shared" si="8"/>
@@ -14659,8 +15434,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="7"/>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" t="s">
+        <v>223</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>88</v>
+      </c>
       <c r="H133" s="8"/>
       <c r="I133">
         <f t="shared" si="8"/>
@@ -14682,8 +15477,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="7"/>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>215</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" t="s">
+        <v>149</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
       <c r="H134" s="8"/>
       <c r="I134">
         <f t="shared" si="8"/>
@@ -14691,7 +15506,7 @@
       </c>
       <c r="J134">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134">
         <f t="shared" si="8"/>
@@ -14705,8 +15520,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="7"/>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>215</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135">
+        <f>4*8</f>
+        <v>32</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s">
+        <v>34</v>
+      </c>
       <c r="H135" s="8"/>
       <c r="I135">
         <f t="shared" si="8"/>
@@ -14714,7 +15550,7 @@
       </c>
       <c r="J135">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="K135">
         <f t="shared" si="8"/>
@@ -14728,16 +15564,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="7"/>
-      <c r="H136" s="8"/>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>225</v>
+      </c>
       <c r="I136">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J136">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136">
         <f t="shared" si="8"/>
@@ -14751,12 +15609,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="7"/>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137" t="s">
+        <v>149</v>
+      </c>
+      <c r="D137">
+        <f>42-6</f>
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>2.5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
       <c r="H137" s="8"/>
       <c r="I137">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J137">
         <f t="shared" si="8"/>
@@ -14774,8 +15653,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="7"/>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>215</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>34</v>
+      </c>
       <c r="H138" s="8"/>
       <c r="I138">
         <f t="shared" si="8"/>
@@ -14783,7 +15682,7 @@
       </c>
       <c r="J138">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K138">
         <f t="shared" si="8"/>
@@ -14797,8 +15696,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" s="7"/>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139">
+        <f>15+11</f>
+        <v>26</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>34</v>
+      </c>
       <c r="H139" s="8"/>
       <c r="I139">
         <f t="shared" si="8"/>
@@ -14806,7 +15726,7 @@
       </c>
       <c r="J139">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K139">
         <f t="shared" si="8"/>
@@ -14820,8 +15740,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" s="7"/>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>215</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C140" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>34</v>
+      </c>
       <c r="H140" s="8"/>
       <c r="I140">
         <f t="shared" si="8"/>
@@ -14829,7 +15769,7 @@
       </c>
       <c r="J140">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K140">
         <f t="shared" si="8"/>
@@ -14843,8 +15783,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="7"/>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>215</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141">
+        <v>14</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>34</v>
+      </c>
       <c r="H141" s="8"/>
       <c r="I141">
         <f t="shared" si="8"/>
@@ -14852,7 +15812,7 @@
       </c>
       <c r="J141">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K141">
         <f t="shared" si="8"/>
@@ -14866,8 +15826,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B142" s="7"/>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142">
+        <f>6+9+9+2</f>
+        <v>26</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>34</v>
+      </c>
       <c r="H142" s="8"/>
       <c r="I142">
         <f t="shared" si="8"/>
@@ -14875,7 +15856,7 @@
       </c>
       <c r="J142">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K142">
         <f t="shared" si="8"/>
@@ -14889,12 +15870,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="7"/>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143">
+        <v>130</v>
+      </c>
+      <c r="E143">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
       <c r="H143" s="8"/>
       <c r="I143">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J143">
         <f t="shared" si="8"/>
@@ -14912,12 +15913,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" s="7"/>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>215</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" t="s">
+        <v>149</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
       <c r="H144" s="8"/>
       <c r="I144">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J144">
         <f t="shared" si="8"/>
@@ -14935,8 +15956,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B145" s="7"/>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145">
+        <v>16</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>131</v>
+      </c>
+      <c r="G145" t="s">
+        <v>34</v>
+      </c>
       <c r="H145" s="8"/>
       <c r="I145">
         <f t="shared" si="8"/>
@@ -14944,7 +15985,7 @@
       </c>
       <c r="J145">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K145">
         <f t="shared" si="8"/>
@@ -14958,8 +15999,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B146" s="7"/>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>128</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
       <c r="H146" s="8"/>
       <c r="I146">
         <f t="shared" si="8"/>
@@ -14967,7 +16028,7 @@
       </c>
       <c r="J146">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K146">
         <f t="shared" si="8"/>
@@ -14981,31 +16042,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B147" s="7"/>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147">
+        <f>4+48+70+3+7</f>
+        <v>132</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>18</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
       <c r="H147" s="8"/>
-      <c r="I147">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="I147" t="e">
+        <f>MAX(0, IF($G147=I$2,#REF!* $E147, 0))</f>
+        <v>#REF!</v>
       </c>
       <c r="J147">
-        <f t="shared" si="8"/>
+        <f>MAX(0, IF($G147=J$2,#REF!* $E147, 0))</f>
         <v>0</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f>MAX(0, IF($G147=K$2,#REF!* $E147, 0))</f>
         <v>0</v>
       </c>
       <c r="L147">
-        <f t="shared" si="8"/>
+        <f>MAX(0, IF($G147=L$2,#REF!* $E147, 0))</f>
         <v>0</v>
       </c>
       <c r="M147" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B148" s="7"/>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" t="s">
+        <v>149</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
       <c r="H148" s="8"/>
       <c r="I148">
         <f t="shared" si="8"/>
@@ -15013,7 +16115,7 @@
       </c>
       <c r="J148">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K148">
         <f t="shared" si="8"/>
@@ -15027,8 +16129,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B149" s="7"/>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s">
+        <v>34</v>
+      </c>
       <c r="H149" s="8"/>
       <c r="I149">
         <f t="shared" si="8"/>
@@ -15036,7 +16158,7 @@
       </c>
       <c r="J149">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K149">
         <f t="shared" si="8"/>
@@ -15050,12 +16172,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B150" s="7"/>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C150" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150">
+        <v>18</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
       <c r="H150" s="8"/>
       <c r="I150">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J150">
         <f t="shared" si="8"/>
@@ -15073,12 +16215,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B151" s="7"/>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C151" t="s">
+        <v>149</v>
+      </c>
+      <c r="D151">
+        <v>11</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
       <c r="H151" s="8"/>
       <c r="I151">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J151">
         <f t="shared" si="8"/>
@@ -15096,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
       <c r="H152" s="8"/>
       <c r="I152">
@@ -15119,7 +16281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
       <c r="H153" s="8"/>
       <c r="I153">
@@ -15142,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
       <c r="H154" s="8"/>
       <c r="I154">
@@ -15165,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
       <c r="H155" s="8"/>
       <c r="I155">
@@ -15188,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
       <c r="H156" s="8"/>
       <c r="I156">
@@ -15211,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
       <c r="H157" s="8"/>
       <c r="I157">
@@ -15234,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
       <c r="H158" s="8"/>
       <c r="I158">
@@ -15257,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
       <c r="H159" s="8"/>
       <c r="I159">
@@ -15280,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
       <c r="H160" s="8"/>
       <c r="I160">
@@ -16248,17 +17410,17 @@
       <c r="H201" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I201" s="10">
+      <c r="I201" s="10" t="e">
         <f>SUM(I$3:I$200)</f>
-        <v>2801</v>
+        <v>#REF!</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>1644</v>
+        <v>2883.5</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
-        <v>316</v>
+        <v>877</v>
       </c>
       <c r="L201" s="10">
         <f>SUM(L$3:L$200)</f>
@@ -16276,13 +17438,13 @@
       <c r="H202">
         <v>12</v>
       </c>
-      <c r="I202" cm="1">
+      <c r="I202" t="e" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>69</v>
+        <v>#REF!</v>
       </c>
       <c r="J202" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="K202" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -16306,15 +17468,15 @@
       </c>
       <c r="I203" cm="1">
         <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>799</v>
+        <v>0</v>
       </c>
       <c r="J203" cm="1">
         <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="K203" cm="1">
         <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
-        <v>316</v>
+        <v>877</v>
       </c>
       <c r="L203" cm="1">
         <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
@@ -16353,15 +17515,15 @@
       </c>
       <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="K205">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L205">
         <f>COUNTIF($G$3:$G$200, L$2)</f>
@@ -16378,15 +17540,15 @@
       </c>
       <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.4318181818181819</v>
+        <v>1.4545454545454546</v>
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.6041666666666667</v>
+        <v>1.4358974358974359</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
-        <v>1.6666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="L206">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $E$3:$E$200), 0)</f>
@@ -16403,15 +17565,15 @@
       </c>
       <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>42.477272727272727</v>
+        <v>44.454545454545453</v>
       </c>
       <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
-        <v>20.979166666666668</v>
+        <v>23.294871794871796</v>
       </c>
       <c r="K207">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
-        <v>55.666666666666664</v>
+        <v>36.166666666666664</v>
       </c>
       <c r="L207">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $D$3:$D$200), 0)</f>
@@ -16428,15 +17590,15 @@
       </c>
       <c r="I208">
         <f>ROUND(I$205*I$206*I$207, 0)</f>
-        <v>2676</v>
+        <v>3556</v>
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>1649</v>
+        <v>2642</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
-        <v>278</v>
+        <v>760</v>
       </c>
       <c r="L208">
         <f>ROUND(L$205*L$206*L$207, 0)</f>
@@ -16474,20 +17636,20 @@
     </row>
     <row r="211" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G211" t="str" cm="1">
-        <f t="array" ref="G211:G222">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
+        <f t="array" ref="G211:G223">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
         <v>everything</v>
       </c>
       <c r="I211">
         <f t="shared" ref="I211:L222" si="12">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J211">
         <f t="shared" si="12"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K211">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L211">
         <f t="shared" si="12"/>
@@ -16504,11 +17666,11 @@
       </c>
       <c r="I212">
         <f t="shared" si="12"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J212">
         <f t="shared" si="12"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K212">
         <f t="shared" si="12"/>
@@ -16679,15 +17841,15 @@
       </c>
       <c r="I219">
         <f t="shared" si="12"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J219">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K219">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L219">
         <f t="shared" si="12"/>
@@ -16771,6 +17933,11 @@
       <c r="M222">
         <f t="shared" si="13"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G223" t="str">
+        <v>one line</v>
       </c>
     </row>
     <row r="224" spans="7:13" x14ac:dyDescent="0.25">
@@ -16805,15 +17972,15 @@
       </c>
       <c r="I225">
         <f t="shared" ref="I225:M231" si="15">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J225">
         <f t="shared" si="15"/>
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K225">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L225">
         <f t="shared" si="15"/>
@@ -16859,11 +18026,11 @@
       </c>
       <c r="J227">
         <f t="shared" si="15"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K227">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L227">
         <f t="shared" si="15"/>
@@ -16934,7 +18101,7 @@
       </c>
       <c r="J230">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K230">
         <f t="shared" si="15"/>
@@ -17036,10 +18203,32 @@
     <hyperlink ref="A97" r:id="rId55" location="diff-e4f12f881ad46f5c2645b7d2e7e1481c2d02260597fe5c21bf0a896acf246f67" xr:uid="{E5FB0512-E9D9-43DF-978D-FA39B56D828B}"/>
     <hyperlink ref="A99" r:id="rId56" location="diff-7193f7df8c6f35c6f42d6f9db6deb3bf3d1a1000927552b84c901eca5b9b37e0" xr:uid="{0D67263D-DC79-443B-AEB8-164521F1F2B6}"/>
     <hyperlink ref="A100" r:id="rId57" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{1B5DCDBC-927B-42E7-BCCE-46B9D37A3D60}"/>
+    <hyperlink ref="A102" r:id="rId58" location="diff-0a75b5baeefd7100979852b66c5b991b1ca6899e6aa9113446fe3e4e12227e8a" xr:uid="{C16EEB7F-375A-48B7-B50D-6AB7D05FB329}"/>
+    <hyperlink ref="A106" r:id="rId59" location="diff-180245d8d70a3d4d89bf9c4e9c302e8b1eeba14f7a889845b01f5c9517c58d0b" xr:uid="{EDEDE6F4-989B-4C7C-ADE5-77239833B41E}"/>
+    <hyperlink ref="A107" r:id="rId60" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{2562C15B-AE77-4EF1-ABED-4229C34B796F}"/>
+    <hyperlink ref="A109" r:id="rId61" location="diff-258547fade7732f3b1e46423c14e420dff8fe6f915c509c8da3835407659bb84" xr:uid="{C2BD0943-6091-46AB-B5F0-0ABA3FA4F348}"/>
+    <hyperlink ref="A110" r:id="rId62" location="diff-e4f12f881ad46f5c2645b7d2e7e1481c2d02260597fe5c21bf0a896acf246f67" xr:uid="{D19498D4-0B76-4CB0-99AC-20FA564C08F4}"/>
+    <hyperlink ref="A112" r:id="rId63" location="diff-2505545878fb91f5fab31ccb4a739ef732e2aee04022ef5db3ac5a8b7c49f373" xr:uid="{B90C2066-4FDB-402A-A35E-C24F060FD2E6}"/>
+    <hyperlink ref="A114" r:id="rId64" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{957053A0-5189-4CC8-9640-29D38D859B3A}"/>
+    <hyperlink ref="A115" r:id="rId65" location="diff-8c2bc872776a83a7d003095f186473b0377116bdda555cf7ebf1b972f494ced5" xr:uid="{E0AD54CA-2E8E-4979-82E7-DC8D41399689}"/>
+    <hyperlink ref="A116" r:id="rId66" location="diff-3a235471b7ff25259208f227e9b180126896058393b4f1d9987e18466b40b489" xr:uid="{275965AE-DE16-4F14-97F3-F96C33441A0B}"/>
+    <hyperlink ref="A117" r:id="rId67" location="diff-8c2bc872776a83a7d003095f186473b0377116bdda555cf7ebf1b972f494ced5" xr:uid="{B81D461E-1E17-452A-9867-55A61BDA1CC7}"/>
+    <hyperlink ref="A118" r:id="rId68" location="diff-8c2bc872776a83a7d003095f186473b0377116bdda555cf7ebf1b972f494ced5" xr:uid="{8420B170-89BE-49CD-AB9C-84DBBB67E0D7}"/>
+    <hyperlink ref="A119" r:id="rId69" location="diff-3fdf9bea8045b4b6835f1f4ec4a1a34e6630f8c680b027e15cf1102bf0d398f4" xr:uid="{163DBE57-3DFD-4805-AF75-ADB3D106BB39}"/>
+    <hyperlink ref="A122" r:id="rId70" location="diff-8463039c1ef85c54766e7eeb3f0bb1217489c98d9e533580f42ea028ca845009" xr:uid="{BBE68280-A51C-4541-8E59-53B89742042D}"/>
+    <hyperlink ref="A123" r:id="rId71" location="diff-e4f12f881ad46f5c2645b7d2e7e1481c2d02260597fe5c21bf0a896acf246f67" xr:uid="{7DEBC34E-A38C-4BF5-B609-0F72DA94FB33}"/>
+    <hyperlink ref="A125" r:id="rId72" location="diff-3fdf98ec195d31efe04cc194bce0c329a7a8eb16b4bd15981a425720ede2e865" xr:uid="{3BEDE6C2-C8DB-49E7-9F70-24D72A632667}"/>
+    <hyperlink ref="A136" r:id="rId73" location="diff-e4f12f881ad46f5c2645b7d2e7e1481c2d02260597fe5c21bf0a896acf246f67" xr:uid="{49CD8D8C-713B-4C11-B970-F0C2BF11BF82}"/>
+    <hyperlink ref="A137" r:id="rId74" location="diff-3a235471b7ff25259208f227e9b180126896058393b4f1d9987e18466b40b489" xr:uid="{2BC1AE5D-DA0A-4755-924D-7CF73E9BFCB8}"/>
+    <hyperlink ref="A142" r:id="rId75" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{84FBE33C-7C88-4D4C-AA85-3444BC03DEF9}"/>
+    <hyperlink ref="A145" r:id="rId76" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{4C3390EB-D51A-4B2A-B805-9CAD918B56A4}"/>
+    <hyperlink ref="A147" r:id="rId77" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{3CDAA216-2754-4C62-9AD4-8788CD36438C}"/>
+    <hyperlink ref="A148" r:id="rId78" location="diff-8c2bc872776a83a7d003095f186473b0377116bdda555cf7ebf1b972f494ced5" xr:uid="{9C81CB2C-11B2-499A-B23B-72E2A8E92749}"/>
+    <hyperlink ref="A151" r:id="rId79" xr:uid="{CC60FEDE-DDCB-4A46-85BF-67DA42D035E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId58"/>
-  <drawing r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId80"/>
+  <drawing r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -17051,7 +18240,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CFFC9-E5E0-4434-8BAA-0035679C975A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22BCA2C-9FB0-4554-BBBA-9E36023538B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16470" yWindow="3240" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="234">
   <si>
     <t>Datei</t>
   </si>
@@ -787,6 +787,12 @@
   </si>
   <si>
     <t>Theme changes for ...</t>
+  </si>
+  <si>
+    <t>one file</t>
+  </si>
+  <si>
+    <t>General updates</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1518,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3886.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2883.5</c:v>
+                  <c:v>2885.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
@@ -1854,7 +1860,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1952,7 +1958,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2768,7 +2774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2857,7 +2863,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3500,10 +3506,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -3577,10 +3583,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4545454545454546</c:v>
+                  <c:v>1.4642857142857142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4358974358974359</c:v>
+                  <c:v>1.4430379746835442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.75</c:v>
@@ -3654,10 +3660,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44.454545454545453</c:v>
+                  <c:v>43.732142857142854</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.294871794871796</c:v>
+                  <c:v>23.0126582278481</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36.166666666666664</c:v>
@@ -4345,10 +4351,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3556</c:v>
+                  <c:v>3586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2642</c:v>
+                  <c:v>2657</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>760</c:v>
@@ -4712,10 +4718,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5121,10 +5127,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1154.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
@@ -9712,8 +9718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16066,20 +16072,20 @@
         <v>15</v>
       </c>
       <c r="H147" s="8"/>
-      <c r="I147" t="e">
-        <f>MAX(0, IF($G147=I$2,#REF!* $E147, 0))</f>
-        <v>#REF!</v>
+      <c r="I147">
+        <f t="shared" si="8"/>
+        <v>132</v>
       </c>
       <c r="J147">
-        <f>MAX(0, IF($G147=J$2,#REF!* $E147, 0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K147">
-        <f>MAX(0, IF($G147=K$2,#REF!* $E147, 0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L147">
-        <f>MAX(0, IF($G147=L$2,#REF!* $E147, 0))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M147" s="8">
@@ -16114,15 +16120,15 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J148:L148" si="9">MAX(0, IF($G148=J$2, $D148*$E148, 0))</f>
         <v>6</v>
       </c>
       <c r="K148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M148" s="8">
@@ -16259,7 +16265,27 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B152" s="7"/>
+      <c r="A152" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s">
+        <v>34</v>
+      </c>
       <c r="H152" s="8"/>
       <c r="I152">
         <f t="shared" si="8"/>
@@ -16267,7 +16293,7 @@
       </c>
       <c r="J152">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K152">
         <f t="shared" si="8"/>
@@ -16282,11 +16308,31 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B153" s="7"/>
+      <c r="A153" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" t="s">
+        <v>149</v>
+      </c>
+      <c r="D153">
+        <v>4</v>
+      </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
       <c r="H153" s="8"/>
       <c r="I153">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J153">
         <f t="shared" si="8"/>
@@ -16895,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <f t="shared" ref="I179:L200" si="9">MAX(0, IF($G179=L$2, $D179*$E179, 0))</f>
+        <f t="shared" ref="I179:L200" si="10">MAX(0, IF($G179=L$2, $D179*$E179, 0))</f>
         <v>0</v>
       </c>
       <c r="M179" s="8">
@@ -16906,19 +16952,19 @@
       <c r="B180" s="7"/>
       <c r="H180" s="8"/>
       <c r="I180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M180" s="8">
@@ -16929,19 +16975,19 @@
       <c r="B181" s="7"/>
       <c r="H181" s="8"/>
       <c r="I181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M181" s="8">
@@ -16952,19 +16998,19 @@
       <c r="B182" s="7"/>
       <c r="H182" s="8"/>
       <c r="I182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M182" s="8">
@@ -16975,19 +17021,19 @@
       <c r="B183" s="7"/>
       <c r="H183" s="8"/>
       <c r="I183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M183" s="8">
@@ -16998,19 +17044,19 @@
       <c r="B184" s="7"/>
       <c r="H184" s="8"/>
       <c r="I184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M184" s="8">
@@ -17021,19 +17067,19 @@
       <c r="B185" s="7"/>
       <c r="H185" s="8"/>
       <c r="I185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M185" s="8">
@@ -17044,19 +17090,19 @@
       <c r="B186" s="7"/>
       <c r="H186" s="8"/>
       <c r="I186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M186" s="8">
@@ -17067,19 +17113,19 @@
       <c r="B187" s="7"/>
       <c r="H187" s="8"/>
       <c r="I187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M187" s="8">
@@ -17090,19 +17136,19 @@
       <c r="B188" s="7"/>
       <c r="H188" s="8"/>
       <c r="I188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M188" s="8">
@@ -17113,19 +17159,19 @@
       <c r="B189" s="7"/>
       <c r="H189" s="8"/>
       <c r="I189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M189" s="8">
@@ -17136,19 +17182,19 @@
       <c r="B190" s="7"/>
       <c r="H190" s="8"/>
       <c r="I190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M190" s="8">
@@ -17159,19 +17205,19 @@
       <c r="B191" s="7"/>
       <c r="H191" s="8"/>
       <c r="I191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M191" s="8">
@@ -17182,19 +17228,19 @@
       <c r="B192" s="7"/>
       <c r="H192" s="8"/>
       <c r="I192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M192" s="8">
@@ -17205,19 +17251,19 @@
       <c r="B193" s="7"/>
       <c r="H193" s="8"/>
       <c r="I193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M193" s="8">
@@ -17228,19 +17274,19 @@
       <c r="B194" s="7"/>
       <c r="H194" s="8"/>
       <c r="I194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M194" s="8">
@@ -17251,19 +17297,19 @@
       <c r="B195" s="7"/>
       <c r="H195" s="8"/>
       <c r="I195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M195" s="8">
@@ -17274,19 +17320,19 @@
       <c r="B196" s="7"/>
       <c r="H196" s="8"/>
       <c r="I196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M196" s="8">
@@ -17297,19 +17343,19 @@
       <c r="B197" s="7"/>
       <c r="H197" s="8"/>
       <c r="I197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M197" s="8">
@@ -17320,19 +17366,19 @@
       <c r="B198" s="7"/>
       <c r="H198" s="8"/>
       <c r="I198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M198" s="8">
@@ -17343,19 +17389,19 @@
       <c r="B199" s="7"/>
       <c r="H199" s="8"/>
       <c r="I199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M199" s="8">
@@ -17366,19 +17412,19 @@
       <c r="B200" s="7"/>
       <c r="H200" s="8"/>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M200" s="8">
@@ -17410,13 +17456,13 @@
       <c r="H201" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I201" s="10" t="e">
+      <c r="I201" s="10">
         <f>SUM(I$3:I$200)</f>
-        <v>#REF!</v>
+        <v>3886.5</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>2883.5</v>
+        <v>2885.5</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -17438,13 +17484,13 @@
       <c r="H202">
         <v>12</v>
       </c>
-      <c r="I202" t="e" cm="1">
+      <c r="I202" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>#REF!</v>
+        <v>433</v>
       </c>
       <c r="J202" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K202" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -17468,11 +17514,11 @@
       </c>
       <c r="I203" cm="1">
         <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>0</v>
+        <v>1154.5</v>
       </c>
       <c r="J203" cm="1">
         <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="K203" cm="1">
         <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
@@ -17493,19 +17539,19 @@
         <v>adalfarus</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" ref="J204:M204" si="10">J$2</f>
+        <f t="shared" ref="J204:M204" si="11">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K204" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Fa4953</v>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M204" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -17515,11 +17561,11 @@
       </c>
       <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K205">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
@@ -17540,11 +17586,11 @@
       </c>
       <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.4545454545454546</v>
+        <v>1.4642857142857142</v>
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.4358974358974359</v>
+        <v>1.4430379746835442</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -17565,11 +17611,11 @@
       </c>
       <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>44.454545454545453</v>
+        <v>43.732142857142854</v>
       </c>
       <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
-        <v>23.294871794871796</v>
+        <v>23.0126582278481</v>
       </c>
       <c r="K207">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
@@ -17590,11 +17636,11 @@
       </c>
       <c r="I208">
         <f>ROUND(I$205*I$206*I$207, 0)</f>
-        <v>3556</v>
+        <v>3586</v>
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>2642</v>
+        <v>2657</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -17618,19 +17664,19 @@
         <v>adalfarus</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" ref="J210:M210" si="11">J$2</f>
+        <f t="shared" ref="J210:M210" si="12">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K210" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Fa4953</v>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M210" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -17640,19 +17686,19 @@
         <v>everything</v>
       </c>
       <c r="I211">
-        <f t="shared" ref="I211:L222" si="12">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" ref="I211:L222" si="13">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
         <v>13</v>
       </c>
       <c r="J211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="K211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="L211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M211">
@@ -17665,23 +17711,23 @@
         <v>changes</v>
       </c>
       <c r="I212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="J212">
-        <f t="shared" si="12"/>
-        <v>27</v>
+        <f t="shared" si="13"/>
+        <v>28</v>
       </c>
       <c r="K212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="M212">
-        <f t="shared" ref="M212:M222" si="13">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" ref="M212:M222" si="14">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
@@ -17690,23 +17736,23 @@
         <v>new cls</v>
       </c>
       <c r="I213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17715,23 +17761,23 @@
         <v>docs</v>
       </c>
       <c r="I214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="K214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17740,23 +17786,23 @@
         <v>change docs</v>
       </c>
       <c r="I215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17765,23 +17811,23 @@
         <v>remove</v>
       </c>
       <c r="I216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17790,23 +17836,23 @@
         <v>created</v>
       </c>
       <c r="I217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17815,23 +17861,23 @@
         <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17840,23 +17886,23 @@
         <v>added</v>
       </c>
       <c r="I219">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="J219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="K219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="L219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M219">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17865,23 +17911,23 @@
         <v>setter</v>
       </c>
       <c r="I220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17890,23 +17936,23 @@
         <v>moved</v>
       </c>
       <c r="I221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17915,23 +17961,23 @@
         <v>fixes</v>
       </c>
       <c r="I222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17945,23 +17991,23 @@
         <v>170</v>
       </c>
       <c r="I224" t="str">
-        <f t="shared" ref="I224:M224" si="14">I$2</f>
+        <f t="shared" ref="I224:M224" si="15">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Giesbrt</v>
       </c>
       <c r="K224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>Fa4953</v>
       </c>
       <c r="L224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M224" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>XXXXXX</v>
       </c>
     </row>
@@ -17971,23 +18017,23 @@
         <v>none</v>
       </c>
       <c r="I225">
-        <f t="shared" ref="I225:M231" si="15">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
-        <v>42</v>
+        <f t="shared" ref="I225:M231" si="16">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
+        <v>43</v>
       </c>
       <c r="J225">
-        <f t="shared" si="15"/>
-        <v>53</v>
+        <f t="shared" si="16"/>
+        <v>54</v>
       </c>
       <c r="K225">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="L225">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="M225">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -17996,23 +18042,23 @@
         <v>comments 5%</v>
       </c>
       <c r="I226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M226">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18021,23 +18067,23 @@
         <v>inline 100%</v>
       </c>
       <c r="I227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="K227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="L227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18046,23 +18092,23 @@
         <v>inline 5%</v>
       </c>
       <c r="I228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18071,23 +18117,23 @@
         <v>comments 100%</v>
       </c>
       <c r="I229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18096,23 +18142,23 @@
         <v>inline 50%</v>
       </c>
       <c r="I230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18121,23 +18167,23 @@
         <v>in md 100%</v>
       </c>
       <c r="I231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18225,10 +18271,11 @@
     <hyperlink ref="A147" r:id="rId77" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{3CDAA216-2754-4C62-9AD4-8788CD36438C}"/>
     <hyperlink ref="A148" r:id="rId78" location="diff-8c2bc872776a83a7d003095f186473b0377116bdda555cf7ebf1b972f494ced5" xr:uid="{9C81CB2C-11B2-499A-B23B-72E2A8E92749}"/>
     <hyperlink ref="A151" r:id="rId79" xr:uid="{CC60FEDE-DDCB-4A46-85BF-67DA42D035E1}"/>
+    <hyperlink ref="A153" r:id="rId80" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{5EA4EB06-D47B-408D-99A8-FEB3FC820B17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId80"/>
-  <drawing r:id="rId81"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
+  <drawing r:id="rId82"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22BCA2C-9FB0-4554-BBBA-9E36023538B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FAA81-113F-41A4-9CB4-586A096BF83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="1620" windowWidth="20430" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -2654,7 +2654,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$H$224</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$225</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2672,7 +2672,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2701,7 +2701,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$225:$H$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$226:$H$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2719,7 +2719,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$224</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$225</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2740,7 +2740,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2769,7 +2769,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$225:$I$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$226:$I$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2808,7 +2808,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$224</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$225</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2829,7 +2829,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2858,7 +2858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$225:$J$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$226:$J$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2897,7 +2897,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$224</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$225</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2918,7 +2918,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2947,7 +2947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$225:$K$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$226:$K$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2986,7 +2986,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$224</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$225</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3007,7 +3007,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3036,7 +3036,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$225:$L$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$226:$L$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3075,7 +3075,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$224</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$225</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3096,7 +3096,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$225:$G$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3125,7 +3125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$225:$M$231</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$226:$M$232</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -9716,10 +9716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I153" sqref="I3:L153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17986,204 +17986,204 @@
         <v>one line</v>
       </c>
     </row>
-    <row r="224" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G224" t="s">
+    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
         <v>170</v>
       </c>
-      <c r="I224" t="str">
-        <f t="shared" ref="I224:M224" si="15">I$2</f>
+      <c r="I225" t="str">
+        <f t="shared" ref="I224:M225" si="15">I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J224" t="str">
+      <c r="J225" t="str">
         <f t="shared" si="15"/>
         <v>Giesbrt</v>
       </c>
-      <c r="K224" t="str">
+      <c r="K225" t="str">
         <f t="shared" si="15"/>
         <v>Fa4953</v>
       </c>
-      <c r="L224" t="str">
+      <c r="L225" t="str">
         <f t="shared" si="15"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M224" t="str">
+      <c r="M225" t="str">
         <f t="shared" si="15"/>
         <v>XXXXXX</v>
       </c>
     </row>
-    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G225" t="str" cm="1">
-        <f t="array" ref="G225:G231">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
+    <row r="226" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G226" t="str" cm="1">
+        <f t="array" ref="G226:G232">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
         <v>none</v>
       </c>
-      <c r="I225">
-        <f t="shared" ref="I225:M231" si="16">COUNTIFS($G$3:$G$200, I$224, $F$3:$F$200, $G225)</f>
+      <c r="I226">
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
         <v>43</v>
       </c>
-      <c r="J225">
-        <f t="shared" si="16"/>
+      <c r="J226">
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G226)</f>
         <v>54</v>
       </c>
-      <c r="K225">
-        <f t="shared" si="16"/>
+      <c r="K226">
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G226)</f>
         <v>2</v>
       </c>
-      <c r="L225">
-        <f t="shared" si="16"/>
+      <c r="L226">
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G226)</f>
         <v>2</v>
       </c>
-      <c r="M225">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G226" t="str">
-        <v>comments 5%</v>
-      </c>
-      <c r="I226">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="J226">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K226">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L226">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="M226">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G226)</f>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G227" t="str">
-        <v>inline 100%</v>
+        <v>comments 5%</v>
       </c>
       <c r="I227">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G227)</f>
+        <v>2</v>
       </c>
       <c r="J227">
-        <f t="shared" si="16"/>
-        <v>24</v>
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G227)</f>
+        <v>0</v>
       </c>
       <c r="K227">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G227)</f>
+        <v>0</v>
       </c>
       <c r="L227">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G227)</f>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G228" t="str">
-        <v>inline 5%</v>
+        <v>inline 100%</v>
       </c>
       <c r="I228">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G228)</f>
+        <v>6</v>
       </c>
       <c r="J228">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G228)</f>
+        <v>24</v>
       </c>
       <c r="K228">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G228)</f>
+        <v>10</v>
       </c>
       <c r="L228">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G228)</f>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G229" t="str">
-        <v>comments 100%</v>
+        <v>inline 5%</v>
       </c>
       <c r="I229">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G229)</f>
+        <v>3</v>
       </c>
       <c r="J229">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G229)</f>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G230" t="str">
-        <v>inline 50%</v>
+        <v>comments 100%</v>
       </c>
       <c r="I230">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G230)</f>
+        <v>1</v>
       </c>
       <c r="J230">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G230)</f>
+        <v>0</v>
       </c>
       <c r="K230">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" si="16"/>
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G230)</f>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G231" t="str">
+        <v>inline 50%</v>
+      </c>
+      <c r="I231">
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G231)</f>
+        <v>2</v>
+      </c>
+      <c r="K231">
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G231)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G232" t="str">
         <v>in md 100%</v>
       </c>
-      <c r="I231">
-        <f t="shared" si="16"/>
+      <c r="I232">
+        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G232)</f>
         <v>1</v>
       </c>
-      <c r="J231">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K231">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L231">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M231">
-        <f t="shared" si="16"/>
+      <c r="J232">
+        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G232)</f>
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G232)</f>
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G232)</f>
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G232)</f>
         <v>0</v>
       </c>
     </row>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FAA81-113F-41A4-9CB4-586A096BF83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7086D-F74B-4167-A66F-7136104FFBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="1620" windowWidth="20430" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
   <si>
     <t>Datei</t>
   </si>
@@ -600,9 +600,6 @@
     <t>Average of Change Difficulty:</t>
   </si>
   <si>
-    <t>XXXXXX</t>
-  </si>
-  <si>
     <t>Average Documentation:</t>
   </si>
   <si>
@@ -793,13 +790,19 @@
   </si>
   <si>
     <t>General updates</t>
+  </si>
+  <si>
+    <t>Whole</t>
+  </si>
+  <si>
+    <t>MNcode24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +838,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -989,11 +999,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1024,10 +1035,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1045,7 +1058,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1506,7 +1519,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1608,7 +1621,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2246,7 +2259,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2576,7 +2589,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3079,7 +3092,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3379,7 +3392,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3494,7 +3507,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3571,7 +3584,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3648,7 +3661,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3902,7 +3915,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4339,7 +4352,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4441,7 +4454,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4706,7 +4719,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4850,7 +4863,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5115,7 +5128,7 @@
                   <c:v>TheCodeJak</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>XXXXXX</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5251,6 +5264,362 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Anteile in %</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tätigkeitsdokumentation!$I$238:$M$238</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>adalfarus</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Giesbrt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Fa4953</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>TheCodeJak</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MNcode24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tätigkeitsdokumentation!$I$239:$M$239</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.47263772345859173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35090599537881551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10665207345251125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9804207710081473E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-831E-4148-803B-E063F13CA2BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5536,6 +5905,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
@@ -9138,18 +9547,537 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
+      <xdr:colOff>453838</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
@@ -9323,13 +10251,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>12606</xdr:rowOff>
     </xdr:to>
@@ -9359,13 +10287,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>31655</xdr:colOff>
+      <xdr:colOff>126904</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>5322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:colOff>128866</xdr:colOff>
       <xdr:row>229</xdr:row>
       <xdr:rowOff>83203</xdr:rowOff>
     </xdr:to>
@@ -9392,13 +10320,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>118459</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E761F6-E1E3-D693-5CB6-5D6E427E4EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9436,9 +10400,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9471,26 +10435,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9523,26 +10470,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9716,13 +10646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I153" sqref="I3:L153"/>
+    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V218" sqref="V218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -9734,6 +10664,7 @@
     <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9789,7 +10720,7 @@
         <v>127</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -10058,7 +10989,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -10885,7 +11816,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28">
         <v>-20</v>
@@ -11851,7 +12782,7 @@
         <v>108</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I50">
         <f t="shared" si="3"/>
@@ -11967,7 +12898,7 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
@@ -12111,7 +13042,7 @@
         <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I56">
         <f t="shared" si="4"/>
@@ -12377,7 +13308,7 @@
         <v>15</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I62">
         <f t="shared" si="4"/>
@@ -12596,7 +13527,7 @@
         <v>15</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I67">
         <f>MAX(0, IF($G67=I$2, $D67*$E67, 0))</f>
@@ -13491,10 +14422,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -13555,7 +14486,7 @@
         <v>34</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I89">
         <f t="shared" si="6"/>
@@ -13600,7 +14531,7 @@
         <v>34</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I90">
         <f t="shared" si="6"/>
@@ -13667,7 +14598,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>47</v>
@@ -13710,7 +14641,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>44</v>
@@ -13753,7 +14684,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>62</v>
@@ -13797,10 +14728,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -13818,7 +14749,7 @@
         <v>34</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I95">
         <f t="shared" si="6"/>
@@ -13863,7 +14794,7 @@
         <v>34</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I96">
         <f t="shared" si="6"/>
@@ -13887,7 +14818,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>134</v>
@@ -13973,7 +14904,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>62</v>
@@ -14016,10 +14947,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="C100" t="s">
         <v>149</v>
@@ -14102,10 +15033,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -14148,7 +15079,7 @@
         <v>23</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C103" t="s">
         <v>149</v>
@@ -14276,10 +15207,10 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C106" t="s">
         <v>149</v>
@@ -14319,10 +15250,10 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C107" t="s">
         <v>149</v>
@@ -14366,7 +15297,7 @@
         <v>23</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C108" t="s">
         <v>149</v>
@@ -14406,7 +15337,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>60</v>
@@ -14449,7 +15380,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>134</v>
@@ -14536,7 +15467,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>62</v>
@@ -14582,7 +15513,7 @@
         <v>23</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -14622,10 +15553,10 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" t="s">
         <v>149</v>
@@ -14665,10 +15596,10 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -14708,10 +15639,10 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116" t="s">
         <v>149</v>
@@ -14751,10 +15682,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -14794,10 +15725,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -14837,10 +15768,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -14884,7 +15815,7 @@
         <v>23</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -14902,7 +15833,7 @@
         <v>34</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I120">
         <f t="shared" si="8"/>
@@ -14969,10 +15900,10 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="C122" t="s">
         <v>149</v>
@@ -15012,7 +15943,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>134</v>
@@ -15055,10 +15986,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
         <v>149</v>
@@ -15098,7 +16029,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>102</v>
@@ -15230,7 +16161,7 @@
         <v>23</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -15273,7 +16204,7 @@
         <v>23</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -15316,7 +16247,7 @@
         <v>23</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -15359,7 +16290,7 @@
         <v>23</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -15402,7 +16333,7 @@
         <v>23</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -15442,13 +16373,13 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B133" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C133" t="s">
         <v>222</v>
-      </c>
-      <c r="C133" t="s">
-        <v>223</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -15485,7 +16416,7 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>133</v>
@@ -15528,7 +16459,7 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>62</v>
@@ -15572,7 +16503,7 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>134</v>
@@ -15593,7 +16524,7 @@
         <v>34</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I136">
         <f t="shared" si="8"/>
@@ -15617,10 +16548,10 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
         <v>149</v>
@@ -15661,7 +16592,7 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>62</v>
@@ -15704,7 +16635,7 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>62</v>
@@ -15748,7 +16679,7 @@
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>62</v>
@@ -15791,7 +16722,7 @@
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>62</v>
@@ -15834,7 +16765,7 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>62</v>
@@ -15881,7 +16812,7 @@
         <v>23</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C143" t="s">
         <v>27</v>
@@ -15921,10 +16852,10 @@
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C144" t="s">
         <v>149</v>
@@ -15964,7 +16895,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>62</v>
@@ -16050,7 +16981,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>62</v>
@@ -16094,10 +17025,10 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
         <v>149</v>
@@ -16180,7 +17111,7 @@
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>62</v>
@@ -16223,7 +17154,7 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>62</v>
@@ -16266,10 +17197,10 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -16309,7 +17240,7 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>62</v>
@@ -17479,7 +18410,7 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H202">
         <v>12</v>
@@ -17507,7 +18438,7 @@
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H203">
         <v>14</v>
@@ -17552,7 +18483,7 @@
       </c>
       <c r="M204" t="str">
         <f t="shared" si="11"/>
-        <v>XXXXXX</v>
+        <v>MNcode24</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -17677,7 +18608,7 @@
       </c>
       <c r="M210" t="str">
         <f t="shared" si="12"/>
-        <v>XXXXXX</v>
+        <v>MNcode24</v>
       </c>
     </row>
     <row r="211" spans="7:13" x14ac:dyDescent="0.25">
@@ -17988,10 +18919,10 @@
     </row>
     <row r="225" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G225" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I225" t="str">
-        <f t="shared" ref="I224:M225" si="15">I$2</f>
+        <f t="shared" ref="I225:M225" si="15">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J225" t="str">
@@ -18008,7 +18939,7 @@
       </c>
       <c r="M225" t="str">
         <f t="shared" si="15"/>
-        <v>XXXXXX</v>
+        <v>MNcode24</v>
       </c>
     </row>
     <row r="226" spans="7:13" x14ac:dyDescent="0.25">
@@ -18017,23 +18948,23 @@
         <v>none</v>
       </c>
       <c r="I226">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
+        <f t="shared" ref="I226:M232" si="16">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
         <v>43</v>
       </c>
       <c r="J226">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="16"/>
         <v>54</v>
       </c>
       <c r="K226">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="L226">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="M226">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G226)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18042,23 +18973,23 @@
         <v>comments 5%</v>
       </c>
       <c r="I227">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="J227">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K227">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L227">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G227)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18067,23 +18998,23 @@
         <v>inline 100%</v>
       </c>
       <c r="I228">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="J228">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="K228">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="L228">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G228)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18092,23 +19023,23 @@
         <v>inline 5%</v>
       </c>
       <c r="I229">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="J229">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G229)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18117,23 +19048,23 @@
         <v>comments 100%</v>
       </c>
       <c r="I230">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J230">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K230">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G230)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18142,23 +19073,23 @@
         <v>inline 50%</v>
       </c>
       <c r="I231">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="K231">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G231)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -18167,23 +19098,74 @@
         <v>in md 100%</v>
       </c>
       <c r="I232">
-        <f>COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G232)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J232">
-        <f>COUNTIFS($G$3:$G$200, J$225, $F$3:$F$200, $G232)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K232">
-        <f>COUNTIFS($G$3:$G$200, K$225, $F$3:$F$200, $G232)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L232">
-        <f>COUNTIFS($G$3:$G$200, L$225, $F$3:$F$200, $G232)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M232">
-        <f>COUNTIFS($G$3:$G$200, M$225, $F$3:$F$200, $G232)</f>
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I238" t="str">
+        <f t="shared" ref="I238:M238" si="17">I$2</f>
+        <v>adalfarus</v>
+      </c>
+      <c r="J238" t="str">
+        <f t="shared" si="17"/>
+        <v>Giesbrt</v>
+      </c>
+      <c r="K238" t="str">
+        <f t="shared" si="17"/>
+        <v>Fa4953</v>
+      </c>
+      <c r="L238" t="str">
+        <f t="shared" si="17"/>
+        <v>TheCodeJak</v>
+      </c>
+      <c r="M238" t="str">
+        <f t="shared" si="17"/>
+        <v>MNcode24</v>
+      </c>
+    </row>
+    <row r="239" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>233</v>
+      </c>
+      <c r="H239">
+        <f>SUM(I201:M201)</f>
+        <v>8223</v>
+      </c>
+      <c r="I239" s="18">
+        <f>I201/$H239</f>
+        <v>0.47263772345859173</v>
+      </c>
+      <c r="J239" s="18">
+        <f t="shared" ref="J239:M239" si="18">J201/$H239</f>
+        <v>0.35090599537881551</v>
+      </c>
+      <c r="K239" s="18">
+        <f t="shared" si="18"/>
+        <v>0.10665207345251125</v>
+      </c>
+      <c r="L239" s="18">
+        <f t="shared" si="18"/>
+        <v>6.9804207710081473E-2</v>
+      </c>
+      <c r="M239" s="18">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -18287,7 +19269,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C7086D-F74B-4167-A66F-7136104FFBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B54EFCD-00D9-4E81-A483-7D285726D20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1029,13 +1029,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1699,9 +1699,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$H$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adalfarus</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1761,10 +1764,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$211:$H$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$211:$I$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1779,11 +1818,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>adalfarus</c:v>
+                  <c:v>Giesbrt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1844,45 +1883,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$211:$I$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$211:$J$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,11 +1937,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Giesbrt</c:v>
+                  <c:v>Fa4953</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1963,24 +2002,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$211:$J$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$211:$K$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1989,16 +2028,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2017,11 +2056,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fa4953</c:v>
+                  <c:v>TheCodeJak</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2082,15 +2121,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$211:$K$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$211:$L$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2111,7 +2150,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2136,11 +2175,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$210</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TheCodeJak</c:v>
+                  <c:v>MNcode24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2201,7 +2240,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$211:$L$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$211:$M$222</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2209,7 +2248,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2247,125 +2286,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-985F-469A-9A9D-319DF22EB01E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$210</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MNcode24</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>everything</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>changes</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>new cls</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>docs</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>change docs</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>remove</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>created</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>smaller updates</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>added</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>setter</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>moved</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>fixes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$211:$M$222</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-985F-469A-9A9D-319DF22EB01E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5360,6 +5280,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0575-4F3B-8BB9-809E39A4D32A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5375,6 +5300,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0575-4F3B-8BB9-809E39A4D32A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5390,6 +5320,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0575-4F3B-8BB9-809E39A4D32A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5405,6 +5340,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0575-4F3B-8BB9-809E39A4D32A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5420,6 +5360,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0575-4F3B-8BB9-809E39A4D32A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5564,7 +5509,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -10648,8 +10593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V218" sqref="V218"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L201" sqref="L201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10668,12 +10613,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -19148,23 +19093,23 @@
         <f>SUM(I201:M201)</f>
         <v>8223</v>
       </c>
-      <c r="I239" s="18">
+      <c r="I239" s="16">
         <f>I201/$H239</f>
         <v>0.47263772345859173</v>
       </c>
-      <c r="J239" s="18">
+      <c r="J239" s="16">
         <f t="shared" ref="J239:M239" si="18">J201/$H239</f>
         <v>0.35090599537881551</v>
       </c>
-      <c r="K239" s="18">
+      <c r="K239" s="16">
         <f t="shared" si="18"/>
         <v>0.10665207345251125</v>
       </c>
-      <c r="L239" s="18">
+      <c r="L239" s="16">
         <f t="shared" si="18"/>
         <v>6.9804207710081473E-2</v>
       </c>
-      <c r="M239" s="18">
+      <c r="M239" s="16">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,38 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B54EFCD-00D9-4E81-A483-7D285726D20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8F065-D0D0-4C27-814A-10DB1BFCDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="1500" windowWidth="27825" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
     <sheet name="Ausfüllhinweise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -49,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="240">
   <si>
     <t>Datei</t>
   </si>
@@ -796,6 +785,21 @@
   </si>
   <si>
     <t>MNcode24</t>
+  </si>
+  <si>
+    <t>added ConnectionLines, TempTransitions</t>
+  </si>
+  <si>
+    <t>src\dc\core\modules\gui\_grid_items.py</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>src\dc\core\modules\gui\_grids.py</t>
+  </si>
+  <si>
+    <t>src\dc\core\modules\gui\_panels.py</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1008,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1036,6 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1540,7 +1545,7 @@
                   <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>574</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1719,48 +1724,49 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>everything</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>changes</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>new cls</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>change docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>remove</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>created</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>smaller updates</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>added</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>setter</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>moved</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>fixes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1769,31 +1775,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1802,7 +1808,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1838,48 +1844,49 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>everything</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>changes</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>new cls</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>change docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>remove</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>created</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>smaller updates</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>added</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>setter</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>moved</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>fixes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1888,19 +1895,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1909,16 +1916,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1957,48 +1964,49 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>everything</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>changes</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>new cls</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>change docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>remove</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>created</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>smaller updates</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>added</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>setter</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>moved</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>fixes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2007,7 +2015,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2031,7 +2039,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2076,48 +2084,49 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>everything</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>changes</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>new cls</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>change docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>remove</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>created</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>smaller updates</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>added</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>setter</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>moved</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>fixes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2129,7 +2138,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2195,48 +2204,49 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>everything</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>changes</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>new cls</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>change docs</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>remove</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>created</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>smaller updates</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>added</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>setter</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>moved</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>fixes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2604,33 +2614,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>comments 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>inline 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>inline 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>comments 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>inline 50%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>in md 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2672,33 +2683,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>comments 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>inline 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>inline 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>comments 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>inline 50%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>in md 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2707,25 +2719,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,33 +2773,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>comments 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>inline 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>inline 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>comments 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>inline 50%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>in md 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2796,13 +2809,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2811,7 +2824,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2850,33 +2863,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>comments 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>inline 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>inline 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>comments 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>inline 50%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>in md 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2885,13 +2899,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2939,33 +2953,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>comments 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>inline 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>inline 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>comments 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>inline 50%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>in md 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2974,7 +2989,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3028,33 +3043,34 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>none</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>comments 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>inline 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>inline 5%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>comments 100%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>inline 50%</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>in md 100%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3448,7 +3464,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3525,7 +3541,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3602,7 +3618,7 @@
                   <c:v>36.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143.5</c:v>
+                  <c:v>131.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4293,7 +4309,7 @@
                   <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>574</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4651,10 +4667,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>433</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5060,16 +5076,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1154.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>574</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5452,16 +5468,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.47263772345859173</c:v>
+                  <c:v>0.45233938547486036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35090599537881551</c:v>
+                  <c:v>0.33583566108007451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10665207345251125</c:v>
+                  <c:v>0.10207169459962756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9804207710081473E-2</c:v>
+                  <c:v>0.10975325884543762</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10593,8 +10609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L201" sqref="L201"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17227,7 +17243,27 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B154" s="7"/>
+      <c r="A154" t="s">
+        <v>235</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154">
+        <v>154</v>
+      </c>
+      <c r="E154" s="19">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>127</v>
+      </c>
       <c r="H154" s="8"/>
       <c r="I154">
         <f t="shared" si="8"/>
@@ -17243,14 +17279,34 @@
       </c>
       <c r="L154">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="M154" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B155" s="7"/>
+      <c r="A155" t="s">
+        <v>237</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155">
+        <v>128</v>
+      </c>
+      <c r="E155" s="19">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>127</v>
+      </c>
       <c r="H155" s="8"/>
       <c r="I155">
         <f t="shared" si="8"/>
@@ -17266,14 +17322,34 @@
       </c>
       <c r="L155">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="M155" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B156" s="7"/>
+      <c r="A156" t="s">
+        <v>237</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156">
+        <v>87</v>
+      </c>
+      <c r="E156" s="19">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>127</v>
+      </c>
       <c r="H156" s="8"/>
       <c r="I156">
         <f t="shared" si="8"/>
@@ -17289,7 +17365,7 @@
       </c>
       <c r="L156">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M156" s="8">
         <v>0</v>
@@ -18346,7 +18422,7 @@
       </c>
       <c r="L201" s="10">
         <f>SUM(L$3:L$200)</f>
-        <v>574</v>
+        <v>943</v>
       </c>
       <c r="M201" s="11">
         <f>SUM(M$3:M$200)</f>
@@ -18360,25 +18436,25 @@
       <c r="H202">
         <v>12</v>
       </c>
-      <c r="I202" cm="1">
-        <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>433</v>
-      </c>
-      <c r="J202" cm="1">
-        <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>77</v>
-      </c>
-      <c r="K202" cm="1">
-        <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L202" cm="1">
-        <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="M202" cm="1">
-        <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>0</v>
+      <c r="I202" t="e" cm="1">
+        <f t="array" aca="1" ref="I202" ca="1">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J202" t="e" cm="1">
+        <f t="array" aca="1" ref="J202" ca="1">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K202" t="e" cm="1">
+        <f t="array" aca="1" ref="K202" ca="1">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L202" t="e" cm="1">
+        <f t="array" aca="1" ref="L202" ca="1">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M202" t="e" cm="1">
+        <f t="array" aca="1" ref="M202" ca="1">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -18389,23 +18465,23 @@
         <v>14</v>
       </c>
       <c r="I203" cm="1">
-        <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>1154.5</v>
+        <f t="array" aca="1" ref="I203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
+        <v>0</v>
       </c>
       <c r="J203" cm="1">
-        <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>164</v>
+        <f t="array" aca="1" ref="J203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
+        <v>0</v>
       </c>
       <c r="K203" cm="1">
-        <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
-        <v>877</v>
+        <f t="array" aca="1" ref="K203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
+        <v>0</v>
       </c>
       <c r="L203" cm="1">
-        <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
-        <v>574</v>
+        <f t="array" aca="1" ref="L203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
+        <v>0</v>
       </c>
       <c r="M203" cm="1">
-        <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
+        <f t="array" aca="1" ref="M203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18449,7 +18525,7 @@
       </c>
       <c r="L205">
         <f>COUNTIF($G$3:$G$200, L$2)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M205">
         <f>COUNTIF($G$3:$G$200, M$2)</f>
@@ -18474,7 +18550,7 @@
       </c>
       <c r="L206">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $E$3:$E$200), 0)</f>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M206">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
@@ -18499,7 +18575,7 @@
       </c>
       <c r="L207">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $D$3:$D$200), 0)</f>
-        <v>143.5</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="M207">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $D$3:$D$200), 0)</f>
@@ -18524,7 +18600,7 @@
       </c>
       <c r="L208">
         <f>ROUND(L$205*L$206*L$207, 0)</f>
-        <v>574</v>
+        <v>918</v>
       </c>
       <c r="M208">
         <f>ROUND(M$205*M$206*M$207, 0)</f>
@@ -18557,309 +18633,321 @@
       </c>
     </row>
     <row r="211" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G211" t="str" cm="1">
-        <f t="array" ref="G211:G223">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
-        <v>everything</v>
+      <c r="G211" t="e" cm="1">
+        <f t="array" aca="1" ref="G211:G223" ca="1">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I211">
-        <f t="shared" ref="I211:L222" si="13">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
-        <v>13</v>
+        <f t="shared" ref="I211:L222" ca="1" si="13">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K211">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="L211">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M211">
-        <f>COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
+        <f ca="1">COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G212" t="str">
-        <v>changes</v>
+      <c r="G212" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I212">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J212">
-        <f t="shared" si="13"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K212">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="M212">
-        <f t="shared" ref="M212:M222" si="14">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" ref="M212:M222" ca="1" si="14">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G213" t="str">
-        <v>new cls</v>
+      <c r="G213" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I213">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J213">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G214" t="str">
-        <v>docs</v>
+      <c r="G214" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I214">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J214">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K214">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G215" t="str">
-        <v>change docs</v>
+      <c r="G215" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I215">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K215">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G216" t="str">
-        <v>remove</v>
+      <c r="G216" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I216">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J216">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G217" t="str">
-        <v>created</v>
+      <c r="G217" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I217">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J217">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G218" t="str">
-        <v>smaller updates</v>
+      <c r="G218" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I218">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J218">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K218">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G219" t="str">
-        <v>added</v>
+      <c r="G219" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I219">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J219">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K219">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="L219">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M219">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G220" t="str">
-        <v>setter</v>
+      <c r="G220" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I220">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K220">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G221" t="str">
-        <v>moved</v>
+      <c r="G221" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I221">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="K221">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M221">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G222" t="str">
-        <v>fixes</v>
+      <c r="G222" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I222">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="J222">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="13"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="M222">
-        <f t="shared" si="14"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G223" t="str">
-        <v>one line</v>
+      <c r="G223" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="225" spans="7:13" x14ac:dyDescent="0.25">
@@ -18888,178 +18976,184 @@
       </c>
     </row>
     <row r="226" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G226" t="str" cm="1">
-        <f t="array" ref="G226:G232">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
-        <v>none</v>
+      <c r="G226" t="e" cm="1">
+        <f t="array" aca="1" ref="G226:G232" ca="1">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I226">
-        <f t="shared" ref="I226:M232" si="16">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
-        <v>43</v>
+        <f t="shared" ref="I226:M232" ca="1" si="16">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
+        <v>0</v>
       </c>
       <c r="J226">
-        <f t="shared" si="16"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K226">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="L226">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="M226">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G227" t="str">
-        <v>comments 5%</v>
+      <c r="G227" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I227">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="J227">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K227">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L227">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G228" t="str">
-        <v>inline 100%</v>
+      <c r="G228" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I228">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="J228">
-        <f t="shared" si="16"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K228">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="L228">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G229" t="str">
-        <v>inline 5%</v>
+      <c r="G229" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I229">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="J229">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G230" t="str">
-        <v>comments 100%</v>
+      <c r="G230" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I230">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="J230">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K230">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G231" t="str">
-        <v>inline 50%</v>
+      <c r="G231" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I231">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K231">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G232" t="str">
-        <v>in md 100%</v>
+      <c r="G232" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="I232">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="J232">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K232">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L232">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="M232">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -19091,23 +19185,23 @@
       </c>
       <c r="H239">
         <f>SUM(I201:M201)</f>
-        <v>8223</v>
+        <v>8592</v>
       </c>
       <c r="I239" s="16">
         <f>I201/$H239</f>
-        <v>0.47263772345859173</v>
+        <v>0.45233938547486036</v>
       </c>
       <c r="J239" s="16">
         <f t="shared" ref="J239:M239" si="18">J201/$H239</f>
-        <v>0.35090599537881551</v>
+        <v>0.33583566108007451</v>
       </c>
       <c r="K239" s="16">
         <f t="shared" si="18"/>
-        <v>0.10665207345251125</v>
+        <v>0.10207169459962756</v>
       </c>
       <c r="L239" s="16">
         <f t="shared" si="18"/>
-        <v>6.9804207710081473E-2</v>
+        <v>0.10975325884543762</v>
       </c>
       <c r="M239" s="16">
         <f t="shared" si="18"/>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,27 +3,38 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8F065-D0D0-4C27-814A-10DB1BFCDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A44058D-0B73-4D9A-82E2-3126AE3C7852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="1500" windowWidth="27825" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
     <sheet name="Ausfüllhinweise" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1034,13 +1045,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1539,7 +1550,7 @@
                   <c:v>3886.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2885.5</c:v>
+                  <c:v>2981.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
@@ -1724,49 +1735,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>everything</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fixes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1775,31 +1785,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1808,7 +1818,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,49 +1854,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>everything</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fixes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1895,19 +1904,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1916,16 +1925,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1964,49 +1973,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>everything</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fixes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2015,7 +2023,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2039,7 +2047,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2084,49 +2092,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>everything</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fixes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2135,10 +2142,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2204,49 +2211,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>everything</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>changes</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>new cls</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>docs</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>change docs</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>remove</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>created</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>smaller updates</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>added</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>setter</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>moved</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>fixes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2614,34 +2620,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>none</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>comments 5%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>inline 100%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>inline 5%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>in md 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2683,34 +2688,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>none</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>comments 5%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>inline 100%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>inline 5%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>in md 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2719,25 +2723,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2773,34 +2777,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>none</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>comments 5%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>inline 100%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>inline 5%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>in md 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2809,13 +2812,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2824,7 +2827,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2863,34 +2866,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>none</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>comments 5%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>inline 100%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>inline 5%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>in md 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2899,13 +2901,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2953,34 +2955,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>none</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>comments 5%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>inline 100%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>inline 5%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>in md 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2989,7 +2990,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3043,34 +3044,33 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>none</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>comments 5%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>inline 100%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>inline 5%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>comments 100%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>inline 50%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>in md 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3535,7 +3535,7 @@
                   <c:v>1.4642857142857142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4430379746835442</c:v>
+                  <c:v>1.4493670886075949</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.75</c:v>
@@ -4303,7 +4303,7 @@
                   <c:v>3586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2657</c:v>
+                  <c:v>2668</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>760</c:v>
@@ -4667,16 +4667,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5076,16 +5076,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1154.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>943</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5468,16 +5468,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45233938547486036</c:v>
+                  <c:v>0.44734116022099446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33583566108007451</c:v>
+                  <c:v>0.34317449355432783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10207169459962756</c:v>
+                  <c:v>0.10094383057090239</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10975325884543762</c:v>
+                  <c:v>0.10854051565377532</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10609,8 +10609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10629,12 +10629,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>192</v>
       </c>
       <c r="E102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="7"/>
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="K102">
         <f t="shared" si="7"/>
@@ -17255,7 +17255,7 @@
       <c r="D154">
         <v>154</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="17">
         <v>1</v>
       </c>
       <c r="F154" t="s">
@@ -17298,7 +17298,7 @@
       <c r="D155">
         <v>128</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E155" s="17">
         <v>1</v>
       </c>
       <c r="F155" t="s">
@@ -17341,7 +17341,7 @@
       <c r="D156">
         <v>87</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156" s="17">
         <v>1</v>
       </c>
       <c r="F156" t="s">
@@ -18414,7 +18414,7 @@
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>2885.5</v>
+        <v>2981.5</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -18436,25 +18436,25 @@
       <c r="H202">
         <v>12</v>
       </c>
-      <c r="I202" t="e" cm="1">
-        <f t="array" aca="1" ref="I202" ca="1">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J202" t="e" cm="1">
-        <f t="array" aca="1" ref="J202" ca="1">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K202" t="e" cm="1">
-        <f t="array" aca="1" ref="K202" ca="1">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L202" t="e" cm="1">
-        <f t="array" aca="1" ref="L202" ca="1">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M202" t="e" cm="1">
-        <f t="array" aca="1" ref="M202" ca="1">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>#NAME?</v>
+      <c r="I202" cm="1">
+        <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>169</v>
+      </c>
+      <c r="J202" cm="1">
+        <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>51</v>
+      </c>
+      <c r="K202" cm="1">
+        <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L202" cm="1">
+        <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>369</v>
+      </c>
+      <c r="M202" cm="1">
+        <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -18465,23 +18465,23 @@
         <v>14</v>
       </c>
       <c r="I203" cm="1">
-        <f t="array" aca="1" ref="I203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>0</v>
+        <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
+        <v>1154.5</v>
       </c>
       <c r="J203" cm="1">
-        <f t="array" aca="1" ref="J203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>0</v>
+        <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
+        <v>164</v>
       </c>
       <c r="K203" cm="1">
-        <f t="array" aca="1" ref="K203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
-        <v>0</v>
+        <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
+        <v>877</v>
       </c>
       <c r="L203" cm="1">
-        <f t="array" aca="1" ref="L203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
-        <v>0</v>
+        <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
+        <v>943</v>
       </c>
       <c r="M203" cm="1">
-        <f t="array" aca="1" ref="M203" ca="1">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
+        <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18542,7 +18542,7 @@
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.4430379746835442</v>
+        <v>1.4493670886075949</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -18592,7 +18592,7 @@
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>2657</v>
+        <v>2668</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -18633,321 +18633,309 @@
       </c>
     </row>
     <row r="211" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G211" t="e" cm="1">
-        <f t="array" aca="1" ref="G211:G223" ca="1">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
-        <v>#NAME?</v>
+      <c r="G211" t="str" cm="1">
+        <f t="array" ref="G211:G223">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
+        <v>everything</v>
       </c>
       <c r="I211">
-        <f t="shared" ref="I211:L222" ca="1" si="13">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
-        <v>0</v>
+        <f t="shared" ref="I211:L222" si="13">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <v>13</v>
       </c>
       <c r="J211">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
       <c r="K211">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="L211">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="M211">
-        <f ca="1">COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
+        <f>COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G212" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G212" t="str">
+        <v>changes</v>
       </c>
       <c r="I212">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>19</v>
       </c>
       <c r="J212">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>28</v>
       </c>
       <c r="K212">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>2</v>
       </c>
       <c r="M212">
-        <f t="shared" ref="M212:M222" ca="1" si="14">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" ref="M212:M222" si="14">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G213" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G213" t="str">
+        <v>new cls</v>
       </c>
       <c r="I213">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J213">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="214" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G214" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G214" t="str">
+        <v>docs</v>
       </c>
       <c r="I214">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J214">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="K214">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G215" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G215" t="str">
+        <v>change docs</v>
       </c>
       <c r="I215">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="K215">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G216" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G216" t="str">
+        <v>remove</v>
       </c>
       <c r="I216">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G217" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G217" t="str">
+        <v>created</v>
       </c>
       <c r="I217">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J217">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G218" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G218" t="str">
+        <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J218">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K218">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G219" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G219" t="str">
+        <v>added</v>
       </c>
       <c r="I219">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>18</v>
       </c>
       <c r="J219">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
       <c r="K219">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="L219">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M219">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G220" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G220" t="str">
+        <v>setter</v>
       </c>
       <c r="I220">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K220">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G221" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G221" t="str">
+        <v>moved</v>
       </c>
       <c r="I221">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="K221">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M221">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G222" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G222" t="str">
+        <v>fixes</v>
       </c>
       <c r="I222">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="J222">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M222">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G223" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G223" t="str">
+        <v>one line</v>
       </c>
     </row>
     <row r="225" spans="7:13" x14ac:dyDescent="0.25">
@@ -18976,184 +18964,178 @@
       </c>
     </row>
     <row r="226" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G226" t="e" cm="1">
-        <f t="array" aca="1" ref="G226:G232" ca="1">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
-        <v>#NAME?</v>
+      <c r="G226" t="str" cm="1">
+        <f t="array" ref="G226:G232">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
+        <v>none</v>
       </c>
       <c r="I226">
-        <f t="shared" ref="I226:M232" ca="1" si="16">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
-        <v>0</v>
+        <f t="shared" ref="I226:M232" si="16">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
+        <v>43</v>
       </c>
       <c r="J226">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>54</v>
       </c>
       <c r="K226">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="L226">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>5</v>
       </c>
       <c r="M226">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G227" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G227" t="str">
+        <v>comments 5%</v>
       </c>
       <c r="I227">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="J227">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K227">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L227">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G228" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G228" t="str">
+        <v>inline 100%</v>
       </c>
       <c r="I228">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>6</v>
       </c>
       <c r="J228">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>24</v>
       </c>
       <c r="K228">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="L228">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G229" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G229" t="str">
+        <v>inline 5%</v>
       </c>
       <c r="I229">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>3</v>
       </c>
       <c r="J229">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G230" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G230" t="str">
+        <v>comments 100%</v>
       </c>
       <c r="I230">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="J230">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K230">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G231" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G231" t="str">
+        <v>inline 50%</v>
       </c>
       <c r="I231">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="K231">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G232" t="e">
-        <f ca="1"/>
-        <v>#NAME?</v>
+      <c r="G232" t="str">
+        <v>in md 100%</v>
       </c>
       <c r="I232">
-        <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="J232">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K232">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L232">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M232">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -19185,23 +19167,23 @@
       </c>
       <c r="H239">
         <f>SUM(I201:M201)</f>
-        <v>8592</v>
+        <v>8688</v>
       </c>
       <c r="I239" s="16">
         <f>I201/$H239</f>
-        <v>0.45233938547486036</v>
+        <v>0.44734116022099446</v>
       </c>
       <c r="J239" s="16">
         <f t="shared" ref="J239:M239" si="18">J201/$H239</f>
-        <v>0.33583566108007451</v>
+        <v>0.34317449355432783</v>
       </c>
       <c r="K239" s="16">
         <f t="shared" si="18"/>
-        <v>0.10207169459962756</v>
+        <v>0.10094383057090239</v>
       </c>
       <c r="L239" s="16">
         <f t="shared" si="18"/>
-        <v>0.10975325884543762</v>
+        <v>0.10854051565377532</v>
       </c>
       <c r="M239" s="16">
         <f t="shared" si="18"/>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A44058D-0B73-4D9A-82E2-3126AE3C7852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53274260-4599-418D-BEEA-D072ABD1A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="253">
   <si>
     <t>Datei</t>
   </si>
@@ -798,19 +798,58 @@
     <t>MNcode24</t>
   </si>
   <si>
-    <t>added ConnectionLines, TempTransitions</t>
-  </si>
-  <si>
-    <t>src\dc\core\modules\gui\_grid_items.py</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>src\dc\core\modules\gui\_grids.py</t>
-  </si>
-  <si>
-    <t>src\dc\core\modules\gui\_panels.py</t>
+    <t>Updated main.py ...</t>
+  </si>
+  <si>
+    <t>Theming changes</t>
+  </si>
+  <si>
+    <t>(Theming won't count anymore)</t>
+  </si>
+  <si>
+    <t>main.py</t>
+  </si>
+  <si>
+    <t>(Tests count too, if they're done well)</t>
+  </si>
+  <si>
+    <t>src\dc\automatonTest.py</t>
+  </si>
+  <si>
+    <t>added test cas...</t>
+  </si>
+  <si>
+    <t>src\dc\automatonBridge.py</t>
+  </si>
+  <si>
+    <t>added wholeSimTest.py</t>
+  </si>
+  <si>
+    <t>src\dc\wholeSimTest.py</t>
+  </si>
+  <si>
+    <t>(Didn't count other test twice)</t>
+  </si>
+  <si>
+    <t>updated simulation...</t>
+  </si>
+  <si>
+    <t>added ConnectionLines...</t>
+  </si>
+  <si>
+    <t>src\dc\_grid_items.py</t>
+  </si>
+  <si>
+    <t>(Please change if you want it different)</t>
+  </si>
+  <si>
+    <t>src\dc\_grids.py</t>
+  </si>
+  <si>
+    <t>src\dc\_panels.py</t>
+  </si>
+  <si>
+    <t>added field "id" ...</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1058,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,7 +1084,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1054,9 +1092,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1074,7 +1112,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1547,16 +1585,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3886.5</c:v>
+                  <c:v>3965.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2981.5</c:v>
+                  <c:v>2986.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>943</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1637,7 +1675,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1788,7 +1826,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1809,7 +1847,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1904,16 +1942,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3</c:v>
@@ -1928,7 +1966,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -2142,10 +2180,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2166,7 +2204,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2525,7 +2563,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2723,7 +2761,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2812,13 +2850,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>54</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2990,7 +3028,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3328,7 +3366,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3455,16 +3493,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3532,16 +3570,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4642857142857142</c:v>
+                  <c:v>1.4166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4493670886075949</c:v>
+                  <c:v>1.3958333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4</c:v>
+                  <c:v>1.2857142857142858</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3609,16 +3647,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43.732142857142854</c:v>
+                  <c:v>42.216666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0126582278481</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.19999999999999</c:v>
+                  <c:v>77.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3851,7 +3889,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4300,16 +4338,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3586</c:v>
+                  <c:v>3588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2668</c:v>
+                  <c:v>2674</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>918</c:v>
+                  <c:v>697</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4390,7 +4428,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4667,16 +4705,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>369</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4799,7 +4837,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5076,16 +5114,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1154.5</c:v>
+                  <c:v>1161.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>164</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>943</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5208,7 +5246,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5270,7 +5308,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5409,7 +5447,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -5468,16 +5506,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.44734116022099446</c:v>
+                  <c:v>0.45801570801570801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34317449355432783</c:v>
+                  <c:v>0.34494109494109493</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10094383057090239</c:v>
+                  <c:v>0.10129360129360129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10854051565377532</c:v>
+                  <c:v>9.5749595749595753E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5538,7 +5576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5575,7 +5613,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10321,9 +10359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10361,9 +10399,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10396,9 +10434,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10431,9 +10486,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10609,11 +10681,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -10629,12 +10701,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -10708,11 +10780,11 @@
       </c>
       <c r="H3" s="15"/>
       <c r="I3">
-        <f>MAX(0, IF($G3=I$2, $D3*$E3, 0))</f>
+        <f t="shared" ref="I3:L66" si="0">MAX(0, IF($G3=I$2, $D3*$E3, 0))</f>
         <v>4</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:L22" si="0">MAX(0, IF($G3=J$2, $D3*$E3, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3">
@@ -10751,7 +10823,7 @@
       </c>
       <c r="H4" s="8"/>
       <c r="I4">
-        <f t="shared" ref="I4:I19" si="1">MAX(0, IF($G4=I$2, $D4*$E4, 0))</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="J4">
@@ -10794,7 +10866,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="J5">
@@ -10837,7 +10909,7 @@
       </c>
       <c r="H6" s="8"/>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>374</v>
       </c>
       <c r="J6">
@@ -10880,7 +10952,7 @@
       </c>
       <c r="H7" s="8"/>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J7">
@@ -10923,7 +10995,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J8">
@@ -10968,7 +11040,7 @@
         <v>31</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="J9">
@@ -11013,7 +11085,7 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="J10">
@@ -11056,7 +11128,7 @@
       </c>
       <c r="H11" s="8"/>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11">
@@ -11099,7 +11171,7 @@
       </c>
       <c r="H12" s="8"/>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -11142,7 +11214,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J13">
@@ -11185,7 +11257,7 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
@@ -11230,7 +11302,7 @@
         <v>91</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15">
@@ -11275,7 +11347,7 @@
         <v>91</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -11320,7 +11392,7 @@
         <v>91</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17">
@@ -11363,7 +11435,7 @@
       </c>
       <c r="H18" s="8"/>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18">
@@ -11406,7 +11478,7 @@
       </c>
       <c r="H19" s="8"/>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19">
@@ -11449,7 +11521,7 @@
       </c>
       <c r="H20" s="8"/>
       <c r="I20">
-        <f t="shared" ref="I20:L35" si="2">MAX(0, IF($G20=I$2, $D20*$E20, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -11492,7 +11564,7 @@
       </c>
       <c r="H21" s="8"/>
       <c r="I21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J21">
@@ -11535,7 +11607,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22">
@@ -11578,19 +11650,19 @@
       </c>
       <c r="H23" s="8"/>
       <c r="I23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M23" s="8">
@@ -11621,19 +11693,19 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M24" s="8">
@@ -11664,19 +11736,19 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M25" s="8">
@@ -11707,19 +11779,19 @@
       </c>
       <c r="H26" s="8"/>
       <c r="I26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M26" s="8">
@@ -11750,19 +11822,19 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="8">
@@ -11795,19 +11867,19 @@
         <v>52</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M28" s="8">
@@ -11838,19 +11910,19 @@
       </c>
       <c r="H29" s="8"/>
       <c r="I29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="8">
@@ -11881,19 +11953,19 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M30" s="8">
@@ -11926,19 +11998,19 @@
         <v>124</v>
       </c>
       <c r="I31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="8">
@@ -11971,19 +12043,19 @@
         <v>123</v>
       </c>
       <c r="I32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M32" s="8">
@@ -12014,19 +12086,19 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M33" s="8">
@@ -12057,19 +12129,19 @@
       </c>
       <c r="H34" s="8"/>
       <c r="I34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M34" s="8">
@@ -12102,19 +12174,19 @@
         <v>67</v>
       </c>
       <c r="I35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M35" s="8">
@@ -12145,19 +12217,19 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36">
-        <f t="shared" ref="I36:L51" si="3">MAX(0, IF($G36=I$2, $D36*$E36, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M36" s="8">
@@ -12188,19 +12260,19 @@
       </c>
       <c r="H37" s="8"/>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M37" s="8">
@@ -12233,19 +12305,19 @@
         <v>72</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M38" s="8">
@@ -12276,19 +12348,19 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="8">
@@ -12321,19 +12393,19 @@
         <v>74</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M40" s="8">
@@ -12366,19 +12438,19 @@
         <v>76</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M41" s="8">
@@ -12409,19 +12481,19 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M42" s="8">
@@ -12454,19 +12526,19 @@
         <v>76</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
@@ -12499,19 +12571,19 @@
         <v>85</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
@@ -12544,19 +12616,19 @@
         <v>75</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>302</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M45" s="8">
@@ -12587,19 +12659,19 @@
       </c>
       <c r="H46" s="8"/>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>264</v>
       </c>
       <c r="L46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M46" s="8">
@@ -12630,19 +12702,19 @@
       </c>
       <c r="H47" s="8"/>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M47" s="8">
@@ -12673,19 +12745,19 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="L48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M48" s="8">
@@ -12716,19 +12788,19 @@
       </c>
       <c r="H49" s="8"/>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M49" s="8">
@@ -12746,19 +12818,19 @@
         <v>176</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M50" s="8">
@@ -12789,19 +12861,19 @@
       </c>
       <c r="H51" s="8"/>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M51" s="8">
@@ -12832,19 +12904,19 @@
       </c>
       <c r="H52" s="8"/>
       <c r="I52">
-        <f t="shared" ref="I52:L67" si="4">MAX(0, IF($G52=I$2, $D52*$E52, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M52" s="8">
@@ -12871,19 +12943,19 @@
         <v>112</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M53" s="8">
@@ -12916,19 +12988,19 @@
         <v>114</v>
       </c>
       <c r="I54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="K54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M54" s="8">
@@ -12961,19 +13033,19 @@
         <v>117</v>
       </c>
       <c r="I55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M55" s="8">
@@ -13006,19 +13078,19 @@
         <v>175</v>
       </c>
       <c r="I56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M56" s="8">
@@ -13051,19 +13123,19 @@
         <v>120</v>
       </c>
       <c r="I57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M57" s="8">
@@ -13096,19 +13168,19 @@
         <v>122</v>
       </c>
       <c r="I58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M58" s="8">
@@ -13141,19 +13213,19 @@
         <v>146</v>
       </c>
       <c r="I59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>394</v>
       </c>
       <c r="M59" s="8">
@@ -13184,19 +13256,19 @@
       </c>
       <c r="H60" s="8"/>
       <c r="I60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M60" s="8">
@@ -13227,19 +13299,19 @@
       </c>
       <c r="H61" s="8"/>
       <c r="I61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M61" s="8">
@@ -13272,19 +13344,19 @@
         <v>170</v>
       </c>
       <c r="I62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M62" s="8">
@@ -13315,19 +13387,19 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M63" s="8">
@@ -13358,19 +13430,19 @@
       </c>
       <c r="H64" s="8"/>
       <c r="I64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M64" s="8">
@@ -13401,19 +13473,19 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M65" s="8">
@@ -13445,19 +13517,19 @@
       </c>
       <c r="H66" s="8"/>
       <c r="I66">
-        <f>MAX(0, IF($G66=I$2, $D66*$E66, 0))</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="J66">
-        <f>MAX(0, IF($G66=J$2, $D66*$E66, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f>MAX(0, IF($G66=K$2, $D66*$E66, 0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f>MAX(0, IF($G66=L$2, $D66*$E66, 0))</f>
+        <f t="shared" ref="I66:L129" si="1">MAX(0, IF($G66=L$2, $D66*$E66, 0))</f>
         <v>0</v>
       </c>
       <c r="M66" s="8">
@@ -13491,19 +13563,19 @@
         <v>171</v>
       </c>
       <c r="I67">
-        <f>MAX(0, IF($G67=I$2, $D67*$E67, 0))</f>
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
       <c r="J67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M67" s="8">
@@ -13535,19 +13607,19 @@
       </c>
       <c r="H68" s="8"/>
       <c r="I68">
-        <f>MAX(0, IF($G68=I$2, $D68*$E68, 0))</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="J68">
-        <f>MAX(0, IF($G68=J$2, $D68*$E68, 0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>MAX(0, IF($G68=K$2, $D68*$E68, 0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f>MAX(0, IF($G68=L$2, $D68*$E68, 0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M68" s="8">
@@ -13578,19 +13650,19 @@
       </c>
       <c r="H69" s="8"/>
       <c r="I69">
-        <f t="shared" ref="I69:L83" si="5">MAX(0, IF($G69=I$2, $D69*$E69, 0))</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M69" s="8">
@@ -13621,19 +13693,19 @@
       </c>
       <c r="H70" s="8"/>
       <c r="I70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M70" s="8">
@@ -13666,19 +13738,19 @@
         <v>141</v>
       </c>
       <c r="I71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M71" s="8">
@@ -13709,19 +13781,19 @@
       </c>
       <c r="H72" s="8"/>
       <c r="I72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M72" s="8">
@@ -13752,19 +13824,19 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M73" s="8">
@@ -13795,19 +13867,19 @@
       </c>
       <c r="H74" s="8"/>
       <c r="I74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M74" s="8">
@@ -13841,19 +13913,19 @@
         <v>146</v>
       </c>
       <c r="I75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="M75" s="8">
@@ -13884,19 +13956,19 @@
       </c>
       <c r="H76" s="8"/>
       <c r="I76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M76" s="8">
@@ -13927,19 +13999,19 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M77" s="8">
@@ -13970,19 +14042,19 @@
       </c>
       <c r="H78" s="8"/>
       <c r="I78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M78" s="8">
@@ -14013,19 +14085,19 @@
       </c>
       <c r="H79" s="8"/>
       <c r="I79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M79" s="8">
@@ -14056,19 +14128,19 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M80" s="8">
@@ -14102,19 +14174,19 @@
         <v>154</v>
       </c>
       <c r="I81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M81" s="8">
@@ -14145,19 +14217,19 @@
       </c>
       <c r="H82" s="8"/>
       <c r="I82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
@@ -14188,19 +14260,19 @@
       </c>
       <c r="H83" s="8"/>
       <c r="I83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M83" s="8">
@@ -14231,19 +14303,19 @@
       </c>
       <c r="H84" s="8"/>
       <c r="I84">
-        <f t="shared" ref="I84:L99" si="6">MAX(0, IF($G84=I$2, $D84*$E84, 0))</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M84" s="8">
@@ -14274,19 +14346,19 @@
       </c>
       <c r="H85" s="8"/>
       <c r="I85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M85" s="8">
@@ -14317,19 +14389,19 @@
       </c>
       <c r="H86" s="8"/>
       <c r="I86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="J86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M86" s="8">
@@ -14362,19 +14434,19 @@
         <v>163</v>
       </c>
       <c r="I87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M87" s="8">
@@ -14405,19 +14477,19 @@
       </c>
       <c r="H88" s="8"/>
       <c r="I88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="J88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M88" s="8">
@@ -14450,19 +14522,19 @@
         <v>183</v>
       </c>
       <c r="I89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="K89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M89" s="8">
@@ -14495,19 +14567,19 @@
         <v>184</v>
       </c>
       <c r="I90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M90" s="8">
@@ -14538,19 +14610,19 @@
       </c>
       <c r="H91" s="8"/>
       <c r="I91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M91" s="8">
@@ -14581,19 +14653,19 @@
       </c>
       <c r="H92" s="8"/>
       <c r="I92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M92" s="8">
@@ -14624,19 +14696,19 @@
       </c>
       <c r="H93" s="8"/>
       <c r="I93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="K93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M93" s="8">
@@ -14668,19 +14740,19 @@
       </c>
       <c r="H94" s="8"/>
       <c r="I94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="J94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M94" s="8">
@@ -14713,19 +14785,19 @@
         <v>185</v>
       </c>
       <c r="I95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="K95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M95" s="8">
@@ -14758,19 +14830,19 @@
         <v>188</v>
       </c>
       <c r="I96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M96" s="8">
@@ -14801,19 +14873,19 @@
       </c>
       <c r="H97" s="8"/>
       <c r="I97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M97" s="8">
@@ -14844,19 +14916,19 @@
       </c>
       <c r="H98" s="8"/>
       <c r="I98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M98" s="8">
@@ -14887,19 +14959,19 @@
       </c>
       <c r="H99" s="8"/>
       <c r="I99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="K99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
@@ -14930,19 +15002,19 @@
       </c>
       <c r="H100" s="8"/>
       <c r="I100">
-        <f t="shared" ref="I100:L115" si="7">MAX(0, IF($G100=I$2, $D100*$E100, 0))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="J100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M100" s="8">
@@ -14973,19 +15045,19 @@
       </c>
       <c r="H101" s="8"/>
       <c r="I101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M101" s="8">
@@ -15006,7 +15078,7 @@
         <v>192</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -15016,19 +15088,19 @@
       </c>
       <c r="H102" s="8"/>
       <c r="I102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="7"/>
-        <v>576</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
       <c r="K102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M102" s="8">
@@ -15060,19 +15132,19 @@
       </c>
       <c r="H103" s="8"/>
       <c r="I103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M103" s="8">
@@ -15104,19 +15176,19 @@
       </c>
       <c r="H104" s="8"/>
       <c r="I104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M104" s="8">
@@ -15147,19 +15219,19 @@
       </c>
       <c r="H105" s="8"/>
       <c r="I105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M105" s="8">
@@ -15190,19 +15262,19 @@
       </c>
       <c r="H106" s="8"/>
       <c r="I106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M106" s="8">
@@ -15234,19 +15306,19 @@
       </c>
       <c r="H107" s="8"/>
       <c r="I107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="K107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M107" s="8">
@@ -15277,19 +15349,19 @@
       </c>
       <c r="H108" s="8"/>
       <c r="I108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="K108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M108" s="8">
@@ -15320,19 +15392,19 @@
       </c>
       <c r="H109" s="8"/>
       <c r="I109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M109" s="8">
@@ -15363,19 +15435,19 @@
       </c>
       <c r="H110" s="8"/>
       <c r="I110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="K110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M110" s="8">
@@ -15407,19 +15479,19 @@
       </c>
       <c r="H111" s="8"/>
       <c r="I111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
       <c r="K111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M111" s="8">
@@ -15450,19 +15522,19 @@
       </c>
       <c r="H112" s="8"/>
       <c r="I112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M112" s="8">
@@ -15493,19 +15565,19 @@
       </c>
       <c r="H113" s="8"/>
       <c r="I113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>407.5</v>
       </c>
       <c r="J113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M113" s="8">
@@ -15536,19 +15608,19 @@
       </c>
       <c r="H114" s="8"/>
       <c r="I114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="K114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M114" s="8">
@@ -15579,19 +15651,19 @@
       </c>
       <c r="H115" s="8"/>
       <c r="I115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="K115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M115" s="8">
@@ -15622,19 +15694,19 @@
       </c>
       <c r="H116" s="8"/>
       <c r="I116">
-        <f t="shared" ref="I116:L179" si="8">MAX(0, IF($G116=I$2, $D116*$E116, 0))</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="J116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M116" s="8">
@@ -15665,19 +15737,19 @@
       </c>
       <c r="H117" s="8"/>
       <c r="I117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="K117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M117" s="8">
@@ -15708,19 +15780,19 @@
       </c>
       <c r="H118" s="8"/>
       <c r="I118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="K118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M118" s="8">
@@ -15752,19 +15824,19 @@
       </c>
       <c r="H119" s="8"/>
       <c r="I119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="K119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M119" s="8">
@@ -15797,19 +15869,19 @@
         <v>210</v>
       </c>
       <c r="I120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M120" s="8">
@@ -15840,19 +15912,19 @@
       </c>
       <c r="H121" s="8"/>
       <c r="I121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
@@ -15883,19 +15955,19 @@
       </c>
       <c r="H122" s="8"/>
       <c r="I122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
@@ -15926,19 +15998,19 @@
       </c>
       <c r="H123" s="8"/>
       <c r="I123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M123" s="8">
@@ -15969,19 +16041,19 @@
       </c>
       <c r="H124" s="8"/>
       <c r="I124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M124" s="8">
@@ -16012,19 +16084,19 @@
       </c>
       <c r="H125" s="8"/>
       <c r="I125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="L125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M125" s="8">
@@ -16055,19 +16127,19 @@
       </c>
       <c r="H126" s="8"/>
       <c r="I126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="L126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M126" s="8">
@@ -16098,19 +16170,19 @@
       </c>
       <c r="H127" s="8"/>
       <c r="I127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M127" s="8">
@@ -16141,19 +16213,19 @@
       </c>
       <c r="H128" s="8"/>
       <c r="I128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="L128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M128" s="8">
@@ -16184,19 +16256,19 @@
       </c>
       <c r="H129" s="8"/>
       <c r="I129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="L129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M129" s="8">
@@ -16227,19 +16299,19 @@
       </c>
       <c r="H130" s="8"/>
       <c r="I130">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I130:L193" si="2">MAX(0, IF($G130=I$2, $D130*$E130, 0))</f>
         <v>0</v>
       </c>
       <c r="J130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="L130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M130" s="8">
@@ -16270,19 +16342,19 @@
       </c>
       <c r="H131" s="8"/>
       <c r="I131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="L131">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M131" s="8">
@@ -16313,19 +16385,19 @@
       </c>
       <c r="H132" s="8"/>
       <c r="I132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="L132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M132" s="8">
@@ -16356,19 +16428,19 @@
       </c>
       <c r="H133" s="8"/>
       <c r="I133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M133" s="8">
@@ -16399,19 +16471,19 @@
       </c>
       <c r="H134" s="8"/>
       <c r="I134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L134">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M134" s="8">
@@ -16443,19 +16515,19 @@
       </c>
       <c r="H135" s="8"/>
       <c r="I135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="K135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M135" s="8">
@@ -16488,19 +16560,19 @@
         <v>224</v>
       </c>
       <c r="I136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M136" s="8">
@@ -16532,19 +16604,19 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="J137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L137">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M137" s="8">
@@ -16575,19 +16647,19 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M138" s="8">
@@ -16619,19 +16691,19 @@
       </c>
       <c r="H139" s="8"/>
       <c r="I139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M139" s="8">
@@ -16662,19 +16734,19 @@
       </c>
       <c r="H140" s="8"/>
       <c r="I140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M140" s="8">
@@ -16705,19 +16777,19 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M141" s="8">
@@ -16749,19 +16821,19 @@
       </c>
       <c r="H142" s="8"/>
       <c r="I142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="K142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M142" s="8">
@@ -16792,19 +16864,19 @@
       </c>
       <c r="H143" s="8"/>
       <c r="I143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="J143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M143" s="8">
@@ -16835,19 +16907,19 @@
       </c>
       <c r="H144" s="8"/>
       <c r="I144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M144" s="8">
@@ -16878,19 +16950,19 @@
       </c>
       <c r="H145" s="8"/>
       <c r="I145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M145" s="8">
@@ -16921,19 +16993,19 @@
       </c>
       <c r="H146" s="8"/>
       <c r="I146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M146" s="8">
@@ -16965,19 +17037,19 @@
       </c>
       <c r="H147" s="8"/>
       <c r="I147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="J147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M147" s="8">
@@ -17008,19 +17080,19 @@
       </c>
       <c r="H148" s="8"/>
       <c r="I148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" ref="J148:L148" si="9">MAX(0, IF($G148=J$2, $D148*$E148, 0))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M148" s="8">
@@ -17051,19 +17123,19 @@
       </c>
       <c r="H149" s="8"/>
       <c r="I149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="K149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M149" s="8">
@@ -17094,19 +17166,19 @@
       </c>
       <c r="H150" s="8"/>
       <c r="I150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="J150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M150" s="8">
@@ -17137,19 +17209,19 @@
       </c>
       <c r="H151" s="8"/>
       <c r="I151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M151" s="8">
@@ -17180,19 +17252,19 @@
       </c>
       <c r="H152" s="8"/>
       <c r="I152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M152" s="8">
@@ -17223,19 +17295,19 @@
       </c>
       <c r="H153" s="8"/>
       <c r="I153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M153" s="8">
@@ -17243,43 +17315,43 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="A154" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="D154">
-        <v>154</v>
-      </c>
-      <c r="E154" s="17">
+        <v>59</v>
+      </c>
+      <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
         <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="H154" s="8"/>
       <c r="I154">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="J154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L154">
-        <f t="shared" si="8"/>
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M154" s="8">
         <v>0</v>
@@ -17287,107 +17359,129 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>237</v>
+        <v>128</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D155">
-        <v>128</v>
-      </c>
-      <c r="E155" s="17">
+        <v>11</v>
+      </c>
+      <c r="E155">
         <v>1</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
       </c>
       <c r="G155" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="H155" s="8"/>
       <c r="I155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J155">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="K155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L155">
-        <f t="shared" si="8"/>
-        <v>128</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M155" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>237</v>
+      <c r="A156" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156">
-        <v>87</v>
-      </c>
-      <c r="E156" s="17">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>127</v>
-      </c>
-      <c r="H156" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="I156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L156">
-        <f t="shared" si="8"/>
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="M156" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B157" s="7"/>
+      <c r="A157" t="s">
+        <v>214</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
       <c r="H157" s="8"/>
       <c r="I157">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="J157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M157" s="8">
@@ -17395,22 +17489,45 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B158" s="7"/>
-      <c r="H158" s="8"/>
+      <c r="A158" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158">
+        <f>32-10</f>
+        <v>22</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="I158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="K158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M158" s="8">
@@ -17418,22 +17535,42 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B159" s="7"/>
+      <c r="A159" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C159" t="s">
+        <v>49</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s">
+        <v>34</v>
+      </c>
       <c r="H159" s="8"/>
       <c r="I159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M159" s="8">
@@ -17441,758 +17578,1171 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B160" s="7"/>
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C160" t="s">
+        <v>49</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
       <c r="H160" s="8"/>
       <c r="I160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M160" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B161" s="7"/>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C161" t="s">
+        <v>49</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>34</v>
+      </c>
       <c r="H161" s="8"/>
       <c r="I161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M161" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B162" s="7"/>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C162" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>34</v>
+      </c>
       <c r="H162" s="8"/>
       <c r="I162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M162" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B163" s="7"/>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>34</v>
+      </c>
       <c r="H163" s="8"/>
       <c r="I163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M163" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B164" s="7"/>
-      <c r="H164" s="8"/>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164">
+        <f>53-17-D158</f>
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="I164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J164">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="K164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M164" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B165" s="7"/>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C165" t="s">
+        <v>149</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" t="s">
+        <v>34</v>
+      </c>
       <c r="H165" s="8"/>
       <c r="I165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J165">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="K165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M165" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B166" s="7"/>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>214</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C166" t="s">
+        <v>27</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
       <c r="H166" s="8"/>
       <c r="I166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J166">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M166" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B167" s="7"/>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>34</v>
+      </c>
       <c r="H167" s="8"/>
       <c r="I167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M167" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B168" s="7"/>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>34</v>
+      </c>
       <c r="H168" s="8"/>
       <c r="I168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M168" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B169" s="7"/>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C169" t="s">
+        <v>49</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>34</v>
+      </c>
       <c r="H169" s="8"/>
       <c r="I169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M169" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B170" s="7"/>
-      <c r="H170" s="8"/>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>127</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="I170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L170">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="M170" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B171" s="7"/>
-      <c r="H171" s="8"/>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171">
+        <v>5</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>127</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="I171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L171">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="M171" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B172" s="7"/>
-      <c r="H172" s="8"/>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" t="s">
+        <v>149</v>
+      </c>
+      <c r="D172">
+        <v>122</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>127</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="I172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L172">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>122</v>
       </c>
       <c r="M172" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B173" s="7"/>
-      <c r="H173" s="8"/>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C173" t="s">
+        <v>149</v>
+      </c>
+      <c r="D173">
+        <v>109</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>127</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="I173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L173">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>109</v>
       </c>
       <c r="M173" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B174" s="7"/>
-      <c r="H174" s="8"/>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C174" t="s">
+        <v>149</v>
+      </c>
+      <c r="D174">
+        <v>17</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>127</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="I174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L174">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="M174" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B175" s="7"/>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>128</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175">
+        <v>18</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>15</v>
+      </c>
       <c r="H175" s="8"/>
       <c r="I175">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="J175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M175" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B176" s="7"/>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C176" t="s">
+        <v>149</v>
+      </c>
+      <c r="D176">
+        <v>12</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>19</v>
+      </c>
+      <c r="G176" t="s">
+        <v>34</v>
+      </c>
       <c r="H176" s="8"/>
       <c r="I176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J176">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="K176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M176" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B177" s="7"/>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" t="s">
+        <v>27</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s">
+        <v>34</v>
+      </c>
       <c r="H177" s="8"/>
       <c r="I177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J177">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="K177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M177" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B178" s="7"/>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C178" t="s">
+        <v>27</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s">
+        <v>34</v>
+      </c>
       <c r="H178" s="8"/>
       <c r="I178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="K178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M178" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B179" s="7"/>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C179" t="s">
+        <v>149</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s">
+        <v>34</v>
+      </c>
       <c r="H179" s="8"/>
       <c r="I179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J179">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="K179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L179">
-        <f t="shared" ref="I179:L200" si="10">MAX(0, IF($G179=L$2, $D179*$E179, 0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M179" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
       <c r="H180" s="8"/>
       <c r="I180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M180" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
       <c r="H181" s="8"/>
       <c r="I181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M181" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
       <c r="H182" s="8"/>
       <c r="I182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M182" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
       <c r="H183" s="8"/>
       <c r="I183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M183" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
       <c r="H184" s="8"/>
       <c r="I184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M184" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
       <c r="H185" s="8"/>
       <c r="I185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M185" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
       <c r="H186" s="8"/>
       <c r="I186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M186" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
       <c r="H187" s="8"/>
       <c r="I187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M187" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
       <c r="H188" s="8"/>
       <c r="I188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M188" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
       <c r="H189" s="8"/>
       <c r="I189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M189" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
       <c r="H190" s="8"/>
       <c r="I190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M190" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
       <c r="H191" s="8"/>
       <c r="I191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M191" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
       <c r="H192" s="8"/>
       <c r="I192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M192" s="8">
@@ -18203,19 +18753,19 @@
       <c r="B193" s="7"/>
       <c r="H193" s="8"/>
       <c r="I193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I193:L200" si="3">MAX(0, IF($G193=L$2, $D193*$E193, 0))</f>
         <v>0</v>
       </c>
       <c r="M193" s="8">
@@ -18226,19 +18776,19 @@
       <c r="B194" s="7"/>
       <c r="H194" s="8"/>
       <c r="I194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M194" s="8">
@@ -18249,19 +18799,19 @@
       <c r="B195" s="7"/>
       <c r="H195" s="8"/>
       <c r="I195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M195" s="8">
@@ -18272,19 +18822,19 @@
       <c r="B196" s="7"/>
       <c r="H196" s="8"/>
       <c r="I196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M196" s="8">
@@ -18295,19 +18845,19 @@
       <c r="B197" s="7"/>
       <c r="H197" s="8"/>
       <c r="I197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M197" s="8">
@@ -18318,19 +18868,19 @@
       <c r="B198" s="7"/>
       <c r="H198" s="8"/>
       <c r="I198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M198" s="8">
@@ -18341,19 +18891,19 @@
       <c r="B199" s="7"/>
       <c r="H199" s="8"/>
       <c r="I199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M199" s="8">
@@ -18364,19 +18914,19 @@
       <c r="B200" s="7"/>
       <c r="H200" s="8"/>
       <c r="I200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I181:L200" si="4">MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="M200" s="8">
@@ -18410,11 +18960,11 @@
       </c>
       <c r="I201" s="10">
         <f>SUM(I$3:I$200)</f>
-        <v>3886.5</v>
+        <v>3965.5</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>2981.5</v>
+        <v>2986.5</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -18422,7 +18972,7 @@
       </c>
       <c r="L201" s="10">
         <f>SUM(L$3:L$200)</f>
-        <v>943</v>
+        <v>829</v>
       </c>
       <c r="M201" s="11">
         <f>SUM(M$3:M$200)</f>
@@ -18438,11 +18988,11 @@
       </c>
       <c r="I202" cm="1">
         <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="J202" cm="1">
         <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="K202" cm="1">
         <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -18450,7 +19000,7 @@
       </c>
       <c r="L202" cm="1">
         <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="M202" cm="1">
         <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
@@ -18466,11 +19016,11 @@
       </c>
       <c r="I203" cm="1">
         <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
-        <v>1154.5</v>
+        <v>1161.5</v>
       </c>
       <c r="J203" cm="1">
         <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="K203" cm="1">
         <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
@@ -18478,7 +19028,7 @@
       </c>
       <c r="L203" cm="1">
         <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
-        <v>943</v>
+        <v>829</v>
       </c>
       <c r="M203" cm="1">
         <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
@@ -18491,19 +19041,19 @@
         <v>adalfarus</v>
       </c>
       <c r="J204" t="str">
-        <f t="shared" ref="J204:M204" si="11">J$2</f>
+        <f t="shared" ref="J204:M204" si="5">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K204" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>Fa4953</v>
       </c>
       <c r="L204" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M204" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -18513,11 +19063,11 @@
       </c>
       <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K205">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
@@ -18525,7 +19075,7 @@
       </c>
       <c r="L205">
         <f>COUNTIF($G$3:$G$200, L$2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M205">
         <f>COUNTIF($G$3:$G$200, M$2)</f>
@@ -18538,11 +19088,11 @@
       </c>
       <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.4642857142857142</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.4493670886075949</v>
+        <v>1.3958333333333333</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -18550,7 +19100,7 @@
       </c>
       <c r="L206">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $E$3:$E$200), 0)</f>
-        <v>1.4</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="M206">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
@@ -18563,11 +19113,11 @@
       </c>
       <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>43.732142857142854</v>
+        <v>42.216666666666669</v>
       </c>
       <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
-        <v>23.0126582278481</v>
+        <v>19.75</v>
       </c>
       <c r="K207">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
@@ -18575,7 +19125,7 @@
       </c>
       <c r="L207">
         <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $D$3:$D$200), 0)</f>
-        <v>131.19999999999999</v>
+        <v>77.428571428571431</v>
       </c>
       <c r="M207">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $D$3:$D$200), 0)</f>
@@ -18588,11 +19138,11 @@
       </c>
       <c r="I208">
         <f>ROUND(I$205*I$206*I$207, 0)</f>
-        <v>3586</v>
+        <v>3588</v>
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>2668</v>
+        <v>2674</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -18600,7 +19150,7 @@
       </c>
       <c r="L208">
         <f>ROUND(L$205*L$206*L$207, 0)</f>
-        <v>918</v>
+        <v>697</v>
       </c>
       <c r="M208">
         <f>ROUND(M$205*M$206*M$207, 0)</f>
@@ -18616,19 +19166,19 @@
         <v>adalfarus</v>
       </c>
       <c r="J210" t="str">
-        <f t="shared" ref="J210:M210" si="12">J$2</f>
+        <f t="shared" ref="J210:M210" si="6">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K210" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Fa4953</v>
       </c>
       <c r="L210" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M210" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -18638,20 +19188,20 @@
         <v>everything</v>
       </c>
       <c r="I211">
-        <f t="shared" ref="I211:L222" si="13">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+        <f t="shared" ref="I211:L222" si="7">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
         <v>13</v>
       </c>
       <c r="J211">
-        <f t="shared" si="13"/>
-        <v>20</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="K211">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="L211">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="M211">
         <f>COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
@@ -18663,23 +19213,23 @@
         <v>changes</v>
       </c>
       <c r="I212">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f t="shared" si="7"/>
+        <v>22</v>
       </c>
       <c r="J212">
-        <f t="shared" si="13"/>
-        <v>28</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
       <c r="K212">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="M212">
-        <f t="shared" ref="M212:M222" si="14">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
+        <f t="shared" ref="M212:M222" si="8">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
         <v>0</v>
       </c>
     </row>
@@ -18688,23 +19238,23 @@
         <v>new cls</v>
       </c>
       <c r="I213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M213">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18713,23 +19263,23 @@
         <v>docs</v>
       </c>
       <c r="I214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J214">
-        <f t="shared" si="13"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="K214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M214">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18738,23 +19288,23 @@
         <v>change docs</v>
       </c>
       <c r="I215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M215">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18763,23 +19313,23 @@
         <v>remove</v>
       </c>
       <c r="I216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M216">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18788,23 +19338,23 @@
         <v>created</v>
       </c>
       <c r="I217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M217">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18813,23 +19363,23 @@
         <v>smaller updates</v>
       </c>
       <c r="I218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M218">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18838,23 +19388,23 @@
         <v>added</v>
       </c>
       <c r="I219">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f t="shared" si="7"/>
+        <v>19</v>
       </c>
       <c r="J219">
-        <f t="shared" si="13"/>
-        <v>21</v>
+        <f t="shared" si="7"/>
+        <v>24</v>
       </c>
       <c r="K219">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="L219">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="M219">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18863,23 +19413,23 @@
         <v>setter</v>
       </c>
       <c r="I220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M220">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18888,23 +19438,23 @@
         <v>moved</v>
       </c>
       <c r="I221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M221">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18913,23 +19463,23 @@
         <v>fixes</v>
       </c>
       <c r="I222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M222">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18943,23 +19493,23 @@
         <v>169</v>
       </c>
       <c r="I225" t="str">
-        <f t="shared" ref="I225:M225" si="15">I$2</f>
+        <f t="shared" ref="I225:M225" si="9">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J225" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>Giesbrt</v>
       </c>
       <c r="K225" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>Fa4953</v>
       </c>
       <c r="L225" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M225" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -18969,23 +19519,23 @@
         <v>none</v>
       </c>
       <c r="I226">
-        <f t="shared" ref="I226:M232" si="16">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
-        <v>43</v>
+        <f t="shared" ref="I226:M232" si="10">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
+        <v>47</v>
       </c>
       <c r="J226">
-        <f t="shared" si="16"/>
-        <v>54</v>
+        <f t="shared" si="10"/>
+        <v>58</v>
       </c>
       <c r="K226">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="L226">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="M226">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -18994,23 +19544,23 @@
         <v>comments 5%</v>
       </c>
       <c r="I227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="J227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M227">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19019,23 +19569,23 @@
         <v>inline 100%</v>
       </c>
       <c r="I228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="J228">
-        <f t="shared" si="16"/>
-        <v>24</v>
+        <f t="shared" si="10"/>
+        <v>37</v>
       </c>
       <c r="K228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="L228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M228">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19044,23 +19594,23 @@
         <v>inline 5%</v>
       </c>
       <c r="I229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="J229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M229">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19069,23 +19619,23 @@
         <v>comments 100%</v>
       </c>
       <c r="I230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M230">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19094,23 +19644,23 @@
         <v>inline 50%</v>
       </c>
       <c r="I231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M231">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19119,45 +19669,45 @@
         <v>in md 100%</v>
       </c>
       <c r="I232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M232">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="7:13" x14ac:dyDescent="0.25">
       <c r="I238" t="str">
-        <f t="shared" ref="I238:M238" si="17">I$2</f>
+        <f t="shared" ref="I238:M238" si="11">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J238" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>Giesbrt</v>
       </c>
       <c r="K238" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>Fa4953</v>
       </c>
       <c r="L238" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M238" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -19167,26 +19717,26 @@
       </c>
       <c r="H239">
         <f>SUM(I201:M201)</f>
-        <v>8688</v>
+        <v>8658</v>
       </c>
       <c r="I239" s="16">
         <f>I201/$H239</f>
-        <v>0.44734116022099446</v>
+        <v>0.45801570801570801</v>
       </c>
       <c r="J239" s="16">
-        <f t="shared" ref="J239:M239" si="18">J201/$H239</f>
-        <v>0.34317449355432783</v>
+        <f t="shared" ref="J239:M239" si="12">J201/$H239</f>
+        <v>0.34494109494109493</v>
       </c>
       <c r="K239" s="16">
-        <f t="shared" si="18"/>
-        <v>0.10094383057090239</v>
+        <f t="shared" si="12"/>
+        <v>0.10129360129360129</v>
       </c>
       <c r="L239" s="16">
-        <f t="shared" si="18"/>
-        <v>0.10854051565377532</v>
+        <f t="shared" si="12"/>
+        <v>9.5749595749595753E-2</v>
       </c>
       <c r="M239" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -19275,10 +19825,19 @@
     <hyperlink ref="A148" r:id="rId78" location="diff-8c2bc872776a83a7d003095f186473b0377116bdda555cf7ebf1b972f494ced5" xr:uid="{9C81CB2C-11B2-499A-B23B-72E2A8E92749}"/>
     <hyperlink ref="A151" r:id="rId79" xr:uid="{CC60FEDE-DDCB-4A46-85BF-67DA42D035E1}"/>
     <hyperlink ref="A153" r:id="rId80" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{5EA4EB06-D47B-408D-99A8-FEB3FC820B17}"/>
+    <hyperlink ref="A154" r:id="rId81" xr:uid="{E10F0AD9-D68A-4950-B1C3-BE7DA99F7203}"/>
+    <hyperlink ref="A156" r:id="rId82" xr:uid="{296FF541-7CE6-4726-8110-449CCE776F20}"/>
+    <hyperlink ref="A158" r:id="rId83" location="diff-97f084029751f1b1cf2dcd89d18f4479c427fa5a2fa9cdda5000c805fa361842" xr:uid="{8ED3205F-FFC1-434B-A27C-183790863B43}"/>
+    <hyperlink ref="A159" r:id="rId84" location="diff-0a75b5baeefd7100979852b66c5b991b1ca6899e6aa9113446fe3e4e12227e8a" xr:uid="{7670693D-DC70-420A-9513-104BDD7DA2B1}"/>
+    <hyperlink ref="A164" r:id="rId85" location="diff-d5f8ff934a04206529023687f264450bcaedae96519778ab1ca93997392006cd" xr:uid="{2F6F378F-9B55-46A5-8F35-284CE84CA632}"/>
+    <hyperlink ref="A165" r:id="rId86" location="diff-0a75b5baeefd7100979852b66c5b991b1ca6899e6aa9113446fe3e4e12227e8a" xr:uid="{2C5C5E33-AE2E-4C9C-BD11-FB6398EC509F}"/>
+    <hyperlink ref="A167" r:id="rId87" location="diff-f6a0595a74bda66d3fe7abd99097fbeeec0b819b4002b5b2e4a16db08dc7449b" xr:uid="{E1A2A77E-BF91-4C62-B904-D24EEAF87F4C}"/>
+    <hyperlink ref="A170" r:id="rId88" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{B3782D05-7D98-49CA-AD27-BA3CB291B9F4}"/>
+    <hyperlink ref="A176" r:id="rId89" xr:uid="{0C1BC751-67B9-45BB-8157-260850449596}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId81"/>
-  <drawing r:id="rId82"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId90"/>
+  <drawing r:id="rId91"/>
 </worksheet>
 </file>
 
@@ -19290,7 +19849,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53274260-4599-418D-BEEA-D072ABD1A68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C780A9-ADA4-4990-810C-4BD254BC1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -1092,9 +1092,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1112,7 +1112,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1588,7 +1588,7 @@
                   <c:v>3965.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2986.5</c:v>
+                  <c:v>3082.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
@@ -1675,7 +1675,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2563,7 +2563,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3366,7 +3366,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3573,7 +3573,7 @@
                   <c:v>1.4166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3958333333333333</c:v>
+                  <c:v>1.4010416666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.75</c:v>
@@ -3889,7 +3889,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4341,7 +4341,7 @@
                   <c:v>3588</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2674</c:v>
+                  <c:v>2684</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>760</c:v>
@@ -4428,7 +4428,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4837,7 +4837,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5246,7 +5246,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5506,16 +5506,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45801570801570801</c:v>
+                  <c:v>0.45299291752341786</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34494109494109493</c:v>
+                  <c:v>0.35212474297464014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10129360129360129</c:v>
+                  <c:v>0.10018277358921636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5749595749595753E-2</c:v>
+                  <c:v>9.4699565912725617E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10359,9 +10359,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10399,9 +10399,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10434,26 +10434,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10486,26 +10469,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10681,11 +10647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -15078,7 +15044,7 @@
         <v>192</v>
       </c>
       <c r="E102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
@@ -15093,7 +15059,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>576</v>
       </c>
       <c r="K102">
         <f t="shared" si="1"/>
@@ -18926,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" ref="I181:L200" si="4">MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
+        <f t="shared" ref="L200" si="4">MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="M200" s="8">
@@ -18964,7 +18930,7 @@
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>2986.5</v>
+        <v>3082.5</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -19092,7 +19058,7 @@
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.3958333333333333</v>
+        <v>1.4010416666666667</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -19142,7 +19108,7 @@
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -19717,23 +19683,23 @@
       </c>
       <c r="H239">
         <f>SUM(I201:M201)</f>
-        <v>8658</v>
+        <v>8754</v>
       </c>
       <c r="I239" s="16">
         <f>I201/$H239</f>
-        <v>0.45801570801570801</v>
+        <v>0.45299291752341786</v>
       </c>
       <c r="J239" s="16">
         <f t="shared" ref="J239:M239" si="12">J201/$H239</f>
-        <v>0.34494109494109493</v>
+        <v>0.35212474297464014</v>
       </c>
       <c r="K239" s="16">
         <f t="shared" si="12"/>
-        <v>0.10129360129360129</v>
+        <v>0.10018277358921636</v>
       </c>
       <c r="L239" s="16">
         <f t="shared" si="12"/>
-        <v>9.5749595749595753E-2</v>
+        <v>9.4699565912725617E-2</v>
       </c>
       <c r="M239" s="16">
         <f t="shared" si="12"/>
@@ -19849,7 +19815,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C780A9-ADA4-4990-810C-4BD254BC1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E02E6-F894-4F83-B543-8CD7428EBEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1585,10 +1585,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3965.5</c:v>
+                  <c:v>3833.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3082.5</c:v>
+                  <c:v>3214.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
@@ -1823,7 +1823,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22</c:v>
@@ -1942,7 +1942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>32</c:v>
@@ -2767,7 +2767,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -2856,7 +2856,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3493,10 +3493,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
@@ -3570,10 +3570,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4166666666666667</c:v>
+                  <c:v>1.4067796610169492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4010416666666667</c:v>
+                  <c:v>1.4072164948453609</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.75</c:v>
@@ -3647,10 +3647,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.216666666666669</c:v>
+                  <c:v>41.813559322033896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.75</c:v>
+                  <c:v>20.226804123711339</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36.166666666666664</c:v>
@@ -4338,10 +4338,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3588</c:v>
+                  <c:v>3471</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2684</c:v>
+                  <c:v>2789</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>760</c:v>
@@ -5506,10 +5506,10 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.45299291752341786</c:v>
+                  <c:v>0.43791409641306833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35212474297464014</c:v>
+                  <c:v>0.36720356408498972</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.10018277358921636</c:v>
@@ -10647,8 +10647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J227" sqref="J227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14439,16 +14439,16 @@
         <v>19</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="1"/>
         <v>132</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="K88">
         <f t="shared" si="1"/>
@@ -18926,11 +18926,11 @@
       </c>
       <c r="I201" s="10">
         <f>SUM(I$3:I$200)</f>
-        <v>3965.5</v>
+        <v>3833.5</v>
       </c>
       <c r="J201" s="10">
         <f>SUM(J$3:J$200)</f>
-        <v>3082.5</v>
+        <v>3214.5</v>
       </c>
       <c r="K201" s="10">
         <f>SUM(K$3:K$200)</f>
@@ -19029,11 +19029,11 @@
       </c>
       <c r="I205">
         <f>COUNTIF($G$3:$G$200, I$2)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J205">
         <f>COUNTIF($G$3:$G$200, J$2)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K205">
         <f>COUNTIF($G$3:$G$200, K$2)</f>
@@ -19054,11 +19054,11 @@
       </c>
       <c r="I206">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
-        <v>1.4166666666666667</v>
+        <v>1.4067796610169492</v>
       </c>
       <c r="J206">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
-        <v>1.4010416666666667</v>
+        <v>1.4072164948453609</v>
       </c>
       <c r="K206">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
@@ -19079,11 +19079,11 @@
       </c>
       <c r="I207">
         <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
-        <v>42.216666666666669</v>
+        <v>41.813559322033896</v>
       </c>
       <c r="J207">
         <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
-        <v>19.75</v>
+        <v>20.226804123711339</v>
       </c>
       <c r="K207">
         <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
@@ -19104,11 +19104,11 @@
       </c>
       <c r="I208">
         <f>ROUND(I$205*I$206*I$207, 0)</f>
-        <v>3588</v>
+        <v>3471</v>
       </c>
       <c r="J208">
         <f>ROUND(J$205*J$206*J$207, 0)</f>
-        <v>2684</v>
+        <v>2789</v>
       </c>
       <c r="K208">
         <f>ROUND(K$205*K$206*K$207, 0)</f>
@@ -19155,11 +19155,11 @@
       </c>
       <c r="I211">
         <f t="shared" ref="I211:L222" si="7">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J211">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K211">
         <f t="shared" si="7"/>
@@ -19536,11 +19536,11 @@
       </c>
       <c r="I228">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J228">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K228">
         <f t="shared" si="10"/>
@@ -19687,11 +19687,11 @@
       </c>
       <c r="I239" s="16">
         <f>I201/$H239</f>
-        <v>0.45299291752341786</v>
+        <v>0.43791409641306833</v>
       </c>
       <c r="J239" s="16">
         <f t="shared" ref="J239:M239" si="12">J201/$H239</f>
-        <v>0.35212474297464014</v>
+        <v>0.36720356408498972</v>
       </c>
       <c r="K239" s="16">
         <f t="shared" si="12"/>

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E02E6-F894-4F83-B543-8CD7428EBEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBEA1F-E501-47A8-8459-9A7987740F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="254">
   <si>
     <t>Datei</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>added field "id" ...</t>
+  </si>
+  <si>
+    <t>Rows:</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1090,11 +1093,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1112,7 +1116,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1580,7 +1584,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$201:$M$201</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$301:$M$301</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1675,7 +1679,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1753,7 +1757,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$310</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1774,7 +1778,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$311:$G$322</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1818,7 +1822,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$211:$I$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$311:$I$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1872,7 +1876,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$310</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1893,7 +1897,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$311:$G$322</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1937,7 +1941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$211:$J$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$311:$J$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1991,7 +1995,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$310</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2012,7 +2016,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$311:$G$322</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2056,7 +2060,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$211:$K$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$311:$K$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2110,7 +2114,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$310</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2131,7 +2135,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$311:$G$322</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2175,7 +2179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$211:$L$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$311:$L$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2229,7 +2233,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$210</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$310</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2250,7 +2254,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$211:$G$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$311:$G$322</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2294,7 +2298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$211:$M$222</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$311:$M$322</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2563,7 +2567,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2641,7 +2645,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$H$225</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$325</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2659,7 +2663,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$326:$G$332</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2688,7 +2692,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$H$226:$H$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$H$326:$H$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2706,7 +2710,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$225</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$325</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2727,7 +2731,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$326:$G$332</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2756,7 +2760,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$226:$I$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$326:$I$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2795,7 +2799,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$J$225</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$325</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2816,7 +2820,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$326:$G$332</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2845,7 +2849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$J$226:$J$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$J$326:$J$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2884,7 +2888,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$K$225</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$325</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2905,7 +2909,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$326:$G$332</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2934,7 +2938,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$K$226:$K$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$K$326:$K$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2973,7 +2977,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$L$225</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$325</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2994,7 +2998,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$326:$G$332</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3023,7 +3027,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$L$226:$L$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$L$326:$L$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3062,7 +3066,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$M$225</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$325</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3083,7 +3087,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$226:$G$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$326:$G$332</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -3112,7 +3116,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$M$226:$M$232</c:f>
+              <c:f>Tätigkeitsdokumentation!$M$326:$M$332</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3366,7 +3370,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3444,7 +3448,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$205:$H$205</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$305:$H$305</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3465,7 +3469,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$304:$M$304</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3488,7 +3492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$205:$M$205</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$305:$M$305</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3521,7 +3525,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$206:$H$206</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$306:$H$306</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3542,7 +3546,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$304:$M$304</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3565,7 +3569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$206:$M$206</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$306:$M$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3598,7 +3602,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$207:$H$207</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$307:$H$307</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3619,7 +3623,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$304:$M$304</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3642,7 +3646,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$207:$M$207</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$307:$M$307</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3889,7 +3893,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3940,7 +3944,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$G$208:$H$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$G$308:$H$308</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4310,7 +4314,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$204:$M$204</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$304:$M$304</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4333,7 +4337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$208:$M$208</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$308:$M$308</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4428,7 +4432,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4700,7 +4704,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$202:$M$202</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$302:$M$302</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4837,7 +4841,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5109,7 +5113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$203:$M$203</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$303:$M$303</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5246,7 +5250,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5478,7 +5482,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Tätigkeitsdokumentation!$I$238:$M$238</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$335:$M$335</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5501,7 +5505,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tätigkeitsdokumentation!$I$239:$M$239</c:f>
+              <c:f>Tätigkeitsdokumentation!$I$336:$M$336</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -10070,15 +10074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>186</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:colOff>5604</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>453838</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>364192</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10107,13 +10111,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>44825</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>101973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>125666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10143,13 +10147,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>565096</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>117979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1199029</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>3679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10179,13 +10183,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>8646</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1220881</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>84846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10214,15 +10218,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>17931</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>16890</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>184978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>93090</xdr:rowOff>
+      <xdr:colOff>519951</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>59472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10250,15 +10254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>5604</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>125226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>12606</xdr:rowOff>
+      <xdr:colOff>5604</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>180695</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10286,15 +10290,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>126904</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>5322</xdr:rowOff>
+      <xdr:colOff>37258</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>173411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>128866</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>83203</xdr:rowOff>
+      <xdr:colOff>39220</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>60792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10322,15 +10326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>118459</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
+      <xdr:colOff>28813</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>75559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>60033</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>127268</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10359,9 +10363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10399,9 +10403,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10434,9 +10438,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10469,9 +10490,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10645,13 +10683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:N336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J227" sqref="J227"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -10673,6 +10711,12 @@
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
+      <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1">
+        <v>300</v>
+      </c>
       <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
@@ -18715,7 +18759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
       <c r="H193" s="8"/>
       <c r="I193">
@@ -18731,14 +18775,14 @@
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" ref="I193:L200" si="3">MAX(0, IF($G193=L$2, $D193*$E193, 0))</f>
+        <f t="shared" ref="I193:L208" si="3">MAX(0, IF($G193=L$2, $D193*$E193, 0))</f>
         <v>0</v>
       </c>
       <c r="M193" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
       <c r="H194" s="8"/>
       <c r="I194">
@@ -18761,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
       <c r="H195" s="8"/>
       <c r="I195">
@@ -18784,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
       <c r="H196" s="8"/>
       <c r="I196">
@@ -18807,7 +18851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
       <c r="H197" s="8"/>
       <c r="I197">
@@ -18830,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
       <c r="H198" s="8"/>
       <c r="I198">
@@ -18853,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
       <c r="H199" s="8"/>
       <c r="I199">
@@ -18876,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="H200" s="8"/>
       <c r="I200">
@@ -18892,817 +18936,3118 @@
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" ref="L200" si="4">MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
+        <f t="shared" ref="L200:L263" si="4">MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="M200" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="10" t="s">
+    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B201" s="7"/>
+      <c r="H201" s="8"/>
+      <c r="I201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M201" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="7"/>
+      <c r="H202" s="8"/>
+      <c r="I202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M202" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B203" s="7"/>
+      <c r="H203" s="8"/>
+      <c r="I203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M203" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="7"/>
+      <c r="H204" s="8"/>
+      <c r="I204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M204" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="7"/>
+      <c r="H205" s="8"/>
+      <c r="I205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M205" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+      <c r="H206" s="8"/>
+      <c r="I206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M206" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="7"/>
+      <c r="H207" s="8"/>
+      <c r="I207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M207" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+      <c r="H208" s="8"/>
+      <c r="I208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M208" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B209" s="7"/>
+      <c r="H209" s="8"/>
+      <c r="I209">
+        <f t="shared" ref="I209:L272" si="5">MAX(0, IF($G209=I$2, $D209*$E209, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M209" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B210" s="7"/>
+      <c r="H210" s="8"/>
+      <c r="I210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M210" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B211" s="7"/>
+      <c r="H211" s="8"/>
+      <c r="I211">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M211" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B212" s="7"/>
+      <c r="H212" s="8"/>
+      <c r="I212">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M212" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+      <c r="H213" s="8"/>
+      <c r="I213">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M213" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B214" s="7"/>
+      <c r="H214" s="8"/>
+      <c r="I214">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M214" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B215" s="7"/>
+      <c r="H215" s="8"/>
+      <c r="I215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M215" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B216" s="7"/>
+      <c r="H216" s="8"/>
+      <c r="I216">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M216" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B217" s="7"/>
+      <c r="H217" s="8"/>
+      <c r="I217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M217" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B218" s="7"/>
+      <c r="H218" s="8"/>
+      <c r="I218">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M218" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B219" s="7"/>
+      <c r="H219" s="8"/>
+      <c r="I219">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M219" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B220" s="7"/>
+      <c r="H220" s="8"/>
+      <c r="I220">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M220" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B221" s="7"/>
+      <c r="H221" s="8"/>
+      <c r="I221">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M221" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B222" s="7"/>
+      <c r="H222" s="8"/>
+      <c r="I222">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M222" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B223" s="7"/>
+      <c r="H223" s="8"/>
+      <c r="I223">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M223" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B224" s="7"/>
+      <c r="H224" s="8"/>
+      <c r="I224">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M224" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B225" s="7"/>
+      <c r="H225" s="8"/>
+      <c r="I225">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M225" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B226" s="7"/>
+      <c r="H226" s="8"/>
+      <c r="I226">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M226" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B227" s="7"/>
+      <c r="H227" s="8"/>
+      <c r="I227">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M227" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B228" s="7"/>
+      <c r="H228" s="8"/>
+      <c r="I228">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M228" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B229" s="7"/>
+      <c r="H229" s="8"/>
+      <c r="I229">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M229" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B230" s="7"/>
+      <c r="H230" s="8"/>
+      <c r="I230">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M230" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B231" s="7"/>
+      <c r="H231" s="8"/>
+      <c r="I231">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M231" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B232" s="7"/>
+      <c r="H232" s="8"/>
+      <c r="I232">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M232" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B233" s="7"/>
+      <c r="H233" s="8"/>
+      <c r="I233">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M233" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B234" s="7"/>
+      <c r="H234" s="8"/>
+      <c r="I234">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M234" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B235" s="7"/>
+      <c r="H235" s="8"/>
+      <c r="I235">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M235" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B236" s="7"/>
+      <c r="H236" s="8"/>
+      <c r="I236">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M236" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+      <c r="H237" s="8"/>
+      <c r="I237">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M237" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B238" s="7"/>
+      <c r="H238" s="8"/>
+      <c r="I238">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M238" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B239" s="7"/>
+      <c r="H239" s="8"/>
+      <c r="I239">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M239" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B240" s="7"/>
+      <c r="H240" s="8"/>
+      <c r="I240">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M240" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B241" s="7"/>
+      <c r="H241" s="8"/>
+      <c r="I241">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M241" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B242" s="7"/>
+      <c r="H242" s="8"/>
+      <c r="I242">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M242" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B243" s="7"/>
+      <c r="H243" s="8"/>
+      <c r="I243">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M243" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B244" s="7"/>
+      <c r="H244" s="8"/>
+      <c r="I244">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M244" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B245" s="7"/>
+      <c r="H245" s="8"/>
+      <c r="I245">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M245" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B246" s="7"/>
+      <c r="H246" s="8"/>
+      <c r="I246">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M246" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B247" s="7"/>
+      <c r="H247" s="8"/>
+      <c r="I247">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M247" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B248" s="7"/>
+      <c r="H248" s="8"/>
+      <c r="I248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M248" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B249" s="7"/>
+      <c r="H249" s="8"/>
+      <c r="I249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M249" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B250" s="7"/>
+      <c r="H250" s="8"/>
+      <c r="I250">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M250" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B251" s="7"/>
+      <c r="H251" s="8"/>
+      <c r="I251">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M251" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B252" s="7"/>
+      <c r="H252" s="8"/>
+      <c r="I252">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M252" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B253" s="7"/>
+      <c r="H253" s="8"/>
+      <c r="I253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M253" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B254" s="7"/>
+      <c r="H254" s="8"/>
+      <c r="I254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M254" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B255" s="7"/>
+      <c r="H255" s="8"/>
+      <c r="I255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M255" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B256" s="7"/>
+      <c r="H256" s="8"/>
+      <c r="I256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M256" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B257" s="7"/>
+      <c r="H257" s="8"/>
+      <c r="I257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M257" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B258" s="7"/>
+      <c r="H258" s="8"/>
+      <c r="I258">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M258" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B259" s="7"/>
+      <c r="H259" s="8"/>
+      <c r="I259">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M259" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B260" s="7"/>
+      <c r="H260" s="8"/>
+      <c r="I260">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M260" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B261" s="7"/>
+      <c r="H261" s="8"/>
+      <c r="I261">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M261" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B262" s="7"/>
+      <c r="H262" s="8"/>
+      <c r="I262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M262" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B263" s="7"/>
+      <c r="H263" s="8"/>
+      <c r="I263">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M263" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B264" s="7"/>
+      <c r="H264" s="8"/>
+      <c r="I264">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M264" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B265" s="7"/>
+      <c r="H265" s="8"/>
+      <c r="I265">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M265" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B266" s="7"/>
+      <c r="H266" s="8"/>
+      <c r="I266">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M266" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B267" s="7"/>
+      <c r="H267" s="8"/>
+      <c r="I267">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M267" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B268" s="7"/>
+      <c r="H268" s="8"/>
+      <c r="I268">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M268" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B269" s="7"/>
+      <c r="H269" s="8"/>
+      <c r="I269">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M269" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B270" s="7"/>
+      <c r="H270" s="8"/>
+      <c r="I270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M270" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B271" s="7"/>
+      <c r="H271" s="8"/>
+      <c r="I271">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M271" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B272" s="7"/>
+      <c r="H272" s="8"/>
+      <c r="I272">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M272" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B273" s="7"/>
+      <c r="H273" s="8"/>
+      <c r="I273">
+        <f t="shared" ref="I273:L300" si="6">MAX(0, IF($G273=I$2, $D273*$E273, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M273" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B274" s="7"/>
+      <c r="H274" s="8"/>
+      <c r="I274">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M274" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B275" s="7"/>
+      <c r="H275" s="8"/>
+      <c r="I275">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M275" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B276" s="7"/>
+      <c r="H276" s="8"/>
+      <c r="I276">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M276" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B277" s="7"/>
+      <c r="H277" s="8"/>
+      <c r="I277">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M277" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B278" s="7"/>
+      <c r="H278" s="8"/>
+      <c r="I278">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M278" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B279" s="7"/>
+      <c r="H279" s="8"/>
+      <c r="I279">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M279" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B280" s="7"/>
+      <c r="H280" s="8"/>
+      <c r="I280">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M280" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B281" s="7"/>
+      <c r="H281" s="8"/>
+      <c r="I281">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M281" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B282" s="7"/>
+      <c r="H282" s="8"/>
+      <c r="I282">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M282" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B283" s="7"/>
+      <c r="H283" s="8"/>
+      <c r="I283">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M283" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B284" s="7"/>
+      <c r="H284" s="8"/>
+      <c r="I284">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M284" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B285" s="7"/>
+      <c r="H285" s="8"/>
+      <c r="I285">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M285" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B286" s="7"/>
+      <c r="H286" s="8"/>
+      <c r="I286">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M286" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B287" s="7"/>
+      <c r="H287" s="8"/>
+      <c r="I287">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M287" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B288" s="7"/>
+      <c r="H288" s="8"/>
+      <c r="I288">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M288" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B289" s="7"/>
+      <c r="H289" s="8"/>
+      <c r="I289">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M289" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B290" s="7"/>
+      <c r="H290" s="8"/>
+      <c r="I290">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M290" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B291" s="7"/>
+      <c r="H291" s="8"/>
+      <c r="I291">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M291" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B292" s="7"/>
+      <c r="H292" s="8"/>
+      <c r="I292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M292" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B293" s="7"/>
+      <c r="H293" s="8"/>
+      <c r="I293">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M293" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B294" s="7"/>
+      <c r="H294" s="8"/>
+      <c r="I294">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M294" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B295" s="7"/>
+      <c r="H295" s="8"/>
+      <c r="I295">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M295" s="8">
+        <v>0</v>
+      </c>
+      <c r="N295" s="19"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B296" s="7"/>
+      <c r="H296" s="8"/>
+      <c r="I296">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M296" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B297" s="7"/>
+      <c r="H297" s="8"/>
+      <c r="I297">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M297" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B298" s="7"/>
+      <c r="H298" s="8"/>
+      <c r="I298">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M298" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B299" s="7"/>
+      <c r="H299" s="8"/>
+      <c r="I299">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M299" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B300" s="7"/>
+      <c r="H300" s="8"/>
+      <c r="I300">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M300" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B301" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C301" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D201" s="10" t="s">
+      <c r="D301" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E201" s="10" t="s">
+      <c r="E301" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F201" s="10" t="s">
+      <c r="F301" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G201" s="10" t="s">
+      <c r="G301" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H201" s="11" t="s">
+      <c r="H301" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I201" s="10">
-        <f>SUM(I$3:I$200)</f>
+      <c r="I301" s="10">
+        <f>SUM(I$3:INDEX(I:I,$F$1))</f>
         <v>3833.5</v>
       </c>
-      <c r="J201" s="10">
-        <f>SUM(J$3:J$200)</f>
+      <c r="J301" s="10">
+        <f>SUM(J$3:INDEX(J:J,$F$1))</f>
         <v>3214.5</v>
       </c>
-      <c r="K201" s="10">
-        <f>SUM(K$3:K$200)</f>
+      <c r="K301" s="10">
+        <f>SUM(K$3:INDEX(K:K,$F$1))</f>
         <v>877</v>
       </c>
-      <c r="L201" s="10">
-        <f>SUM(L$3:L$200)</f>
+      <c r="L301" s="10">
+        <f>SUM(L$3:INDEX(L:L,$F$1))</f>
         <v>829</v>
       </c>
-      <c r="M201" s="11">
-        <f>SUM(M$3:M$200)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G202" t="s">
+      <c r="M301" s="10">
+        <f>SUM(M$3:INDEX(M:M,$F$1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G302" t="s">
         <v>181</v>
       </c>
-      <c r="H202">
+      <c r="H302">
         <v>12</v>
       </c>
-      <c r="I202" cm="1">
-        <f t="array" ref="I202">SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (ROW(I$3:I$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(I$3:I$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+      <c r="I302" cm="1">
+        <f t="array" ref="I302">SUM(_xlfn._xlws.FILTER(I$3:INDEX(I:I,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(I$3:INDEX(I:I,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(I$3:INDEX(I:I,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
         <v>18</v>
       </c>
-      <c r="J202" cm="1">
-        <f t="array" ref="J202">SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (ROW(J$3:J$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(J$3:J$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+      <c r="J302" cm="1">
+        <f t="array" ref="J302">SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(J$3:INDEX(J:J,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
         <v>39</v>
       </c>
-      <c r="K202" cm="1">
-        <f t="array" ref="K202">SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (ROW(K$3:K$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(K$3:K$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>0</v>
-      </c>
-      <c r="L202" cm="1">
-        <f t="array" ref="L202">SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (ROW(L$3:L$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(L$3:L$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
+      <c r="K302" cm="1">
+        <f t="array" ref="K302">SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(K$3:INDEX(K:K,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+      <c r="L302" cm="1">
+        <f t="array" ref="L302">SUM(_xlfn._xlws.FILTER(L$3:INDEX(L:L,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(L$3:INDEX(L:L,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(L$3:INDEX(L:L,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
         <v>255</v>
       </c>
-      <c r="M202" cm="1">
-        <f t="array" ref="M202">SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (ROW(M$3:M$200) &gt;= LARGE(IF($G$3:$G$200&lt;&gt;"", ROW(M$3:M$200)), MIN($H$202, COUNTIF($G$3:$G$200, "&lt;&gt;"))))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G203" t="s">
+      <c r="M302" cm="1">
+        <f t="array" ref="M302">SUM(_xlfn._xlws.FILTER(M$3:INDEX(M:M,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(M$3:INDEX(M:M,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(M$3:INDEX(M:M,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G303" t="s">
         <v>181</v>
       </c>
-      <c r="H203">
+      <c r="H303">
         <v>14</v>
       </c>
-      <c r="I203" cm="1">
-        <f t="array" ref="I203">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:I$200, ($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0) * (ROW(I$3:I$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (I$3:I$200 &gt; 0), ROW(I$3:I$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", I$3:I$200, "&gt;0")))))), 0)</f>
+      <c r="I303" cm="1">
+        <f t="array" ref="I303">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:INDEX(I:I,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (I$3:INDEX(I:I,$F$1) &gt; 0) * (ROW(I$3:INDEX(I:I,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (I$3:INDEX(I:I,$F$1) &gt; 0), ROW(I$3:INDEX(I:I,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", I$3:INDEX(I:I,$F$1), "&gt;0")))))), 0)</f>
         <v>1161.5</v>
       </c>
-      <c r="J203" cm="1">
-        <f t="array" ref="J203">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:J$200, ($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0) * (ROW(J$3:J$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (J$3:J$200 &gt; 0), ROW(J$3:J$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", J$3:J$200, "&gt;0")))))), 0)</f>
+      <c r="J303" cm="1">
+        <f t="array" ref="J303">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0) * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0), ROW(J$3:INDEX(J:J,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", J$3:INDEX(J:J,$F$1), "&gt;0")))))), 0)</f>
         <v>152</v>
       </c>
-      <c r="K203" cm="1">
-        <f t="array" ref="K203">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:K$200, ($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0) * (ROW(K$3:K$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (K$3:K$200 &gt; 0), ROW(K$3:K$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", K$3:K$200, "&gt;0")))))), 0)</f>
+      <c r="K303" cm="1">
+        <f t="array" ref="K303">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0) * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0), ROW(K$3:INDEX(K:K,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", K$3:INDEX(K:K,$F$1), "&gt;0")))))), 0)</f>
         <v>877</v>
       </c>
-      <c r="L203" cm="1">
-        <f t="array" ref="L203">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:L$200, ($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0) * (ROW(L$3:L$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (L$3:L$200 &gt; 0), ROW(L$3:L$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", L$3:L$200, "&gt;0")))))), 0)</f>
+      <c r="L303" cm="1">
+        <f t="array" ref="L303">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:INDEX(L:L,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (L$3:INDEX(L:L,$F$1) &gt; 0) * (ROW(L$3:INDEX(L:L,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (L$3:INDEX(L:L,$F$1) &gt; 0), ROW(L$3:INDEX(L:L,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", L$3:INDEX(L:L,$F$1), "&gt;0")))))), 0)</f>
         <v>829</v>
       </c>
-      <c r="M203" cm="1">
-        <f t="array" ref="M203">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:M$200, ($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0) * (ROW(M$3:M$200) &gt;= LARGE(IF(($G$3:$G$200&lt;&gt;"") * (M$3:M$200 &gt; 0), ROW(M$3:M$200)), MIN($H$203, COUNTIFS($G$3:$G$200, "&lt;&gt;", M$3:M$200, "&gt;0")))))), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I204" t="str">
+      <c r="M303" cm="1">
+        <f t="array" ref="M303">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:INDEX(M:M,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (M$3:INDEX(M:M,$F$1) &gt; 0) * (ROW(M$3:INDEX(M:M,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (M$3:INDEX(M:M,$F$1) &gt; 0), ROW(M$3:INDEX(M:M,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", M$3:INDEX(M:M,$F$1), "&gt;0")))))), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I304" t="str">
         <f>I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J204" t="str">
-        <f t="shared" ref="J204:M204" si="5">J$2</f>
+      <c r="J304" t="str">
+        <f t="shared" ref="J204:M304" si="7">J$2</f>
         <v>Giesbrt</v>
       </c>
-      <c r="K204" t="str">
-        <f t="shared" si="5"/>
+      <c r="K304" t="str">
+        <f t="shared" si="7"/>
         <v>Fa4953</v>
       </c>
-      <c r="L204" t="str">
-        <f t="shared" si="5"/>
+      <c r="L304" t="str">
+        <f t="shared" si="7"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M204" t="str">
-        <f t="shared" si="5"/>
+      <c r="M304" t="str">
+        <f t="shared" si="7"/>
         <v>MNcode24</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G205" t="s">
+    <row r="305" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G305" t="s">
         <v>164</v>
       </c>
-      <c r="I205">
-        <f>COUNTIF($G$3:$G$200, I$2)</f>
+      <c r="I305">
+        <f>COUNTIF($G$3:INDEX($G:$G,$F$1), I$2)</f>
         <v>59</v>
       </c>
-      <c r="J205">
-        <f>COUNTIF($G$3:$G$200, J$2)</f>
+      <c r="J305">
+        <f>COUNTIF($G$3:INDEX($G:$G,$F$1), J$2)</f>
         <v>98</v>
       </c>
-      <c r="K205">
-        <f>COUNTIF($G$3:$G$200, K$2)</f>
+      <c r="K305">
+        <f>COUNTIF($G$3:INDEX($G:$G,$F$1), K$2)</f>
         <v>12</v>
       </c>
-      <c r="L205">
-        <f>COUNTIF($G$3:$G$200, L$2)</f>
+      <c r="L305">
+        <f>COUNTIF($G$3:INDEX($G:$G,$F$1), L$2)</f>
         <v>7</v>
       </c>
-      <c r="M205">
-        <f>COUNTIF($G$3:$G$200, M$2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G206" t="s">
+      <c r="M305">
+        <f>COUNTIF($G$3:INDEX($G:$G,$F$1), M$2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G306" t="s">
         <v>165</v>
       </c>
-      <c r="I206">
-        <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $E$3:$E$200), 0)</f>
+      <c r="I306">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
         <v>1.4067796610169492</v>
       </c>
-      <c r="J206">
-        <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $E$3:$E$200), 0)</f>
+      <c r="J306">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
         <v>1.4072164948453609</v>
       </c>
-      <c r="K206">
-        <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $E$3:$E$200), 0)</f>
+      <c r="K306">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
         <v>1.75</v>
       </c>
-      <c r="L206">
-        <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $E$3:$E$200), 0)</f>
+      <c r="L306">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), L$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), L$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="M206">
+      <c r="M306">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G207" t="s">
+    <row r="307" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G307" t="s">
         <v>166</v>
       </c>
-      <c r="I207">
-        <f>IF(COUNTIF($G$3:$G$200, I$2) &gt; 0, AVERAGEIF($G$3:$G$200, I$2, $D$3:$D$200), 0)</f>
+      <c r="I307">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
         <v>41.813559322033896</v>
       </c>
-      <c r="J207">
-        <f>IF(COUNTIF($G$3:$G$200, J$2) &gt; 0, AVERAGEIF($G$3:$G$200, J$2, $D$3:$D$200), 0)</f>
+      <c r="J307">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
         <v>20.226804123711339</v>
       </c>
-      <c r="K207">
-        <f>IF(COUNTIF($G$3:$G$200, K$2) &gt; 0, AVERAGEIF($G$3:$G$200, K$2, $D$3:$D$200), 0)</f>
+      <c r="K307">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
         <v>36.166666666666664</v>
       </c>
-      <c r="L207">
-        <f>IF(COUNTIF($G$3:$G$200, L$2) &gt; 0, AVERAGEIF($G$3:$G$200, L$2, $D$3:$D$200), 0)</f>
+      <c r="L307">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), L$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), L$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
         <v>77.428571428571431</v>
       </c>
-      <c r="M207">
-        <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $D$3:$D$200), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G208" t="s">
+      <c r="M307">
+        <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), M$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), M$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G308" t="s">
         <v>167</v>
       </c>
-      <c r="I208">
-        <f>ROUND(I$205*I$206*I$207, 0)</f>
+      <c r="I308">
+        <f>ROUND(I$305*I$306*I$307, 0)</f>
         <v>3471</v>
       </c>
-      <c r="J208">
-        <f>ROUND(J$205*J$206*J$207, 0)</f>
+      <c r="J308">
+        <f>ROUND(J$305*J$306*J$307, 0)</f>
         <v>2789</v>
       </c>
-      <c r="K208">
-        <f>ROUND(K$205*K$206*K$207, 0)</f>
+      <c r="K308">
+        <f>ROUND(K$305*K$306*K$307, 0)</f>
         <v>760</v>
       </c>
-      <c r="L208">
-        <f>ROUND(L$205*L$206*L$207, 0)</f>
+      <c r="L308">
+        <f>ROUND(L$305*L$306*L$307, 0)</f>
         <v>697</v>
       </c>
-      <c r="M208">
-        <f>ROUND(M$205*M$206*M$207, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G210" t="s">
+      <c r="M308">
+        <f>ROUND(M$305*M$306*M$307, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G310" t="s">
         <v>168</v>
       </c>
-      <c r="I210" t="str">
+      <c r="I310" t="str">
         <f>I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J210" t="str">
-        <f t="shared" ref="J210:M210" si="6">J$2</f>
+      <c r="J310" t="str">
+        <f t="shared" ref="J210:M310" si="8">J$2</f>
         <v>Giesbrt</v>
       </c>
-      <c r="K210" t="str">
-        <f t="shared" si="6"/>
+      <c r="K310" t="str">
+        <f t="shared" si="8"/>
         <v>Fa4953</v>
       </c>
-      <c r="L210" t="str">
-        <f t="shared" si="6"/>
+      <c r="L310" t="str">
+        <f t="shared" si="8"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M210" t="str">
-        <f t="shared" si="6"/>
+      <c r="M310" t="str">
+        <f t="shared" si="8"/>
         <v>MNcode24</v>
       </c>
     </row>
-    <row r="211" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G211" t="str" cm="1">
-        <f t="array" ref="G211:G223">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
+    <row r="311" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G311" t="str" cm="1">
+        <f t="array" ref="G311:G323">_xlfn._xlws.FILTER(_xlfn.UNIQUE(C3:C200), _xlfn.UNIQUE(C3:C200)&lt;&gt;0)</f>
         <v>everything</v>
       </c>
-      <c r="I211">
-        <f t="shared" ref="I211:L222" si="7">COUNTIFS($G$3:$G$200, I$210, $C$3:$C$200, $G211)</f>
+      <c r="I311">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
         <v>12</v>
       </c>
-      <c r="J211">
-        <f t="shared" si="7"/>
+      <c r="J311">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
         <v>23</v>
       </c>
-      <c r="K211">
-        <f t="shared" si="7"/>
+      <c r="K311">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
         <v>8</v>
       </c>
-      <c r="L211">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M211">
-        <f>COUNTIFS(C3:C200, G211, G3:G200, M210)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G212" t="str">
+      <c r="L311">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G312" t="str">
         <v>changes</v>
       </c>
-      <c r="I212">
-        <f t="shared" si="7"/>
+      <c r="I312">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
         <v>22</v>
       </c>
-      <c r="J212">
-        <f t="shared" si="7"/>
+      <c r="J312">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
         <v>32</v>
       </c>
-      <c r="K212">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L212">
-        <f t="shared" si="7"/>
+      <c r="K312">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
         <v>4</v>
       </c>
-      <c r="M212">
-        <f t="shared" ref="M212:M222" si="8">COUNTIFS($G$3:$G$200, M$210, $C$3:$C$200, $G212)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G213" t="str">
+      <c r="M312">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G313" t="str">
         <v>new cls</v>
       </c>
-      <c r="I213">
-        <f t="shared" si="7"/>
+      <c r="I313">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G313)</f>
         <v>1</v>
       </c>
-      <c r="J213">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K213">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L213">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M213">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G214" t="str">
+      <c r="J313">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G313)</f>
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G313)</f>
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G313)</f>
+        <v>0</v>
+      </c>
+      <c r="M313">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G313)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G314" t="str">
         <v>docs</v>
       </c>
-      <c r="I214">
-        <f t="shared" si="7"/>
+      <c r="I314">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G314)</f>
         <v>1</v>
       </c>
-      <c r="J214">
-        <f t="shared" si="7"/>
+      <c r="J314">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G314)</f>
         <v>13</v>
       </c>
-      <c r="K214">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L214">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M214">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G215" t="str">
+      <c r="K314">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G314)</f>
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G314)</f>
+        <v>0</v>
+      </c>
+      <c r="M314">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G314)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G315" t="str">
         <v>change docs</v>
       </c>
-      <c r="I215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J215">
-        <f t="shared" si="7"/>
+      <c r="I315">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G315)</f>
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G315)</f>
         <v>3</v>
       </c>
-      <c r="K215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M215">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G216" t="str">
+      <c r="K315">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G315)</f>
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G315)</f>
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G315)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G316" t="str">
         <v>remove</v>
       </c>
-      <c r="I216">
-        <f t="shared" si="7"/>
+      <c r="I316">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
         <v>1</v>
       </c>
-      <c r="J216">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K216">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L216">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M216">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G217" t="str">
+      <c r="J316">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
+        <v>0</v>
+      </c>
+      <c r="M316">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G317" t="str">
         <v>created</v>
       </c>
-      <c r="I217">
-        <f t="shared" si="7"/>
+      <c r="I317">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G317)</f>
         <v>1</v>
       </c>
-      <c r="J217">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K217">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L217">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M217">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G218" t="str">
+      <c r="J317">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G317)</f>
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G317)</f>
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G317)</f>
+        <v>0</v>
+      </c>
+      <c r="M317">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G317)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G318" t="str">
         <v>smaller updates</v>
       </c>
-      <c r="I218">
-        <f t="shared" si="7"/>
+      <c r="I318">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G318)</f>
         <v>1</v>
       </c>
-      <c r="J218">
-        <f t="shared" si="7"/>
+      <c r="J318">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G318)</f>
         <v>1</v>
       </c>
-      <c r="K218">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L218">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M218">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G219" t="str">
+      <c r="K318">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G318)</f>
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G318)</f>
+        <v>0</v>
+      </c>
+      <c r="M318">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G318)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G319" t="str">
         <v>added</v>
       </c>
-      <c r="I219">
-        <f t="shared" si="7"/>
+      <c r="I319">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
         <v>19</v>
       </c>
-      <c r="J219">
-        <f t="shared" si="7"/>
+      <c r="J319">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
         <v>24</v>
       </c>
-      <c r="K219">
-        <f t="shared" si="7"/>
+      <c r="K319">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
         <v>3</v>
       </c>
-      <c r="L219">
-        <f t="shared" si="7"/>
+      <c r="L319">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
         <v>3</v>
       </c>
-      <c r="M219">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G220" t="str">
+      <c r="M319">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G320" t="str">
         <v>setter</v>
       </c>
-      <c r="I220">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J220">
-        <f t="shared" si="7"/>
+      <c r="I320">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G320)</f>
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G320)</f>
         <v>1</v>
       </c>
-      <c r="K220">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L220">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M220">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G221" t="str">
+      <c r="K320">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G320)</f>
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G320)</f>
+        <v>0</v>
+      </c>
+      <c r="M320">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G320)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G321" t="str">
         <v>moved</v>
       </c>
-      <c r="I221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J221">
-        <f t="shared" si="7"/>
+      <c r="I321">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G321)</f>
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G321)</f>
         <v>1</v>
       </c>
-      <c r="K221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M221">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G222" t="str">
+      <c r="K321">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G321)</f>
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G321)</f>
+        <v>0</v>
+      </c>
+      <c r="M321">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G321)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G322" t="str">
         <v>fixes</v>
       </c>
-      <c r="I222">
-        <f t="shared" si="7"/>
+      <c r="I322">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G322)</f>
         <v>1</v>
       </c>
-      <c r="J222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M222">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G223" t="str">
+      <c r="J322">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G322)</f>
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G322)</f>
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G322)</f>
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G322)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G323" t="str">
         <v>one line</v>
       </c>
     </row>
-    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G225" t="s">
+    <row r="325" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G325" t="s">
         <v>169</v>
       </c>
-      <c r="I225" t="str">
-        <f t="shared" ref="I225:M225" si="9">I$2</f>
+      <c r="I325" t="str">
+        <f t="shared" ref="I225:M325" si="9">I$2</f>
         <v>adalfarus</v>
       </c>
-      <c r="J225" t="str">
+      <c r="J325" t="str">
         <f t="shared" si="9"/>
         <v>Giesbrt</v>
       </c>
-      <c r="K225" t="str">
+      <c r="K325" t="str">
         <f t="shared" si="9"/>
         <v>Fa4953</v>
       </c>
-      <c r="L225" t="str">
+      <c r="L325" t="str">
         <f t="shared" si="9"/>
         <v>TheCodeJak</v>
       </c>
-      <c r="M225" t="str">
+      <c r="M325" t="str">
         <f t="shared" si="9"/>
         <v>MNcode24</v>
       </c>
     </row>
-    <row r="226" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G226" t="str" cm="1">
-        <f t="array" ref="G226:G232">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
+    <row r="326" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G326" t="str" cm="1">
+        <f t="array" ref="G326:G332">_xlfn._xlws.FILTER(_xlfn.UNIQUE(F3:F200), _xlfn.UNIQUE(F3:F200)&lt;&gt;0)</f>
         <v>none</v>
       </c>
-      <c r="I226">
-        <f t="shared" ref="I226:M232" si="10">COUNTIFS($G$3:$G$200, I$225, $F$3:$F$200, $G226)</f>
+      <c r="I326">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
         <v>47</v>
       </c>
-      <c r="J226">
+      <c r="J326">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
+        <v>58</v>
+      </c>
+      <c r="K326">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
+        <v>2</v>
+      </c>
+      <c r="L326">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
+        <v>7</v>
+      </c>
+      <c r="M326">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G327" t="str">
+        <v>comments 5%</v>
+      </c>
+      <c r="I327">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G327)</f>
+        <v>2</v>
+      </c>
+      <c r="J327">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G327)</f>
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G327)</f>
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G327)</f>
+        <v>0</v>
+      </c>
+      <c r="M327">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G327)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G328" t="str">
+        <v>inline 100%</v>
+      </c>
+      <c r="I328">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
+        <v>5</v>
+      </c>
+      <c r="J328">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
+        <v>38</v>
+      </c>
+      <c r="K328">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
+        <v>10</v>
+      </c>
+      <c r="L328">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
+        <v>0</v>
+      </c>
+      <c r="M328">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G329" t="str">
+        <v>inline 5%</v>
+      </c>
+      <c r="I329">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
+        <v>3</v>
+      </c>
+      <c r="J329">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
+        <v>0</v>
+      </c>
+      <c r="K329">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
+        <v>0</v>
+      </c>
+      <c r="M329">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G330" t="str">
+        <v>comments 100%</v>
+      </c>
+      <c r="I330">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G330)</f>
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G330)</f>
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G330)</f>
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G330)</f>
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G330)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G331" t="str">
+        <v>inline 50%</v>
+      </c>
+      <c r="I331">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G331)</f>
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G331)</f>
+        <v>2</v>
+      </c>
+      <c r="K331">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G331)</f>
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G331)</f>
+        <v>0</v>
+      </c>
+      <c r="M331">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G331)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G332" t="str">
+        <v>in md 100%</v>
+      </c>
+      <c r="I332">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G332)</f>
+        <v>1</v>
+      </c>
+      <c r="J332">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G332)</f>
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G332)</f>
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G332)</f>
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G332)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="I335" t="str">
+        <f t="shared" ref="I238:M335" si="10">I$2</f>
+        <v>adalfarus</v>
+      </c>
+      <c r="J335" t="str">
         <f t="shared" si="10"/>
-        <v>58</v>
-      </c>
-      <c r="K226">
+        <v>Giesbrt</v>
+      </c>
+      <c r="K335" t="str">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="L226">
+        <v>Fa4953</v>
+      </c>
+      <c r="L335" t="str">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="M226">
+        <v>TheCodeJak</v>
+      </c>
+      <c r="M335" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G227" t="str">
-        <v>comments 5%</v>
-      </c>
-      <c r="I227">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="J227">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K227">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L227">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M227">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G228" t="str">
-        <v>inline 100%</v>
-      </c>
-      <c r="I228">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J228">
-        <f t="shared" si="10"/>
-        <v>38</v>
-      </c>
-      <c r="K228">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="L228">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M228">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G229" t="str">
-        <v>inline 5%</v>
-      </c>
-      <c r="I229">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="J229">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K229">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L229">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M229">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G230" t="str">
-        <v>comments 100%</v>
-      </c>
-      <c r="I230">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J230">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K230">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L230">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M230">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G231" t="str">
-        <v>inline 50%</v>
-      </c>
-      <c r="I231">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J231">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K231">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L231">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M231">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G232" t="str">
-        <v>in md 100%</v>
-      </c>
-      <c r="I232">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J232">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K232">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L232">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M232">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="I238" t="str">
-        <f t="shared" ref="I238:M238" si="11">I$2</f>
-        <v>adalfarus</v>
-      </c>
-      <c r="J238" t="str">
-        <f t="shared" si="11"/>
-        <v>Giesbrt</v>
-      </c>
-      <c r="K238" t="str">
-        <f t="shared" si="11"/>
-        <v>Fa4953</v>
-      </c>
-      <c r="L238" t="str">
-        <f t="shared" si="11"/>
-        <v>TheCodeJak</v>
-      </c>
-      <c r="M238" t="str">
-        <f t="shared" si="11"/>
         <v>MNcode24</v>
       </c>
     </row>
-    <row r="239" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G239" t="s">
+    <row r="336" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G336" t="s">
         <v>233</v>
       </c>
-      <c r="H239">
-        <f>SUM(I201:M201)</f>
+      <c r="H336">
+        <f>SUM(I301:M301)</f>
         <v>8754</v>
       </c>
-      <c r="I239" s="16">
-        <f>I201/$H239</f>
+      <c r="I336" s="16">
+        <f>I301/$H336</f>
         <v>0.43791409641306833</v>
       </c>
-      <c r="J239" s="16">
-        <f t="shared" ref="J239:M239" si="12">J201/$H239</f>
+      <c r="J336" s="16">
+        <f>J301/$H336</f>
         <v>0.36720356408498972</v>
       </c>
-      <c r="K239" s="16">
-        <f t="shared" si="12"/>
+      <c r="K336" s="16">
+        <f>K301/$H336</f>
         <v>0.10018277358921636</v>
       </c>
-      <c r="L239" s="16">
-        <f t="shared" si="12"/>
+      <c r="L336" s="16">
+        <f>L301/$H336</f>
         <v>9.4699565912725617E-2</v>
       </c>
-      <c r="M239" s="16">
-        <f t="shared" si="12"/>
+      <c r="M336" s="16">
+        <f>M301/$H336</f>
         <v>0</v>
       </c>
     </row>
@@ -19815,7 +22160,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DBEA1F-E501-47A8-8459-9A7987740F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437D571-6175-41DA-9EE9-F6D307140BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="267">
   <si>
     <t>Datei</t>
   </si>
@@ -853,6 +853,45 @@
   </si>
   <si>
     <t>Rows:</t>
+  </si>
+  <si>
+    <t>Added font and wi...</t>
+  </si>
+  <si>
+    <t>small improvements ...</t>
+  </si>
+  <si>
+    <t>Because of the complex math</t>
+  </si>
+  <si>
+    <t>added errorC...</t>
+  </si>
+  <si>
+    <t>src\dc\errorCache.py</t>
+  </si>
+  <si>
+    <t>Added ErrorCache...</t>
+  </si>
+  <si>
+    <t>moved error di...</t>
+  </si>
+  <si>
+    <t>removed handle_fai...</t>
+  </si>
+  <si>
+    <t>Implemented _push...</t>
+  </si>
+  <si>
+    <t>Enhancements to ...</t>
+  </si>
+  <si>
+    <t>src\dc\_main.py</t>
+  </si>
+  <si>
+    <t>complex math + gui</t>
+  </si>
+  <si>
+    <t>changed according to...</t>
   </si>
 </sst>
 </file>
@@ -1087,13 +1126,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1589,16 +1628,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3833.5</c:v>
+                  <c:v>3905.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3214.5</c:v>
+                  <c:v>3612.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>829</c:v>
+                  <c:v>1517</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1851,7 +1890,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1946,10 +1985,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1970,7 +2009,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -2187,7 +2226,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2208,7 +2247,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2765,7 +2804,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -2854,13 +2893,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3032,16 +3071,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3497,16 +3536,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3574,16 +3613,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.4067796610169492</c:v>
+                  <c:v>1.459016393442623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4072164948453609</c:v>
+                  <c:v>1.4065420560747663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2857142857142858</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3651,16 +3690,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>41.813559322033896</c:v>
+                  <c:v>40.83606557377049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.226804123711339</c:v>
+                  <c:v>20.252336448598133</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>36.166666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.428571428571431</c:v>
+                  <c:v>56.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4342,16 +4381,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3471</c:v>
+                  <c:v>3634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2789</c:v>
+                  <c:v>3076</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>697</c:v>
+                  <c:v>1362</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4709,16 +4748,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>255</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5118,16 +5157,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1161.5</c:v>
+                  <c:v>1193.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>152</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>829</c:v>
+                  <c:v>1123</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5510,16 +5549,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.43791409641306833</c:v>
+                  <c:v>0.3940173527037934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36720356408498972</c:v>
+                  <c:v>0.36445722356739307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10018277358921636</c:v>
+                  <c:v>8.8478611783696523E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4699565912725617E-2</c:v>
+                  <c:v>0.15304681194511702</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10073,16 +10112,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>5604</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711575</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>364192</xdr:colOff>
+      <xdr:colOff>352987</xdr:colOff>
       <xdr:row>314</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10685,8 +10724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H339" sqref="H339"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10705,12 +10744,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" t="s">
         <v>253</v>
       </c>
@@ -10790,7 +10829,7 @@
       </c>
       <c r="H3" s="15"/>
       <c r="I3">
-        <f t="shared" ref="I3:L66" si="0">MAX(0, IF($G3=I$2, $D3*$E3, 0))</f>
+        <f t="shared" ref="I3:M22" si="0">MAX(0, IF($G3=I$2, $D3*$E3, 0))</f>
         <v>4</v>
       </c>
       <c r="J3">
@@ -10806,6 +10845,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="8">
+        <f>MAX(0, IF($G3=M$2, $D3*$E3, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -10849,6 +10889,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10892,6 +10933,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10935,6 +10977,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -10978,6 +11021,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11021,6 +11065,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11066,6 +11111,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11111,6 +11157,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11154,6 +11201,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11197,6 +11245,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11240,6 +11289,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11283,6 +11333,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11328,6 +11379,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11373,6 +11425,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11418,6 +11471,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11461,6 +11515,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11504,6 +11559,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11547,6 +11603,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11590,6 +11647,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11633,6 +11691,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="8">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11660,22 +11719,23 @@
       </c>
       <c r="H23" s="8"/>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I23:M42" si="1">MAX(0, IF($G23=I$2, $D23*$E23, 0))</f>
         <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M23" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11703,22 +11763,23 @@
       </c>
       <c r="H24" s="8"/>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11746,22 +11807,23 @@
       </c>
       <c r="H25" s="8"/>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M25" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11789,22 +11851,23 @@
       </c>
       <c r="H26" s="8"/>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M26" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11832,22 +11895,23 @@
       </c>
       <c r="H27" s="8"/>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11877,22 +11941,23 @@
         <v>52</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M28" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11920,22 +11985,23 @@
       </c>
       <c r="H29" s="8"/>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M29" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11963,22 +12029,23 @@
       </c>
       <c r="H30" s="8"/>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M30" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12008,22 +12075,23 @@
         <v>124</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M31" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12053,22 +12121,23 @@
         <v>123</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M32" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12096,22 +12165,23 @@
       </c>
       <c r="H33" s="8"/>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M33" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12139,22 +12209,23 @@
       </c>
       <c r="H34" s="8"/>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M34" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12184,22 +12255,23 @@
         <v>67</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="J35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M35" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12227,22 +12299,23 @@
       </c>
       <c r="H36" s="8"/>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M36" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12270,22 +12343,23 @@
       </c>
       <c r="H37" s="8"/>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M37" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12315,22 +12389,23 @@
         <v>72</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="J38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M38" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12358,22 +12433,23 @@
       </c>
       <c r="H39" s="8"/>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="J39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M39" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12403,22 +12479,23 @@
         <v>74</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="J40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M40" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12448,22 +12525,23 @@
         <v>76</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M41" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12491,22 +12569,23 @@
       </c>
       <c r="H42" s="8"/>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M42" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12536,22 +12615,23 @@
         <v>76</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I43:M62" si="2">MAX(0, IF($G43=I$2, $D43*$E43, 0))</f>
         <v>0</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M43" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12581,22 +12661,23 @@
         <v>85</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M44" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12626,22 +12707,23 @@
         <v>75</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>302</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M45" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12669,22 +12751,23 @@
       </c>
       <c r="H46" s="8"/>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="L46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M46" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12712,22 +12795,23 @@
       </c>
       <c r="H47" s="8"/>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="L47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M47" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12755,22 +12839,23 @@
       </c>
       <c r="H48" s="8"/>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="L48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M48" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12798,22 +12883,23 @@
       </c>
       <c r="H49" s="8"/>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M49" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12828,22 +12914,23 @@
         <v>176</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M50" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12871,22 +12958,23 @@
       </c>
       <c r="H51" s="8"/>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M51" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12914,22 +13002,23 @@
       </c>
       <c r="H52" s="8"/>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M52" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12953,22 +13042,23 @@
         <v>112</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M53" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -12998,22 +13088,23 @@
         <v>114</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M54" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13043,22 +13134,23 @@
         <v>117</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M55" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13088,22 +13180,23 @@
         <v>175</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="J56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M56" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13133,22 +13226,23 @@
         <v>120</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M57" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13178,22 +13272,23 @@
         <v>122</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M58" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13223,22 +13318,23 @@
         <v>146</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>394</v>
       </c>
       <c r="M59" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13266,22 +13362,23 @@
       </c>
       <c r="H60" s="8"/>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M60" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13309,22 +13406,23 @@
       </c>
       <c r="H61" s="8"/>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M61" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13354,22 +13452,23 @@
         <v>170</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M62" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -13397,22 +13496,23 @@
       </c>
       <c r="H63" s="8"/>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I63:M82" si="3">MAX(0, IF($G63=I$2, $D63*$E63, 0))</f>
         <v>0</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M63" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13440,22 +13540,23 @@
       </c>
       <c r="H64" s="8"/>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M64" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13483,22 +13584,23 @@
       </c>
       <c r="H65" s="8"/>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M65" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13527,22 +13629,23 @@
       </c>
       <c r="H66" s="8"/>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="I66:L129" si="1">MAX(0, IF($G66=L$2, $D66*$E66, 0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M66" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13573,22 +13676,23 @@
         <v>171</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>410</v>
       </c>
       <c r="J67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M67" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13617,22 +13721,23 @@
       </c>
       <c r="H68" s="8"/>
       <c r="I68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="J68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M68" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13660,22 +13765,23 @@
       </c>
       <c r="H69" s="8"/>
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="J69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M69" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13703,22 +13809,23 @@
       </c>
       <c r="H70" s="8"/>
       <c r="I70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="J70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M70" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13748,22 +13855,23 @@
         <v>141</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="J71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M71" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13791,22 +13899,23 @@
       </c>
       <c r="H72" s="8"/>
       <c r="I72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M72" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13834,22 +13943,23 @@
       </c>
       <c r="H73" s="8"/>
       <c r="I73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M73" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13877,22 +13987,23 @@
       </c>
       <c r="H74" s="8"/>
       <c r="I74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M74" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13923,22 +14034,23 @@
         <v>146</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="M75" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -13966,22 +14078,23 @@
       </c>
       <c r="H76" s="8"/>
       <c r="I76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M76" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14009,22 +14122,23 @@
       </c>
       <c r="H77" s="8"/>
       <c r="I77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="J77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M77" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14052,22 +14166,23 @@
       </c>
       <c r="H78" s="8"/>
       <c r="I78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="J78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M78" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14095,22 +14210,23 @@
       </c>
       <c r="H79" s="8"/>
       <c r="I79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="J79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M79" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14138,22 +14254,23 @@
       </c>
       <c r="H80" s="8"/>
       <c r="I80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M80" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14184,22 +14301,23 @@
         <v>154</v>
       </c>
       <c r="I81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
       <c r="J81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M81" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14227,22 +14345,23 @@
       </c>
       <c r="H82" s="8"/>
       <c r="I82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="J82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M82" s="8">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -14270,22 +14389,23 @@
       </c>
       <c r="H83" s="8"/>
       <c r="I83">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I83:M102" si="4">MAX(0, IF($G83=I$2, $D83*$E83, 0))</f>
         <v>236</v>
       </c>
       <c r="J83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M83" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14313,22 +14433,23 @@
       </c>
       <c r="H84" s="8"/>
       <c r="I84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M84" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14356,22 +14477,23 @@
       </c>
       <c r="H85" s="8"/>
       <c r="I85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="K85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M85" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14399,22 +14521,23 @@
       </c>
       <c r="H86" s="8"/>
       <c r="I86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="J86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M86" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14444,22 +14567,23 @@
         <v>163</v>
       </c>
       <c r="I87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M87" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14487,22 +14611,23 @@
       </c>
       <c r="H88" s="8"/>
       <c r="I88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="K88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M88" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14532,22 +14657,23 @@
         <v>183</v>
       </c>
       <c r="I89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="K89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M89" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14577,22 +14703,23 @@
         <v>184</v>
       </c>
       <c r="I90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="K90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M90" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14620,22 +14747,23 @@
       </c>
       <c r="H91" s="8"/>
       <c r="I91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M91" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14663,22 +14791,23 @@
       </c>
       <c r="H92" s="8"/>
       <c r="I92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M92" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14706,22 +14835,23 @@
       </c>
       <c r="H93" s="8"/>
       <c r="I93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="K93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M93" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14750,22 +14880,23 @@
       </c>
       <c r="H94" s="8"/>
       <c r="I94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="J94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M94" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14795,22 +14926,23 @@
         <v>185</v>
       </c>
       <c r="I95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="K95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M95" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14840,22 +14972,23 @@
         <v>188</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M96" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14883,22 +15016,23 @@
       </c>
       <c r="H97" s="8"/>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="K97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M97" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14926,22 +15060,23 @@
       </c>
       <c r="H98" s="8"/>
       <c r="I98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="K98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M98" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14969,22 +15104,23 @@
       </c>
       <c r="H99" s="8"/>
       <c r="I99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="K99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15012,22 +15148,23 @@
       </c>
       <c r="H100" s="8"/>
       <c r="I100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M100" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15055,22 +15192,23 @@
       </c>
       <c r="H101" s="8"/>
       <c r="I101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="K101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M101" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15098,22 +15236,23 @@
       </c>
       <c r="H102" s="8"/>
       <c r="I102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>576</v>
       </c>
       <c r="K102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M102" s="8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15142,22 +15281,23 @@
       </c>
       <c r="H103" s="8"/>
       <c r="I103">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I103:M122" si="5">MAX(0, IF($G103=I$2, $D103*$E103, 0))</f>
         <v>0</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="K103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M103" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15186,22 +15326,23 @@
       </c>
       <c r="H104" s="8"/>
       <c r="I104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M104" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15229,22 +15370,23 @@
       </c>
       <c r="H105" s="8"/>
       <c r="I105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="K105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M105" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15272,22 +15414,23 @@
       </c>
       <c r="H106" s="8"/>
       <c r="I106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="J106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M106" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15316,22 +15459,23 @@
       </c>
       <c r="H107" s="8"/>
       <c r="I107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="K107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M107" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15359,22 +15503,23 @@
       </c>
       <c r="H108" s="8"/>
       <c r="I108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="K108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M108" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15402,22 +15547,23 @@
       </c>
       <c r="H109" s="8"/>
       <c r="I109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="J109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M109" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15445,22 +15591,23 @@
       </c>
       <c r="H110" s="8"/>
       <c r="I110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="K110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M110" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15489,22 +15636,23 @@
       </c>
       <c r="H111" s="8"/>
       <c r="I111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="K111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M111" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15532,22 +15680,23 @@
       </c>
       <c r="H112" s="8"/>
       <c r="I112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="J112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M112" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15575,22 +15724,23 @@
       </c>
       <c r="H113" s="8"/>
       <c r="I113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>407.5</v>
       </c>
       <c r="J113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M113" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15618,22 +15768,23 @@
       </c>
       <c r="H114" s="8"/>
       <c r="I114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M114" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15661,22 +15812,23 @@
       </c>
       <c r="H115" s="8"/>
       <c r="I115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="K115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M115" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15704,22 +15856,23 @@
       </c>
       <c r="H116" s="8"/>
       <c r="I116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="J116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M116" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15747,22 +15900,23 @@
       </c>
       <c r="H117" s="8"/>
       <c r="I117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="K117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M117" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15790,22 +15944,23 @@
       </c>
       <c r="H118" s="8"/>
       <c r="I118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="K118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M118" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15834,22 +15989,23 @@
       </c>
       <c r="H119" s="8"/>
       <c r="I119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="K119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M119" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15879,22 +16035,23 @@
         <v>210</v>
       </c>
       <c r="I120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M120" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15922,22 +16079,23 @@
       </c>
       <c r="H121" s="8"/>
       <c r="I121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15965,22 +16123,23 @@
       </c>
       <c r="H122" s="8"/>
       <c r="I122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -16008,22 +16167,23 @@
       </c>
       <c r="H123" s="8"/>
       <c r="I123">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I123:M142" si="6">MAX(0, IF($G123=I$2, $D123*$E123, 0))</f>
         <v>0</v>
       </c>
       <c r="J123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="K123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M123" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16051,22 +16211,23 @@
       </c>
       <c r="H124" s="8"/>
       <c r="I124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M124" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16094,22 +16255,23 @@
       </c>
       <c r="H125" s="8"/>
       <c r="I125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="L125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M125" s="8">
+        <f>MAX(0, IF($G125=M$2, $D125*$E125, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16137,22 +16299,23 @@
       </c>
       <c r="H126" s="8"/>
       <c r="I126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="L126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M126" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16180,22 +16343,23 @@
       </c>
       <c r="H127" s="8"/>
       <c r="I127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="L127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M127" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16223,22 +16387,23 @@
       </c>
       <c r="H128" s="8"/>
       <c r="I128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="L128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M128" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16266,22 +16431,23 @@
       </c>
       <c r="H129" s="8"/>
       <c r="I129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="L129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M129" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16309,22 +16475,23 @@
       </c>
       <c r="H130" s="8"/>
       <c r="I130">
-        <f t="shared" ref="I130:L193" si="2">MAX(0, IF($G130=I$2, $D130*$E130, 0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="L130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M130" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16352,22 +16519,23 @@
       </c>
       <c r="H131" s="8"/>
       <c r="I131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="L131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M131" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16395,22 +16563,23 @@
       </c>
       <c r="H132" s="8"/>
       <c r="I132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>76</v>
       </c>
       <c r="L132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M132" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16438,22 +16607,23 @@
       </c>
       <c r="H133" s="8"/>
       <c r="I133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M133" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16481,22 +16651,23 @@
       </c>
       <c r="H134" s="8"/>
       <c r="I134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M134" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16525,22 +16696,23 @@
       </c>
       <c r="H135" s="8"/>
       <c r="I135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M135" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16570,22 +16742,23 @@
         <v>224</v>
       </c>
       <c r="I136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="K136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M136" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16614,22 +16787,23 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="J137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M137" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16657,22 +16831,23 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M138" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16701,22 +16876,23 @@
       </c>
       <c r="H139" s="8"/>
       <c r="I139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="K139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M139" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16744,22 +16920,23 @@
       </c>
       <c r="H140" s="8"/>
       <c r="I140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M140" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16787,22 +16964,23 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="K141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M141" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16831,22 +17009,23 @@
       </c>
       <c r="H142" s="8"/>
       <c r="I142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="K142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M142" s="8">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -16874,22 +17053,23 @@
       </c>
       <c r="H143" s="8"/>
       <c r="I143">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I143:M162" si="7">MAX(0, IF($G143=I$2, $D143*$E143, 0))</f>
         <v>260</v>
       </c>
       <c r="J143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M143" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16917,22 +17097,23 @@
       </c>
       <c r="H144" s="8"/>
       <c r="I144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M144" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -16960,22 +17141,23 @@
       </c>
       <c r="H145" s="8"/>
       <c r="I145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="K145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M145" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17003,22 +17185,23 @@
       </c>
       <c r="H146" s="8"/>
       <c r="I146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="K146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M146" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17047,22 +17230,23 @@
       </c>
       <c r="H147" s="8"/>
       <c r="I147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="J147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M147" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17090,22 +17274,23 @@
       </c>
       <c r="H148" s="8"/>
       <c r="I148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M148" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17133,22 +17318,23 @@
       </c>
       <c r="H149" s="8"/>
       <c r="I149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="K149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M149" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17176,22 +17362,23 @@
       </c>
       <c r="H150" s="8"/>
       <c r="I150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="J150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M150" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17219,22 +17406,23 @@
       </c>
       <c r="H151" s="8"/>
       <c r="I151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="J151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M151" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17262,22 +17450,23 @@
       </c>
       <c r="H152" s="8"/>
       <c r="I152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="K152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M152" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17305,22 +17494,23 @@
       </c>
       <c r="H153" s="8"/>
       <c r="I153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="J153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M153" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17348,22 +17538,23 @@
       </c>
       <c r="H154" s="8"/>
       <c r="I154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="J154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M154" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17391,22 +17582,23 @@
       </c>
       <c r="H155" s="8"/>
       <c r="I155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="K155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M155" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17436,22 +17628,23 @@
         <v>237</v>
       </c>
       <c r="I156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M156" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17479,22 +17672,23 @@
       </c>
       <c r="H157" s="8"/>
       <c r="I157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M157" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17525,22 +17719,23 @@
         <v>239</v>
       </c>
       <c r="I158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="K158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M158" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17568,22 +17763,23 @@
       </c>
       <c r="H159" s="8"/>
       <c r="I159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M159" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17611,22 +17807,23 @@
       </c>
       <c r="H160" s="8"/>
       <c r="I160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M160" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17654,22 +17851,23 @@
       </c>
       <c r="H161" s="8"/>
       <c r="I161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M161" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17697,22 +17895,23 @@
       </c>
       <c r="H162" s="8"/>
       <c r="I162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M162" s="8">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -17740,22 +17939,23 @@
       </c>
       <c r="H163" s="8"/>
       <c r="I163">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I163:M182" si="8">MAX(0, IF($G163=I$2, $D163*$E163, 0))</f>
         <v>0</v>
       </c>
       <c r="J163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M163" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17786,22 +17986,23 @@
         <v>245</v>
       </c>
       <c r="I164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="K164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M164" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17829,22 +18030,23 @@
       </c>
       <c r="H165" s="8"/>
       <c r="I165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="K165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M165" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17872,22 +18074,23 @@
       </c>
       <c r="H166" s="8"/>
       <c r="I166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M166" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17915,22 +18118,23 @@
       </c>
       <c r="H167" s="8"/>
       <c r="I167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M167" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17958,22 +18162,23 @@
       </c>
       <c r="H168" s="8"/>
       <c r="I168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M168" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18001,22 +18206,23 @@
       </c>
       <c r="H169" s="8"/>
       <c r="I169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M169" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18046,22 +18252,23 @@
         <v>249</v>
       </c>
       <c r="I170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="M170" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18091,22 +18298,23 @@
         <v>249</v>
       </c>
       <c r="I171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M171" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18136,22 +18344,23 @@
         <v>249</v>
       </c>
       <c r="I172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
       <c r="M172" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18181,22 +18390,23 @@
         <v>249</v>
       </c>
       <c r="I173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>109</v>
       </c>
       <c r="M173" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18226,22 +18436,23 @@
         <v>249</v>
       </c>
       <c r="I174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="M174" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18269,22 +18480,23 @@
       </c>
       <c r="H175" s="8"/>
       <c r="I175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="J175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M175" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18312,22 +18524,23 @@
       </c>
       <c r="H176" s="8"/>
       <c r="I176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="K176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M176" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18355,22 +18568,23 @@
       </c>
       <c r="H177" s="8"/>
       <c r="I177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="K177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M177" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18398,22 +18612,23 @@
       </c>
       <c r="H178" s="8"/>
       <c r="I178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M178" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -18441,689 +18656,1127 @@
       </c>
       <c r="H179" s="8"/>
       <c r="I179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M179" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B180" s="7"/>
+      <c r="A180" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C180" t="s">
+        <v>149</v>
+      </c>
+      <c r="D180">
+        <f>11+11</f>
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>3</v>
+      </c>
+      <c r="F180" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
       <c r="H180" s="8"/>
       <c r="I180">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>66</v>
       </c>
       <c r="J180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M180" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B181" s="7"/>
+      <c r="A181" t="s">
+        <v>128</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C181" t="s">
+        <v>27</v>
+      </c>
+      <c r="D181">
+        <f>12+9</f>
+        <v>21</v>
+      </c>
+      <c r="E181">
+        <v>1.5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>34</v>
+      </c>
       <c r="H181" s="8"/>
       <c r="I181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J181">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>31.5</v>
       </c>
       <c r="K181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M181" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B182" s="7"/>
+      <c r="A182" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" t="s">
+        <v>149</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" t="s">
+        <v>127</v>
+      </c>
       <c r="H182" s="8"/>
       <c r="I182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L182">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="M182" s="8">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B183" s="7"/>
-      <c r="H183" s="8"/>
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C183" t="s">
+        <v>149</v>
+      </c>
+      <c r="D183">
+        <v>74</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+      <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" t="s">
+        <v>127</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>256</v>
+      </c>
       <c r="I183">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I183:M202" si="9">MAX(0, IF($G183=I$2, $D183*$E183, 0))</f>
         <v>0</v>
       </c>
       <c r="J183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L183">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>222</v>
       </c>
       <c r="M183" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B184" s="7"/>
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C184" t="s">
+        <v>149</v>
+      </c>
+      <c r="D184">
+        <v>42</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>127</v>
+      </c>
       <c r="H184" s="8"/>
       <c r="I184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L184">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>84</v>
       </c>
       <c r="M184" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B185" s="7"/>
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C185" t="s">
+        <v>27</v>
+      </c>
+      <c r="D185">
+        <v>13</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" t="s">
+        <v>127</v>
+      </c>
       <c r="H185" s="8"/>
       <c r="I185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L185">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>26</v>
       </c>
       <c r="M185" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B186" s="7"/>
+      <c r="A186" t="s">
+        <v>128</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" t="s">
+        <v>149</v>
+      </c>
+      <c r="D186">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
       <c r="H186" s="8"/>
       <c r="I186">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="J186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M186" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B187" s="7"/>
+      <c r="A187" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187">
+        <v>91</v>
+      </c>
+      <c r="E187">
+        <v>2.5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>34</v>
+      </c>
       <c r="H187" s="8"/>
       <c r="I187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J187">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>227.5</v>
       </c>
       <c r="K187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M187" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B188" s="7"/>
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>149</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" t="s">
+        <v>34</v>
+      </c>
       <c r="H188" s="8"/>
       <c r="I188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J188">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="K188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M188" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B189" s="7"/>
+      <c r="A189" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D189">
+        <v>28</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" t="s">
+        <v>34</v>
+      </c>
       <c r="H189" s="8"/>
       <c r="I189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J189">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>56</v>
       </c>
       <c r="K189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M189" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B190" s="7"/>
+      <c r="A190" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" t="s">
+        <v>149</v>
+      </c>
+      <c r="D190">
+        <v>18</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" t="s">
+        <v>34</v>
+      </c>
       <c r="H190" s="8"/>
       <c r="I190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J190">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>36</v>
       </c>
       <c r="K190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M190" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B191" s="7"/>
+      <c r="A191" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C191" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" t="s">
+        <v>34</v>
+      </c>
       <c r="H191" s="8"/>
       <c r="I191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J191">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="K191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M191" s="8">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B192" s="7"/>
+      <c r="A192" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C192" t="s">
+        <v>149</v>
+      </c>
+      <c r="D192">
+        <v>21</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" t="s">
+        <v>34</v>
+      </c>
       <c r="H192" s="8"/>
       <c r="I192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J192">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
       <c r="K192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M192" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B193" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C193" t="s">
+        <v>149</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193" t="s">
+        <v>34</v>
+      </c>
       <c r="H193" s="8"/>
       <c r="I193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J193">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="K193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L193">
-        <f t="shared" ref="I193:L208" si="3">MAX(0, IF($G193=L$2, $D193*$E193, 0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M193" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B194" s="7"/>
-      <c r="H194" s="8"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C194" t="s">
+        <v>27</v>
+      </c>
+      <c r="D194">
+        <v>106</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>19</v>
+      </c>
+      <c r="G194" t="s">
+        <v>127</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>265</v>
+      </c>
       <c r="I194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L194">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>MAX(0, IF($G194=L$2, $D194*$E194, 0))</f>
+        <v>212</v>
       </c>
       <c r="M194" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B195" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C195" t="s">
+        <v>149</v>
+      </c>
+      <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>19</v>
+      </c>
+      <c r="G195" t="s">
+        <v>127</v>
+      </c>
       <c r="H195" s="8"/>
       <c r="I195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L195">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>48</v>
       </c>
       <c r="M195" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B196" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C196" t="s">
+        <v>149</v>
+      </c>
+      <c r="D196">
+        <v>46</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" t="s">
+        <v>127</v>
+      </c>
       <c r="H196" s="8"/>
       <c r="I196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L196">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>92</v>
       </c>
       <c r="M196" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B197" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s">
+        <v>127</v>
+      </c>
       <c r="H197" s="8"/>
       <c r="I197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L197">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="M197" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B198" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>214</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" t="s">
+        <v>27</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>19</v>
+      </c>
+      <c r="G198" t="s">
+        <v>34</v>
+      </c>
       <c r="H198" s="8"/>
       <c r="I198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J198">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="K198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M198" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B199" s="7"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C199" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199">
+        <f>4+5+3</f>
+        <v>12</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s">
+        <v>34</v>
+      </c>
       <c r="H199" s="8"/>
       <c r="I199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J199">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>12</v>
       </c>
       <c r="K199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M199" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
       <c r="H200" s="8"/>
       <c r="I200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" ref="L200:L263" si="4">MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M200" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
       <c r="H201" s="8"/>
       <c r="I201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L201">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M201" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
       <c r="H202" s="8"/>
       <c r="I202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L202">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M202" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
       <c r="H203" s="8"/>
       <c r="I203">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I203:M222" si="10">MAX(0, IF($G203=I$2, $D203*$E203, 0))</f>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M203" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
       <c r="H204" s="8"/>
       <c r="I204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L204">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M204" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
       <c r="H205" s="8"/>
       <c r="I205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L205">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M205" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
       <c r="H206" s="8"/>
       <c r="I206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L206">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M206" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
       <c r="H207" s="8"/>
       <c r="I207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L207">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M207" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
       <c r="H208" s="8"/>
       <c r="I208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L208">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M208" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19131,22 +19784,23 @@
       <c r="B209" s="7"/>
       <c r="H209" s="8"/>
       <c r="I209">
-        <f t="shared" ref="I209:L272" si="5">MAX(0, IF($G209=I$2, $D209*$E209, 0))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J209">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K209">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M209" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19154,22 +19808,23 @@
       <c r="B210" s="7"/>
       <c r="H210" s="8"/>
       <c r="I210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M210" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19177,22 +19832,23 @@
       <c r="B211" s="7"/>
       <c r="H211" s="8"/>
       <c r="I211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M211" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19200,22 +19856,23 @@
       <c r="B212" s="7"/>
       <c r="H212" s="8"/>
       <c r="I212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M212" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19223,22 +19880,23 @@
       <c r="B213" s="7"/>
       <c r="H213" s="8"/>
       <c r="I213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M213" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19246,22 +19904,23 @@
       <c r="B214" s="7"/>
       <c r="H214" s="8"/>
       <c r="I214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M214" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19269,22 +19928,23 @@
       <c r="B215" s="7"/>
       <c r="H215" s="8"/>
       <c r="I215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M215" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19292,22 +19952,23 @@
       <c r="B216" s="7"/>
       <c r="H216" s="8"/>
       <c r="I216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M216" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19315,22 +19976,23 @@
       <c r="B217" s="7"/>
       <c r="H217" s="8"/>
       <c r="I217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M217" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19338,22 +20000,23 @@
       <c r="B218" s="7"/>
       <c r="H218" s="8"/>
       <c r="I218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M218" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19361,22 +20024,23 @@
       <c r="B219" s="7"/>
       <c r="H219" s="8"/>
       <c r="I219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M219" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19384,22 +20048,23 @@
       <c r="B220" s="7"/>
       <c r="H220" s="8"/>
       <c r="I220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M220" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19407,22 +20072,23 @@
       <c r="B221" s="7"/>
       <c r="H221" s="8"/>
       <c r="I221">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J221">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K221">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M221" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19430,22 +20096,23 @@
       <c r="B222" s="7"/>
       <c r="H222" s="8"/>
       <c r="I222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K222">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M222" s="8">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -19453,22 +20120,23 @@
       <c r="B223" s="7"/>
       <c r="H223" s="8"/>
       <c r="I223">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I223:M242" si="11">MAX(0, IF($G223=I$2, $D223*$E223, 0))</f>
         <v>0</v>
       </c>
       <c r="J223">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K223">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M223" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19476,22 +20144,23 @@
       <c r="B224" s="7"/>
       <c r="H224" s="8"/>
       <c r="I224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K224">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M224" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19499,22 +20168,23 @@
       <c r="B225" s="7"/>
       <c r="H225" s="8"/>
       <c r="I225">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J225">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K225">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M225" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19522,22 +20192,23 @@
       <c r="B226" s="7"/>
       <c r="H226" s="8"/>
       <c r="I226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K226">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M226" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19545,22 +20216,23 @@
       <c r="B227" s="7"/>
       <c r="H227" s="8"/>
       <c r="I227">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J227">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K227">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M227" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19568,22 +20240,23 @@
       <c r="B228" s="7"/>
       <c r="H228" s="8"/>
       <c r="I228">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J228">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K228">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M228" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19591,22 +20264,23 @@
       <c r="B229" s="7"/>
       <c r="H229" s="8"/>
       <c r="I229">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J229">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K229">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M229" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19614,22 +20288,23 @@
       <c r="B230" s="7"/>
       <c r="H230" s="8"/>
       <c r="I230">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J230">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K230">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M230" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19637,22 +20312,23 @@
       <c r="B231" s="7"/>
       <c r="H231" s="8"/>
       <c r="I231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K231">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M231" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19660,22 +20336,23 @@
       <c r="B232" s="7"/>
       <c r="H232" s="8"/>
       <c r="I232">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J232">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K232">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M232" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19683,22 +20360,23 @@
       <c r="B233" s="7"/>
       <c r="H233" s="8"/>
       <c r="I233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M233" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19706,22 +20384,23 @@
       <c r="B234" s="7"/>
       <c r="H234" s="8"/>
       <c r="I234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M234" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19729,22 +20408,23 @@
       <c r="B235" s="7"/>
       <c r="H235" s="8"/>
       <c r="I235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M235" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19752,22 +20432,23 @@
       <c r="B236" s="7"/>
       <c r="H236" s="8"/>
       <c r="I236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M236" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19775,22 +20456,23 @@
       <c r="B237" s="7"/>
       <c r="H237" s="8"/>
       <c r="I237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M237" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19798,22 +20480,23 @@
       <c r="B238" s="7"/>
       <c r="H238" s="8"/>
       <c r="I238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M238" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19821,22 +20504,23 @@
       <c r="B239" s="7"/>
       <c r="H239" s="8"/>
       <c r="I239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M239" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19844,22 +20528,23 @@
       <c r="B240" s="7"/>
       <c r="H240" s="8"/>
       <c r="I240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M240" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19867,22 +20552,23 @@
       <c r="B241" s="7"/>
       <c r="H241" s="8"/>
       <c r="I241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M241" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19890,22 +20576,23 @@
       <c r="B242" s="7"/>
       <c r="H242" s="8"/>
       <c r="I242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M242" s="8">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -19913,22 +20600,23 @@
       <c r="B243" s="7"/>
       <c r="H243" s="8"/>
       <c r="I243">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I243:M262" si="12">MAX(0, IF($G243=I$2, $D243*$E243, 0))</f>
         <v>0</v>
       </c>
       <c r="J243">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K243">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M243" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -19936,22 +20624,23 @@
       <c r="B244" s="7"/>
       <c r="H244" s="8"/>
       <c r="I244">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J244">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K244">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M244" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -19959,22 +20648,23 @@
       <c r="B245" s="7"/>
       <c r="H245" s="8"/>
       <c r="I245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K245">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M245" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -19982,22 +20672,23 @@
       <c r="B246" s="7"/>
       <c r="H246" s="8"/>
       <c r="I246">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J246">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K246">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M246" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20005,22 +20696,23 @@
       <c r="B247" s="7"/>
       <c r="H247" s="8"/>
       <c r="I247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M247" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20028,22 +20720,23 @@
       <c r="B248" s="7"/>
       <c r="H248" s="8"/>
       <c r="I248">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J248">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K248">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M248" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20051,22 +20744,23 @@
       <c r="B249" s="7"/>
       <c r="H249" s="8"/>
       <c r="I249">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J249">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K249">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M249" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20074,22 +20768,23 @@
       <c r="B250" s="7"/>
       <c r="H250" s="8"/>
       <c r="I250">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J250">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K250">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M250" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20097,22 +20792,23 @@
       <c r="B251" s="7"/>
       <c r="H251" s="8"/>
       <c r="I251">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J251">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K251">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M251" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20120,22 +20816,23 @@
       <c r="B252" s="7"/>
       <c r="H252" s="8"/>
       <c r="I252">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J252">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K252">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M252" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20143,22 +20840,23 @@
       <c r="B253" s="7"/>
       <c r="H253" s="8"/>
       <c r="I253">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J253">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K253">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M253" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20166,22 +20864,23 @@
       <c r="B254" s="7"/>
       <c r="H254" s="8"/>
       <c r="I254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K254">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L254">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M254" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20189,22 +20888,23 @@
       <c r="B255" s="7"/>
       <c r="H255" s="8"/>
       <c r="I255">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J255">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K255">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L255">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M255" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20212,22 +20912,23 @@
       <c r="B256" s="7"/>
       <c r="H256" s="8"/>
       <c r="I256">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J256">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K256">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L256">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M256" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20235,22 +20936,23 @@
       <c r="B257" s="7"/>
       <c r="H257" s="8"/>
       <c r="I257">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J257">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K257">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L257">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M257" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20258,22 +20960,23 @@
       <c r="B258" s="7"/>
       <c r="H258" s="8"/>
       <c r="I258">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J258">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K258">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L258">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M258" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20281,22 +20984,23 @@
       <c r="B259" s="7"/>
       <c r="H259" s="8"/>
       <c r="I259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K259">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L259">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M259" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20304,22 +21008,23 @@
       <c r="B260" s="7"/>
       <c r="H260" s="8"/>
       <c r="I260">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J260">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K260">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L260">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M260" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20327,22 +21032,23 @@
       <c r="B261" s="7"/>
       <c r="H261" s="8"/>
       <c r="I261">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J261">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K261">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L261">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M261" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20350,22 +21056,23 @@
       <c r="B262" s="7"/>
       <c r="H262" s="8"/>
       <c r="I262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K262">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L262">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M262" s="8">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -20373,22 +21080,23 @@
       <c r="B263" s="7"/>
       <c r="H263" s="8"/>
       <c r="I263">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="I263:M282" si="13">MAX(0, IF($G263=I$2, $D263*$E263, 0))</f>
         <v>0</v>
       </c>
       <c r="J263">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K263">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L263">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M263" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20396,22 +21104,23 @@
       <c r="B264" s="7"/>
       <c r="H264" s="8"/>
       <c r="I264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L264">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M264" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20419,22 +21128,23 @@
       <c r="B265" s="7"/>
       <c r="H265" s="8"/>
       <c r="I265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L265">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M265" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20442,22 +21152,23 @@
       <c r="B266" s="7"/>
       <c r="H266" s="8"/>
       <c r="I266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L266">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M266" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20465,22 +21176,23 @@
       <c r="B267" s="7"/>
       <c r="H267" s="8"/>
       <c r="I267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L267">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M267" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20488,22 +21200,23 @@
       <c r="B268" s="7"/>
       <c r="H268" s="8"/>
       <c r="I268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L268">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M268" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20511,22 +21224,23 @@
       <c r="B269" s="7"/>
       <c r="H269" s="8"/>
       <c r="I269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L269">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M269" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20534,22 +21248,23 @@
       <c r="B270" s="7"/>
       <c r="H270" s="8"/>
       <c r="I270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L270">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M270" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20557,22 +21272,23 @@
       <c r="B271" s="7"/>
       <c r="H271" s="8"/>
       <c r="I271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L271">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M271" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20580,22 +21296,23 @@
       <c r="B272" s="7"/>
       <c r="H272" s="8"/>
       <c r="I272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L272">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M272" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20603,22 +21320,23 @@
       <c r="B273" s="7"/>
       <c r="H273" s="8"/>
       <c r="I273">
-        <f t="shared" ref="I273:L300" si="6">MAX(0, IF($G273=I$2, $D273*$E273, 0))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L273">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M273" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20626,22 +21344,23 @@
       <c r="B274" s="7"/>
       <c r="H274" s="8"/>
       <c r="I274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L274">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M274" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20649,22 +21368,23 @@
       <c r="B275" s="7"/>
       <c r="H275" s="8"/>
       <c r="I275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L275">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M275" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20672,22 +21392,23 @@
       <c r="B276" s="7"/>
       <c r="H276" s="8"/>
       <c r="I276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L276">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M276" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20695,22 +21416,23 @@
       <c r="B277" s="7"/>
       <c r="H277" s="8"/>
       <c r="I277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L277">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M277" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20718,22 +21440,23 @@
       <c r="B278" s="7"/>
       <c r="H278" s="8"/>
       <c r="I278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L278">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M278" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20741,22 +21464,23 @@
       <c r="B279" s="7"/>
       <c r="H279" s="8"/>
       <c r="I279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L279">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M279" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20764,22 +21488,23 @@
       <c r="B280" s="7"/>
       <c r="H280" s="8"/>
       <c r="I280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L280">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M280" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20787,22 +21512,23 @@
       <c r="B281" s="7"/>
       <c r="H281" s="8"/>
       <c r="I281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L281">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M281" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20810,22 +21536,23 @@
       <c r="B282" s="7"/>
       <c r="H282" s="8"/>
       <c r="I282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L282">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M282" s="8">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -20833,22 +21560,23 @@
       <c r="B283" s="7"/>
       <c r="H283" s="8"/>
       <c r="I283">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="I283:M300" si="14">MAX(0, IF($G283=I$2, $D283*$E283, 0))</f>
         <v>0</v>
       </c>
       <c r="J283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L283">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M283" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20856,22 +21584,23 @@
       <c r="B284" s="7"/>
       <c r="H284" s="8"/>
       <c r="I284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L284">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M284" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20879,22 +21608,23 @@
       <c r="B285" s="7"/>
       <c r="H285" s="8"/>
       <c r="I285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L285">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M285" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20902,22 +21632,23 @@
       <c r="B286" s="7"/>
       <c r="H286" s="8"/>
       <c r="I286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L286">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M286" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20925,22 +21656,23 @@
       <c r="B287" s="7"/>
       <c r="H287" s="8"/>
       <c r="I287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L287">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M287" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20948,22 +21680,23 @@
       <c r="B288" s="7"/>
       <c r="H288" s="8"/>
       <c r="I288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L288">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M288" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20971,22 +21704,23 @@
       <c r="B289" s="7"/>
       <c r="H289" s="8"/>
       <c r="I289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L289">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M289" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -20994,22 +21728,23 @@
       <c r="B290" s="7"/>
       <c r="H290" s="8"/>
       <c r="I290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L290">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M290" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21017,22 +21752,23 @@
       <c r="B291" s="7"/>
       <c r="H291" s="8"/>
       <c r="I291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L291">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M291" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21040,22 +21776,23 @@
       <c r="B292" s="7"/>
       <c r="H292" s="8"/>
       <c r="I292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L292">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M292" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21063,22 +21800,23 @@
       <c r="B293" s="7"/>
       <c r="H293" s="8"/>
       <c r="I293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L293">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M293" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21086,22 +21824,23 @@
       <c r="B294" s="7"/>
       <c r="H294" s="8"/>
       <c r="I294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L294">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M294" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21109,46 +21848,48 @@
       <c r="B295" s="7"/>
       <c r="H295" s="8"/>
       <c r="I295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L295">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M295" s="8">
-        <v>0</v>
-      </c>
-      <c r="N295" s="19"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N295" s="17"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B296" s="7"/>
       <c r="H296" s="8"/>
       <c r="I296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L296">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M296" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21156,22 +21897,23 @@
       <c r="B297" s="7"/>
       <c r="H297" s="8"/>
       <c r="I297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L297">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M297" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21179,22 +21921,23 @@
       <c r="B298" s="7"/>
       <c r="H298" s="8"/>
       <c r="I298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L298">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M298" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21202,22 +21945,23 @@
       <c r="B299" s="7"/>
       <c r="H299" s="8"/>
       <c r="I299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L299">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M299" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21225,22 +21969,23 @@
       <c r="B300" s="7"/>
       <c r="H300" s="8"/>
       <c r="I300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L300">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M300" s="8">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -21271,11 +22016,11 @@
       </c>
       <c r="I301" s="10">
         <f>SUM(I$3:INDEX(I:I,$F$1))</f>
-        <v>3833.5</v>
+        <v>3905.5</v>
       </c>
       <c r="J301" s="10">
         <f>SUM(J$3:INDEX(J:J,$F$1))</f>
-        <v>3214.5</v>
+        <v>3612.5</v>
       </c>
       <c r="K301" s="10">
         <f>SUM(K$3:INDEX(K:K,$F$1))</f>
@@ -21283,7 +22028,7 @@
       </c>
       <c r="L301" s="10">
         <f>SUM(L$3:INDEX(L:L,$F$1))</f>
-        <v>829</v>
+        <v>1517</v>
       </c>
       <c r="M301" s="10">
         <f>SUM(M$3:INDEX(M:M,$F$1))</f>
@@ -21299,11 +22044,11 @@
       </c>
       <c r="I302" cm="1">
         <f t="array" ref="I302">SUM(_xlfn._xlws.FILTER(I$3:INDEX(I:I,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(I$3:INDEX(I:I,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(I$3:INDEX(I:I,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J302" cm="1">
         <f t="array" ref="J302">SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(J$3:INDEX(J:J,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="K302" cm="1">
         <f t="array" ref="K302">SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(K$3:INDEX(K:K,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
@@ -21311,7 +22056,7 @@
       </c>
       <c r="L302" cm="1">
         <f t="array" ref="L302">SUM(_xlfn._xlws.FILTER(L$3:INDEX(L:L,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(L$3:INDEX(L:L,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(L$3:INDEX(L:L,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>255</v>
+        <v>354</v>
       </c>
       <c r="M302" cm="1">
         <f t="array" ref="M302">SUM(_xlfn._xlws.FILTER(M$3:INDEX(M:M,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(M$3:INDEX(M:M,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(M$3:INDEX(M:M,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
@@ -21327,11 +22072,11 @@
       </c>
       <c r="I303" cm="1">
         <f t="array" ref="I303">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:INDEX(I:I,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (I$3:INDEX(I:I,$F$1) &gt; 0) * (ROW(I$3:INDEX(I:I,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (I$3:INDEX(I:I,$F$1) &gt; 0), ROW(I$3:INDEX(I:I,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", I$3:INDEX(I:I,$F$1), "&gt;0")))))), 0)</f>
-        <v>1161.5</v>
+        <v>1193.5</v>
       </c>
       <c r="J303" cm="1">
         <f t="array" ref="J303">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0) * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0), ROW(J$3:INDEX(J:J,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", J$3:INDEX(J:J,$F$1), "&gt;0")))))), 0)</f>
-        <v>152</v>
+        <v>437</v>
       </c>
       <c r="K303" cm="1">
         <f t="array" ref="K303">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0) * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0), ROW(K$3:INDEX(K:K,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", K$3:INDEX(K:K,$F$1), "&gt;0")))))), 0)</f>
@@ -21339,7 +22084,7 @@
       </c>
       <c r="L303" cm="1">
         <f t="array" ref="L303">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:INDEX(L:L,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (L$3:INDEX(L:L,$F$1) &gt; 0) * (ROW(L$3:INDEX(L:L,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (L$3:INDEX(L:L,$F$1) &gt; 0), ROW(L$3:INDEX(L:L,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", L$3:INDEX(L:L,$F$1), "&gt;0")))))), 0)</f>
-        <v>829</v>
+        <v>1123</v>
       </c>
       <c r="M303" cm="1">
         <f t="array" ref="M303">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:INDEX(M:M,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (M$3:INDEX(M:M,$F$1) &gt; 0) * (ROW(M$3:INDEX(M:M,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (M$3:INDEX(M:M,$F$1) &gt; 0), ROW(M$3:INDEX(M:M,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", M$3:INDEX(M:M,$F$1), "&gt;0")))))), 0)</f>
@@ -21352,19 +22097,19 @@
         <v>adalfarus</v>
       </c>
       <c r="J304" t="str">
-        <f t="shared" ref="J204:M304" si="7">J$2</f>
+        <f t="shared" ref="J304:M304" si="15">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K304" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>Fa4953</v>
       </c>
       <c r="L304" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M304" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -21374,11 +22119,11 @@
       </c>
       <c r="I305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), I$2)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), J$2)</f>
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), K$2)</f>
@@ -21386,7 +22131,7 @@
       </c>
       <c r="L305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), L$2)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), M$2)</f>
@@ -21399,11 +22144,11 @@
       </c>
       <c r="I306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.4067796610169492</v>
+        <v>1.459016393442623</v>
       </c>
       <c r="J306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.4072164948453609</v>
+        <v>1.4065420560747663</v>
       </c>
       <c r="K306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
@@ -21411,7 +22156,7 @@
       </c>
       <c r="L306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), L$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), L$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.2857142857142858</v>
+        <v>1.6</v>
       </c>
       <c r="M306">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
@@ -21424,11 +22169,11 @@
       </c>
       <c r="I307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>41.813559322033896</v>
+        <v>40.83606557377049</v>
       </c>
       <c r="J307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>20.226804123711339</v>
+        <v>20.252336448598133</v>
       </c>
       <c r="K307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
@@ -21436,7 +22181,7 @@
       </c>
       <c r="L307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), L$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), L$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>77.428571428571431</v>
+        <v>56.733333333333334</v>
       </c>
       <c r="M307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), M$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), M$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
@@ -21449,11 +22194,11 @@
       </c>
       <c r="I308">
         <f>ROUND(I$305*I$306*I$307, 0)</f>
-        <v>3471</v>
+        <v>3634</v>
       </c>
       <c r="J308">
         <f>ROUND(J$305*J$306*J$307, 0)</f>
-        <v>2789</v>
+        <v>3076</v>
       </c>
       <c r="K308">
         <f>ROUND(K$305*K$306*K$307, 0)</f>
@@ -21461,7 +22206,7 @@
       </c>
       <c r="L308">
         <f>ROUND(L$305*L$306*L$307, 0)</f>
-        <v>697</v>
+        <v>1362</v>
       </c>
       <c r="M308">
         <f>ROUND(M$305*M$306*M$307, 0)</f>
@@ -21477,19 +22222,19 @@
         <v>adalfarus</v>
       </c>
       <c r="J310" t="str">
-        <f t="shared" ref="J210:M310" si="8">J$2</f>
+        <f t="shared" ref="J310:M310" si="16">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>Fa4953</v>
       </c>
       <c r="L310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -21504,7 +22249,7 @@
       </c>
       <c r="J311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
@@ -21529,7 +22274,7 @@
       </c>
       <c r="J312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
@@ -21537,7 +22282,7 @@
       </c>
       <c r="L312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
@@ -21700,11 +22445,11 @@
       </c>
       <c r="I319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
@@ -21712,7 +22457,7 @@
       </c>
       <c r="L319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
@@ -21804,23 +22549,23 @@
         <v>169</v>
       </c>
       <c r="I325" t="str">
-        <f t="shared" ref="I225:M325" si="9">I$2</f>
+        <f t="shared" ref="I325:M325" si="17">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>Giesbrt</v>
       </c>
       <c r="K325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>Fa4953</v>
       </c>
       <c r="L325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -21831,11 +22576,11 @@
       </c>
       <c r="I326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
@@ -21843,7 +22588,7 @@
       </c>
       <c r="L326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
@@ -21885,7 +22630,7 @@
       </c>
       <c r="J328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
@@ -21893,7 +22638,7 @@
       </c>
       <c r="L328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
@@ -21918,7 +22663,7 @@
       </c>
       <c r="L329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
@@ -22002,23 +22747,23 @@
     </row>
     <row r="335" spans="7:13" x14ac:dyDescent="0.25">
       <c r="I335" t="str">
-        <f t="shared" ref="I238:M335" si="10">I$2</f>
+        <f t="shared" ref="I335:M335" si="18">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>Giesbrt</v>
       </c>
       <c r="K335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>Fa4953</v>
       </c>
       <c r="L335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>TheCodeJak</v>
       </c>
       <c r="M335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>MNcode24</v>
       </c>
     </row>
@@ -22028,23 +22773,23 @@
       </c>
       <c r="H336">
         <f>SUM(I301:M301)</f>
-        <v>8754</v>
+        <v>9912</v>
       </c>
       <c r="I336" s="16">
         <f>I301/$H336</f>
-        <v>0.43791409641306833</v>
+        <v>0.3940173527037934</v>
       </c>
       <c r="J336" s="16">
         <f>J301/$H336</f>
-        <v>0.36720356408498972</v>
+        <v>0.36445722356739307</v>
       </c>
       <c r="K336" s="16">
         <f>K301/$H336</f>
-        <v>0.10018277358921636</v>
+        <v>8.8478611783696523E-2</v>
       </c>
       <c r="L336" s="16">
         <f>L301/$H336</f>
-        <v>9.4699565912725617E-2</v>
+        <v>0.15304681194511702</v>
       </c>
       <c r="M336" s="16">
         <f>M301/$H336</f>
@@ -22145,10 +22890,19 @@
     <hyperlink ref="A167" r:id="rId87" location="diff-f6a0595a74bda66d3fe7abd99097fbeeec0b819b4002b5b2e4a16db08dc7449b" xr:uid="{E1A2A77E-BF91-4C62-B904-D24EEAF87F4C}"/>
     <hyperlink ref="A170" r:id="rId88" location="diff-745b76dfac54a92f874117e7c871c43517832e1c7317878f6a2c27dcd02833d8" xr:uid="{B3782D05-7D98-49CA-AD27-BA3CB291B9F4}"/>
     <hyperlink ref="A176" r:id="rId89" xr:uid="{0C1BC751-67B9-45BB-8157-260850449596}"/>
+    <hyperlink ref="A180" r:id="rId90" xr:uid="{71B9F9C8-65E9-41F1-AA0F-DC9976BDEA5F}"/>
+    <hyperlink ref="A182" r:id="rId91" location="diff-0a75b5baeefd7100979852b66c5b991b1ca6899e6aa9113446fe3e4e12227e8a" xr:uid="{10234FEC-89C2-4D3B-BC7A-5B38839B22B6}"/>
+    <hyperlink ref="A187" r:id="rId92" location="diff-0a23f01cd1ad30d230670d3f079848ed3efebbbecad51e89b8d9482518ac5659" xr:uid="{F2D116F8-5869-4A8E-A385-7443D5B136DE}"/>
+    <hyperlink ref="A189" r:id="rId93" location="diff-0a75b5baeefd7100979852b66c5b991b1ca6899e6aa9113446fe3e4e12227e8a" xr:uid="{B5408DB8-273D-4FC4-9742-99AA14E173C3}"/>
+    <hyperlink ref="A190" r:id="rId94" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{66FAE567-FFC1-4731-96A8-BECED48E1C87}"/>
+    <hyperlink ref="A191" r:id="rId95" location="diff-e50c3b46d543071043fcc8e2ff268eeeaab0e9bba03268179f263e67ff722c57" xr:uid="{2116F5E5-CCBB-473B-BB84-5BA377C856F9}"/>
+    <hyperlink ref="A192" r:id="rId96" xr:uid="{67D166D7-D824-4E2C-910D-44E4755A81AD}"/>
+    <hyperlink ref="A194" r:id="rId97" xr:uid="{79F01217-F3D1-407C-86D2-D6E2EEF493EF}"/>
+    <hyperlink ref="A199" r:id="rId98" xr:uid="{F0EC7336-5842-4466-922C-66BB6E95B641}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId90"/>
-  <drawing r:id="rId91"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId99"/>
+  <drawing r:id="rId100"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437D571-6175-41DA-9EE9-F6D307140BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2855276-BCD9-41F9-A95D-57997B9F4330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="303">
   <si>
     <t>Datei</t>
   </si>
@@ -893,12 +893,120 @@
   <si>
     <t>changed according to...</t>
   </si>
+  <si>
+    <t>Revamped State Menu with Color</t>
+  </si>
+  <si>
+    <t>src\dc\adalfarus_thin.th</t>
+  </si>
+  <si>
+    <t>Theming wont count for me</t>
+  </si>
+  <si>
+    <t>Implemented thread ...</t>
+  </si>
+  <si>
+    <t>Improve state selection and transition updates</t>
+  </si>
+  <si>
+    <t>Finished main part of extension loader</t>
+  </si>
+  <si>
+    <t>src\dc\extension_loader.py</t>
+  </si>
+  <si>
+    <t>Fixed themes and ...</t>
+  </si>
+  <si>
+    <t>added token_selection ...</t>
+  </si>
+  <si>
+    <t>Polishing config ...</t>
+  </si>
+  <si>
+    <t>Fixed bug where the a...</t>
+  </si>
+  <si>
+    <t>GUI improvements</t>
+  </si>
+  <si>
+    <t>Added load_file method</t>
+  </si>
+  <si>
+    <t>Implemented save to file method</t>
+  </si>
+  <si>
+    <t>Implemented proper error handling ...</t>
+  </si>
+  <si>
+    <t>added none type check</t>
+  </si>
+  <si>
+    <t>Fixed input path and ...</t>
+  </si>
+  <si>
+    <t>src\dc\painter.py</t>
+  </si>
+  <si>
+    <t>Refactor and Bug ...</t>
+  </si>
+  <si>
+    <t>Added performance...</t>
+  </si>
+  <si>
+    <t>will be removed</t>
+  </si>
+  <si>
+    <t>temporary fix</t>
+  </si>
+  <si>
+    <t>Finished performance...</t>
+  </si>
+  <si>
+    <t>Added function...</t>
+  </si>
+  <si>
+    <t>src\dc\signal_bus.py</t>
+  </si>
+  <si>
+    <t>Implemented ...</t>
+  </si>
+  <si>
+    <t>updated dfa ...</t>
+  </si>
+  <si>
+    <t>gui update</t>
+  </si>
+  <si>
+    <t>Fully imple...</t>
+  </si>
+  <si>
+    <t>Update TM.py</t>
+  </si>
+  <si>
+    <t>added test...</t>
+  </si>
+  <si>
+    <t>Fixed painter.py ...</t>
+  </si>
+  <si>
+    <t>Only 13 lines changed, after my counting</t>
+  </si>
+  <si>
+    <t>major gui update</t>
+  </si>
+  <si>
+    <t>added dfa example</t>
+  </si>
+  <si>
+    <t>src\dudpy-planning\dfa.json</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,6 +1049,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1100,7 +1214,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1133,6 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1217,7 +1332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1385,7 +1500,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1426,7 +1541,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1467,7 +1582,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1508,7 +1623,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1549,7 +1664,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -1628,16 +1743,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3905.5</c:v>
+                  <c:v>4425.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3612.5</c:v>
+                  <c:v>4046</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>877</c:v>
+                  <c:v>1403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1517</c:v>
+                  <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1704,7 +1819,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1780,7 +1895,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1866,10 +1981,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1881,7 +1996,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -1890,7 +2005,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1988,7 +2103,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2000,7 +2115,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2009,7 +2124,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -2104,10 +2219,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2128,7 +2243,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2223,10 +2338,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2247,7 +2362,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2440,7 +2555,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693168896"/>
@@ -2513,7 +2628,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1693170560"/>
@@ -2555,7 +2670,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2592,7 +2707,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2668,7 +2783,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2804,16 +2919,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -2893,16 +3008,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2982,13 +3097,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3071,16 +3186,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3243,7 +3358,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672855376"/>
@@ -3316,7 +3431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1672851632"/>
@@ -3358,7 +3473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3395,7 +3510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3471,7 +3586,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3536,16 +3651,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3613,16 +3728,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.459016393442623</c:v>
+                  <c:v>1.2623655913978495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4065420560747663</c:v>
+                  <c:v>1.3172932330827067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.75</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>1.3738095238095245</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3690,16 +3805,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>40.83606557377049</c:v>
+                  <c:v>31.623655913978496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.252336448598133</c:v>
+                  <c:v>18.93233082706767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.166666666666664</c:v>
+                  <c:v>32.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.733333333333334</c:v>
+                  <c:v>49.476190476190474</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3766,7 +3881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739573552"/>
@@ -3839,7 +3954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1739578128"/>
@@ -3881,7 +3996,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3918,7 +4033,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3969,7 +4084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4138,7 +4253,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4179,7 +4294,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4220,7 +4335,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4261,7 +4376,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4302,7 +4417,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="de-DE"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4381,16 +4496,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3634</c:v>
+                  <c:v>3713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3076</c:v>
+                  <c:v>3342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>760</c:v>
+                  <c:v>986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1362</c:v>
+                  <c:v>2855</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4457,7 +4572,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4533,7 +4648,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4689,7 +4804,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -4748,16 +4863,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>354</c:v>
+                  <c:v>402.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4822,7 +4937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4866,7 +4981,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4942,7 +5057,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5098,7 +5213,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -5157,16 +5272,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1193.5</c:v>
+                  <c:v>381.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>437</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>877</c:v>
+                  <c:v>982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1123</c:v>
+                  <c:v>781.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5231,7 +5346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5275,7 +5390,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5351,7 +5466,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5490,7 +5605,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -5549,16 +5664,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3940173527037934</c:v>
+                  <c:v>0.33728604307335885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36445722356739307</c:v>
+                  <c:v>0.30834184334466308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8478611783696523E-2</c:v>
+                  <c:v>0.10692130652806781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15304681194511702</c:v>
+                  <c:v>0.24745080705391029</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5619,7 +5734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5656,7 +5771,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10113,15 +10228,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>711575</xdr:colOff>
+      <xdr:colOff>700368</xdr:colOff>
       <xdr:row>299</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>352987</xdr:colOff>
+      <xdr:colOff>341780</xdr:colOff>
       <xdr:row>314</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10724,8 +10839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18836,7 +18951,7 @@
         <v>256</v>
       </c>
       <c r="I183">
-        <f t="shared" ref="I183:M202" si="9">MAX(0, IF($G183=I$2, $D183*$E183, 0))</f>
+        <f t="shared" ref="I183:M199" si="9">MAX(0, IF($G183=I$2, $D183*$E183, 0))</f>
         <v>0</v>
       </c>
       <c r="J183">
@@ -19565,251 +19680,475 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B200" s="7"/>
-      <c r="H200" s="8"/>
+      <c r="A200" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C200" t="s">
+        <v>149</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="I200">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G200=I$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="J200">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G200=J$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="K200">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G200=K$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="L200">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G200=L$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
       <c r="M200" s="8">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G200=M$2, $D200*$E200, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B201" s="7"/>
+      <c r="A201" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C201" t="s">
+        <v>27</v>
+      </c>
+      <c r="D201">
+        <v>11</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>24</v>
+      </c>
+      <c r="G201" t="s">
+        <v>34</v>
+      </c>
       <c r="H201" s="8"/>
       <c r="I201">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G201=I$2, $D201*$E201, 0))</f>
         <v>0</v>
       </c>
       <c r="J201">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(0, IF($G201=J$2, $D201*$E201, 0))</f>
+        <v>22</v>
       </c>
       <c r="K201">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G201=K$2, $D201*$E201, 0))</f>
         <v>0</v>
       </c>
       <c r="L201">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G201=L$2, $D201*$E201, 0))</f>
         <v>0</v>
       </c>
       <c r="M201" s="8">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G201=M$2, $D201*$E201, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B202" s="7"/>
+      <c r="A202" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C202" t="s">
+        <v>27</v>
+      </c>
+      <c r="D202">
+        <v>4</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" t="s">
+        <v>34</v>
+      </c>
       <c r="H202" s="8"/>
       <c r="I202">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G202=I$2, $D202*$E202, 0))</f>
         <v>0</v>
       </c>
       <c r="J202">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>MAX(0, IF($G202=J$2, $D202*$E202, 0))</f>
+        <v>4</v>
       </c>
       <c r="K202">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G202=K$2, $D202*$E202, 0))</f>
         <v>0</v>
       </c>
       <c r="L202">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G202=L$2, $D202*$E202, 0))</f>
         <v>0</v>
       </c>
       <c r="M202" s="8">
-        <f t="shared" si="9"/>
+        <f>MAX(0, IF($G202=M$2, $D202*$E202, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B203" s="7"/>
+      <c r="A203" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C203" t="s">
+        <v>149</v>
+      </c>
+      <c r="D203">
+        <v>4</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" t="s">
+        <v>34</v>
+      </c>
       <c r="H203" s="8"/>
       <c r="I203">
-        <f t="shared" ref="I203:M222" si="10">MAX(0, IF($G203=I$2, $D203*$E203, 0))</f>
+        <f>MAX(0, IF($G203=I$2, $D203*$E203, 0))</f>
         <v>0</v>
       </c>
       <c r="J203">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>MAX(0, IF($G203=J$2, $D203*$E203, 0))</f>
+        <v>4</v>
       </c>
       <c r="K203">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G203=K$2, $D203*$E203, 0))</f>
         <v>0</v>
       </c>
       <c r="L203">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G203=L$2, $D203*$E203, 0))</f>
         <v>0</v>
       </c>
       <c r="M203" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G203=M$2, $D203*$E203, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B204" s="7"/>
+      <c r="A204" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C204" t="s">
+        <v>149</v>
+      </c>
+      <c r="D204">
+        <v>86</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204" t="s">
+        <v>24</v>
+      </c>
+      <c r="G204" t="s">
+        <v>127</v>
+      </c>
       <c r="H204" s="8"/>
       <c r="I204">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G204=I$2, $D204*$E204, 0))</f>
         <v>0</v>
       </c>
       <c r="J204">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G204=J$2, $D204*$E204, 0))</f>
         <v>0</v>
       </c>
       <c r="K204">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G204=K$2, $D204*$E204, 0))</f>
         <v>0</v>
       </c>
       <c r="L204">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>MAX(0, IF($G204=L$2, $D204*$E204, 0))</f>
+        <v>172</v>
       </c>
       <c r="M204" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G204=M$2, $D204*$E204, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B205" s="7"/>
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>17</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" t="s">
+        <v>127</v>
+      </c>
       <c r="H205" s="8"/>
       <c r="I205">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G205=I$2, $D205*$E205, 0))</f>
         <v>0</v>
       </c>
       <c r="J205">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G205=J$2, $D205*$E205, 0))</f>
         <v>0</v>
       </c>
       <c r="K205">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G205=K$2, $D205*$E205, 0))</f>
         <v>0</v>
       </c>
       <c r="L205">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>MAX(0, IF($G205=L$2, $D205*$E205, 0))</f>
+        <v>17</v>
       </c>
       <c r="M205" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G205=M$2, $D205*$E205, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B206" s="7"/>
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C206" t="s">
+        <v>149</v>
+      </c>
+      <c r="D206">
+        <v>82</v>
+      </c>
+      <c r="E206">
+        <v>1.4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>18</v>
+      </c>
+      <c r="G206" t="s">
+        <v>127</v>
+      </c>
       <c r="H206" s="8"/>
       <c r="I206">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G206=I$2, $D206*$E206, 0))</f>
         <v>0</v>
       </c>
       <c r="J206">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G206=J$2, $D206*$E206, 0))</f>
         <v>0</v>
       </c>
       <c r="K206">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G206=K$2, $D206*$E206, 0))</f>
         <v>0</v>
       </c>
       <c r="L206">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>MAX(0, IF($G206=L$2, $D206*$E206, 0))</f>
+        <v>114.8</v>
       </c>
       <c r="M206" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G206=M$2, $D206*$E206, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B207" s="7"/>
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C207" t="s">
+        <v>149</v>
+      </c>
+      <c r="D207">
+        <v>28</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>127</v>
+      </c>
       <c r="H207" s="8"/>
       <c r="I207">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G207=I$2, $D207*$E207, 0))</f>
         <v>0</v>
       </c>
       <c r="J207">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G207=J$2, $D207*$E207, 0))</f>
         <v>0</v>
       </c>
       <c r="K207">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G207=K$2, $D207*$E207, 0))</f>
         <v>0</v>
       </c>
       <c r="L207">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>MAX(0, IF($G207=L$2, $D207*$E207, 0))</f>
+        <v>56</v>
       </c>
       <c r="M207" s="8">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G207=M$2, $D207*$E207, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B208" s="7"/>
+      <c r="A208" t="s">
+        <v>128</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C208" t="s">
+        <v>149</v>
+      </c>
+      <c r="D208">
+        <v>25</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>34</v>
+      </c>
       <c r="H208" s="8"/>
       <c r="I208">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G208=I$2, $D208*$E208, 0))</f>
         <v>0</v>
       </c>
       <c r="J208">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f>MAX(0, IF($G208=J$2, $D208*$E208, 0))</f>
+        <v>25</v>
       </c>
       <c r="K208">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G208=K$2, $D208*$E208, 0))</f>
         <v>0</v>
       </c>
       <c r="L208">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G208=L$2, $D208*$E208, 0))</f>
         <v>0</v>
       </c>
       <c r="M208" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B209" s="7"/>
-      <c r="H209" s="8"/>
+        <f>MAX(0, IF($G208=M$2, $D208*$E208, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C209" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" t="s">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="I209">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G209=I$2, $D209*$E209, 0))</f>
         <v>0</v>
       </c>
       <c r="J209">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G209=J$2, $D209*$E209, 0))</f>
         <v>0</v>
       </c>
       <c r="K209">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G209=K$2, $D209*$E209, 0))</f>
         <v>0</v>
       </c>
       <c r="L209">
-        <f t="shared" si="10"/>
+        <f>MAX(0, IF($G209=L$2, $D209*$E209, 0))</f>
         <v>0</v>
       </c>
       <c r="M209" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B210" s="7"/>
+        <f>MAX(0, IF($G209=M$2, $D209*$E209, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>149</v>
+      </c>
+      <c r="D210">
+        <v>15</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" t="s">
+        <v>15</v>
+      </c>
       <c r="H210" s="8"/>
       <c r="I210">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" ref="I210:M222" si="10">MAX(0, IF($G210=I$2, $D210*$E210, 0))</f>
+        <v>30</v>
       </c>
       <c r="J210">
         <f t="shared" si="10"/>
@@ -19828,12 +20167,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B211" s="7"/>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" t="s">
+        <v>27</v>
+      </c>
+      <c r="D211">
+        <f>1+8</f>
+        <v>9</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>15</v>
+      </c>
       <c r="H211" s="8"/>
       <c r="I211">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J211">
         <f t="shared" si="10"/>
@@ -19852,8 +20212,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B212" s="7"/>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C212" t="s">
+        <v>173</v>
+      </c>
+      <c r="D212">
+        <v>-13</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
       <c r="H212" s="8"/>
       <c r="I212">
         <f t="shared" si="10"/>
@@ -19876,12 +20256,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B213" s="7"/>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213" t="s">
+        <v>149</v>
+      </c>
+      <c r="D213">
+        <v>52</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>15</v>
+      </c>
       <c r="H213" s="8"/>
       <c r="I213">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J213">
         <f t="shared" si="10"/>
@@ -19900,8 +20300,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B214" s="7"/>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>128</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D214">
+        <f>41+11+39+12+7</f>
+        <v>110</v>
+      </c>
+      <c r="E214">
+        <v>1.2</v>
+      </c>
+      <c r="F214" t="s">
+        <v>19</v>
+      </c>
+      <c r="G214" t="s">
+        <v>34</v>
+      </c>
       <c r="H214" s="8"/>
       <c r="I214">
         <f t="shared" si="10"/>
@@ -19909,7 +20330,7 @@
       </c>
       <c r="J214">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="K214">
         <f t="shared" si="10"/>
@@ -19924,8 +20345,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B215" s="7"/>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C215" t="s">
+        <v>149</v>
+      </c>
+      <c r="D215">
+        <v>71</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" t="s">
+        <v>127</v>
+      </c>
       <c r="H215" s="8"/>
       <c r="I215">
         <f t="shared" si="10"/>
@@ -19941,15 +20382,35 @@
       </c>
       <c r="L215">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="M215" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B216" s="7"/>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C216" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216">
+        <v>58</v>
+      </c>
+      <c r="E216">
+        <v>1.5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" t="s">
+        <v>127</v>
+      </c>
       <c r="H216" s="8"/>
       <c r="I216">
         <f t="shared" si="10"/>
@@ -19965,15 +20426,35 @@
       </c>
       <c r="L216">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M216" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B217" s="7"/>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>214</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C217" t="s">
+        <v>173</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" t="s">
+        <v>34</v>
+      </c>
       <c r="H217" s="8"/>
       <c r="I217">
         <f t="shared" si="10"/>
@@ -19996,8 +20477,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B218" s="7"/>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218">
+        <v>153</v>
+      </c>
+      <c r="E218">
+        <v>3</v>
+      </c>
+      <c r="F218" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" t="s">
+        <v>88</v>
+      </c>
       <c r="H218" s="8"/>
       <c r="I218">
         <f t="shared" si="10"/>
@@ -20009,7 +20510,7 @@
       </c>
       <c r="K218">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="L218">
         <f t="shared" si="10"/>
@@ -20020,8 +20521,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B219" s="7"/>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>214</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C219" t="s">
+        <v>149</v>
+      </c>
+      <c r="D219">
+        <v>4</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>34</v>
+      </c>
       <c r="H219" s="8"/>
       <c r="I219">
         <f t="shared" si="10"/>
@@ -20029,7 +20550,7 @@
       </c>
       <c r="J219">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K219">
         <f t="shared" si="10"/>
@@ -20044,8 +20565,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B220" s="7"/>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>214</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" t="s">
+        <v>88</v>
+      </c>
       <c r="H220" s="8"/>
       <c r="I220">
         <f t="shared" si="10"/>
@@ -20068,8 +20609,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B221" s="7"/>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>214</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C221" t="s">
+        <v>149</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" t="s">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>34</v>
+      </c>
       <c r="H221" s="8"/>
       <c r="I221">
         <f t="shared" si="10"/>
@@ -20077,7 +20638,7 @@
       </c>
       <c r="J221">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K221">
         <f t="shared" si="10"/>
@@ -20092,8 +20653,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B222" s="7"/>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>214</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C222" t="s">
+        <v>149</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" t="s">
+        <v>34</v>
+      </c>
       <c r="H222" s="8"/>
       <c r="I222">
         <f t="shared" si="10"/>
@@ -20116,8 +20697,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B223" s="7"/>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223">
+        <f>0+3+9+9</f>
+        <v>21</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>88</v>
+      </c>
       <c r="H223" s="8"/>
       <c r="I223">
         <f t="shared" ref="I223:M242" si="11">MAX(0, IF($G223=I$2, $D223*$E223, 0))</f>
@@ -20129,7 +20731,7 @@
       </c>
       <c r="K223">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L223">
         <f t="shared" si="11"/>
@@ -20140,8 +20742,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B224" s="7"/>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>214</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C224" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" t="s">
+        <v>18</v>
+      </c>
+      <c r="G224" t="s">
+        <v>88</v>
+      </c>
       <c r="H224" s="8"/>
       <c r="I224">
         <f t="shared" si="11"/>
@@ -20153,7 +20775,7 @@
       </c>
       <c r="K224">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L224">
         <f t="shared" si="11"/>
@@ -20164,8 +20786,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B225" s="7"/>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>214</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C225" t="s">
+        <v>173</v>
+      </c>
+      <c r="D225">
+        <v>-3</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" t="s">
+        <v>15</v>
+      </c>
       <c r="H225" s="8"/>
       <c r="I225">
         <f t="shared" si="11"/>
@@ -20188,12 +20830,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B226" s="7"/>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" t="s">
+        <v>149</v>
+      </c>
+      <c r="D226">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
       <c r="H226" s="8"/>
       <c r="I226">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J226">
         <f t="shared" si="11"/>
@@ -20212,8 +20875,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B227" s="7"/>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>128</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C227" t="s">
+        <v>149</v>
+      </c>
+      <c r="D227">
+        <f>4+2+6+8+8+8+5</f>
+        <v>41</v>
+      </c>
+      <c r="E227">
+        <v>1.5</v>
+      </c>
+      <c r="F227" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" t="s">
+        <v>34</v>
+      </c>
       <c r="H227" s="8"/>
       <c r="I227">
         <f t="shared" si="11"/>
@@ -20221,7 +20905,7 @@
       </c>
       <c r="J227">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="K227">
         <f t="shared" si="11"/>
@@ -20231,13 +20915,33 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M227" s="8">
+      <c r="M227">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B228" s="7"/>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C228" t="s">
+        <v>149</v>
+      </c>
+      <c r="D228">
+        <v>97</v>
+      </c>
+      <c r="E228">
+        <v>1.2</v>
+      </c>
+      <c r="F228" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" t="s">
+        <v>127</v>
+      </c>
       <c r="H228" s="8"/>
       <c r="I228">
         <f t="shared" si="11"/>
@@ -20253,15 +20957,36 @@
       </c>
       <c r="L228">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>116.39999999999999</v>
       </c>
       <c r="M228" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B229" s="7"/>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C229" t="s">
+        <v>149</v>
+      </c>
+      <c r="D229">
+        <f>-10+62</f>
+        <v>52</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" t="s">
+        <v>127</v>
+      </c>
       <c r="H229" s="8"/>
       <c r="I229">
         <f t="shared" si="11"/>
@@ -20277,15 +21002,35 @@
       </c>
       <c r="L229">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M229" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B230" s="7"/>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C230" t="s">
+        <v>149</v>
+      </c>
+      <c r="D230">
+        <v>11</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" t="s">
+        <v>127</v>
+      </c>
       <c r="H230" s="8"/>
       <c r="I230">
         <f t="shared" si="11"/>
@@ -20301,15 +21046,36 @@
       </c>
       <c r="L230">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M230" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B231" s="7"/>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C231" t="s">
+        <v>149</v>
+      </c>
+      <c r="D231">
+        <f>-2+32</f>
+        <v>30</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" t="s">
+        <v>127</v>
+      </c>
       <c r="H231" s="8"/>
       <c r="I231">
         <f t="shared" si="11"/>
@@ -20325,19 +21091,40 @@
       </c>
       <c r="L231">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M231" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B232" s="7"/>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C232" t="s">
+        <v>27</v>
+      </c>
+      <c r="D232">
+        <f>12+19</f>
+        <v>31</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>18</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
       <c r="H232" s="8"/>
       <c r="I232">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J232">
         <f t="shared" si="11"/>
@@ -20356,12 +21143,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B233" s="7"/>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>214</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C233" t="s">
+        <v>27</v>
+      </c>
+      <c r="D233">
+        <f>1+9</f>
+        <v>10</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" t="s">
+        <v>15</v>
+      </c>
       <c r="H233" s="8"/>
       <c r="I233">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J233">
         <f t="shared" si="11"/>
@@ -20380,8 +21188,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B234" s="7"/>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>214</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C234" t="s">
+        <v>27</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" t="s">
+        <v>34</v>
+      </c>
       <c r="H234" s="8"/>
       <c r="I234">
         <f t="shared" si="11"/>
@@ -20389,7 +21217,7 @@
       </c>
       <c r="J234">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <f t="shared" si="11"/>
@@ -20404,8 +21232,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B235" s="7"/>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>214</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C235" t="s">
+        <v>27</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" t="s">
+        <v>18</v>
+      </c>
+      <c r="G235" t="s">
+        <v>15</v>
+      </c>
       <c r="H235" s="8"/>
       <c r="I235">
         <f t="shared" si="11"/>
@@ -20428,8 +21276,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B236" s="7"/>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>214</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C236" t="s">
+        <v>27</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>18</v>
+      </c>
+      <c r="G236" t="s">
+        <v>34</v>
+      </c>
       <c r="H236" s="8"/>
       <c r="I236">
         <f t="shared" si="11"/>
@@ -20437,7 +21305,7 @@
       </c>
       <c r="J236">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K236">
         <f t="shared" si="11"/>
@@ -20452,12 +21320,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B237" s="7"/>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>214</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
       <c r="H237" s="8"/>
       <c r="I237">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J237">
         <f t="shared" si="11"/>
@@ -20476,12 +21364,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B238" s="7"/>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>214</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C238" t="s">
+        <v>27</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" t="s">
+        <v>15</v>
+      </c>
       <c r="H238" s="8"/>
       <c r="I238">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <f t="shared" si="11"/>
@@ -20500,12 +21408,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B239" s="7"/>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>214</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C239" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" t="s">
+        <v>15</v>
+      </c>
       <c r="H239" s="8"/>
       <c r="I239">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239">
         <f t="shared" si="11"/>
@@ -20524,12 +21452,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B240" s="7"/>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>214</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C240" t="s">
+        <v>27</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
       <c r="H240" s="8"/>
       <c r="I240">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J240">
         <f t="shared" si="11"/>
@@ -20548,12 +21496,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B241" s="7"/>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C241" t="s">
+        <v>149</v>
+      </c>
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
       <c r="H241" s="8"/>
       <c r="I241">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J241">
         <f t="shared" si="11"/>
@@ -20572,8 +21540,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B242" s="7"/>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>128</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C242" t="s">
+        <v>149</v>
+      </c>
+      <c r="D242">
+        <f>5+22+3+6+6+2+17+2+3+2+5</f>
+        <v>73</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" t="s">
+        <v>34</v>
+      </c>
       <c r="H242" s="8"/>
       <c r="I242">
         <f t="shared" si="11"/>
@@ -20581,7 +21570,7 @@
       </c>
       <c r="J242">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K242">
         <f t="shared" si="11"/>
@@ -20596,8 +21585,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B243" s="7"/>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C243" t="s">
+        <v>149</v>
+      </c>
+      <c r="D243">
+        <f>1+36+43+1</f>
+        <v>81</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" t="s">
+        <v>127</v>
+      </c>
       <c r="H243" s="8"/>
       <c r="I243">
         <f t="shared" ref="I243:M262" si="12">MAX(0, IF($G243=I$2, $D243*$E243, 0))</f>
@@ -20613,15 +21623,36 @@
       </c>
       <c r="L243">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M243" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B244" s="7"/>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>128</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C244" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244">
+        <f>6+4+2+1+2+1+3</f>
+        <v>19</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" t="s">
+        <v>34</v>
+      </c>
       <c r="H244" s="8"/>
       <c r="I244">
         <f t="shared" si="12"/>
@@ -20629,7 +21660,7 @@
       </c>
       <c r="J244">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K244">
         <f t="shared" si="12"/>
@@ -20644,12 +21675,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B245" s="7"/>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C245" t="s">
+        <v>149</v>
+      </c>
+      <c r="D245">
+        <v>10</v>
+      </c>
+      <c r="E245">
+        <v>1.2</v>
+      </c>
+      <c r="F245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
       <c r="H245" s="8"/>
       <c r="I245">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J245">
         <f t="shared" si="12"/>
@@ -20668,12 +21719,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B246" s="7"/>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>149</v>
+      </c>
+      <c r="D246">
+        <v>12</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" t="s">
+        <v>15</v>
+      </c>
       <c r="H246" s="8"/>
       <c r="I246">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J246">
         <f t="shared" si="12"/>
@@ -20692,12 +21763,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B247" s="7"/>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>214</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" t="s">
+        <v>15</v>
+      </c>
       <c r="H247" s="8"/>
       <c r="I247">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J247">
         <f t="shared" si="12"/>
@@ -20716,12 +21807,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B248" s="7"/>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C248" t="s">
+        <v>149</v>
+      </c>
+      <c r="D248">
+        <v>19</v>
+      </c>
+      <c r="E248">
+        <v>1.2</v>
+      </c>
+      <c r="F248" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" t="s">
+        <v>15</v>
+      </c>
       <c r="H248" s="8"/>
       <c r="I248">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J248">
         <f t="shared" si="12"/>
@@ -20740,8 +21851,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B249" s="7"/>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C249" t="s">
+        <v>27</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" t="s">
+        <v>34</v>
+      </c>
       <c r="H249" s="8"/>
       <c r="I249">
         <f t="shared" si="12"/>
@@ -20749,7 +21880,7 @@
       </c>
       <c r="J249">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K249">
         <f t="shared" si="12"/>
@@ -20764,12 +21895,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B250" s="7"/>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C250" t="s">
+        <v>149</v>
+      </c>
+      <c r="D250">
+        <f>88-13</f>
+        <v>75</v>
+      </c>
+      <c r="E250">
+        <v>1.5</v>
+      </c>
+      <c r="F250" t="s">
+        <v>18</v>
+      </c>
+      <c r="G250" t="s">
+        <v>15</v>
+      </c>
       <c r="H250" s="8"/>
       <c r="I250">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>112.5</v>
       </c>
       <c r="J250">
         <f t="shared" si="12"/>
@@ -20788,8 +21940,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B251" s="7"/>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>214</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251">
+        <v>40</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" t="s">
+        <v>15</v>
+      </c>
       <c r="H251" s="8"/>
       <c r="I251">
         <f t="shared" si="12"/>
@@ -20812,8 +21984,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B252" s="7"/>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C252" t="s">
+        <v>27</v>
+      </c>
+      <c r="D252">
+        <f>6+9+69+20+8+4</f>
+        <v>116</v>
+      </c>
+      <c r="E252">
+        <v>1.2</v>
+      </c>
+      <c r="F252" t="s">
+        <v>19</v>
+      </c>
+      <c r="G252" t="s">
+        <v>127</v>
+      </c>
       <c r="H252" s="8"/>
       <c r="I252">
         <f t="shared" si="12"/>
@@ -20829,15 +22022,35 @@
       </c>
       <c r="L252">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="M252" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B253" s="7"/>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>214</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C253" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" t="s">
+        <v>19</v>
+      </c>
+      <c r="G253" t="s">
+        <v>127</v>
+      </c>
       <c r="H253" s="8"/>
       <c r="I253">
         <f t="shared" si="12"/>
@@ -20853,16 +22066,38 @@
       </c>
       <c r="L253">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M253" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B254" s="7"/>
-      <c r="H254" s="8"/>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C254" t="s">
+        <v>149</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" t="s">
+        <v>18</v>
+      </c>
+      <c r="G254" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="I254">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -20884,8 +22119,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B255" s="7"/>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>214</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C255" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" t="s">
+        <v>18</v>
+      </c>
+      <c r="G255" t="s">
+        <v>34</v>
+      </c>
       <c r="H255" s="8"/>
       <c r="I255">
         <f t="shared" si="12"/>
@@ -20893,7 +22148,7 @@
       </c>
       <c r="J255">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K255">
         <f t="shared" si="12"/>
@@ -20908,9 +22163,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B256" s="7"/>
-      <c r="H256" s="8"/>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>214</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C256" t="s">
+        <v>149</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="I256">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -20932,8 +22209,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B257" s="7"/>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C257" t="s">
+        <v>149</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" t="s">
+        <v>18</v>
+      </c>
+      <c r="G257" t="s">
+        <v>15</v>
+      </c>
       <c r="H257" s="8"/>
       <c r="I257">
         <f t="shared" si="12"/>
@@ -20956,8 +22253,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B258" s="7"/>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>214</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C258" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" t="s">
+        <v>34</v>
+      </c>
       <c r="H258" s="8"/>
       <c r="I258">
         <f t="shared" si="12"/>
@@ -20965,7 +22282,7 @@
       </c>
       <c r="J258">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K258">
         <f t="shared" si="12"/>
@@ -20980,8 +22297,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B259" s="7"/>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C259" t="s">
+        <v>149</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+      <c r="F259" t="s">
+        <v>18</v>
+      </c>
+      <c r="G259" t="s">
+        <v>127</v>
+      </c>
       <c r="H259" s="8"/>
       <c r="I259">
         <f t="shared" si="12"/>
@@ -20997,15 +22334,35 @@
       </c>
       <c r="L259">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M259" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B260" s="7"/>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C260" t="s">
+        <v>149</v>
+      </c>
+      <c r="D260">
+        <v>7</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" t="s">
+        <v>127</v>
+      </c>
       <c r="H260" s="8"/>
       <c r="I260">
         <f t="shared" si="12"/>
@@ -21021,15 +22378,35 @@
       </c>
       <c r="L260">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M260" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B261" s="7"/>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C261" t="s">
+        <v>149</v>
+      </c>
+      <c r="D261">
+        <v>70</v>
+      </c>
+      <c r="E261">
+        <v>1.2</v>
+      </c>
+      <c r="F261" t="s">
+        <v>18</v>
+      </c>
+      <c r="G261" t="s">
+        <v>127</v>
+      </c>
       <c r="H261" s="8"/>
       <c r="I261">
         <f t="shared" si="12"/>
@@ -21045,15 +22422,35 @@
       </c>
       <c r="L261">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M261" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B262" s="7"/>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C262" t="s">
+        <v>27</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" t="s">
+        <v>18</v>
+      </c>
+      <c r="G262" t="s">
+        <v>127</v>
+      </c>
       <c r="H262" s="8"/>
       <c r="I262">
         <f t="shared" si="12"/>
@@ -21069,15 +22466,35 @@
       </c>
       <c r="L262">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M262" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B263" s="7"/>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263">
+        <v>13</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" t="s">
+        <v>18</v>
+      </c>
+      <c r="G263" t="s">
+        <v>127</v>
+      </c>
       <c r="H263" s="8"/>
       <c r="I263">
         <f t="shared" ref="I263:M282" si="13">MAX(0, IF($G263=I$2, $D263*$E263, 0))</f>
@@ -21093,19 +22510,39 @@
       </c>
       <c r="L263">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M263" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B264" s="7"/>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C264" t="s">
+        <v>149</v>
+      </c>
+      <c r="D264">
+        <v>40</v>
+      </c>
+      <c r="E264">
+        <v>1.5</v>
+      </c>
+      <c r="F264" t="s">
+        <v>18</v>
+      </c>
+      <c r="G264" t="s">
+        <v>15</v>
+      </c>
       <c r="H264" s="8"/>
       <c r="I264">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J264">
         <f t="shared" si="13"/>
@@ -21124,12 +22561,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B265" s="7"/>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>128</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D265">
+        <f>16+6+1+11+7+17+2</f>
+        <v>60</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" t="s">
+        <v>19</v>
+      </c>
+      <c r="G265" t="s">
+        <v>15</v>
+      </c>
       <c r="H265" s="8"/>
       <c r="I265">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J265">
         <f t="shared" si="13"/>
@@ -21148,8 +22606,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B266" s="7"/>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C266" t="s">
+        <v>149</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" t="s">
+        <v>18</v>
+      </c>
+      <c r="G266" t="s">
+        <v>34</v>
+      </c>
       <c r="H266" s="8"/>
       <c r="I266">
         <f t="shared" si="13"/>
@@ -21157,7 +22635,7 @@
       </c>
       <c r="J266">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K266">
         <f t="shared" si="13"/>
@@ -21172,12 +22650,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B267" s="7"/>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>128</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C267" t="s">
+        <v>27</v>
+      </c>
+      <c r="D267">
+        <f>1+6+0+4+2+7+4</f>
+        <v>24</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" t="s">
+        <v>18</v>
+      </c>
+      <c r="G267" t="s">
+        <v>15</v>
+      </c>
       <c r="H267" s="8"/>
       <c r="I267">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J267">
         <f t="shared" si="13"/>
@@ -21196,8 +22695,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B268" s="7"/>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>214</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C268" t="s">
+        <v>173</v>
+      </c>
+      <c r="D268">
+        <v>-6</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>18</v>
+      </c>
+      <c r="G268" t="s">
+        <v>34</v>
+      </c>
       <c r="H268" s="8"/>
       <c r="I268">
         <f t="shared" si="13"/>
@@ -21220,12 +22739,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B269" s="7"/>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>128</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C269" t="s">
+        <v>27</v>
+      </c>
+      <c r="D269">
+        <f>2+4+1</f>
+        <v>7</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" t="s">
+        <v>18</v>
+      </c>
+      <c r="G269" t="s">
+        <v>15</v>
+      </c>
       <c r="H269" s="8"/>
       <c r="I269">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J269">
         <f t="shared" si="13"/>
@@ -21244,8 +22784,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B270" s="7"/>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A270" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C270" t="s">
+        <v>149</v>
+      </c>
+      <c r="D270">
+        <v>4</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" t="s">
+        <v>24</v>
+      </c>
+      <c r="G270" t="s">
+        <v>127</v>
+      </c>
       <c r="H270" s="8"/>
       <c r="I270">
         <f t="shared" si="13"/>
@@ -21261,15 +22821,35 @@
       </c>
       <c r="L270">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M270" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B271" s="7"/>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C271" t="s">
+        <v>149</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271" t="s">
+        <v>24</v>
+      </c>
+      <c r="G271" t="s">
+        <v>127</v>
+      </c>
       <c r="H271" s="8"/>
       <c r="I271">
         <f t="shared" si="13"/>
@@ -21285,15 +22865,35 @@
       </c>
       <c r="L271">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M271" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B272" s="7"/>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C272" t="s">
+        <v>149</v>
+      </c>
+      <c r="D272">
+        <v>34</v>
+      </c>
+      <c r="E272">
+        <v>1.2</v>
+      </c>
+      <c r="F272" t="s">
+        <v>19</v>
+      </c>
+      <c r="G272" t="s">
+        <v>127</v>
+      </c>
       <c r="H272" s="8"/>
       <c r="I272">
         <f t="shared" si="13"/>
@@ -21309,15 +22909,35 @@
       </c>
       <c r="L272">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="M272" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B273" s="7"/>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C273" t="s">
+        <v>149</v>
+      </c>
+      <c r="D273">
+        <v>29</v>
+      </c>
+      <c r="E273">
+        <v>1.2</v>
+      </c>
+      <c r="F273" t="s">
+        <v>19</v>
+      </c>
+      <c r="G273" t="s">
+        <v>127</v>
+      </c>
       <c r="H273" s="8"/>
       <c r="I273">
         <f t="shared" si="13"/>
@@ -21333,15 +22953,35 @@
       </c>
       <c r="L273">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="M273" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B274" s="7"/>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C274" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" t="s">
+        <v>18</v>
+      </c>
+      <c r="G274" t="s">
+        <v>127</v>
+      </c>
       <c r="H274" s="8"/>
       <c r="I274">
         <f t="shared" si="13"/>
@@ -21357,15 +22997,36 @@
       </c>
       <c r="L274">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M274" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B275" s="7"/>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C275" t="s">
+        <v>149</v>
+      </c>
+      <c r="D275">
+        <f>81+4</f>
+        <v>85</v>
+      </c>
+      <c r="E275">
+        <v>1.2</v>
+      </c>
+      <c r="F275" t="s">
+        <v>18</v>
+      </c>
+      <c r="G275" t="s">
+        <v>127</v>
+      </c>
       <c r="H275" s="8"/>
       <c r="I275">
         <f t="shared" si="13"/>
@@ -21381,15 +23042,35 @@
       </c>
       <c r="L275">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="M275" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B276" s="7"/>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C276" t="s">
+        <v>149</v>
+      </c>
+      <c r="D276">
+        <v>9</v>
+      </c>
+      <c r="E276">
+        <v>1.2</v>
+      </c>
+      <c r="F276" t="s">
+        <v>18</v>
+      </c>
+      <c r="G276" t="s">
+        <v>127</v>
+      </c>
       <c r="H276" s="8"/>
       <c r="I276">
         <f t="shared" si="13"/>
@@ -21405,15 +23086,35 @@
       </c>
       <c r="L276">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="M276" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B277" s="7"/>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C277" t="s">
+        <v>149</v>
+      </c>
+      <c r="D277">
+        <v>48</v>
+      </c>
+      <c r="E277">
+        <v>1.2</v>
+      </c>
+      <c r="F277" t="s">
+        <v>18</v>
+      </c>
+      <c r="G277" t="s">
+        <v>127</v>
+      </c>
       <c r="H277" s="8"/>
       <c r="I277">
         <f t="shared" si="13"/>
@@ -21429,15 +23130,35 @@
       </c>
       <c r="L277">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="M277" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B278" s="7"/>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>214</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C278" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278" t="s">
+        <v>34</v>
+      </c>
       <c r="H278" s="8"/>
       <c r="I278">
         <f t="shared" si="13"/>
@@ -21460,12 +23181,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B279" s="7"/>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A279" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C279" t="s">
+        <v>149</v>
+      </c>
+      <c r="D279">
+        <v>4</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279" t="s">
+        <v>18</v>
+      </c>
+      <c r="G279" t="s">
+        <v>15</v>
+      </c>
       <c r="H279" s="8"/>
       <c r="I279">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J279">
         <f t="shared" si="13"/>
@@ -21484,12 +23225,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B280" s="7"/>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>23</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C280" t="s">
+        <v>149</v>
+      </c>
+      <c r="D280">
+        <v>11</v>
+      </c>
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280" t="s">
+        <v>18</v>
+      </c>
+      <c r="G280" t="s">
+        <v>15</v>
+      </c>
       <c r="H280" s="8"/>
       <c r="I280">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J280">
         <f t="shared" si="13"/>
@@ -21508,8 +23269,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B281" s="7"/>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A281" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C281" t="s">
+        <v>149</v>
+      </c>
+      <c r="D281">
+        <v>16</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" t="s">
+        <v>18</v>
+      </c>
+      <c r="G281" t="s">
+        <v>88</v>
+      </c>
       <c r="H281" s="8"/>
       <c r="I281">
         <f t="shared" si="13"/>
@@ -21521,7 +23302,7 @@
       </c>
       <c r="K281">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L281">
         <f t="shared" si="13"/>
@@ -21532,8 +23313,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B282" s="7"/>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A282" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C282" t="s">
+        <v>149</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="s">
+        <v>18</v>
+      </c>
+      <c r="G282" t="s">
+        <v>34</v>
+      </c>
       <c r="H282" s="8"/>
       <c r="I282">
         <f t="shared" si="13"/>
@@ -21541,7 +23342,7 @@
       </c>
       <c r="J282">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K282">
         <f t="shared" si="13"/>
@@ -21556,8 +23357,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B283" s="7"/>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>128</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C283" t="s">
+        <v>149</v>
+      </c>
+      <c r="D283">
+        <f>4+7</f>
+        <v>11</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
+        <v>18</v>
+      </c>
+      <c r="G283" t="s">
+        <v>88</v>
+      </c>
       <c r="H283" s="8"/>
       <c r="I283">
         <f t="shared" ref="I283:M300" si="14">MAX(0, IF($G283=I$2, $D283*$E283, 0))</f>
@@ -21569,7 +23391,7 @@
       </c>
       <c r="K283">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L283">
         <f t="shared" si="14"/>
@@ -21580,12 +23402,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B284" s="7"/>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A284" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C284" t="s">
+        <v>27</v>
+      </c>
+      <c r="D284">
+        <f>3+21</f>
+        <v>24</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>18</v>
+      </c>
+      <c r="G284" t="s">
+        <v>15</v>
+      </c>
       <c r="H284" s="8"/>
       <c r="I284">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J284">
         <f t="shared" si="14"/>
@@ -21604,8 +23447,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B285" s="7"/>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>214</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C285" t="s">
+        <v>149</v>
+      </c>
+      <c r="D285">
+        <f>4+1</f>
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" t="s">
+        <v>18</v>
+      </c>
+      <c r="G285" t="s">
+        <v>34</v>
+      </c>
       <c r="H285" s="8"/>
       <c r="I285">
         <f t="shared" si="14"/>
@@ -21613,7 +23477,7 @@
       </c>
       <c r="J285">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K285">
         <f t="shared" si="14"/>
@@ -21628,9 +23492,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B286" s="7"/>
-      <c r="H286" s="8"/>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>214</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C286" t="s">
+        <v>27</v>
+      </c>
+      <c r="D286">
+        <v>13</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" t="s">
+        <v>18</v>
+      </c>
+      <c r="G286" t="s">
+        <v>88</v>
+      </c>
+      <c r="H286" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="I286">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -21641,7 +23527,7 @@
       </c>
       <c r="K286">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L286">
         <f t="shared" si="14"/>
@@ -21652,8 +23538,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B287" s="7"/>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>128</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C287" t="s">
+        <v>27</v>
+      </c>
+      <c r="D287">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>18</v>
+      </c>
+      <c r="G287" t="s">
+        <v>34</v>
+      </c>
       <c r="H287" s="8"/>
       <c r="I287">
         <f t="shared" si="14"/>
@@ -21661,7 +23568,7 @@
       </c>
       <c r="J287">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K287">
         <f t="shared" si="14"/>
@@ -21676,8 +23583,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B288" s="7"/>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>214</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C288" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
+        <v>18</v>
+      </c>
+      <c r="G288" t="s">
+        <v>88</v>
+      </c>
       <c r="H288" s="8"/>
       <c r="I288">
         <f t="shared" si="14"/>
@@ -21689,7 +23616,7 @@
       </c>
       <c r="K288">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L288">
         <f t="shared" si="14"/>
@@ -21701,7 +23628,28 @@
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B289" s="7"/>
+      <c r="A289" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C289" t="s">
+        <v>149</v>
+      </c>
+      <c r="D289">
+        <f>6+45+17+3+60+26+11+15</f>
+        <v>183</v>
+      </c>
+      <c r="E289">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F289" t="s">
+        <v>24</v>
+      </c>
+      <c r="G289" t="s">
+        <v>127</v>
+      </c>
       <c r="H289" s="8"/>
       <c r="I289">
         <f t="shared" si="14"/>
@@ -21717,7 +23665,7 @@
       </c>
       <c r="L289">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>402.6</v>
       </c>
       <c r="M289" s="8">
         <f t="shared" si="14"/>
@@ -21725,7 +23673,27 @@
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B290" s="7"/>
+      <c r="A290" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C290" t="s">
+        <v>149</v>
+      </c>
+      <c r="D290">
+        <v>14</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290" t="s">
+        <v>34</v>
+      </c>
       <c r="H290" s="8"/>
       <c r="I290">
         <f t="shared" si="14"/>
@@ -21733,7 +23701,7 @@
       </c>
       <c r="J290">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K290">
         <f t="shared" si="14"/>
@@ -21749,7 +23717,27 @@
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B291" s="7"/>
+      <c r="A291" t="s">
+        <v>214</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C291" t="s">
+        <v>27</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" t="s">
+        <v>18</v>
+      </c>
+      <c r="G291" t="s">
+        <v>34</v>
+      </c>
       <c r="H291" s="8"/>
       <c r="I291">
         <f t="shared" si="14"/>
@@ -21757,7 +23745,7 @@
       </c>
       <c r="J291">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K291">
         <f t="shared" si="14"/>
@@ -21773,7 +23761,27 @@
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B292" s="7"/>
+      <c r="A292" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C292" t="s">
+        <v>149</v>
+      </c>
+      <c r="D292">
+        <v>25</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292" t="s">
+        <v>18</v>
+      </c>
+      <c r="G292" t="s">
+        <v>34</v>
+      </c>
       <c r="H292" s="8"/>
       <c r="I292">
         <f t="shared" si="14"/>
@@ -21781,7 +23789,7 @@
       </c>
       <c r="J292">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K292">
         <f t="shared" si="14"/>
@@ -22016,19 +24024,19 @@
       </c>
       <c r="I301" s="10">
         <f>SUM(I$3:INDEX(I:I,$F$1))</f>
-        <v>3905.5</v>
+        <v>4425.8</v>
       </c>
       <c r="J301" s="10">
         <f>SUM(J$3:INDEX(J:J,$F$1))</f>
-        <v>3612.5</v>
+        <v>4046</v>
       </c>
       <c r="K301" s="10">
         <f>SUM(K$3:INDEX(K:K,$F$1))</f>
-        <v>877</v>
+        <v>1403</v>
       </c>
       <c r="L301" s="10">
         <f>SUM(L$3:INDEX(L:L,$F$1))</f>
-        <v>1517</v>
+        <v>3247</v>
       </c>
       <c r="M301" s="10">
         <f>SUM(M$3:INDEX(M:M,$F$1))</f>
@@ -22044,19 +24052,19 @@
       </c>
       <c r="I302" cm="1">
         <f t="array" ref="I302">SUM(_xlfn._xlws.FILTER(I$3:INDEX(I:I,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(I$3:INDEX(I:I,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(I$3:INDEX(I:I,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J302" cm="1">
         <f t="array" ref="J302">SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(J$3:INDEX(J:J,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="K302" cm="1">
         <f t="array" ref="K302">SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(K$3:INDEX(K:K,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L302" cm="1">
         <f t="array" ref="L302">SUM(_xlfn._xlws.FILTER(L$3:INDEX(L:L,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(L$3:INDEX(L:L,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(L$3:INDEX(L:L,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
-        <v>354</v>
+        <v>402.6</v>
       </c>
       <c r="M302" cm="1">
         <f t="array" ref="M302">SUM(_xlfn._xlws.FILTER(M$3:INDEX(M:M,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (ROW(M$3:INDEX(M:M,$F$1)) &gt;= LARGE(IF($G$3:INDEX($G:$G,$F$1)&lt;&gt;"", ROW(M$3:INDEX(M:M,$F$1))), MIN($H$302, COUNTIF($G$3:INDEX($G:$G,$F$1), "&lt;&gt;"))))))</f>
@@ -22072,19 +24080,19 @@
       </c>
       <c r="I303" cm="1">
         <f t="array" ref="I303">IFERROR(SUM(_xlfn._xlws.FILTER(I$3:INDEX(I:I,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (I$3:INDEX(I:I,$F$1) &gt; 0) * (ROW(I$3:INDEX(I:I,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (I$3:INDEX(I:I,$F$1) &gt; 0), ROW(I$3:INDEX(I:I,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", I$3:INDEX(I:I,$F$1), "&gt;0")))))), 0)</f>
-        <v>1193.5</v>
+        <v>381.3</v>
       </c>
       <c r="J303" cm="1">
         <f t="array" ref="J303">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0) * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0), ROW(J$3:INDEX(J:J,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", J$3:INDEX(J:J,$F$1), "&gt;0")))))), 0)</f>
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="K303" cm="1">
         <f t="array" ref="K303">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0) * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0), ROW(K$3:INDEX(K:K,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", K$3:INDEX(K:K,$F$1), "&gt;0")))))), 0)</f>
-        <v>877</v>
+        <v>982</v>
       </c>
       <c r="L303" cm="1">
         <f t="array" ref="L303">IFERROR(SUM(_xlfn._xlws.FILTER(L$3:INDEX(L:L,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (L$3:INDEX(L:L,$F$1) &gt; 0) * (ROW(L$3:INDEX(L:L,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (L$3:INDEX(L:L,$F$1) &gt; 0), ROW(L$3:INDEX(L:L,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", L$3:INDEX(L:L,$F$1), "&gt;0")))))), 0)</f>
-        <v>1123</v>
+        <v>781.6</v>
       </c>
       <c r="M303" cm="1">
         <f t="array" ref="M303">IFERROR(SUM(_xlfn._xlws.FILTER(M$3:INDEX(M:M,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (M$3:INDEX(M:M,$F$1) &gt; 0) * (ROW(M$3:INDEX(M:M,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (M$3:INDEX(M:M,$F$1) &gt; 0), ROW(M$3:INDEX(M:M,$F$1))), MIN($H$303, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", M$3:INDEX(M:M,$F$1), "&gt;0")))))), 0)</f>
@@ -22119,19 +24127,19 @@
       </c>
       <c r="I305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), I$2)</f>
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="J305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), J$2)</f>
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="K305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), K$2)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), L$2)</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M305">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), M$2)</f>
@@ -22144,19 +24152,19 @@
       </c>
       <c r="I306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.459016393442623</v>
+        <v>1.2623655913978495</v>
       </c>
       <c r="J306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.4065420560747663</v>
+        <v>1.3172932330827067</v>
       </c>
       <c r="K306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="L306">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), L$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), L$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.6</v>
+        <v>1.3738095238095245</v>
       </c>
       <c r="M306">
         <f>IF(COUNTIF($G$3:$G$200, M$2) &gt; 0, AVERAGEIF($G$3:$G$200, M$2, $E$3:$E$200), 0)</f>
@@ -22169,19 +24177,19 @@
       </c>
       <c r="I307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>40.83606557377049</v>
+        <v>31.623655913978496</v>
       </c>
       <c r="J307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>20.252336448598133</v>
+        <v>18.93233082706767</v>
       </c>
       <c r="K307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>36.166666666666664</v>
+        <v>32.85</v>
       </c>
       <c r="L307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), L$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), L$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>56.733333333333334</v>
+        <v>49.476190476190474</v>
       </c>
       <c r="M307">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), M$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), M$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
@@ -22194,19 +24202,19 @@
       </c>
       <c r="I308">
         <f>ROUND(I$305*I$306*I$307, 0)</f>
-        <v>3634</v>
+        <v>3713</v>
       </c>
       <c r="J308">
         <f>ROUND(J$305*J$306*J$307, 0)</f>
-        <v>3076</v>
+        <v>3342</v>
       </c>
       <c r="K308">
         <f>ROUND(K$305*K$306*K$307, 0)</f>
-        <v>760</v>
+        <v>986</v>
       </c>
       <c r="L308">
         <f>ROUND(L$305*L$306*L$307, 0)</f>
-        <v>1362</v>
+        <v>2855</v>
       </c>
       <c r="M308">
         <f>ROUND(M$305*M$306*M$307, 0)</f>
@@ -22245,7 +24253,7 @@
       </c>
       <c r="I311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
@@ -22253,11 +24261,11 @@
       </c>
       <c r="K311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M311">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G311)</f>
@@ -22270,19 +24278,19 @@
       </c>
       <c r="I312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="K312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M312">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G312)</f>
@@ -22370,11 +24378,11 @@
       </c>
       <c r="I316">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J316">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K316">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G316)</f>
@@ -22445,19 +24453,19 @@
       </c>
       <c r="I319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M319">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$310, $C$3:INDEX($C:$C,$F$1), $G319)</f>
@@ -22576,19 +24584,19 @@
       </c>
       <c r="I326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="J326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="K326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M326">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G326)</f>
@@ -22626,19 +24634,19 @@
       </c>
       <c r="I328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M328">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G328)</f>
@@ -22651,11 +24659,11 @@
       </c>
       <c r="I329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), K$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
@@ -22663,7 +24671,7 @@
       </c>
       <c r="L329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), L$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M329">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), M$325, $F$3:INDEX($F:$F,$F$1), $G329)</f>
@@ -22773,23 +24781,23 @@
       </c>
       <c r="H336">
         <f>SUM(I301:M301)</f>
-        <v>9912</v>
+        <v>13121.8</v>
       </c>
       <c r="I336" s="16">
         <f>I301/$H336</f>
-        <v>0.3940173527037934</v>
+        <v>0.33728604307335885</v>
       </c>
       <c r="J336" s="16">
         <f>J301/$H336</f>
-        <v>0.36445722356739307</v>
+        <v>0.30834184334466308</v>
       </c>
       <c r="K336" s="16">
         <f>K301/$H336</f>
-        <v>8.8478611783696523E-2</v>
+        <v>0.10692130652806781</v>
       </c>
       <c r="L336" s="16">
         <f>L301/$H336</f>
-        <v>0.15304681194511702</v>
+        <v>0.24745080705391029</v>
       </c>
       <c r="M336" s="16">
         <f>M301/$H336</f>
@@ -22899,10 +24907,41 @@
     <hyperlink ref="A192" r:id="rId96" xr:uid="{67D166D7-D824-4E2C-910D-44E4755A81AD}"/>
     <hyperlink ref="A194" r:id="rId97" xr:uid="{79F01217-F3D1-407C-86D2-D6E2EEF493EF}"/>
     <hyperlink ref="A199" r:id="rId98" xr:uid="{F0EC7336-5842-4466-922C-66BB6E95B641}"/>
+    <hyperlink ref="A201" r:id="rId99" xr:uid="{7C575C04-CEE2-4025-B94B-91E2D2DF05EC}"/>
+    <hyperlink ref="A210" r:id="rId100" xr:uid="{5F295F5B-91B0-4CB9-B83A-C14368F9E4C1}"/>
+    <hyperlink ref="A211" r:id="rId101" xr:uid="{315C4C1C-EEEC-4A65-B0E8-1AB611236385}"/>
+    <hyperlink ref="A213" r:id="rId102" xr:uid="{E7D9A54A-E4E4-41C3-946B-DA3BF942C4A9}"/>
+    <hyperlink ref="A215" r:id="rId103" xr:uid="{74ADCB83-F345-4999-97B5-BFFD9D656E7F}"/>
+    <hyperlink ref="A218" r:id="rId104" xr:uid="{480D401D-9C03-486A-92EB-0394F63D5878}"/>
+    <hyperlink ref="A223" r:id="rId105" location="diff-efd02b81027071022710b219ff6ef91345ddffad63c2676235d027fbf5c83cfd" xr:uid="{8A40D502-1294-4697-83B4-85FF1FA61564}"/>
+    <hyperlink ref="A226" r:id="rId106" xr:uid="{7844684F-463A-4D6D-9AD2-944771F3614F}"/>
+    <hyperlink ref="A228" r:id="rId107" xr:uid="{9F91B35C-174F-42EF-A71D-148A9EB6C62A}"/>
+    <hyperlink ref="A232" r:id="rId108" xr:uid="{2933D98D-634D-4E9B-A455-F420DC4C63CE}"/>
+    <hyperlink ref="A241" r:id="rId109" xr:uid="{41D37ED4-EFC9-47AA-B6BC-BE5518CD35C1}"/>
+    <hyperlink ref="A243" r:id="rId110" xr:uid="{CE5C927D-4A14-45F0-B7E5-640873214A8F}"/>
+    <hyperlink ref="A245" r:id="rId111" xr:uid="{F8459E81-F18D-4F4A-BAB1-F1D96D681635}"/>
+    <hyperlink ref="A246" r:id="rId112" location="diff-2e5ad92c43aa96cc3a9cef6c6aec998b216f1379c43b1f651013d25e55989312" xr:uid="{336C5C1A-D54D-437C-8492-DABE0BA02F7F}"/>
+    <hyperlink ref="A248" r:id="rId113" xr:uid="{D894EF4E-A61F-4B2D-8351-B35762DAA969}"/>
+    <hyperlink ref="A249" r:id="rId114" xr:uid="{5334A658-ED14-4F06-B62D-68A8C93D8438}"/>
+    <hyperlink ref="A250" r:id="rId115" display="Fixed input path and started implementing StrToPainter" xr:uid="{DA8CD2DF-0C70-4165-A030-2E035A019E96}"/>
+    <hyperlink ref="A252" r:id="rId116" xr:uid="{7D3D6672-40A9-4DCF-BF98-85C22A4CC83E}"/>
+    <hyperlink ref="A254" r:id="rId117" xr:uid="{EBDCC272-E071-4C6E-87DB-24116501AD7B}"/>
+    <hyperlink ref="A257" r:id="rId118" xr:uid="{0A39A342-9C9A-4A1B-86BF-E6A8188C8C28}"/>
+    <hyperlink ref="A259" r:id="rId119" xr:uid="{6D1A966A-B6D7-462A-AF61-5A2490C89C42}"/>
+    <hyperlink ref="A264" r:id="rId120" xr:uid="{E9D0E4F9-E349-406D-A175-60764D0E1F3F}"/>
+    <hyperlink ref="A266" r:id="rId121" display="updated dfa..." xr:uid="{8632CAA2-5542-4CFB-B873-7DC067195BCD}"/>
+    <hyperlink ref="A270" r:id="rId122" xr:uid="{772C3E87-3FF6-4CD0-8DA1-5A76D5F90C04}"/>
+    <hyperlink ref="A279" r:id="rId123" xr:uid="{7F88B126-E3A4-4BAD-8143-0E73662F66DC}"/>
+    <hyperlink ref="A281" r:id="rId124" xr:uid="{5FFF5FF4-2131-4C61-9F86-353525F8D0C3}"/>
+    <hyperlink ref="A282" r:id="rId125" xr:uid="{FEBCBD4A-7904-423E-8481-D5D1C16DB513}"/>
+    <hyperlink ref="A284" r:id="rId126" xr:uid="{69DA6BA3-50BB-44C4-9A8A-E585E7B963EA}"/>
+    <hyperlink ref="A289" r:id="rId127" xr:uid="{AE8FEC03-2B0C-4ECC-ABF6-03BF11B6AB4D}"/>
+    <hyperlink ref="A290" r:id="rId128" xr:uid="{19F2E670-E885-4C94-A06B-AB65B92D077A}"/>
+    <hyperlink ref="A292" r:id="rId129" xr:uid="{CFFFB18B-7E2D-43E6-876F-0398C56B712E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId99"/>
-  <drawing r:id="rId100"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId130"/>
+  <drawing r:id="rId131"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011938C6-2A18-476C-923C-6BDE98CF1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDAF35A-E97C-422E-99AB-7AD5EC5189DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="324">
   <si>
     <t>Datei</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>Perfected zooming and ...</t>
+  </si>
+  <si>
+    <t>Cleaned up _grids.py a...</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2059,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
@@ -2988,7 +2991,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -3711,7 +3714,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>146</c:v>
@@ -3788,7 +3791,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2611111111111111</c:v>
+                  <c:v>1.2495412844036695</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.348965517241379</c:v>
@@ -3865,7 +3868,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.574074074074073</c:v>
+                  <c:v>28.311926605504588</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19.627586206896552</c:v>
@@ -4556,7 +4559,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3892</c:v>
+                  <c:v>3856</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3866</c:v>
@@ -10899,8 +10902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I501" sqref="I501"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24289,7 +24292,7 @@
       </c>
       <c r="H302" s="8"/>
       <c r="I302">
-        <f t="shared" ref="I302:M365" si="16">MAX(0, IF($G302=I$2, $D302*$E302, 0))</f>
+        <f t="shared" ref="I302:M352" si="16">MAX(0, IF($G302=I$2, $D302*$E302, 0))</f>
         <v>8</v>
       </c>
       <c r="J302">
@@ -25377,7 +25380,27 @@
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B327" s="7"/>
+      <c r="A327" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C327" t="s">
+        <v>173</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327" t="s">
+        <v>24</v>
+      </c>
+      <c r="G327" t="s">
+        <v>15</v>
+      </c>
       <c r="H327" s="8"/>
       <c r="I327">
         <f t="shared" si="16"/>
@@ -26004,7 +26027,7 @@
       <c r="B353" s="7"/>
       <c r="H353" s="8"/>
       <c r="I353">
-        <f t="shared" ref="I353:M416" si="17">MAX(0, IF($G353=I$2, $D353*$E353, 0))</f>
+        <f t="shared" ref="I353:M403" si="17">MAX(0, IF($G353=I$2, $D353*$E353, 0))</f>
         <v>0</v>
       </c>
       <c r="J353">
@@ -27228,7 +27251,7 @@
       <c r="B404" s="7"/>
       <c r="H404" s="8"/>
       <c r="I404">
-        <f t="shared" ref="I404:M467" si="18">MAX(0, IF($G404=I$2, $D404*$E404, 0))</f>
+        <f t="shared" ref="I404:M454" si="18">MAX(0, IF($G404=I$2, $D404*$E404, 0))</f>
         <v>0</v>
       </c>
       <c r="J404">
@@ -29660,7 +29683,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J504" t="str">
-        <f t="shared" ref="J304:M504" si="20">J$2</f>
+        <f t="shared" ref="J504:M504" si="20">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K504" t="str">
@@ -29682,7 +29705,7 @@
       </c>
       <c r="I505">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), I$2)</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J505">
         <f>COUNTIF($G$3:INDEX($G:$G,$F$1), J$2)</f>
@@ -29707,7 +29730,7 @@
       </c>
       <c r="I506">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.2611111111111111</v>
+        <v>1.2495412844036695</v>
       </c>
       <c r="J506">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
@@ -29732,7 +29755,7 @@
       </c>
       <c r="I507">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), I$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), I$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
-        <v>28.574074074074073</v>
+        <v>28.311926605504588</v>
       </c>
       <c r="J507">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $D$3:INDEX($D:$D,$F$1)), 0)</f>
@@ -29757,7 +29780,7 @@
       </c>
       <c r="I508">
         <f>ROUND(I$505*I$506*I$507, 0)</f>
-        <v>3892</v>
+        <v>3856</v>
       </c>
       <c r="J508">
         <f>ROUND(J$505*J$506*J$507, 0)</f>
@@ -29785,7 +29808,7 @@
         <v>adalfarus</v>
       </c>
       <c r="J510" t="str">
-        <f t="shared" ref="J310:M510" si="21">J$2</f>
+        <f t="shared" ref="J510:M510" si="21">J$2</f>
         <v>Giesbrt</v>
       </c>
       <c r="K510" t="str">
@@ -29933,7 +29956,7 @@
       </c>
       <c r="I516">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$510, $C$3:INDEX($C:$C,$F$1), $G516)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J516">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$510, $C$3:INDEX($C:$C,$F$1), $G516)</f>
@@ -30112,7 +30135,7 @@
         <v>169</v>
       </c>
       <c r="I525" t="str">
-        <f t="shared" ref="I325:M525" si="22">I$2</f>
+        <f t="shared" ref="I525:M525" si="22">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J525" t="str">
@@ -30214,7 +30237,7 @@
       </c>
       <c r="I529">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), I$525, $F$3:INDEX($F:$F,$F$1), $G529)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J529">
         <f>COUNTIFS($G$3:INDEX($G:$G,$F$1), J$525, $F$3:INDEX($F:$F,$F$1), $G529)</f>
@@ -30310,7 +30333,7 @@
     </row>
     <row r="535" spans="7:13" x14ac:dyDescent="0.25">
       <c r="I535" t="str">
-        <f t="shared" ref="I335:M535" si="23">I$2</f>
+        <f t="shared" ref="I535:M535" si="23">I$2</f>
         <v>adalfarus</v>
       </c>
       <c r="J535" t="str">
@@ -30510,10 +30533,11 @@
     <hyperlink ref="A323" r:id="rId144" xr:uid="{9995317C-A983-44BD-91A4-A9D1CAF17AD0}"/>
     <hyperlink ref="A324" r:id="rId145" xr:uid="{69E6B5BE-C75F-4DCF-9F04-DE748577573F}"/>
     <hyperlink ref="A326" r:id="rId146" xr:uid="{767A3ED2-94F0-472F-BAC7-6AD204629CC8}"/>
+    <hyperlink ref="A327" r:id="rId147" xr:uid="{89D0DE87-BFB9-4160-8911-7E9A1AE7C1D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId147"/>
-  <drawing r:id="rId148"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId148"/>
+  <drawing r:id="rId149"/>
 </worksheet>
 </file>
 

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDAF35A-E97C-422E-99AB-7AD5EC5189DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B307D74-25F2-42D3-8C64-E0884262E00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -1277,7 +1277,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1303,7 +1303,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1313,9 +1312,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1333,7 +1332,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1809,7 +1808,7 @@
                   <c:v>4695.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4671.8</c:v>
+                  <c:v>4702.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1403</c:v>
@@ -1896,7 +1895,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2784,7 +2783,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3587,7 +3586,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3794,7 +3793,7 @@
                   <c:v>1.2495412844036695</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.348965517241379</c:v>
+                  <c:v>1.3524137931034481</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.5</c:v>
@@ -4110,7 +4109,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4562,7 +4561,7 @@
                   <c:v>3856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3866</c:v>
+                  <c:v>3876</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>986</c:v>
@@ -4649,7 +4648,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5058,7 +5057,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5338,7 +5337,7 @@
                   <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>676.8</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>982</c:v>
@@ -5467,7 +5466,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5727,16 +5726,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32244508380770576</c:v>
+                  <c:v>0.32177118736980592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3207970830386388</c:v>
+                  <c:v>0.32221658809341086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6339378291709882E-2</c:v>
+                  <c:v>9.6138033110404572E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26041845486194565</c:v>
+                  <c:v>0.25987419142637869</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -10580,9 +10579,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10620,9 +10619,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10655,26 +10654,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10707,26 +10689,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10900,13 +10865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N536"/>
+  <dimension ref="A1:M536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H327" sqref="H327"/>
+    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K503" sqref="K503"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -10922,12 +10887,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" t="s">
         <v>253</v>
       </c>
@@ -19181,7 +19146,7 @@
         <v>91</v>
       </c>
       <c r="E187">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="F187" t="s">
         <v>19</v>
@@ -19196,7 +19161,7 @@
       </c>
       <c r="J187">
         <f t="shared" si="9"/>
-        <v>227.5</v>
+        <v>254.79999999999998</v>
       </c>
       <c r="K187">
         <f t="shared" si="9"/>
@@ -19743,7 +19708,7 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="18" t="s">
+      <c r="A200" s="17" t="s">
         <v>214</v>
       </c>
       <c r="B200" s="7" t="s">
@@ -23690,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>300</v>
       </c>
@@ -23735,7 +23700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>301</v>
       </c>
@@ -23779,7 +23744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>214</v>
       </c>
@@ -23823,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>199</v>
       </c>
@@ -23867,7 +23832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>128</v>
       </c>
@@ -23912,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>303</v>
       </c>
@@ -23957,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>304</v>
       </c>
@@ -24000,9 +23965,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N295" s="17"/>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
         <v>306</v>
       </c>
@@ -24046,7 +24010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
         <v>307</v>
       </c>
@@ -24091,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>128</v>
       </c>
@@ -24135,7 +24099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>128</v>
       </c>
@@ -24180,7 +24144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>214</v>
       </c>
@@ -24224,7 +24188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
         <v>308</v>
       </c>
@@ -24268,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>214</v>
       </c>
@@ -24312,7 +24276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>214</v>
       </c>
@@ -24358,7 +24322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
         <v>310</v>
       </c>
@@ -24773,7 +24737,7 @@
         <v>16</v>
       </c>
       <c r="E313">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F313" t="s">
         <v>18</v>
@@ -24788,7 +24752,7 @@
       </c>
       <c r="J313">
         <f t="shared" si="16"/>
-        <v>32</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K313">
         <f t="shared" si="16"/>
@@ -29606,7 +29570,7 @@
       </c>
       <c r="J501" s="10">
         <f>SUM(J$3:INDEX(J:J,$F$1))</f>
-        <v>4671.8</v>
+        <v>4702.3</v>
       </c>
       <c r="K501" s="10">
         <f>SUM(K$3:INDEX(K:K,$F$1))</f>
@@ -29662,7 +29626,7 @@
       </c>
       <c r="J503" cm="1">
         <f t="array" ref="J503">IFERROR(SUM(_xlfn._xlws.FILTER(J$3:INDEX(J:J,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0) * (ROW(J$3:INDEX(J:J,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (J$3:INDEX(J:J,$F$1) &gt; 0), ROW(J$3:INDEX(J:J,$F$1))), MIN($H$503, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", J$3:INDEX(J:J,$F$1), "&gt;0")))))), 0)</f>
-        <v>676.8</v>
+        <v>680</v>
       </c>
       <c r="K503" cm="1">
         <f t="array" ref="K503">IFERROR(SUM(_xlfn._xlws.FILTER(K$3:INDEX(K:K,$F$1), ($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0) * (ROW(K$3:INDEX(K:K,$F$1)) &gt;= LARGE(IF(($G$3:INDEX($G:$G,$F$1)&lt;&gt;"") * (K$3:INDEX(K:K,$F$1) &gt; 0), ROW(K$3:INDEX(K:K,$F$1))), MIN($H$503, COUNTIFS($G$3:INDEX($G:$G,$F$1), "&lt;&gt;", K$3:INDEX(K:K,$F$1), "&gt;0")))))), 0)</f>
@@ -29734,7 +29698,7 @@
       </c>
       <c r="J506">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), J$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), J$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
-        <v>1.348965517241379</v>
+        <v>1.3524137931034481</v>
       </c>
       <c r="K506">
         <f>IF(COUNTIF($G$3:INDEX($G:$G,$F$1), K$2) &gt; 0, AVERAGEIF($G$3:INDEX($G:$G,$F$1), K$2, $E$3:INDEX($E:$E,$F$1)), 0)</f>
@@ -29784,7 +29748,7 @@
       </c>
       <c r="J508">
         <f>ROUND(J$505*J$506*J$507, 0)</f>
-        <v>3866</v>
+        <v>3876</v>
       </c>
       <c r="K508">
         <f>ROUND(K$505*K$506*K$507, 0)</f>
@@ -30359,23 +30323,23 @@
       </c>
       <c r="H536">
         <f>SUM(I501:M501)</f>
-        <v>14563.099999999999</v>
+        <v>14593.599999999999</v>
       </c>
       <c r="I536" s="16">
         <f>I501/$H536</f>
-        <v>0.32244508380770576</v>
+        <v>0.32177118736980592</v>
       </c>
       <c r="J536" s="16">
         <f>J501/$H536</f>
-        <v>0.3207970830386388</v>
+        <v>0.32221658809341086</v>
       </c>
       <c r="K536" s="16">
         <f>K501/$H536</f>
-        <v>9.6339378291709882E-2</v>
+        <v>9.6138033110404572E-2</v>
       </c>
       <c r="L536" s="16">
         <f>L501/$H536</f>
-        <v>0.26041845486194565</v>
+        <v>0.25987419142637869</v>
       </c>
       <c r="M536" s="16">
         <f>M501/$H536</f>
@@ -30549,7 +30513,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/meta/dudpy-planning/CommitTable.xlsx
+++ b/meta/dudpy-planning/CommitTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B307D74-25F2-42D3-8C64-E0884262E00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6073AF8-16C1-482F-B6BE-44A499B79A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tätigkeitsdokumentation" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="341">
   <si>
     <t>Datei</t>
   </si>
@@ -1063,6 +1063,57 @@
   </si>
   <si>
     <t>Cleaned up _grids.py a...</t>
+  </si>
+  <si>
+    <t>Updated release version ...</t>
+  </si>
+  <si>
+    <t>reworked BaseStruct.d...</t>
+  </si>
+  <si>
+    <t>meta\BaseStruct.drawio</t>
+  </si>
+  <si>
+    <t>First implementation ...</t>
+  </si>
+  <si>
+    <t>pyside.py</t>
+  </si>
+  <si>
+    <t>Improved pyside.py ...</t>
+  </si>
+  <si>
+    <t>New Styles</t>
+  </si>
+  <si>
+    <t>Implemented set_settings</t>
+  </si>
+  <si>
+    <t>New Settings Button</t>
+  </si>
+  <si>
+    <t>Update extension...</t>
+  </si>
+  <si>
+    <t>undo changes extens...</t>
+  </si>
+  <si>
+    <t>Fixed app not starting</t>
+  </si>
+  <si>
+    <t>Changes to serializer</t>
+  </si>
+  <si>
+    <t>added upload method</t>
+  </si>
+  <si>
+    <t>updated logic</t>
+  </si>
+  <si>
+    <t>Implemented abstract method</t>
+  </si>
+  <si>
+    <t>GUI changes to menu ...</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1363,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1332,7 +1383,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1805,19 +1856,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4695.7999999999993</c:v>
+                  <c:v>4890.7999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4702.3</c:v>
+                  <c:v>5281.9000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1403</c:v>
+                  <c:v>1552.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3792.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +1946,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2043,10 +2094,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -2067,7 +2118,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2162,10 +2213,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2186,7 +2237,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -2296,7 +2347,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2305,7 +2356,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2519,7 +2570,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2543,7 +2594,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2783,7 +2834,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2981,7 +3032,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
@@ -3070,13 +3121,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -3159,7 +3210,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3337,7 +3388,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3586,7 +3637,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3713,19 +3764,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,13 +3841,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2495412844036695</c:v>
+                  <c:v>1.2427350427350425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3524137931034481</c:v>
+                  <c:v>1.399354838709677</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.555102040816327</c:v>
@@ -3867,19 +3918,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.311926605504588</c:v>
+                  <c:v>27.743589743589745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.627586206896552</c:v>
+                  <c:v>20.677419354838708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.85</c:v>
+                  <c:v>28.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>46.673469387755105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4109,7 +4160,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4558,13 +4609,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3856</c:v>
+                  <c:v>4034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3876</c:v>
+                  <c:v>4514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>986</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3557</c:v>
@@ -4648,7 +4699,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4925,16 +4976,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>127.2</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -5057,7 +5108,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5334,19 +5385,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>316</c:v>
+                  <c:v>430.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>680</c:v>
+                  <c:v>808.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>982</c:v>
+                  <c:v>794.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1196.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,7 +5517,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5726,19 +5777,19 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32177118736980592</c:v>
+                  <c:v>0.31156950558376273</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32221658809341086</c:v>
+                  <c:v>0.33648461837386051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6138033110404572E-2</c:v>
+                  <c:v>9.8876876915138259E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25987419142637869</c:v>
+                  <c:v>0.24160205895281353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.14669401744249E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10579,9 +10630,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10619,9 +10670,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10654,9 +10705,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10689,9 +10757,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10867,11 +10952,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K503" sqref="K503"/>
+    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
@@ -25388,11 +25473,31 @@
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B328" s="7"/>
+      <c r="A328" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C328" t="s">
+        <v>149</v>
+      </c>
+      <c r="D328">
+        <v>15</v>
+      </c>
+      <c r="E328">
+        <v>3</v>
+      </c>
+      <c r="F328" t="s">
+        <v>18</v>
+      </c>
+      <c r="G328" t="s">
+        <v>15</v>
+      </c>
       <c r="H328" s="8"/>
       <c r="I328">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J328">
         <f t="shared" si="16"/>
@@ -25412,7 +25517,27 @@
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B329" s="7"/>
+      <c r="A329" t="s">
+        <v>214</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C329" t="s">
+        <v>27</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329" t="s">
+        <v>18</v>
+      </c>
+      <c r="G329" t="s">
+        <v>15</v>
+      </c>
       <c r="H329" s="8"/>
       <c r="I329">
         <f t="shared" si="16"/>
@@ -25436,7 +25561,27 @@
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B330" s="7"/>
+      <c r="A330" t="s">
+        <v>128</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C330" t="s">
+        <v>27</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330" t="s">
+        <v>18</v>
+      </c>
+      <c r="G330" t="s">
+        <v>34</v>
+      </c>
       <c r="H330" s="8"/>
       <c r="I330">
         <f t="shared" si="16"/>
@@ -25444,7 +25589,7 @@
       </c>
       <c r="J330">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K330">
         <f t="shared" si="16"/>
@@ -25460,7 +25605,27 @@
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B331" s="7"/>
+      <c r="A331" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331">
+        <v>80</v>
+      </c>
+      <c r="E331">
+        <v>0.6</v>
+      </c>
+      <c r="F331" t="s">
+        <v>18</v>
+      </c>
+      <c r="G331" t="s">
+        <v>34</v>
+      </c>
       <c r="H331" s="8"/>
       <c r="I331">
         <f t="shared" si="16"/>
@@ -25468,7 +25633,7 @@
       </c>
       <c r="J331">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K331">
         <f t="shared" si="16"/>
@@ -25484,7 +25649,28 @@
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B332" s="7"/>
+      <c r="A332" t="s">
+        <v>128</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C332" t="s">
+        <v>149</v>
+      </c>
+      <c r="D332">
+        <f>2+31</f>
+        <v>33</v>
+      </c>
+      <c r="E332">
+        <v>1.2</v>
+      </c>
+      <c r="F332" t="s">
+        <v>19</v>
+      </c>
+      <c r="G332" t="s">
+        <v>34</v>
+      </c>
       <c r="H332" s="8"/>
       <c r="I332">
         <f t="shared" si="16"/>
@@ -25492,7 +25678,7 @@
       </c>
       <c r="J332">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="K332">
         <f t="shared" si="16"/>
@@ -25508,7 +25694,27 @@
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B333" s="7"/>
+      <c r="A333" t="s">
+        <v>128</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C333" t="s">
+        <v>27</v>
+      </c>
+      <c r="D333">
+        <v>4</v>
+      </c>
+      <c r="E333">
+        <v>3</v>
+      </c>
+      <c r="F333" t="s">
+        <v>18</v>
+      </c>
+      <c r="G333" t="s">
+        <v>34</v>
+      </c>
       <c r="H333" s="8"/>
       <c r="I333">
         <f t="shared" si="16"/>
@@ -25516,7 +25722,7 @@
       </c>
       <c r="J333">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K333">
         <f t="shared" si="16"/>
@@ -25532,11 +25738,32 @@
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B334" s="7"/>
+      <c r="A334" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334">
+        <f>98-34</f>
+        <v>64</v>
+      </c>
+      <c r="E334">
+        <v>1.2</v>
+      </c>
+      <c r="F334" t="s">
+        <v>18</v>
+      </c>
+      <c r="G334" t="s">
+        <v>15</v>
+      </c>
       <c r="H334" s="8"/>
       <c r="I334">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>76.8</v>
       </c>
       <c r="J334">
         <f t="shared" si="16"/>
@@ -25556,11 +25783,31 @@
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B335" s="7"/>
+      <c r="A335" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C335" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335" t="s">
+        <v>18</v>
+      </c>
+      <c r="G335" t="s">
+        <v>15</v>
+      </c>
       <c r="H335" s="8"/>
       <c r="I335">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335">
         <f t="shared" si="16"/>
@@ -25580,7 +25827,28 @@
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B336" s="7"/>
+      <c r="A336" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336">
+        <f>14+14+14+14</f>
+        <v>56</v>
+      </c>
+      <c r="E336">
+        <v>3</v>
+      </c>
+      <c r="F336" t="s">
+        <v>18</v>
+      </c>
+      <c r="G336" t="s">
+        <v>234</v>
+      </c>
       <c r="H336" s="8"/>
       <c r="I336">
         <f t="shared" si="16"/>
@@ -25600,11 +25868,31 @@
       </c>
       <c r="M336" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B337" s="7"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C337" t="s">
+        <v>149</v>
+      </c>
+      <c r="D337">
+        <v>17</v>
+      </c>
+      <c r="E337">
+        <v>1.3</v>
+      </c>
+      <c r="F337" t="s">
+        <v>18</v>
+      </c>
+      <c r="G337" t="s">
+        <v>88</v>
+      </c>
       <c r="H337" s="8"/>
       <c r="I337">
         <f t="shared" si="16"/>
@@ -25616,7 +25904,7 @@
       </c>
       <c r="K337">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="L337">
         <f t="shared" si="16"/>
@@ -25627,8 +25915,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B338" s="7"/>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C338" t="s">
+        <v>149</v>
+      </c>
+      <c r="D338">
+        <v>4</v>
+      </c>
+      <c r="E338">
+        <v>3</v>
+      </c>
+      <c r="F338" t="s">
+        <v>18</v>
+      </c>
+      <c r="G338" t="s">
+        <v>234</v>
+      </c>
       <c r="H338" s="8"/>
       <c r="I338">
         <f t="shared" si="16"/>
@@ -25648,11 +25956,31 @@
       </c>
       <c r="M338" s="8">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B339" s="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C339" t="s">
+        <v>149</v>
+      </c>
+      <c r="D339">
+        <v>29</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339" t="s">
+        <v>18</v>
+      </c>
+      <c r="G339" t="s">
+        <v>88</v>
+      </c>
       <c r="H339" s="8"/>
       <c r="I339">
         <f t="shared" si="16"/>
@@ -25664,7 +25992,7 @@
       </c>
       <c r="K339">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L339">
         <f t="shared" si="16"/>
@@ -25675,8 +26003,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B340" s="7"/>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C340" t="s">
+        <v>149</v>
+      </c>
+      <c r="D340">
+        <v>46</v>
+      </c>
+      <c r="E340">
+        <v>2</v>
+      </c>
+      <c r="F340" t="s">
+        <v>18</v>
+      </c>
+      <c r="G340" t="s">
+        <v>88</v>
+      </c>
       <c r="H340" s="8"/>
       <c r="I340">
         <f t="shared" si="16"/>
@@ -25688,7 +26036,7 @@
       </c>
       <c r="K340">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L340">
         <f t="shared" si="16"/>
@@ -25699,8 +26047,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B341" s="7"/>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>128</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C341" t="s">
+        <v>149</v>
+      </c>
+      <c r="D341">
+        <v>6</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341" t="s">
+        <v>18</v>
+      </c>
+      <c r="G341" t="s">
+        <v>88</v>
+      </c>
       <c r="H341" s="8"/>
       <c r="I341">
         <f t="shared" si="16"/>
@@ -25712,7 +26080,7 @@
       </c>
       <c r="K341">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L341">
         <f t="shared" si="16"/>
@@ -25723,8 +26091,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B342" s="7"/>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C342" t="s">
+        <v>173</v>
+      </c>
+      <c r="D342">
+        <v>-46</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342" t="s">
+        <v>18</v>
+      </c>
+      <c r="G342" t="s">
+        <v>88</v>
+      </c>
       <c r="H342" s="8"/>
       <c r="I342">
         <f t="shared" si="16"/>
@@ -25747,12 +26135,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B343" s="7"/>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A343" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C343" t="s">
+        <v>149</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343" t="s">
+        <v>18</v>
+      </c>
+      <c r=